--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\2 Year\TT_6JAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\2 Year\TT_6JAN\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63697454-A5D1-4C6C-8FC5-46562F6544F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D47B7-A643-4898-88BF-3E179DC0AD7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>amit.mishra</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="579">
   <si>
     <t>B.Tech IV SEMESTER-EVEN SEM 2026</t>
   </si>
@@ -175,9 +175,6 @@
     <t>LB9,B10(25B11EC311)-G3/VGO</t>
   </si>
   <si>
-    <t>LA(15B11EC313)-FF7/MN</t>
-  </si>
-  <si>
     <t>LB7,B8 (CS221)-G3/KJ</t>
   </si>
   <si>
@@ -712,9 +709,6 @@
     <t>PA17(24B35EC212)-MODLAB/JG,TA12</t>
   </si>
   <si>
-    <t>PA16(25B25EC212)-ADE/SIM,BVI</t>
-  </si>
-  <si>
     <t>PA5(18B15EC212)-ADC/RB,SMK</t>
   </si>
   <si>
@@ -766,9 +760,6 @@
     <t>PA2(15B17EC473)-SPL/ABU,TA14</t>
   </si>
   <si>
-    <t>PA7(15B17EC473)-SPL/MJ,TA7</t>
-  </si>
-  <si>
     <t>PA10(15B17EC473)-SPL/MNA</t>
   </si>
   <si>
@@ -793,9 +784,6 @@
     <t>PB5(25B15EC311)-JBSPL/MO,TA12</t>
   </si>
   <si>
-    <t>PB3(25B15EC311)-MODLAB/RIG,TA9</t>
-  </si>
-  <si>
     <t>PB4(25B15EC311)-MODLAB/RIG,TA9</t>
   </si>
   <si>
@@ -892,9 +880,6 @@
     <t>PB1,B2(25B16CS211)-CL21,22,23/BS,PAG,SMS</t>
   </si>
   <si>
-    <t>PB3,B4(CS222)-CL06,07/NIY,DEP,SYN</t>
-  </si>
-  <si>
     <t>PB7,B8(CS222)-CL15,16/AYS,AKM,PU</t>
   </si>
   <si>
@@ -1060,9 +1045,6 @@
     <t>LB14,B16 (CS223)-FF1/PSO</t>
   </si>
   <si>
-    <t>LA15,A16(25B21EC213))-FF1/KUL</t>
-  </si>
-  <si>
     <t>LB5,B6 (CS223)-FF4/MSI</t>
   </si>
   <si>
@@ -1177,9 +1159,6 @@
     <t>LA(20B12EC211)-FF7/MNA</t>
   </si>
   <si>
-    <t>LA(15B11EC313)-FF8/MN</t>
-  </si>
-  <si>
     <t>LABC(24HS211)-FF9/NIS</t>
   </si>
   <si>
@@ -1189,9 +1168,6 @@
     <t>LA7,A8,A10(15B11EC413)-FF9/MJ</t>
   </si>
   <si>
-    <t>LB11,B12(25B11EC311)-FF8/YM</t>
-  </si>
-  <si>
     <t>LG1,G2(25B11MA231)-G6/GA</t>
   </si>
   <si>
@@ -1201,9 +1177,6 @@
     <t>LA7,A8,A10(15B11EC411))-G9/SLM</t>
   </si>
   <si>
-    <t>LA3,A4(18B11EC212)-G8/RB</t>
-  </si>
-  <si>
     <t>LA1,A2(15B11EC413)-FF3/VK</t>
   </si>
   <si>
@@ -1213,9 +1186,6 @@
     <t>LA17,A18,(15B11EC611))-G6/RRP</t>
   </si>
   <si>
-    <t>LB11,B12(25B11EC311)G7/JYM</t>
-  </si>
-  <si>
     <t>LA3,A4(15B11EC413))-FF6/JOY</t>
   </si>
   <si>
@@ -1381,9 +1351,6 @@
     <t>TB7 (CS221) –TS16 /DL</t>
   </si>
   <si>
-    <t>TB8 (CS221) – TS17/KJ</t>
-  </si>
-  <si>
     <t>TC1(BT211)-TS16/VGU, SBT</t>
   </si>
   <si>
@@ -1438,9 +1405,6 @@
     <t>8 -8.50 AM</t>
   </si>
   <si>
-    <t>PB14(25B15EC311)-JBSPL/RS,TA15</t>
-  </si>
-  <si>
     <t>TB1 (CS221) – TS7/TAJ</t>
   </si>
   <si>
@@ -1570,18 +1534,12 @@
     <t>LB14,B16 (CS223)-FF9/PSO</t>
   </si>
   <si>
-    <t>LB11,B12(25B11EC311)-F8/YM</t>
-  </si>
-  <si>
     <t>LB1,B2(25B11EC311)-F6/JAS</t>
   </si>
   <si>
     <t>LB11,B12 (CS222)-FF4/SYN</t>
   </si>
   <si>
-    <t>LB1,B2(25B11EC311)-CR302/JAS</t>
-  </si>
-  <si>
     <t>LB11,B12(25B11EC311)-F8/JYM</t>
   </si>
   <si>
@@ -1651,9 +1609,6 @@
     <t>LA3,A4(18B11EC212)-G7/RB</t>
   </si>
   <si>
-    <t>TA2(15B11EC413)-TS12/VK</t>
-  </si>
-  <si>
     <t>PA17(15B17EC473)-MODLAB/MJ,TA3</t>
   </si>
   <si>
@@ -1741,24 +1696,6 @@
     <t>LB(CS213)-G5/HN</t>
   </si>
   <si>
-    <t>PA15A1(24B25EC212)-FABLAB/HN,TA6</t>
-  </si>
-  <si>
-    <t>LA5,A6(15B11EC411))-FF5/HN</t>
-  </si>
-  <si>
-    <t>PA15A2(24B25EC212)-FABLAB/HN,TA6</t>
-  </si>
-  <si>
-    <t>TA6(15B11EC411)-TS17/HN</t>
-  </si>
-  <si>
-    <t>TA5(15B11EC411)-TS16/HN</t>
-  </si>
-  <si>
-    <t>LA5,A6(15B11EC411)-FF6/HN</t>
-  </si>
-  <si>
     <t>PC1(BT471)-Bioinfo/CKJ,RD,APC</t>
   </si>
   <si>
@@ -1825,14 +1762,304 @@
     <t>PG1,G2(CS222)-CL13,14/TRN,AMS,SOS</t>
   </si>
   <si>
-    <t>PB1,B2(CS222)-CL01,02/IMR,NEH,SYN</t>
+    <r>
+      <t>PA7(15B17EC473)-SPL/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MNA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,TA7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PB14(25B15EC311)-JBSPL/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RIG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,TA15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PB3(25B15EC311)-MODLAB/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,TA9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LA1,A2(18B11EC212)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/AGO</t>
+    </r>
+  </si>
+  <si>
+    <t>TA2(15B11EC413)-TS17/VK</t>
+  </si>
+  <si>
+    <t>LB1,B2(25B11EC311)-CR301/JAS</t>
+  </si>
+  <si>
+    <r>
+      <t>LA3,A4(18B11EC212)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CS8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/RB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LA(15B11EC313)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FF3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/MN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LA(15B11EC313)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/MN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LA15,A16(25B21EC213))-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/KUL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PA16(25B25EC212)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/SIM,BVI</t>
+    </r>
+  </si>
+  <si>
+    <t>LA15,A16(25B21EC214))-FF2/NEJ</t>
+  </si>
+  <si>
+    <r>
+      <t>PB3,B4(CS222)-CL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>07,08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/NIY,DEP,SYN</t>
+    </r>
+  </si>
+  <si>
+    <t>PB1,B2(CS222)-CL01,02/NEH,SYN</t>
+  </si>
+  <si>
+    <t>TB8 (CS221) – TR305/KJ</t>
+  </si>
+  <si>
+    <r>
+      <t>LB7,B8 (CS221)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/KJ</t>
+    </r>
+  </si>
+  <si>
+    <t>PA15A3(24B25EC212)-TR424/SHI,TA5</t>
+  </si>
+  <si>
+    <t>PA16A1(24B25EC212)-VDA/SHS,TA16</t>
+  </si>
+  <si>
+    <t>PA16A2(24B25EC212)-VDA/SHS,TA5</t>
+  </si>
+  <si>
+    <t>PA16A3(24B25EC212)-TR502/SHI,TA16</t>
+  </si>
+  <si>
+    <t>LA5,A6(15B11EC411)-FF6/HEM</t>
+  </si>
+  <si>
+    <t>LA5,A6(15B11EC411))-FF5/HEM</t>
+  </si>
+  <si>
+    <t>TA6(15B11EC411)-TS17/HEM</t>
+  </si>
+  <si>
+    <t>TA5(15B11EC411)-TS16/HEM</t>
+  </si>
+  <si>
+    <t>PA15A1(24B25EC212)-FABLAB/HEM,TA6</t>
+  </si>
+  <si>
+    <t>PA15A2(24B25EC212)-VDA/HEM,TA6</t>
+  </si>
+  <si>
+    <t>PA15A1(24B25EC212)-VDA/HEM,TA6</t>
+  </si>
+  <si>
+    <t>PA15A2(24B25EC212)-FABLAB/HEM,TA6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1874,8 +2101,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1976,6 +2209,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2121,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,9 +2538,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2330,6 +2566,110 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2339,60 +2679,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2403,22 +2700,60 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2636,18 +2971,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I147" sqref="I147"/>
+      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" style="1" customWidth="1"/>
@@ -2661,18 +2996,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="90"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="121"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -2691,7 +3026,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -2734,24 +3069,24 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="116" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="78" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I3" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="I3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="70" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="9"/>
@@ -2771,27 +3106,27 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="109" t="s">
-        <v>491</v>
+      <c r="A4" s="111"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="79" t="s">
+        <v>477</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F4" s="101" t="s">
+        <v>512</v>
+      </c>
+      <c r="F4" s="110" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I4" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="I4" s="70" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="K4" s="74"/>
+        <v>489</v>
+      </c>
+      <c r="K4" s="73"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -2808,23 +3143,26 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="71"/>
       <c r="D5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85" t="s">
-        <v>467</v>
-      </c>
-      <c r="I5" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="127" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="71" t="s">
-        <v>505</v>
+      <c r="J5" s="70" t="s">
+        <v>491</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -2843,26 +3181,26 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="2" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>277</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -2881,28 +3219,28 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="I7" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="71"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2920,26 +3258,23 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="86"/>
+        <v>514</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>558</v>
+      </c>
+      <c r="G8" s="128"/>
       <c r="H8" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I8" s="71" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -2958,23 +3293,23 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="72"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>268</v>
+        <v>335</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>263</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" s="86"/>
+        <v>348</v>
+      </c>
+      <c r="G9" s="128"/>
       <c r="H9" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="9"/>
@@ -2994,20 +3329,20 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="71"/>
       <c r="D10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" s="128"/>
+      <c r="H10" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="16"/>
@@ -3028,19 +3363,19 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>270</v>
+        <v>247</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>265</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="71"/>
+        <v>441</v>
+      </c>
+      <c r="G11" s="128"/>
+      <c r="H11" s="70"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -3060,25 +3395,23 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="109" t="s">
-        <v>487</v>
-      </c>
+      <c r="A12" s="111"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G12" s="86"/>
+        <v>444</v>
+      </c>
+      <c r="G12" s="128"/>
       <c r="H12" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="J12" s="71"/>
+        <v>242</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>408</v>
+      </c>
+      <c r="J12" s="70"/>
       <c r="K12" s="9"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3098,25 +3431,25 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="68" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G13" s="86"/>
+        <v>515</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="128"/>
       <c r="H13" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J13" s="71"/>
+        <v>464</v>
+      </c>
+      <c r="J13" s="70"/>
       <c r="K13" s="9"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -3136,25 +3469,25 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="86"/>
+        <v>516</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="128"/>
       <c r="H14" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="I14" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="84"/>
+        <v>465</v>
+      </c>
+      <c r="I14" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="111"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3174,22 +3507,25 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="71"/>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" s="86"/>
-      <c r="I15" s="95" t="s">
-        <v>550</v>
-      </c>
-      <c r="J15" s="84"/>
+        <v>74</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="128"/>
+      <c r="H15" s="90" t="s">
+        <v>570</v>
+      </c>
+      <c r="I15" s="114" t="s">
+        <v>529</v>
+      </c>
+      <c r="J15" s="111"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3209,20 +3545,20 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="86"/>
-      <c r="I16" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="84"/>
+        <v>369</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="128"/>
+      <c r="I16" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="111"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3242,21 +3578,21 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="J17" s="88"/>
+        <v>266</v>
+      </c>
+      <c r="G17" s="128"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="112" t="s">
+        <v>360</v>
+      </c>
+      <c r="J17" s="113"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3276,14 +3612,14 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="86"/>
-      <c r="I18" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="J18" s="88"/>
+      <c r="G18" s="128"/>
+      <c r="I18" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="113"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3303,18 +3639,18 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="4"/>
-      <c r="E19" s="110" t="s">
-        <v>533</v>
-      </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="86"/>
-      <c r="I19" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" s="88"/>
+      <c r="E19" s="100" t="s">
+        <v>518</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="128"/>
+      <c r="I19" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="113"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3334,20 +3670,20 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="76" t="s">
-        <v>339</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="86"/>
-      <c r="I20" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="J20" s="88"/>
+      <c r="D20" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="128"/>
+      <c r="I20" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="113"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3367,20 +3703,20 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="I21" s="88"/>
+        <v>241</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="128"/>
+      <c r="H21" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="113"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3400,19 +3736,19 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="J22" s="88"/>
+        <v>245</v>
+      </c>
+      <c r="F22" s="70"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" s="113"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3432,19 +3768,19 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="J23" s="88"/>
+        <v>251</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" s="113"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3463,14 +3799,14 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="4"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="90"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3489,16 +3825,16 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="72"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="4"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="J25" s="88"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="112" t="s">
+        <v>563</v>
+      </c>
+      <c r="J25" s="113"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3517,16 +3853,16 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="72"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="4"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="87" t="s">
-        <v>571</v>
-      </c>
-      <c r="J26" s="88"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="112" t="s">
+        <v>550</v>
+      </c>
+      <c r="J26" s="113"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3543,15 +3879,15 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="72"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="4"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="I27" s="88"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="I27" s="113"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3568,12 +3904,12 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="72"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="4"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="75"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="74"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3616,30 +3952,27 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
-        <v>30</v>
+      <c r="A30" s="117" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="J30" s="71" t="s">
-        <v>32</v>
+        <v>352</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>31</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -3657,31 +3990,31 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="D31" s="71" t="s">
+      <c r="A31" s="118"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I31" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="F31" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I31" s="71" t="s">
+      <c r="J31" s="70" t="s">
         <v>35</v>
-      </c>
-      <c r="J31" s="71" t="s">
-        <v>36</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -3699,29 +4032,29 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>350</v>
+      <c r="A32" s="118"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>344</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="F32" s="84"/>
+        <v>282</v>
+      </c>
+      <c r="F32" s="111"/>
       <c r="G32" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="70" t="s">
         <v>38</v>
-      </c>
-      <c r="J32" s="71" t="s">
-        <v>39</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -3739,28 +4072,28 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="71" t="s">
+      <c r="A33" s="118"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -3778,31 +4111,31 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>352</v>
+        <v>371</v>
+      </c>
+      <c r="D34" s="98" t="s">
+        <v>346</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>355</v>
+        <v>478</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>349</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="I34" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I34" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
@@ -3822,28 +4155,28 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F35" s="101" t="s">
-        <v>356</v>
+      <c r="F35" s="110" t="s">
+        <v>558</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>300</v>
+        <v>509</v>
+      </c>
+      <c r="I35" s="98" t="s">
+        <v>295</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -3863,22 +4196,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="D36" s="71" t="s">
-        <v>353</v>
+      <c r="A36" s="118"/>
+      <c r="D36" s="70" t="s">
+        <v>347</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="F36" s="84"/>
+        <v>285</v>
+      </c>
+      <c r="F36" s="111"/>
       <c r="G36" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -3898,27 +4231,25 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="C37" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>285</v>
+      <c r="A37" s="118"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="70" t="s">
+        <v>280</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G37" s="85" t="s">
-        <v>467</v>
+        <v>286</v>
+      </c>
+      <c r="G37" s="127" t="s">
+        <v>455</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I37" s="76" t="s">
-        <v>471</v>
+        <v>293</v>
+      </c>
+      <c r="I37" s="94" t="s">
+        <v>459</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -3938,22 +4269,22 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
+      <c r="A38" s="118"/>
       <c r="D38" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>43</v>
+        <v>554</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G38" s="86"/>
+        <v>442</v>
+      </c>
+      <c r="G38" s="128"/>
       <c r="H38" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J38" s="76" t="s">
-        <v>485</v>
+        <v>294</v>
+      </c>
+      <c r="J38" s="94" t="s">
+        <v>473</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
@@ -3973,23 +4304,23 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="D39" s="71"/>
+      <c r="A39" s="118"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="24" t="s">
-        <v>364</v>
+        <v>557</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="G39" s="86"/>
+        <v>445</v>
+      </c>
+      <c r="G39" s="128"/>
       <c r="H39" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I39" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="J39" s="75" t="s">
-        <v>240</v>
+        <v>510</v>
+      </c>
+      <c r="I39" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="J39" s="74" t="s">
+        <v>236</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
@@ -4010,19 +4341,16 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="D40" s="71" t="s">
-        <v>34</v>
-      </c>
+      <c r="A40" s="118"/>
       <c r="E40" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G40" s="86"/>
-      <c r="J40" s="75" t="s">
-        <v>242</v>
+        <v>522</v>
+      </c>
+      <c r="F40" s="91" t="s">
+        <v>528</v>
+      </c>
+      <c r="G40" s="128"/>
+      <c r="J40" s="74" t="s">
+        <v>238</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
@@ -4043,18 +4371,18 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71" t="s">
-        <v>274</v>
-      </c>
-      <c r="G41" s="86"/>
+      <c r="A41" s="118"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="128"/>
       <c r="H41" s="1" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="75" t="s">
-        <v>422</v>
+      <c r="J41" s="74" t="s">
+        <v>412</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4075,16 +4403,16 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
+      <c r="A42" s="118"/>
       <c r="D42" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="F42" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="G42" s="86"/>
+        <v>466</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" s="128"/>
       <c r="H42" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="7"/>
@@ -4107,19 +4435,19 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
+      <c r="A43" s="118"/>
       <c r="D43" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71" t="s">
-        <v>293</v>
-      </c>
-      <c r="G43" s="86"/>
-      <c r="I43" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="J43" s="84"/>
+        <v>244</v>
+      </c>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43" s="128"/>
+      <c r="I43" s="130" t="s">
+        <v>505</v>
+      </c>
+      <c r="J43" s="111"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -4137,22 +4465,25 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="25"/>
+      <c r="C44" s="95" t="s">
+        <v>577</v>
+      </c>
       <c r="E44" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F44" s="71" t="s">
-        <v>294</v>
-      </c>
-      <c r="G44" s="86"/>
+        <v>243</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="G44" s="128"/>
       <c r="H44" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I44" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" s="88"/>
+        <v>372</v>
+      </c>
+      <c r="I44" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="J44" s="113"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4170,24 +4501,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="88"/>
-      <c r="E45" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="86"/>
+      <c r="C45" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="113"/>
+      <c r="F45" s="83" t="s">
+        <v>562</v>
+      </c>
+      <c r="G45" s="128"/>
       <c r="H45" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I45" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="J45" s="88"/>
+        <v>373</v>
+      </c>
+      <c r="I45" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" s="113"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4205,20 +4535,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="25"/>
-      <c r="C46" s="87" t="s">
-        <v>544</v>
-      </c>
-      <c r="D46" s="88"/>
+      <c r="C46" s="108" t="s">
+        <v>575</v>
+      </c>
+      <c r="D46" s="109"/>
       <c r="E46" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G46" s="86"/>
-      <c r="I46" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="J46" s="88"/>
+        <v>252</v>
+      </c>
+      <c r="G46" s="128"/>
+      <c r="I46" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="J46" s="113"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4236,20 +4566,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="88"/>
-      <c r="E47" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="G47" s="86"/>
-      <c r="I47" s="87" t="s">
-        <v>443</v>
-      </c>
-      <c r="J47" s="88"/>
+      <c r="C47" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="113"/>
+      <c r="E47" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" s="128"/>
+      <c r="I47" s="112" t="s">
+        <v>552</v>
+      </c>
+      <c r="J47" s="113"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4267,20 +4597,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="C48" s="87" t="s">
-        <v>535</v>
-      </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="86"/>
-      <c r="I48" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="J48" s="88"/>
+      <c r="A48" s="118"/>
+      <c r="C48" s="112" t="s">
+        <v>520</v>
+      </c>
+      <c r="D48" s="113"/>
+      <c r="E48" s="99" t="s">
+        <v>410</v>
+      </c>
+      <c r="F48" s="70"/>
+      <c r="G48" s="128"/>
+      <c r="I48" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="J48" s="113"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4298,21 +4628,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="87" t="s">
-        <v>572</v>
-      </c>
-      <c r="D49" s="88"/>
-      <c r="E49" s="87" t="s">
-        <v>507</v>
-      </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="86"/>
-      <c r="I49" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="J49" s="88"/>
+      <c r="C49" s="142" t="s">
+        <v>564</v>
+      </c>
+      <c r="D49" s="143"/>
+      <c r="E49" s="112" t="s">
+        <v>493</v>
+      </c>
+      <c r="F49" s="113"/>
+      <c r="G49" s="128"/>
+      <c r="I49" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="J49" s="113"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4330,19 +4660,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
+      <c r="A50" s="118"/>
       <c r="B50" s="25"/>
-      <c r="C50" s="87" t="s">
-        <v>536</v>
-      </c>
-      <c r="D50" s="88"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="86"/>
-      <c r="I50" s="87" t="s">
-        <v>538</v>
-      </c>
-      <c r="J50" s="88"/>
+      <c r="C50" s="112" t="s">
+        <v>521</v>
+      </c>
+      <c r="D50" s="113"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="128"/>
+      <c r="I50" s="112" t="s">
+        <v>523</v>
+      </c>
+      <c r="J50" s="113"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4360,16 +4690,16 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="25"/>
-      <c r="C51" s="87" t="s">
-        <v>569</v>
-      </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="86"/>
-      <c r="I51" s="73"/>
+      <c r="C51" s="112" t="s">
+        <v>548</v>
+      </c>
+      <c r="D51" s="113"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="128"/>
+      <c r="I51" s="72"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -4387,17 +4717,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="C52" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="86"/>
+      <c r="A52" s="119"/>
+      <c r="C52" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="113"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="128"/>
       <c r="H52" s="26"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="92"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="134"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4421,7 +4751,7 @@
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="86"/>
+      <c r="G53" s="128"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
@@ -4442,11 +4772,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
-        <v>42</v>
+      <c r="A54" s="106" t="s">
+        <v>41</v>
       </c>
       <c r="B54" s="28"/>
-      <c r="G54" s="86"/>
+      <c r="G54" s="128"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4464,14 +4794,11 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="72"/>
-      <c r="G55" s="86"/>
-      <c r="I55" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="A55" s="107"/>
+      <c r="B55" s="71"/>
+      <c r="G55" s="128"/>
       <c r="J55" s="23" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -4490,7 +4817,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+      <c r="A56" s="107"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4515,617 +4842,620 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
-      <c r="B57" s="72"/>
+    <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="107"/>
       <c r="C57" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>49</v>
+        <v>375</v>
+      </c>
+      <c r="D57" s="81" t="s">
+        <v>48</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="F57" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="85" t="s">
-        <v>467</v>
+        <v>355</v>
+      </c>
+      <c r="F57" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="127" t="s">
+        <v>455</v>
       </c>
       <c r="H57" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="71" t="s">
-        <v>50</v>
+      <c r="I57" s="81" t="s">
+        <v>49</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-    </row>
-    <row r="58" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
-      <c r="C58" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="D58" s="71" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+    </row>
+    <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="107"/>
+      <c r="C58" s="101" t="s">
+        <v>374</v>
+      </c>
+      <c r="D58" s="81" t="s">
+        <v>51</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="86"/>
-      <c r="H58" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>54</v>
+      <c r="G58" s="128"/>
+      <c r="H58" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="I58" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-    </row>
-    <row r="59" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+        <v>50</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+    </row>
+    <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="107"/>
       <c r="C59" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>301</v>
+        <v>378</v>
+      </c>
+      <c r="D59" s="98" t="s">
+        <v>296</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="F59" s="71" t="s">
-        <v>365</v>
-      </c>
-      <c r="G59" s="86"/>
-      <c r="H59" s="4" t="s">
-        <v>392</v>
+        <v>494</v>
+      </c>
+      <c r="F59" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="G59" s="128"/>
+      <c r="H59" s="23" t="s">
+        <v>382</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
-      <c r="C60" s="23" t="s">
-        <v>389</v>
+        <v>456</v>
+      </c>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
+      <c r="Q59" s="84"/>
+      <c r="R59" s="84"/>
+      <c r="S59" s="84"/>
+      <c r="T59" s="84"/>
+      <c r="U59" s="84"/>
+      <c r="V59" s="84"/>
+      <c r="W59" s="84"/>
+      <c r="X59" s="84"/>
+      <c r="Y59" s="84"/>
+      <c r="Z59" s="85"/>
+      <c r="AA59" s="85"/>
+    </row>
+    <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="107"/>
+      <c r="C60" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D60" s="81" t="s">
+        <v>33</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="128"/>
+      <c r="H60" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="I60" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60" s="98" t="s">
+        <v>566</v>
+      </c>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="84"/>
+      <c r="T60" s="84"/>
+      <c r="U60" s="84"/>
+      <c r="V60" s="84"/>
+      <c r="W60" s="84"/>
+      <c r="X60" s="84"/>
+      <c r="Y60" s="84"/>
+      <c r="Z60" s="85"/>
+      <c r="AA60" s="85"/>
+    </row>
+    <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="107"/>
+      <c r="C61" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D61" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="E61" s="101" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G61" s="128"/>
+      <c r="H61" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="I61" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="J61" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G60" s="86"/>
-      <c r="H60" s="4" t="s">
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="84"/>
+      <c r="R61" s="84"/>
+      <c r="S61" s="84"/>
+      <c r="T61" s="84"/>
+      <c r="U61" s="84"/>
+      <c r="V61" s="84"/>
+      <c r="W61" s="84"/>
+      <c r="X61" s="84"/>
+      <c r="Y61" s="84"/>
+      <c r="Z61" s="85"/>
+      <c r="AA61" s="85"/>
+    </row>
+    <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="107"/>
+      <c r="C62" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="D62" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="93" t="s">
+        <v>572</v>
+      </c>
+      <c r="G62" s="128"/>
+      <c r="H62" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="I62" s="81" t="s">
+        <v>503</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="K62" s="84"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="84"/>
+      <c r="O62" s="84"/>
+      <c r="P62" s="84"/>
+      <c r="Q62" s="84"/>
+      <c r="R62" s="84"/>
+      <c r="S62" s="84"/>
+      <c r="T62" s="84"/>
+      <c r="U62" s="84"/>
+      <c r="V62" s="84"/>
+      <c r="W62" s="84"/>
+      <c r="X62" s="84"/>
+      <c r="Y62" s="84"/>
+      <c r="Z62" s="85"/>
+      <c r="AA62" s="85"/>
+    </row>
+    <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="107"/>
+      <c r="C63" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="128"/>
+      <c r="H63" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="84"/>
+      <c r="R63" s="84"/>
+      <c r="S63" s="84"/>
+      <c r="T63" s="84"/>
+      <c r="U63" s="84"/>
+      <c r="V63" s="84"/>
+      <c r="W63" s="84"/>
+      <c r="X63" s="84"/>
+      <c r="Y63" s="84"/>
+      <c r="Z63" s="85"/>
+      <c r="AA63" s="85"/>
+    </row>
+    <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="107"/>
+      <c r="C64" s="101" t="s">
+        <v>413</v>
+      </c>
+      <c r="D64" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="G64" s="128"/>
+      <c r="H64" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="84"/>
+      <c r="Q64" s="84"/>
+      <c r="R64" s="84"/>
+      <c r="S64" s="84"/>
+      <c r="T64" s="84"/>
+      <c r="U64" s="84"/>
+      <c r="V64" s="84"/>
+      <c r="W64" s="84"/>
+      <c r="X64" s="84"/>
+      <c r="Y64" s="84"/>
+      <c r="Z64" s="85"/>
+      <c r="AA64" s="85"/>
+    </row>
+    <row r="65" spans="1:27" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="107"/>
+      <c r="D65" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" s="128"/>
+      <c r="H65" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="84"/>
+      <c r="Q65" s="84"/>
+      <c r="R65" s="84"/>
+      <c r="S65" s="84"/>
+      <c r="T65" s="84"/>
+      <c r="U65" s="84"/>
+      <c r="V65" s="84"/>
+      <c r="W65" s="84"/>
+      <c r="X65" s="84"/>
+      <c r="Y65" s="84"/>
+      <c r="Z65" s="85"/>
+      <c r="AA65" s="85"/>
+    </row>
+    <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="107"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="D66" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="E66" s="42"/>
+      <c r="F66" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G66" s="128"/>
+      <c r="H66" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="84"/>
+      <c r="Q66" s="84"/>
+      <c r="R66" s="84"/>
+      <c r="S66" s="84"/>
+      <c r="T66" s="84"/>
+      <c r="U66" s="84"/>
+      <c r="V66" s="84"/>
+      <c r="W66" s="84"/>
+      <c r="X66" s="84"/>
+      <c r="Y66" s="84"/>
+      <c r="Z66" s="85"/>
+      <c r="AA66" s="85"/>
+    </row>
+    <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="107"/>
+      <c r="C67" s="101" t="s">
+        <v>471</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="G67" s="128"/>
+      <c r="H67" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="I67" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="84"/>
+      <c r="S67" s="84"/>
+      <c r="T67" s="84"/>
+      <c r="U67" s="84"/>
+      <c r="V67" s="84"/>
+      <c r="W67" s="84"/>
+      <c r="X67" s="84"/>
+      <c r="Y67" s="84"/>
+      <c r="Z67" s="85"/>
+      <c r="AA67" s="85"/>
+    </row>
+    <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="107"/>
+      <c r="C68" s="96" t="s">
+        <v>576</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="F68" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="G68" s="128"/>
+      <c r="H68" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="J68" s="103" t="s">
+        <v>432</v>
+      </c>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="S68" s="84"/>
+      <c r="T68" s="84"/>
+      <c r="U68" s="84"/>
+      <c r="V68" s="84"/>
+      <c r="W68" s="84"/>
+      <c r="X68" s="84"/>
+      <c r="Y68" s="84"/>
+      <c r="Z68" s="85"/>
+      <c r="AA68" s="85"/>
+    </row>
+    <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="107"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="113"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="I60" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
-      <c r="C61" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G61" s="86"/>
-      <c r="H61" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J61" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
-      <c r="C62" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="G62" s="86"/>
-      <c r="H62" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J62" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="17"/>
-      <c r="AA62" s="17"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
-      <c r="C63" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" s="71" t="s">
-        <v>361</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" s="86"/>
-      <c r="H63" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
-      <c r="C64" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D64" s="71" t="s">
-        <v>362</v>
-      </c>
-      <c r="G64" s="86"/>
-      <c r="H64" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="J64" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-    </row>
-    <row r="65" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
-      <c r="C65" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="G65" s="86"/>
-      <c r="H65" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G66" s="86"/>
-      <c r="H66" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="C67" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="G67" s="86"/>
-      <c r="H67" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="J67" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="68" t="s">
-        <v>490</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="G68" s="86"/>
-      <c r="H68" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="D69" s="88"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="88"/>
-      <c r="E70" s="87" t="s">
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+    </row>
+    <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="107"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="113"/>
+      <c r="G70" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="I70" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="F70" s="88"/>
-      <c r="G70" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="I70" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="J70" s="88"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-    </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="87" t="s">
+      <c r="J70" s="113"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+    </row>
+    <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="107"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="113"/>
+      <c r="E71" s="112" t="s">
+        <v>500</v>
+      </c>
+      <c r="F71" s="113"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="I71" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="J71" s="113"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+    </row>
+    <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="107"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="108" t="s">
+        <v>578</v>
+      </c>
+      <c r="D72" s="109"/>
+      <c r="E72" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" s="113"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I72" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="D71" s="88"/>
-      <c r="E71" s="87" t="s">
-        <v>515</v>
-      </c>
-      <c r="F71" s="88"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="I71" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="J71" s="88"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="87" t="s">
-        <v>546</v>
-      </c>
-      <c r="D72" s="88"/>
-      <c r="E72" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="F72" s="88"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="I72" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="J72" s="88"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="25"/>
-      <c r="C73" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="88"/>
-      <c r="E73" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="F73" s="88"/>
-      <c r="G73" s="71"/>
-      <c r="I73" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="J73" s="88"/>
+      <c r="C73" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="113"/>
+      <c r="E73" s="112" t="s">
+        <v>261</v>
+      </c>
+      <c r="F73" s="113"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="I73" s="112" t="s">
+        <v>553</v>
+      </c>
+      <c r="J73" s="113"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5143,19 +5473,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
-      <c r="C74" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="E74" s="87" t="s">
-        <v>570</v>
-      </c>
-      <c r="F74" s="88"/>
-      <c r="G74" s="71"/>
-      <c r="I74" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="J74" s="88"/>
+      <c r="A74" s="107"/>
+      <c r="E74" s="112" t="s">
+        <v>549</v>
+      </c>
+      <c r="F74" s="113"/>
+      <c r="G74" s="70"/>
+      <c r="I74" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="J74" s="113"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5173,19 +5500,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+      <c r="A75" s="107"/>
       <c r="B75" s="25"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="89" t="s">
-        <v>259</v>
-      </c>
-      <c r="F75" s="90"/>
-      <c r="G75" s="71"/>
-      <c r="I75" s="87" t="s">
-        <v>501</v>
-      </c>
-      <c r="J75" s="88"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="121"/>
+      <c r="G75" s="70"/>
+      <c r="I75" s="132" t="s">
+        <v>487</v>
+      </c>
+      <c r="J75" s="113"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5203,19 +5530,18 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+      <c r="A76" s="107"/>
       <c r="B76" s="25"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="87" t="s">
-        <v>474</v>
-      </c>
-      <c r="F76" s="88"/>
-      <c r="G76" s="71"/>
-      <c r="I76" s="87" t="s">
-        <v>507</v>
-      </c>
-      <c r="J76" s="88"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="112" t="s">
+        <v>462</v>
+      </c>
+      <c r="F76" s="113"/>
+      <c r="G76" s="70"/>
+      <c r="J76" s="97" t="s">
+        <v>493</v>
+      </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5259,32 +5585,32 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="80" t="s">
-        <v>59</v>
+      <c r="A78" s="117" t="s">
+        <v>58</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D78" s="71" t="s">
-        <v>387</v>
+        <v>358</v>
+      </c>
+      <c r="D78" s="70" t="s">
+        <v>377</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G78" s="83" t="s">
-        <v>466</v>
+        <v>60</v>
+      </c>
+      <c r="G78" s="144" t="s">
+        <v>454</v>
       </c>
       <c r="H78" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I78" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="J78" s="101" t="s">
+      <c r="I78" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="J78" s="110" t="s">
         <v>14</v>
       </c>
       <c r="K78" s="9"/>
@@ -5306,28 +5632,28 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="81"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="71" t="s">
-        <v>368</v>
-      </c>
-      <c r="D79" s="71" t="s">
-        <v>62</v>
+      <c r="A79" s="118"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="89" t="s">
+        <v>477</v>
+      </c>
+      <c r="D79" s="70" t="s">
+        <v>61</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="G79" s="84"/>
+        <v>359</v>
+      </c>
+      <c r="G79" s="111"/>
       <c r="H79" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="I79" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="J79" s="84"/>
+        <v>394</v>
+      </c>
+      <c r="I79" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="111"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -5347,28 +5673,28 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="81"/>
-      <c r="B80" s="72"/>
+      <c r="A80" s="118"/>
+      <c r="B80" s="71"/>
       <c r="C80" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D80" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E80" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="F80" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" s="84"/>
+        <v>36</v>
+      </c>
+      <c r="G80" s="111"/>
       <c r="H80" s="4" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J80" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="J80" s="70" t="s">
         <v>18</v>
       </c>
       <c r="K80" s="9"/>
@@ -5388,26 +5714,26 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="81"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="2" t="s">
-        <v>305</v>
+      <c r="A81" s="118"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="98" t="s">
+        <v>300</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="G81" s="84"/>
+        <v>307</v>
+      </c>
+      <c r="G81" s="111"/>
       <c r="H81" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="I81" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="J81" s="71" t="s">
-        <v>22</v>
+        <v>396</v>
+      </c>
+      <c r="I81" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81" s="70" t="s">
+        <v>559</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5426,29 +5752,26 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="81"/>
-      <c r="B82" s="72"/>
+      <c r="A82" s="118"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G82" s="84"/>
+        <v>40</v>
+      </c>
+      <c r="E82" s="101" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="G82" s="111"/>
       <c r="H82" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -5467,25 +5790,25 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="81"/>
-      <c r="B83" s="72"/>
-      <c r="D83" s="2" t="s">
-        <v>304</v>
+      <c r="A83" s="118"/>
+      <c r="B83" s="71"/>
+      <c r="D83" s="98" t="s">
+        <v>299</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G83" s="84"/>
+        <v>309</v>
+      </c>
+      <c r="G83" s="111"/>
       <c r="H83" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J83" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I83" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="J83" s="70" t="s">
         <v>20</v>
       </c>
       <c r="K83" s="9"/>
@@ -5505,29 +5828,29 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="81"/>
-      <c r="B84" s="72"/>
+      <c r="A84" s="118"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="4" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E84" s="71" t="s">
-        <v>513</v>
+        <v>492</v>
+      </c>
+      <c r="E84" s="70" t="s">
+        <v>499</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G84" s="84"/>
-      <c r="H84" s="76" t="s">
-        <v>436</v>
+        <v>310</v>
+      </c>
+      <c r="G84" s="111"/>
+      <c r="H84" s="75" t="s">
+        <v>425</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J84" s="71" t="s">
-        <v>319</v>
+        <v>312</v>
+      </c>
+      <c r="J84" s="70" t="s">
+        <v>313</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -5546,29 +5869,29 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="81"/>
-      <c r="B85" s="72"/>
+      <c r="A85" s="118"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="4" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G85" s="84"/>
+        <v>311</v>
+      </c>
+      <c r="G85" s="111"/>
       <c r="H85" s="4" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5587,20 +5910,20 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="81"/>
-      <c r="B86" s="72"/>
+      <c r="A86" s="118"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G86" s="84"/>
+        <v>419</v>
+      </c>
+      <c r="G86" s="111"/>
       <c r="H86" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
@@ -5621,20 +5944,20 @@
       <c r="AA86" s="32"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="81"/>
-      <c r="E87" s="76" t="s">
-        <v>431</v>
+      <c r="A87" s="118"/>
+      <c r="E87" s="94" t="s">
+        <v>420</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="84"/>
+      <c r="G87" s="111"/>
       <c r="H87" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -5654,17 +5977,17 @@
       <c r="AA87" s="32"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
+      <c r="A88" s="118"/>
       <c r="C88" s="2"/>
-      <c r="E88" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="G88" s="84"/>
+      <c r="E88" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="G88" s="111"/>
       <c r="H88" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -5684,22 +6007,22 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="81"/>
+      <c r="A89" s="118"/>
       <c r="B89" s="30"/>
-      <c r="E89" s="76" t="s">
-        <v>547</v>
+      <c r="E89" s="94" t="s">
+        <v>573</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I89" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="J89" s="71" t="s">
-        <v>323</v>
+        <v>402</v>
+      </c>
+      <c r="I89" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="J89" s="70" t="s">
+        <v>317</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -5719,25 +6042,25 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="81"/>
-      <c r="C90" s="87" t="s">
-        <v>568</v>
-      </c>
-      <c r="D90" s="88"/>
+      <c r="A90" s="118"/>
+      <c r="C90" s="132" t="s">
+        <v>547</v>
+      </c>
+      <c r="D90" s="113"/>
       <c r="F90" s="4" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I90" s="76" t="s">
-        <v>548</v>
-      </c>
-      <c r="J90" s="71" t="s">
-        <v>324</v>
+        <v>403</v>
+      </c>
+      <c r="I90" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="J90" s="70" t="s">
+        <v>318</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -5758,22 +6081,22 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="81"/>
-      <c r="C91" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="D91" s="93"/>
+      <c r="A91" s="118"/>
+      <c r="C91" s="132" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="139"/>
       <c r="F91" s="4" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I91" s="76" t="s">
-        <v>435</v>
+        <v>404</v>
+      </c>
+      <c r="I91" s="75" t="s">
+        <v>424</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -5794,14 +6117,16 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="81"/>
+      <c r="A92" s="118"/>
       <c r="E92" s="62"/>
       <c r="F92" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G92" s="33"/>
-      <c r="H92" s="71"/>
-      <c r="J92" s="71"/>
+      <c r="H92" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="J92" s="70"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
       <c r="M92" s="16"/>
@@ -5821,9 +6146,15 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="81"/>
+      <c r="A93" s="118"/>
+      <c r="C93" s="90" t="s">
+        <v>568</v>
+      </c>
       <c r="G93" s="33"/>
-      <c r="J93" s="71"/>
+      <c r="H93" s="82" t="s">
+        <v>555</v>
+      </c>
+      <c r="J93" s="70"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -5841,22 +6172,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="81"/>
+      <c r="A94" s="118"/>
       <c r="B94" s="25"/>
-      <c r="C94" s="87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" s="88"/>
-      <c r="E94" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="F94" s="88"/>
+      <c r="C94" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" s="113"/>
+      <c r="E94" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" s="113"/>
       <c r="G94" s="33"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="J94" s="88"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="J94" s="113"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -5874,22 +6205,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="81"/>
+      <c r="A95" s="118"/>
       <c r="B95" s="25"/>
-      <c r="C95" s="87" t="s">
-        <v>512</v>
-      </c>
-      <c r="D95" s="88"/>
-      <c r="E95" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="F95" s="88"/>
+      <c r="C95" s="112" t="s">
+        <v>498</v>
+      </c>
+      <c r="D95" s="113"/>
+      <c r="E95" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" s="113"/>
       <c r="G95" s="33"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="J95" s="88"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="J95" s="113"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -5907,20 +6238,22 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="81"/>
+      <c r="A96" s="118"/>
       <c r="B96" s="25"/>
-      <c r="C96" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="D96" s="88"/>
-      <c r="E96" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="F96" s="84"/>
+      <c r="C96" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="113"/>
+      <c r="E96" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="111"/>
       <c r="G96" s="33"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="87"/>
-      <c r="J96" s="88"/>
+      <c r="H96" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="I96" s="113"/>
+      <c r="J96" s="62"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
@@ -5938,22 +6271,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="81"/>
+      <c r="A97" s="118"/>
       <c r="B97" s="25"/>
-      <c r="C97" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="D97" s="88"/>
-      <c r="E97" s="95" t="s">
-        <v>552</v>
-      </c>
-      <c r="F97" s="84"/>
+      <c r="C97" s="112" t="s">
+        <v>551</v>
+      </c>
+      <c r="D97" s="113"/>
+      <c r="E97" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="F97" s="111"/>
       <c r="G97" s="33"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="87" t="s">
-        <v>504</v>
-      </c>
-      <c r="J97" s="88"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="132" t="s">
+        <v>490</v>
+      </c>
+      <c r="J97" s="113"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -5971,20 +6304,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="81"/>
+      <c r="A98" s="118"/>
       <c r="B98" s="25"/>
-      <c r="C98" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="D98" s="88"/>
-      <c r="E98" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="F98" s="84"/>
+      <c r="C98" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" s="113"/>
+      <c r="E98" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="111"/>
       <c r="G98" s="33"/>
-      <c r="H98" s="78"/>
-      <c r="I98" s="91"/>
-      <c r="J98" s="92"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="138"/>
+      <c r="J98" s="134"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6002,19 +6335,19 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="81"/>
+      <c r="A99" s="118"/>
       <c r="B99" s="25"/>
-      <c r="C99" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="D99" s="90"/>
-      <c r="E99" s="89" t="s">
-        <v>448</v>
-      </c>
-      <c r="F99" s="90"/>
+      <c r="C99" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="121"/>
+      <c r="E99" s="120" t="s">
+        <v>436</v>
+      </c>
+      <c r="F99" s="121"/>
       <c r="G99" s="33"/>
-      <c r="H99" s="78"/>
-      <c r="J99" s="78"/>
+      <c r="H99" s="77"/>
+      <c r="J99" s="77"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
@@ -6032,18 +6365,18 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="81"/>
+      <c r="A100" s="118"/>
       <c r="B100" s="25"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="87" t="s">
-        <v>539</v>
-      </c>
-      <c r="F100" s="88"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="112" t="s">
+        <v>524</v>
+      </c>
+      <c r="F100" s="113"/>
       <c r="G100" s="33"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="78"/>
-      <c r="J100" s="78"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
@@ -6061,15 +6394,15 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="81"/>
+      <c r="A101" s="118"/>
       <c r="B101" s="25"/>
-      <c r="C101" s="73"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="88"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="112"/>
+      <c r="F101" s="113"/>
       <c r="G101" s="33"/>
-      <c r="H101" s="78"/>
-      <c r="J101" s="78"/>
+      <c r="H101" s="77"/>
+      <c r="J101" s="77"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
@@ -6087,15 +6420,15 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="82"/>
+      <c r="A102" s="119"/>
       <c r="B102" s="25"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="88"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="112"/>
+      <c r="F102" s="113"/>
       <c r="G102" s="33"/>
-      <c r="H102" s="78"/>
-      <c r="J102" s="78"/>
+      <c r="H102" s="77"/>
+      <c r="J102" s="77"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
@@ -6166,30 +6499,30 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="105" t="s">
+      <c r="A105" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="D105" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="F105" s="93" t="s">
+        <v>572</v>
+      </c>
+      <c r="H105" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="71" t="s">
-        <v>371</v>
-      </c>
-      <c r="D105" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="F105" s="71" t="s">
-        <v>545</v>
-      </c>
-      <c r="H105" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="I105" s="71" t="s">
-        <v>31</v>
+      <c r="I105" s="70" t="s">
+        <v>30</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -6208,27 +6541,27 @@
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="84"/>
-      <c r="B106" s="72"/>
+      <c r="A106" s="111"/>
+      <c r="B106" s="71"/>
       <c r="C106" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D106" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="D106" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G106" s="36"/>
       <c r="H106" s="35"/>
       <c r="I106" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="J106" s="71" t="s">
-        <v>73</v>
+        <v>488</v>
+      </c>
+      <c r="J106" s="70" t="s">
+        <v>72</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -6247,29 +6580,29 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="84"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="71" t="s">
-        <v>373</v>
-      </c>
-      <c r="D107" s="71" t="s">
+      <c r="A107" s="111"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="D107" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F107" s="70" t="s">
         <v>52</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F107" s="71" t="s">
-        <v>53</v>
       </c>
       <c r="G107" s="36"/>
       <c r="H107" s="2" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J107" s="71" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="J107" s="70" t="s">
+        <v>73</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -6288,29 +6621,29 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="84"/>
-      <c r="B108" s="72"/>
+      <c r="A108" s="111"/>
+      <c r="B108" s="71"/>
       <c r="C108" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G108" s="85" t="s">
-        <v>467</v>
+        <v>76</v>
+      </c>
+      <c r="G108" s="127" t="s">
+        <v>455</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="I108" s="2"/>
-      <c r="J108" s="71" t="s">
-        <v>40</v>
+      <c r="J108" s="70" t="s">
+        <v>39</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -6329,23 +6662,23 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="84"/>
-      <c r="B109" s="72"/>
-      <c r="D109" s="2" t="s">
-        <v>325</v>
+      <c r="A109" s="111"/>
+      <c r="B109" s="71"/>
+      <c r="D109" s="98" t="s">
+        <v>319</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G109" s="86"/>
+        <v>483</v>
+      </c>
+      <c r="G109" s="128"/>
       <c r="H109" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -6364,20 +6697,20 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="84"/>
-      <c r="B110" s="72"/>
-      <c r="D110" s="2" t="s">
-        <v>376</v>
+      <c r="A110" s="111"/>
+      <c r="B110" s="71"/>
+      <c r="D110" s="98" t="s">
+        <v>366</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G110" s="86"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
+        <v>56</v>
+      </c>
+      <c r="G110" s="128"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="70"/>
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
       <c r="M110" s="16"/>
@@ -6397,16 +6730,16 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="72"/>
-      <c r="D111" s="2" t="s">
-        <v>496</v>
+      <c r="A111" s="111"/>
+      <c r="B111" s="71"/>
+      <c r="D111" s="98" t="s">
+        <v>482</v>
       </c>
       <c r="F111" s="2"/>
-      <c r="G111" s="86"/>
+      <c r="G111" s="128"/>
       <c r="H111" s="37"/>
       <c r="I111" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="16"/>
@@ -6428,12 +6761,12 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="72"/>
+      <c r="A112" s="111"/>
+      <c r="B112" s="71"/>
       <c r="D112" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="G112" s="86"/>
+        <v>367</v>
+      </c>
+      <c r="G112" s="128"/>
       <c r="H112" s="37"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6455,13 +6788,13 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="84"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="71"/>
+      <c r="A113" s="111"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="70"/>
       <c r="E113" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G113" s="86"/>
+        <v>427</v>
+      </c>
+      <c r="G113" s="128"/>
       <c r="H113" s="35"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6483,12 +6816,12 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="84"/>
-      <c r="B114" s="72"/>
+      <c r="A114" s="111"/>
+      <c r="B114" s="71"/>
       <c r="E114" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="G114" s="86"/>
+        <v>534</v>
+      </c>
+      <c r="G114" s="128"/>
       <c r="H114" s="37"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6509,18 +6842,18 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="84"/>
-      <c r="B115" s="72"/>
-      <c r="D115" s="71"/>
+      <c r="A115" s="111"/>
+      <c r="B115" s="71"/>
+      <c r="D115" s="70"/>
       <c r="E115" s="4" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="G115" s="86"/>
+        <v>470</v>
+      </c>
+      <c r="G115" s="128"/>
       <c r="H115" s="37"/>
-      <c r="J115" s="71"/>
+      <c r="J115" s="70"/>
       <c r="K115" s="16"/>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
@@ -6540,14 +6873,14 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="84"/>
-      <c r="B116" s="72"/>
+      <c r="A116" s="111"/>
+      <c r="B116" s="71"/>
       <c r="E116" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G116" s="86"/>
-      <c r="H116" s="71" t="s">
-        <v>34</v>
+        <v>429</v>
+      </c>
+      <c r="G116" s="128"/>
+      <c r="H116" s="70" t="s">
+        <v>33</v>
       </c>
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
@@ -6568,22 +6901,22 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="84"/>
+      <c r="A117" s="111"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="87"/>
-      <c r="D117" s="88"/>
-      <c r="E117" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="F117" s="88"/>
-      <c r="G117" s="86"/>
+      <c r="C117" s="112"/>
+      <c r="D117" s="113"/>
+      <c r="E117" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F117" s="113"/>
+      <c r="G117" s="128"/>
       <c r="H117" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I117" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="J117" s="88"/>
+        <v>75</v>
+      </c>
+      <c r="I117" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="J117" s="113"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -6603,18 +6936,16 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="84"/>
-      <c r="B118" s="72"/>
-      <c r="E118" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="F118" s="88"/>
-      <c r="G118" s="86"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="87" t="s">
-        <v>510</v>
-      </c>
-      <c r="J118" s="88"/>
+      <c r="A118" s="111"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="90" t="s">
+        <v>569</v>
+      </c>
+      <c r="G118" s="128"/>
+      <c r="H118" s="140" t="s">
+        <v>496</v>
+      </c>
+      <c r="I118" s="141"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -6634,21 +6965,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="84"/>
+      <c r="A119" s="111"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="87" t="s">
-        <v>509</v>
-      </c>
-      <c r="D119" s="88"/>
-      <c r="E119" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="F119" s="88"/>
-      <c r="G119" s="86"/>
-      <c r="I119" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="J119" s="88"/>
+      <c r="C119" s="112" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" s="113"/>
+      <c r="E119" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" s="113"/>
+      <c r="G119" s="128"/>
+      <c r="I119" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="J119" s="113"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -6668,22 +6999,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="84"/>
+      <c r="A120" s="111"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="87" t="s">
-        <v>516</v>
-      </c>
-      <c r="D120" s="88"/>
-      <c r="E120" s="89" t="s">
-        <v>455</v>
-      </c>
-      <c r="F120" s="90"/>
+      <c r="C120" s="112" t="s">
+        <v>501</v>
+      </c>
+      <c r="D120" s="113"/>
+      <c r="E120" s="120" t="s">
+        <v>443</v>
+      </c>
+      <c r="F120" s="121"/>
       <c r="G120" s="36"/>
       <c r="H120" s="37"/>
-      <c r="I120" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="J120" s="88"/>
+      <c r="I120" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="J120" s="113"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -6703,22 +7034,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="84"/>
+      <c r="A121" s="111"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="87" t="s">
-        <v>511</v>
-      </c>
-      <c r="D121" s="88"/>
-      <c r="E121" s="87" t="s">
-        <v>494</v>
-      </c>
-      <c r="F121" s="88"/>
+      <c r="C121" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="D121" s="113"/>
+      <c r="E121" s="132" t="s">
+        <v>480</v>
+      </c>
+      <c r="F121" s="113"/>
       <c r="G121" s="36"/>
       <c r="H121" s="37"/>
-      <c r="I121" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="J121" s="88"/>
+      <c r="I121" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="J121" s="113"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -6738,16 +7069,16 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="84"/>
+      <c r="A122" s="111"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="D122" s="88"/>
-      <c r="E122" s="87" t="s">
-        <v>475</v>
-      </c>
-      <c r="F122" s="88"/>
+      <c r="C122" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="113"/>
+      <c r="E122" s="112" t="s">
+        <v>463</v>
+      </c>
+      <c r="F122" s="113"/>
       <c r="G122" s="36"/>
       <c r="H122" s="37"/>
       <c r="K122" s="16"/>
@@ -6769,18 +7100,18 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="84"/>
+      <c r="A123" s="111"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="D123" s="88"/>
+      <c r="C123" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="D123" s="113"/>
       <c r="G123" s="36"/>
       <c r="H123" s="37"/>
-      <c r="I123" s="87" t="s">
-        <v>519</v>
-      </c>
-      <c r="J123" s="88"/>
+      <c r="I123" s="132" t="s">
+        <v>504</v>
+      </c>
+      <c r="J123" s="113"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -6800,20 +7131,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="84"/>
+      <c r="A124" s="111"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="87" t="s">
-        <v>495</v>
-      </c>
-      <c r="D124" s="88"/>
+      <c r="C124" s="132" t="s">
+        <v>481</v>
+      </c>
+      <c r="D124" s="113"/>
       <c r="G124" s="36"/>
-      <c r="H124" s="76" t="s">
-        <v>470</v>
-      </c>
-      <c r="I124" s="87" t="s">
-        <v>484</v>
-      </c>
-      <c r="J124" s="88"/>
+      <c r="H124" s="94" t="s">
+        <v>458</v>
+      </c>
+      <c r="I124" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="J124" s="113"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -6833,16 +7164,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="84"/>
+      <c r="A125" s="111"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="87"/>
-      <c r="D125" s="88"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="113"/>
       <c r="G125" s="36"/>
-      <c r="H125" s="76"/>
-      <c r="I125" s="91" t="s">
-        <v>540</v>
-      </c>
-      <c r="J125" s="92"/>
+      <c r="H125" s="75"/>
+      <c r="I125" s="133" t="s">
+        <v>525</v>
+      </c>
+      <c r="J125" s="134"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -6862,10 +7193,10 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="84"/>
+      <c r="A126" s="111"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="87"/>
-      <c r="D126" s="88"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="113"/>
       <c r="G126" s="36"/>
       <c r="H126" s="37"/>
       <c r="K126" s="16"/>
@@ -6887,10 +7218,10 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="84"/>
+      <c r="A127" s="111"/>
       <c r="B127" s="6"/>
-      <c r="C127" s="73"/>
-      <c r="D127" s="74"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="73"/>
       <c r="G127" s="36"/>
       <c r="H127" s="37"/>
       <c r="K127" s="16"/>
@@ -6965,26 +7296,26 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="80" t="s">
+      <c r="A130" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="76"/>
+      <c r="C130" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D130" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B130" s="77"/>
-      <c r="C130" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="D130" s="15" t="s">
+      <c r="E130" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="F130" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F130" s="41" t="s">
-        <v>81</v>
-      </c>
       <c r="G130" s="36"/>
-      <c r="H130" s="78"/>
+      <c r="H130" s="77"/>
       <c r="I130" s="42"/>
-      <c r="J130" s="78"/>
+      <c r="J130" s="77"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
@@ -7002,20 +7333,20 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="81"/>
-      <c r="B131" s="72"/>
+      <c r="A131" s="118"/>
+      <c r="B131" s="71"/>
       <c r="C131" s="23" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E131" s="71" t="s">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="E131" s="70" t="s">
+        <v>71</v>
       </c>
       <c r="H131" s="11"/>
-      <c r="I131" s="100"/>
-      <c r="J131" s="84"/>
+      <c r="I131" s="131"/>
+      <c r="J131" s="111"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7033,13 +7364,13 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="81"/>
-      <c r="B132" s="72"/>
+      <c r="A132" s="118"/>
+      <c r="B132" s="71"/>
       <c r="C132" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="F132" s="71" t="s">
-        <v>549</v>
+        <v>326</v>
+      </c>
+      <c r="F132" s="93" t="s">
+        <v>571</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="42"/>
@@ -7061,16 +7392,16 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="81"/>
-      <c r="B133" s="72"/>
+      <c r="A133" s="118"/>
+      <c r="B133" s="71"/>
       <c r="C133" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="D133" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="D133" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7092,17 +7423,17 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="81"/>
-      <c r="B134" s="72"/>
+      <c r="A134" s="118"/>
+      <c r="B134" s="71"/>
       <c r="D134" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H134" s="43"/>
       <c r="I134" s="43"/>
-      <c r="J134" s="78"/>
+      <c r="J134" s="77"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
@@ -7120,19 +7451,19 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="81"/>
-      <c r="B135" s="72"/>
+      <c r="A135" s="118"/>
+      <c r="B135" s="71"/>
       <c r="C135" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I135" s="43"/>
-      <c r="J135" s="78"/>
+      <c r="J135" s="77"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
@@ -7150,16 +7481,16 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="81"/>
-      <c r="B136" s="72"/>
+      <c r="A136" s="118"/>
+      <c r="B136" s="71"/>
       <c r="C136" s="23" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>532</v>
+        <v>329</v>
+      </c>
+      <c r="E136" s="98" t="s">
+        <v>517</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="44"/>
@@ -7181,13 +7512,16 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="81"/>
-      <c r="B137" s="72"/>
+      <c r="A137" s="118"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="15" t="s">
+        <v>560</v>
+      </c>
       <c r="D137" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>441</v>
+        <v>330</v>
+      </c>
+      <c r="E137" s="99" t="s">
+        <v>430</v>
       </c>
       <c r="G137" s="2"/>
       <c r="I137" s="44"/>
@@ -7209,11 +7543,11 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="81"/>
-      <c r="B138" s="72"/>
+      <c r="A138" s="118"/>
+      <c r="B138" s="71"/>
       <c r="C138" s="4"/>
       <c r="D138" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="44"/>
@@ -7236,15 +7570,15 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="81"/>
-      <c r="B139" s="72"/>
+      <c r="A139" s="118"/>
+      <c r="B139" s="71"/>
       <c r="C139" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F139" s="95" t="s">
-        <v>558</v>
-      </c>
-      <c r="G139" s="84"/>
+        <v>249</v>
+      </c>
+      <c r="F139" s="114" t="s">
+        <v>537</v>
+      </c>
+      <c r="G139" s="111"/>
       <c r="H139" s="44"/>
       <c r="I139" s="44"/>
       <c r="J139" s="11"/>
@@ -7265,14 +7599,17 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="81"/>
+      <c r="A140" s="118"/>
       <c r="C140" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F140" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="G140" s="84"/>
+        <v>250</v>
+      </c>
+      <c r="D140" s="90" t="s">
+        <v>567</v>
+      </c>
+      <c r="F140" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="G140" s="111"/>
       <c r="H140" s="44"/>
       <c r="I140" s="44"/>
       <c r="J140" s="11"/>
@@ -7293,14 +7630,18 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="81"/>
-      <c r="C141" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F141" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="G141" s="84"/>
+      <c r="A141" s="118"/>
+      <c r="C141" s="104" t="s">
+        <v>433</v>
+      </c>
+      <c r="D141" s="112" t="s">
+        <v>561</v>
+      </c>
+      <c r="E141" s="113"/>
+      <c r="F141" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="G141" s="111"/>
       <c r="H141" s="44"/>
       <c r="I141" s="44"/>
       <c r="J141" s="11"/>
@@ -7321,11 +7662,11 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="81"/>
-      <c r="D142" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E142" s="88"/>
+      <c r="A142" s="118"/>
+      <c r="D142" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="E142" s="113"/>
       <c r="G142" s="36"/>
       <c r="H142" s="44"/>
       <c r="I142" s="44"/>
@@ -7347,12 +7688,12 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="81"/>
+      <c r="A143" s="118"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="E143" s="88"/>
+      <c r="D143" s="112" t="s">
+        <v>215</v>
+      </c>
+      <c r="E143" s="113"/>
       <c r="H143" s="44"/>
       <c r="I143" s="44"/>
       <c r="J143" s="11"/>
@@ -7373,16 +7714,16 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="81"/>
+      <c r="A144" s="118"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="E144" s="88"/>
-      <c r="F144" s="89" t="s">
-        <v>258</v>
-      </c>
-      <c r="G144" s="90"/>
+      <c r="D144" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="E144" s="113"/>
+      <c r="F144" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="G144" s="121"/>
       <c r="H144" s="44"/>
       <c r="I144" s="44"/>
       <c r="J144" s="11"/>
@@ -7403,16 +7744,16 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="81"/>
+      <c r="A145" s="118"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="E145" s="98"/>
-      <c r="F145" s="89" t="s">
-        <v>458</v>
-      </c>
-      <c r="G145" s="90"/>
+      <c r="D145" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="E145" s="137"/>
+      <c r="F145" s="120" t="s">
+        <v>446</v>
+      </c>
+      <c r="G145" s="121"/>
       <c r="H145" s="44"/>
       <c r="I145" s="44"/>
       <c r="J145" s="11"/>
@@ -7433,16 +7774,16 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="81"/>
+      <c r="A146" s="118"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="E146" s="88"/>
-      <c r="F146" s="89" t="s">
-        <v>542</v>
-      </c>
-      <c r="G146" s="90"/>
+      <c r="D146" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" s="113"/>
+      <c r="F146" s="122" t="s">
+        <v>527</v>
+      </c>
+      <c r="G146" s="123"/>
       <c r="H146" s="44"/>
       <c r="I146" s="44"/>
       <c r="J146" s="11"/>
@@ -7463,12 +7804,12 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="81"/>
+      <c r="A147" s="118"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="E147" s="88"/>
+      <c r="D147" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="E147" s="113"/>
       <c r="H147" s="44"/>
       <c r="I147" s="44"/>
       <c r="J147" s="11"/>
@@ -7489,12 +7830,12 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="81"/>
+      <c r="A148" s="118"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="87" t="s">
-        <v>541</v>
-      </c>
-      <c r="E148" s="88"/>
+      <c r="D148" s="108" t="s">
+        <v>526</v>
+      </c>
+      <c r="E148" s="109"/>
       <c r="H148" s="44"/>
       <c r="I148" s="44"/>
       <c r="J148" s="11"/>
@@ -7515,12 +7856,12 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="81"/>
+      <c r="A149" s="118"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="E149" s="84"/>
+      <c r="D149" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="E149" s="111"/>
       <c r="F149" s="2"/>
       <c r="G149" s="36"/>
       <c r="H149" s="11"/>
@@ -7543,12 +7884,12 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="81"/>
+      <c r="A150" s="118"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="95" t="s">
-        <v>551</v>
-      </c>
-      <c r="E150" s="84"/>
+      <c r="D150" s="114" t="s">
+        <v>530</v>
+      </c>
+      <c r="E150" s="111"/>
       <c r="F150" s="2"/>
       <c r="G150" s="33"/>
       <c r="H150" s="11"/>
@@ -7571,12 +7912,12 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="81"/>
+      <c r="A151" s="118"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="E151" s="84"/>
+      <c r="D151" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="E151" s="111"/>
       <c r="F151" s="2"/>
       <c r="G151" s="33"/>
       <c r="H151" s="11"/>
@@ -7599,12 +7940,12 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="82"/>
+      <c r="A152" s="119"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="E152" s="96"/>
+      <c r="D152" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="E152" s="130"/>
       <c r="F152" s="2"/>
       <c r="G152" s="33"/>
       <c r="H152" s="11"/>
@@ -7656,24 +7997,24 @@
     <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
-      <c r="C154" s="78" t="s">
+      <c r="C154" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D154" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="78" t="s">
+      <c r="E154" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="E154" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="F154" s="78"/>
-      <c r="G154" s="78" t="s">
+      <c r="F154" s="77"/>
+      <c r="G154" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H154" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="H154" s="78" t="s">
+      <c r="I154" s="77" t="s">
         <v>89</v>
-      </c>
-      <c r="I154" s="78" t="s">
-        <v>90</v>
       </c>
       <c r="J154" s="45"/>
       <c r="K154" s="9"/>
@@ -7696,7 +8037,7 @@
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="11"/>
-      <c r="D155" s="71"/>
+      <c r="D155" s="70"/>
       <c r="E155" s="11"/>
       <c r="F155" s="15"/>
       <c r="G155" s="46"/>
@@ -7724,17 +8065,17 @@
       <c r="C156" s="48"/>
       <c r="D156" s="49"/>
       <c r="E156" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I156" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I156" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -7757,20 +8098,20 @@
       <c r="B157" s="9"/>
       <c r="C157" s="50"/>
       <c r="D157" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E157" s="52" t="s">
         <v>92</v>
-      </c>
-      <c r="E157" s="52" t="s">
-        <v>93</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I157" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I157" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="J157" s="49"/>
       <c r="K157" s="9"/>
@@ -7792,24 +8133,24 @@
     <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="69" t="s">
+      <c r="C158" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="D158" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="D158" s="69" t="s">
+      <c r="E158" s="54" t="s">
         <v>95</v>
-      </c>
-      <c r="E158" s="54" t="s">
-        <v>96</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I158" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I158" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -7831,23 +8172,23 @@
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D159" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D159" s="53" t="s">
+      <c r="E159" s="54" t="s">
         <v>98</v>
-      </c>
-      <c r="E159" s="54" t="s">
-        <v>99</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I159" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I159" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -7869,23 +8210,23 @@
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D160" s="53" t="s">
+      <c r="E160" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="E160" s="54" t="s">
-        <v>102</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I160" s="92" t="s">
         <v>145</v>
-      </c>
-      <c r="H160" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="I160" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -7906,24 +8247,24 @@
     <row r="161" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="70" t="s">
+      <c r="C161" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D161" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="70" t="s">
+      <c r="E161" s="54" t="s">
         <v>104</v>
-      </c>
-      <c r="E161" s="54" t="s">
-        <v>105</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I161" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="H161" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I161" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -7945,23 +8286,23 @@
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D162" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D162" s="55" t="s">
+      <c r="E162" s="56" t="s">
         <v>107</v>
-      </c>
-      <c r="E162" s="56" t="s">
-        <v>108</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I162" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="H162" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I162" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -7983,13 +8324,13 @@
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D163" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D163" s="55" t="s">
+      <c r="E163" s="56" t="s">
         <v>110</v>
-      </c>
-      <c r="E163" s="56" t="s">
-        <v>111</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
@@ -8015,19 +8356,19 @@
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D164" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D164" s="55" t="s">
+      <c r="E164" s="56" t="s">
         <v>113</v>
-      </c>
-      <c r="E164" s="56" t="s">
-        <v>114</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="71"/>
+      <c r="J164" s="70"/>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
       <c r="M164" s="9"/>
@@ -8048,23 +8389,23 @@
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D165" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D165" s="57" t="s">
+      <c r="E165" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E165" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="H165" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H165" s="60" t="s">
+      <c r="I165" s="60" t="s">
         <v>152</v>
-      </c>
-      <c r="I165" s="60" t="s">
-        <v>153</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -8086,25 +8427,25 @@
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D166" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D166" s="57" t="s">
+      <c r="E166" s="58" t="s">
         <v>119</v>
-      </c>
-      <c r="E166" s="58" t="s">
-        <v>120</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="H166" s="60" t="s">
+        <v>542</v>
+      </c>
+      <c r="I166" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="H166" s="60" t="s">
-        <v>563</v>
-      </c>
-      <c r="I166" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="J166" s="71"/>
+      <c r="J166" s="70"/>
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
       <c r="M166" s="9"/>
@@ -8129,13 +8470,13 @@
       <c r="E167" s="54"/>
       <c r="F167" s="13"/>
       <c r="G167" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H167" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="H167" s="60" t="s">
+      <c r="I167" s="60" t="s">
         <v>157</v>
-      </c>
-      <c r="I167" s="60" t="s">
-        <v>158</v>
       </c>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
@@ -8157,23 +8498,23 @@
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="H168" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="H168" s="60" t="s">
+      <c r="I168" s="60" t="s">
         <v>160</v>
-      </c>
-      <c r="I168" s="60" t="s">
-        <v>161</v>
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -8195,23 +8536,23 @@
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E169" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="D169" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="H169" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="H169" s="60" t="s">
+      <c r="I169" s="60" t="s">
         <v>163</v>
-      </c>
-      <c r="I169" s="60" t="s">
-        <v>164</v>
       </c>
       <c r="J169" s="13"/>
       <c r="K169" s="9"/>
@@ -8234,23 +8575,23 @@
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H170" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="H170" s="60" t="s">
+      <c r="I170" s="60" t="s">
         <v>166</v>
-      </c>
-      <c r="I170" s="60" t="s">
-        <v>167</v>
       </c>
       <c r="J170" s="13"/>
       <c r="K170" s="9"/>
@@ -8273,23 +8614,23 @@
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E171" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H171" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="H171" s="60" t="s">
+      <c r="I171" s="60" t="s">
         <v>169</v>
-      </c>
-      <c r="I171" s="60" t="s">
-        <v>170</v>
       </c>
       <c r="J171" s="13"/>
       <c r="K171" s="9"/>
@@ -8312,23 +8653,23 @@
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E172" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H172" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="H172" s="59" t="s">
+      <c r="I172" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="I172" s="59" t="s">
-        <v>173</v>
       </c>
       <c r="J172" s="13"/>
       <c r="K172" s="9"/>
@@ -8351,23 +8692,23 @@
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E173" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D173" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="H173" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="H173" s="59" t="s">
+      <c r="I173" s="59" t="s">
         <v>175</v>
-      </c>
-      <c r="I173" s="59" t="s">
-        <v>176</v>
       </c>
       <c r="J173" s="13"/>
       <c r="K173" s="9"/>
@@ -8390,23 +8731,23 @@
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E174" s="92" t="s">
         <v>133</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="H174" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="I174" s="59" t="s">
         <v>177</v>
-      </c>
-      <c r="H174" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="I174" s="59" t="s">
-        <v>178</v>
       </c>
       <c r="J174" s="13"/>
       <c r="K174" s="9"/>
@@ -8429,23 +8770,23 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="D175" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="59" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="H175" s="59" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="I175" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J175" s="13"/>
       <c r="K175" s="9"/>
@@ -8472,13 +8813,13 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="59" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="H176" s="59" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="I176" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J176" s="13"/>
       <c r="K176" s="9"/>
@@ -8559,13 +8900,13 @@
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H179" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H179" s="13" t="s">
+      <c r="I179" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="I179" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="J179" s="13"/>
       <c r="K179" s="9"/>
@@ -8592,13 +8933,13 @@
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H180" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="H180" s="13" t="s">
+      <c r="I180" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="I180" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="J180" s="13"/>
       <c r="K180" s="9"/>
@@ -8626,10 +8967,10 @@
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
       <c r="H181" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I181" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="I181" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="9"/>
@@ -8657,10 +8998,10 @@
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
       <c r="H182" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="I182" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="I182" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="J182" s="13"/>
       <c r="K182" s="9"/>
@@ -8688,10 +9029,10 @@
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
       <c r="H183" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I183" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="I183" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="J183" s="13"/>
       <c r="K183" s="9"/>
@@ -8914,7 +9255,7 @@
       <c r="C192" s="59"/>
       <c r="D192" s="59"/>
       <c r="E192" s="59"/>
-      <c r="F192" s="94"/>
+      <c r="F192" s="135"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -8938,7 +9279,7 @@
       <c r="C193" s="59"/>
       <c r="D193" s="59"/>
       <c r="E193" s="59"/>
-      <c r="F193" s="84"/>
+      <c r="F193" s="111"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -8989,7 +9330,7 @@
       <c r="C195" s="59"/>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
-      <c r="F195" s="94"/>
+      <c r="F195" s="135"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9016,7 +9357,7 @@
       <c r="C196" s="59"/>
       <c r="D196" s="59"/>
       <c r="E196" s="59"/>
-      <c r="F196" s="84"/>
+      <c r="F196" s="111"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -12589,7 +12930,114 @@
     <row r="1059" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="131">
+    <mergeCell ref="A30:A52"/>
+    <mergeCell ref="A130:A152"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="G78:G88"/>
+    <mergeCell ref="G37:G55"/>
+    <mergeCell ref="G57:G68"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G108:G119"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A54:A76"/>
     <mergeCell ref="D148:E148"/>
     <mergeCell ref="F31:F32"/>
@@ -12614,115 +13062,6 @@
     <mergeCell ref="E119:F119"/>
     <mergeCell ref="F145:G145"/>
     <mergeCell ref="F146:G146"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G5:G28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G108:G119"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="A30:A52"/>
-    <mergeCell ref="A130:A152"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="G78:G88"/>
-    <mergeCell ref="G37:G55"/>
-    <mergeCell ref="G57:G68"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="E76:F76"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\2 Year\TT_6JAN\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9D47B7-A643-4898-88BF-3E179DC0AD7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F327A79-4B63-4CAE-8ED2-74F4E538A023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="1" r:id="rId1"/>
@@ -1057,9 +1057,6 @@
     <t>LB3,B4 (CS223)-FF4/KM</t>
   </si>
   <si>
-    <t>LB5,B6 (CS223)-FF2/MSI</t>
-  </si>
-  <si>
     <t>LG1,G2(MA223)-FF8/MSD</t>
   </si>
   <si>
@@ -2053,6 +2050,9 @@
   </si>
   <si>
     <t>PA15A2(24B25EC212)-FABLAB/HEM,TA6</t>
+  </si>
+  <si>
+    <t>LB5,B6 (CS223)-FF8/MSI</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2640,37 +2640,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2679,61 +2648,41 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,8 +2700,62 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2972,10 +2975,10 @@
   <dimension ref="A1:AA1060"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomRight" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2996,18 +2999,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="121"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="119"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -3026,7 +3029,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -3069,7 +3072,7 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="139" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
@@ -3081,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I3" s="70" t="s">
         <v>15</v>
@@ -3106,25 +3109,25 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="71"/>
       <c r="C4" s="79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F4" s="110" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="135" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I4" s="70" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K4" s="73"/>
       <c r="L4" s="9"/>
@@ -3143,26 +3146,26 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="71"/>
       <c r="D5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="127" t="s">
-        <v>455</v>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113" t="s">
+        <v>454</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I5" s="70" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3181,21 +3184,21 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="71"/>
       <c r="C6" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="128"/>
+      <c r="G6" s="114"/>
       <c r="H6" s="2" t="s">
         <v>273</v>
       </c>
@@ -3219,13 +3222,13 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="71"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
@@ -3233,7 +3236,7 @@
       <c r="F7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="128"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="2" t="s">
         <v>274</v>
       </c>
@@ -3258,21 +3261,21 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="71"/>
       <c r="C8" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E8" s="98" t="s">
         <v>262</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>558</v>
-      </c>
-      <c r="G8" s="128"/>
+        <v>557</v>
+      </c>
+      <c r="G8" s="114"/>
       <c r="H8" s="2" t="s">
         <v>275</v>
       </c>
@@ -3293,21 +3296,21 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="71"/>
       <c r="C9" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="98" t="s">
         <v>263</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="G9" s="128"/>
+        <v>347</v>
+      </c>
+      <c r="G9" s="114"/>
       <c r="H9" s="2" t="s">
         <v>276</v>
       </c>
@@ -3329,20 +3332,20 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="71"/>
       <c r="D10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="70" t="s">
         <v>264</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G10" s="128"/>
+        <v>337</v>
+      </c>
+      <c r="G10" s="114"/>
       <c r="H10" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="16"/>
@@ -3363,7 +3366,7 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="71"/>
       <c r="C11" s="4" t="s">
         <v>247</v>
@@ -3372,9 +3375,9 @@
         <v>265</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G11" s="128"/>
+        <v>440</v>
+      </c>
+      <c r="G11" s="114"/>
       <c r="H11" s="70"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
@@ -3395,21 +3398,21 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="71"/>
       <c r="C12" s="79"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G12" s="128"/>
+        <v>443</v>
+      </c>
+      <c r="G12" s="114"/>
       <c r="H12" s="4" t="s">
         <v>242</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J12" s="70"/>
       <c r="K12" s="9"/>
@@ -3431,23 +3434,23 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="71"/>
       <c r="C13" s="68" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>528</v>
-      </c>
-      <c r="G13" s="128"/>
+        <v>527</v>
+      </c>
+      <c r="G13" s="114"/>
       <c r="H13" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J13" s="70"/>
       <c r="K13" s="9"/>
@@ -3469,25 +3472,25 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="71"/>
       <c r="C14" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E14" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="128"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="I14" s="114" t="s">
+        <v>464</v>
+      </c>
+      <c r="I14" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="111"/>
+      <c r="J14" s="112"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3507,7 +3510,7 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="71"/>
       <c r="D15" s="1" t="s">
         <v>27</v>
@@ -3518,14 +3521,14 @@
       <c r="F15" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="128"/>
+      <c r="G15" s="114"/>
       <c r="H15" s="90" t="s">
-        <v>570</v>
-      </c>
-      <c r="I15" s="114" t="s">
-        <v>529</v>
-      </c>
-      <c r="J15" s="111"/>
+        <v>569</v>
+      </c>
+      <c r="I15" s="128" t="s">
+        <v>528</v>
+      </c>
+      <c r="J15" s="112"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3545,20 +3548,20 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="71"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F16" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="G16" s="128"/>
-      <c r="I16" s="114" t="s">
+      <c r="G16" s="114"/>
+      <c r="I16" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="111"/>
+      <c r="J16" s="112"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3578,21 +3581,21 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="71"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G17" s="128"/>
+      <c r="G17" s="114"/>
       <c r="H17" s="74"/>
-      <c r="I17" s="112" t="s">
-        <v>360</v>
-      </c>
-      <c r="J17" s="113"/>
+      <c r="I17" s="115" t="s">
+        <v>359</v>
+      </c>
+      <c r="J17" s="110"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3612,14 +3615,14 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="71"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="128"/>
-      <c r="I18" s="112" t="s">
+      <c r="G18" s="114"/>
+      <c r="I18" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="J18" s="113"/>
+      <c r="J18" s="110"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3639,18 +3642,18 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="71"/>
       <c r="C19" s="4"/>
       <c r="E19" s="100" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F19" s="70"/>
-      <c r="G19" s="128"/>
-      <c r="I19" s="112" t="s">
+      <c r="G19" s="114"/>
+      <c r="I19" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="J19" s="113"/>
+      <c r="J19" s="110"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3670,20 +3673,20 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="71"/>
       <c r="C20" s="4"/>
       <c r="D20" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F20" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="G20" s="128"/>
-      <c r="I20" s="112" t="s">
+      <c r="G20" s="114"/>
+      <c r="I20" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="113"/>
+      <c r="J20" s="110"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3703,7 +3706,7 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="71"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -3712,11 +3715,11 @@
       <c r="F21" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="G21" s="128"/>
-      <c r="H21" s="112" t="s">
+      <c r="G21" s="114"/>
+      <c r="H21" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="113"/>
+      <c r="I21" s="110"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3736,19 +3739,19 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="71"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>245</v>
       </c>
       <c r="F22" s="70"/>
-      <c r="G22" s="128"/>
+      <c r="G22" s="114"/>
       <c r="H22" s="74"/>
-      <c r="I22" s="112" t="s">
+      <c r="I22" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="J22" s="113"/>
+      <c r="J22" s="110"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3768,19 +3771,19 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="71"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
         <v>251</v>
       </c>
       <c r="F23" s="70"/>
-      <c r="G23" s="128"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="74"/>
-      <c r="I23" s="112" t="s">
+      <c r="I23" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="J23" s="113"/>
+      <c r="J23" s="110"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3799,14 +3802,14 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="71"/>
       <c r="C24" s="4"/>
       <c r="F24" s="70"/>
-      <c r="G24" s="128"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="74"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="121"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="119"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3825,16 +3828,16 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="71"/>
       <c r="C25" s="4"/>
       <c r="F25" s="70"/>
-      <c r="G25" s="128"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="74"/>
-      <c r="I25" s="112" t="s">
-        <v>563</v>
-      </c>
-      <c r="J25" s="113"/>
+      <c r="I25" s="115" t="s">
+        <v>562</v>
+      </c>
+      <c r="J25" s="110"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3853,16 +3856,16 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="71"/>
       <c r="C26" s="4"/>
       <c r="F26" s="70"/>
-      <c r="G26" s="128"/>
+      <c r="G26" s="114"/>
       <c r="H26" s="74"/>
-      <c r="I26" s="112" t="s">
-        <v>550</v>
-      </c>
-      <c r="J26" s="113"/>
+      <c r="I26" s="115" t="s">
+        <v>549</v>
+      </c>
+      <c r="J26" s="110"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3879,15 +3882,15 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
+      <c r="A27" s="112"/>
       <c r="B27" s="71"/>
       <c r="C27" s="4"/>
       <c r="F27" s="70"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="112" t="s">
+      <c r="G27" s="114"/>
+      <c r="H27" s="115" t="s">
         <v>257</v>
       </c>
-      <c r="I27" s="113"/>
+      <c r="I27" s="110"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3904,11 +3907,11 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="71"/>
       <c r="C28" s="4"/>
       <c r="F28" s="70"/>
-      <c r="G28" s="129"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="74"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -3952,7 +3955,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="106" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="12"/>
@@ -3963,13 +3966,13 @@
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J30" s="70" t="s">
         <v>31</v>
@@ -3990,10 +3993,10 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="118"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="71"/>
       <c r="C31" s="70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D31" s="70" t="s">
         <v>33</v>
@@ -4001,14 +4004,14 @@
       <c r="E31" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="F31" s="110" t="s">
+      <c r="F31" s="135" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I31" s="70" t="s">
         <v>34</v>
@@ -4032,20 +4035,20 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="118"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="71"/>
       <c r="C32" s="70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="F32" s="111"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>291</v>
@@ -4072,7 +4075,7 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="118"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="71"/>
       <c r="C33" s="70" t="s">
         <v>278</v>
@@ -4087,13 +4090,13 @@
         <v>290</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4111,25 +4114,25 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="71"/>
       <c r="C34" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D34" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F34" s="70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I34" s="98" t="s">
         <v>22</v>
@@ -4155,25 +4158,25 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="118"/>
+      <c r="A35" s="107"/>
       <c r="B35" s="71"/>
       <c r="C35" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D35" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="F35" s="110" t="s">
-        <v>558</v>
+      <c r="F35" s="135" t="s">
+        <v>557</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I35" s="98" t="s">
         <v>295</v>
@@ -4196,22 +4199,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="118"/>
+      <c r="A36" s="107"/>
       <c r="D36" s="70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F36" s="111"/>
+      <c r="F36" s="112"/>
       <c r="G36" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>292</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4231,7 +4234,7 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="118"/>
+      <c r="A37" s="107"/>
       <c r="C37" s="24"/>
       <c r="D37" s="70" t="s">
         <v>280</v>
@@ -4242,14 +4245,14 @@
       <c r="F37" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G37" s="127" t="s">
-        <v>455</v>
+      <c r="G37" s="113" t="s">
+        <v>454</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>293</v>
       </c>
       <c r="I37" s="94" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4269,22 +4272,22 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="118"/>
+      <c r="A38" s="107"/>
       <c r="D38" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G38" s="128"/>
+        <v>441</v>
+      </c>
+      <c r="G38" s="114"/>
       <c r="H38" s="1" t="s">
         <v>294</v>
       </c>
       <c r="J38" s="94" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
@@ -4304,20 +4307,20 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="118"/>
+      <c r="A39" s="107"/>
       <c r="D39" s="70"/>
       <c r="E39" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G39" s="128"/>
+        <v>444</v>
+      </c>
+      <c r="G39" s="114"/>
       <c r="H39" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I39" s="75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J39" s="74" t="s">
         <v>236</v>
@@ -4341,14 +4344,14 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="118"/>
+      <c r="A40" s="107"/>
       <c r="E40" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F40" s="91" t="s">
-        <v>528</v>
-      </c>
-      <c r="G40" s="128"/>
+        <v>527</v>
+      </c>
+      <c r="G40" s="114"/>
       <c r="J40" s="74" t="s">
         <v>238</v>
       </c>
@@ -4371,18 +4374,18 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="118"/>
+      <c r="A41" s="107"/>
       <c r="E41" s="70"/>
       <c r="F41" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="G41" s="128"/>
+      <c r="G41" s="114"/>
       <c r="H41" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4403,16 +4406,16 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="118"/>
+      <c r="A42" s="107"/>
       <c r="D42" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F42" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="G42" s="128"/>
+      <c r="G42" s="114"/>
       <c r="H42" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="7"/>
@@ -4435,7 +4438,7 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="118"/>
+      <c r="A43" s="107"/>
       <c r="D43" s="4" t="s">
         <v>244</v>
       </c>
@@ -4443,11 +4446,11 @@
       <c r="F43" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="G43" s="128"/>
-      <c r="I43" s="130" t="s">
-        <v>505</v>
-      </c>
-      <c r="J43" s="111"/>
+      <c r="G43" s="114"/>
+      <c r="I43" s="129" t="s">
+        <v>504</v>
+      </c>
+      <c r="J43" s="112"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -4465,10 +4468,10 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="118"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="25"/>
       <c r="C44" s="95" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>243</v>
@@ -4476,14 +4479,14 @@
       <c r="F44" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="G44" s="128"/>
+      <c r="G44" s="114"/>
       <c r="H44" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I44" s="112" t="s">
+        <v>371</v>
+      </c>
+      <c r="I44" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="J44" s="113"/>
+      <c r="J44" s="110"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4501,23 +4504,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="118"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="112" t="s">
+      <c r="C45" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="113"/>
+      <c r="D45" s="110"/>
       <c r="F45" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="G45" s="128"/>
+        <v>561</v>
+      </c>
+      <c r="G45" s="114"/>
       <c r="H45" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I45" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="I45" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="J45" s="113"/>
+      <c r="J45" s="110"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4535,20 +4538,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="25"/>
-      <c r="C46" s="108" t="s">
-        <v>575</v>
-      </c>
-      <c r="D46" s="109"/>
+      <c r="C46" s="116" t="s">
+        <v>574</v>
+      </c>
+      <c r="D46" s="117"/>
       <c r="E46" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G46" s="128"/>
-      <c r="I46" s="112" t="s">
+      <c r="G46" s="114"/>
+      <c r="I46" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="J46" s="113"/>
+      <c r="J46" s="110"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4566,20 +4569,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="112" t="s">
+      <c r="C47" s="115" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="113"/>
+      <c r="D47" s="110"/>
       <c r="E47" s="99" t="s">
-        <v>409</v>
-      </c>
-      <c r="G47" s="128"/>
-      <c r="I47" s="112" t="s">
-        <v>552</v>
-      </c>
-      <c r="J47" s="113"/>
+        <v>408</v>
+      </c>
+      <c r="G47" s="114"/>
+      <c r="I47" s="115" t="s">
+        <v>551</v>
+      </c>
+      <c r="J47" s="110"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4597,20 +4600,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
-      <c r="C48" s="112" t="s">
-        <v>520</v>
-      </c>
-      <c r="D48" s="113"/>
+      <c r="A48" s="107"/>
+      <c r="C48" s="115" t="s">
+        <v>519</v>
+      </c>
+      <c r="D48" s="110"/>
       <c r="E48" s="99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F48" s="70"/>
-      <c r="G48" s="128"/>
-      <c r="I48" s="112" t="s">
+      <c r="G48" s="114"/>
+      <c r="I48" s="115" t="s">
         <v>260</v>
       </c>
-      <c r="J48" s="113"/>
+      <c r="J48" s="110"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4628,21 +4631,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="142" t="s">
-        <v>564</v>
-      </c>
-      <c r="D49" s="143"/>
-      <c r="E49" s="112" t="s">
-        <v>493</v>
-      </c>
-      <c r="F49" s="113"/>
-      <c r="G49" s="128"/>
-      <c r="I49" s="112" t="s">
+      <c r="C49" s="125" t="s">
+        <v>563</v>
+      </c>
+      <c r="D49" s="126"/>
+      <c r="E49" s="115" t="s">
+        <v>492</v>
+      </c>
+      <c r="F49" s="110"/>
+      <c r="G49" s="114"/>
+      <c r="I49" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="J49" s="113"/>
+      <c r="J49" s="110"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4660,19 +4663,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="118"/>
+      <c r="A50" s="107"/>
       <c r="B50" s="25"/>
-      <c r="C50" s="112" t="s">
-        <v>521</v>
-      </c>
-      <c r="D50" s="113"/>
+      <c r="C50" s="115" t="s">
+        <v>520</v>
+      </c>
+      <c r="D50" s="110"/>
       <c r="E50" s="70"/>
       <c r="F50" s="70"/>
-      <c r="G50" s="128"/>
-      <c r="I50" s="112" t="s">
-        <v>523</v>
-      </c>
-      <c r="J50" s="113"/>
+      <c r="G50" s="114"/>
+      <c r="I50" s="115" t="s">
+        <v>522</v>
+      </c>
+      <c r="J50" s="110"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4690,15 +4693,15 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="25"/>
-      <c r="C51" s="112" t="s">
-        <v>548</v>
-      </c>
-      <c r="D51" s="113"/>
+      <c r="C51" s="115" t="s">
+        <v>547</v>
+      </c>
+      <c r="D51" s="110"/>
       <c r="E51" s="70"/>
       <c r="F51" s="70"/>
-      <c r="G51" s="128"/>
+      <c r="G51" s="114"/>
       <c r="I51" s="72"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4717,17 +4720,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
-      <c r="C52" s="112" t="s">
+      <c r="A52" s="108"/>
+      <c r="C52" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="113"/>
+      <c r="D52" s="110"/>
       <c r="E52" s="70"/>
       <c r="F52" s="70"/>
-      <c r="G52" s="128"/>
+      <c r="G52" s="114"/>
       <c r="H52" s="26"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="134"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="121"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4751,7 +4754,7 @@
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="128"/>
+      <c r="G53" s="114"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
@@ -4772,11 +4775,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="141" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="28"/>
-      <c r="G54" s="128"/>
+      <c r="G54" s="114"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4794,9 +4797,9 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
+      <c r="A55" s="142"/>
       <c r="B55" s="71"/>
-      <c r="G55" s="128"/>
+      <c r="G55" s="114"/>
       <c r="J55" s="23" t="s">
         <v>304</v>
       </c>
@@ -4817,7 +4820,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
+      <c r="A56" s="142"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4843,21 +4846,21 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="107"/>
+      <c r="A57" s="142"/>
       <c r="C57" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D57" s="81" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F57" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="G57" s="127" t="s">
-        <v>455</v>
+      <c r="G57" s="113" t="s">
+        <v>454</v>
       </c>
       <c r="H57" s="29" t="s">
         <v>10</v>
@@ -4885,9 +4888,9 @@
       <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="107"/>
+      <c r="A58" s="142"/>
       <c r="C58" s="101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D58" s="81" t="s">
         <v>51</v>
@@ -4895,9 +4898,9 @@
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="128"/>
+      <c r="G58" s="114"/>
       <c r="H58" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I58" s="81" t="s">
         <v>53</v>
@@ -4922,28 +4925,28 @@
       <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="107"/>
+      <c r="A59" s="142"/>
       <c r="C59" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D59" s="98" t="s">
         <v>296</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F59" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="G59" s="128"/>
+        <v>355</v>
+      </c>
+      <c r="G59" s="114"/>
       <c r="H59" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K59" s="84"/>
       <c r="L59" s="84"/>
@@ -4964,9 +4967,9 @@
       <c r="AA59" s="85"/>
     </row>
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="107"/>
+      <c r="A60" s="142"/>
       <c r="C60" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D60" s="81" t="s">
         <v>33</v>
@@ -4975,15 +4978,15 @@
       <c r="F60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G60" s="128"/>
+      <c r="G60" s="114"/>
       <c r="H60" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I60" s="81" t="s">
         <v>43</v>
       </c>
       <c r="J60" s="98" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84"/>
@@ -5004,9 +5007,9 @@
       <c r="AA60" s="85"/>
     </row>
     <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="107"/>
+      <c r="A61" s="142"/>
       <c r="C61" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D61" s="98" t="s">
         <v>297</v>
@@ -5017,9 +5020,9 @@
       <c r="F61" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G61" s="128"/>
+      <c r="G61" s="114"/>
       <c r="H61" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I61" s="98" t="s">
         <v>303</v>
@@ -5046,26 +5049,26 @@
       <c r="AA61" s="85"/>
     </row>
     <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="107"/>
+      <c r="A62" s="142"/>
       <c r="C62" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D62" s="98" t="s">
         <v>298</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="93" t="s">
-        <v>572</v>
-      </c>
-      <c r="G62" s="128"/>
+        <v>571</v>
+      </c>
+      <c r="G62" s="114"/>
       <c r="H62" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I62" s="81" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K62" s="84"/>
       <c r="L62" s="84"/>
@@ -5086,23 +5089,23 @@
       <c r="AA62" s="85"/>
     </row>
     <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="107"/>
+      <c r="A63" s="142"/>
       <c r="C63" s="23" t="s">
         <v>246</v>
       </c>
       <c r="D63" s="81" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G63" s="128"/>
+      <c r="G63" s="114"/>
       <c r="H63" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
@@ -5123,19 +5126,19 @@
       <c r="AA63" s="85"/>
     </row>
     <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="107"/>
+      <c r="A64" s="142"/>
       <c r="C64" s="101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D64" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="G64" s="128"/>
+        <v>353</v>
+      </c>
+      <c r="G64" s="114"/>
       <c r="H64" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J64" s="23" t="s">
         <v>305</v>
@@ -5159,7 +5162,7 @@
       <c r="AA64" s="85"/>
     </row>
     <row r="65" spans="1:27" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="107"/>
+      <c r="A65" s="142"/>
       <c r="D65" s="23" t="s">
         <v>40</v>
       </c>
@@ -5167,14 +5170,14 @@
         <v>26</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G65" s="128"/>
+        <v>534</v>
+      </c>
+      <c r="G65" s="114"/>
       <c r="H65" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K65" s="84"/>
       <c r="L65" s="84"/>
@@ -5195,24 +5198,24 @@
       <c r="AA65" s="85"/>
     </row>
     <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="107"/>
+      <c r="A66" s="142"/>
       <c r="B66" s="86"/>
       <c r="C66" s="102" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D66" s="98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E66" s="42"/>
       <c r="F66" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="G66" s="128"/>
+        <v>413</v>
+      </c>
+      <c r="G66" s="114"/>
       <c r="H66" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K66" s="84"/>
       <c r="L66" s="84"/>
@@ -5233,25 +5236,25 @@
       <c r="AA66" s="85"/>
     </row>
     <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="107"/>
+      <c r="A67" s="142"/>
       <c r="C67" s="101" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="G67" s="128"/>
+        <v>414</v>
+      </c>
+      <c r="G67" s="114"/>
       <c r="H67" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I67" s="81" t="s">
         <v>47</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K67" s="84"/>
       <c r="L67" s="84"/>
@@ -5272,22 +5275,22 @@
       <c r="AA67" s="85"/>
     </row>
     <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
+      <c r="A68" s="142"/>
       <c r="C68" s="96" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D68" s="68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F68" s="103" t="s">
-        <v>434</v>
-      </c>
-      <c r="G68" s="128"/>
+        <v>433</v>
+      </c>
+      <c r="G68" s="114"/>
       <c r="H68" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J68" s="103" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K68" s="84"/>
       <c r="L68" s="84"/>
@@ -5308,15 +5311,15 @@
       <c r="AA68" s="85"/>
     </row>
     <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="107"/>
+      <c r="A69" s="142"/>
       <c r="B69" s="87"/>
-      <c r="C69" s="112" t="s">
+      <c r="C69" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="113"/>
+      <c r="D69" s="110"/>
       <c r="G69" s="81"/>
       <c r="H69" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -5335,22 +5338,22 @@
       <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="107"/>
+      <c r="A70" s="142"/>
       <c r="B70" s="87"/>
-      <c r="C70" s="112" t="s">
+      <c r="C70" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="113"/>
+      <c r="D70" s="110"/>
       <c r="G70" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="I70" s="112" t="s">
+        <v>388</v>
+      </c>
+      <c r="I70" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="J70" s="113"/>
+      <c r="J70" s="110"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -5368,24 +5371,24 @@
       <c r="Y70" s="13"/>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="107"/>
+      <c r="A71" s="142"/>
       <c r="B71" s="87"/>
-      <c r="C71" s="112" t="s">
+      <c r="C71" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="113"/>
-      <c r="E71" s="112" t="s">
-        <v>500</v>
-      </c>
-      <c r="F71" s="113"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="115" t="s">
+        <v>499</v>
+      </c>
+      <c r="F71" s="110"/>
       <c r="G71" s="81"/>
       <c r="H71" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="I71" s="112" t="s">
+        <v>456</v>
+      </c>
+      <c r="I71" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="J71" s="113"/>
+      <c r="J71" s="110"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
@@ -5403,24 +5406,24 @@
       <c r="Y71" s="13"/>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="107"/>
+      <c r="A72" s="142"/>
       <c r="B72" s="87"/>
-      <c r="C72" s="108" t="s">
-        <v>578</v>
-      </c>
-      <c r="D72" s="109"/>
-      <c r="E72" s="112" t="s">
+      <c r="C72" s="116" t="s">
+        <v>577</v>
+      </c>
+      <c r="D72" s="117"/>
+      <c r="E72" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="113"/>
+      <c r="F72" s="110"/>
       <c r="G72" s="81"/>
       <c r="H72" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I72" s="112" t="s">
+        <v>405</v>
+      </c>
+      <c r="I72" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="J72" s="113"/>
+      <c r="J72" s="110"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
@@ -5438,24 +5441,24 @@
       <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="107"/>
+      <c r="A73" s="142"/>
       <c r="B73" s="25"/>
-      <c r="C73" s="112" t="s">
+      <c r="C73" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="112" t="s">
+      <c r="D73" s="110"/>
+      <c r="E73" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="F73" s="113"/>
+      <c r="F73" s="110"/>
       <c r="G73" s="70"/>
       <c r="H73" s="88" t="s">
-        <v>565</v>
-      </c>
-      <c r="I73" s="112" t="s">
-        <v>553</v>
-      </c>
-      <c r="J73" s="113"/>
+        <v>564</v>
+      </c>
+      <c r="I73" s="115" t="s">
+        <v>552</v>
+      </c>
+      <c r="J73" s="110"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5473,16 +5476,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="107"/>
-      <c r="E74" s="112" t="s">
-        <v>549</v>
-      </c>
-      <c r="F74" s="113"/>
+      <c r="A74" s="142"/>
+      <c r="E74" s="115" t="s">
+        <v>548</v>
+      </c>
+      <c r="F74" s="110"/>
       <c r="G74" s="70"/>
-      <c r="I74" s="112" t="s">
+      <c r="I74" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="J74" s="113"/>
+      <c r="J74" s="110"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5500,19 +5503,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="107"/>
+      <c r="A75" s="142"/>
       <c r="B75" s="25"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="120" t="s">
+      <c r="C75" s="115"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="F75" s="121"/>
+      <c r="F75" s="119"/>
       <c r="G75" s="70"/>
-      <c r="I75" s="132" t="s">
-        <v>487</v>
-      </c>
-      <c r="J75" s="113"/>
+      <c r="I75" s="109" t="s">
+        <v>486</v>
+      </c>
+      <c r="J75" s="110"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5530,17 +5533,17 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="107"/>
+      <c r="A76" s="142"/>
       <c r="B76" s="25"/>
       <c r="C76" s="72"/>
       <c r="D76" s="73"/>
-      <c r="E76" s="112" t="s">
-        <v>462</v>
-      </c>
-      <c r="F76" s="113"/>
+      <c r="E76" s="115" t="s">
+        <v>461</v>
+      </c>
+      <c r="F76" s="110"/>
       <c r="G76" s="70"/>
       <c r="J76" s="97" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5585,15 +5588,15 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D78" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>44</v>
@@ -5601,16 +5604,16 @@
       <c r="F78" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G78" s="144" t="s">
-        <v>454</v>
+      <c r="G78" s="111" t="s">
+        <v>453</v>
       </c>
       <c r="H78" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="70" t="s">
-        <v>554</v>
-      </c>
-      <c r="J78" s="110" t="s">
+        <v>553</v>
+      </c>
+      <c r="J78" s="135" t="s">
         <v>14</v>
       </c>
       <c r="K78" s="9"/>
@@ -5632,10 +5635,10 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="118"/>
+      <c r="A79" s="107"/>
       <c r="B79" s="71"/>
       <c r="C79" s="89" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D79" s="70" t="s">
         <v>61</v>
@@ -5644,16 +5647,16 @@
         <v>19</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="G79" s="111"/>
+        <v>358</v>
+      </c>
+      <c r="G79" s="112"/>
       <c r="H79" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I79" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="J79" s="111"/>
+      <c r="J79" s="112"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -5673,7 +5676,7 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="118"/>
+      <c r="A80" s="107"/>
       <c r="B80" s="71"/>
       <c r="C80" s="2" t="s">
         <v>65</v>
@@ -5687,9 +5690,9 @@
       <c r="F80" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G80" s="111"/>
+      <c r="G80" s="112"/>
       <c r="H80" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>62</v>
@@ -5714,26 +5717,26 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="118"/>
+      <c r="A81" s="107"/>
       <c r="B81" s="71"/>
       <c r="C81" s="98" t="s">
         <v>300</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="G81" s="111"/>
+      <c r="G81" s="112"/>
       <c r="H81" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I81" s="70" t="s">
         <v>51</v>
       </c>
       <c r="J81" s="70" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5752,7 +5755,7 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="118"/>
+      <c r="A82" s="107"/>
       <c r="B82" s="71"/>
       <c r="C82" s="5" t="s">
         <v>306</v>
@@ -5766,12 +5769,12 @@
       <c r="F82" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="G82" s="111"/>
+      <c r="G82" s="112"/>
       <c r="H82" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -5790,7 +5793,7 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="118"/>
+      <c r="A83" s="107"/>
       <c r="B83" s="71"/>
       <c r="D83" s="98" t="s">
         <v>299</v>
@@ -5801,9 +5804,9 @@
       <c r="F83" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G83" s="111"/>
+      <c r="G83" s="112"/>
       <c r="H83" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I83" s="98" t="s">
         <v>297</v>
@@ -5828,23 +5831,23 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="118"/>
+      <c r="A84" s="107"/>
       <c r="B84" s="71"/>
       <c r="C84" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E84" s="70" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G84" s="111"/>
+      <c r="G84" s="112"/>
       <c r="H84" s="75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>312</v>
@@ -5869,29 +5872,29 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="118"/>
+      <c r="A85" s="107"/>
       <c r="B85" s="71"/>
       <c r="C85" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G85" s="111"/>
+      <c r="G85" s="112"/>
       <c r="H85" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5910,14 +5913,14 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="118"/>
+      <c r="A86" s="107"/>
       <c r="B86" s="71"/>
       <c r="C86" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="G86" s="111"/>
+        <v>418</v>
+      </c>
+      <c r="G86" s="112"/>
       <c r="H86" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>305</v>
@@ -5944,17 +5947,17 @@
       <c r="AA86" s="32"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="118"/>
+      <c r="A87" s="107"/>
       <c r="E87" s="94" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="111"/>
+      <c r="G87" s="112"/>
       <c r="H87" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>315</v>
@@ -5977,17 +5980,14 @@
       <c r="AA87" s="32"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="118"/>
+      <c r="A88" s="107"/>
       <c r="C88" s="2"/>
       <c r="E88" s="75" t="s">
-        <v>421</v>
-      </c>
-      <c r="G88" s="111"/>
+        <v>420</v>
+      </c>
+      <c r="G88" s="112"/>
       <c r="H88" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -6007,22 +6007,22 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="118"/>
+      <c r="A89" s="107"/>
       <c r="B89" s="30"/>
       <c r="E89" s="94" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I89" s="75" t="s">
         <v>237</v>
       </c>
       <c r="J89" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -6042,25 +6042,25 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="118"/>
-      <c r="C90" s="132" t="s">
-        <v>547</v>
-      </c>
-      <c r="D90" s="113"/>
+      <c r="A90" s="107"/>
+      <c r="C90" s="109" t="s">
+        <v>546</v>
+      </c>
+      <c r="D90" s="110"/>
       <c r="F90" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I90" s="94" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J90" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6081,22 +6081,22 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="118"/>
-      <c r="C91" s="132" t="s">
+      <c r="A91" s="107"/>
+      <c r="C91" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="D91" s="139"/>
+      <c r="D91" s="122"/>
       <c r="F91" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I91" s="75" t="s">
         <v>423</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I91" s="75" t="s">
-        <v>424</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -6117,14 +6117,14 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="118"/>
+      <c r="A92" s="107"/>
       <c r="E92" s="62"/>
       <c r="F92" s="4" t="s">
         <v>248</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J92" s="70"/>
       <c r="K92" s="16"/>
@@ -6146,13 +6146,13 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="118"/>
+      <c r="A93" s="107"/>
       <c r="C93" s="90" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J93" s="70"/>
       <c r="K93" s="9"/>
@@ -6172,22 +6172,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="118"/>
+      <c r="A94" s="107"/>
       <c r="B94" s="25"/>
-      <c r="C94" s="112" t="s">
+      <c r="C94" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="D94" s="113"/>
-      <c r="E94" s="112" t="s">
+      <c r="D94" s="110"/>
+      <c r="E94" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="F94" s="113"/>
+      <c r="F94" s="110"/>
       <c r="G94" s="33"/>
       <c r="H94" s="70"/>
-      <c r="I94" s="112" t="s">
+      <c r="I94" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="J94" s="113"/>
+      <c r="J94" s="110"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -6205,22 +6205,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="118"/>
+      <c r="A95" s="107"/>
       <c r="B95" s="25"/>
-      <c r="C95" s="112" t="s">
-        <v>498</v>
-      </c>
-      <c r="D95" s="113"/>
-      <c r="E95" s="112" t="s">
+      <c r="C95" s="115" t="s">
+        <v>497</v>
+      </c>
+      <c r="D95" s="110"/>
+      <c r="E95" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="F95" s="113"/>
+      <c r="F95" s="110"/>
       <c r="G95" s="33"/>
       <c r="H95" s="70"/>
-      <c r="I95" s="112" t="s">
+      <c r="I95" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="J95" s="113"/>
+      <c r="J95" s="110"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -6238,21 +6238,21 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="118"/>
+      <c r="A96" s="107"/>
       <c r="B96" s="25"/>
-      <c r="C96" s="112" t="s">
+      <c r="C96" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="D96" s="113"/>
-      <c r="E96" s="114" t="s">
+      <c r="D96" s="110"/>
+      <c r="E96" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="111"/>
+      <c r="F96" s="112"/>
       <c r="G96" s="33"/>
-      <c r="H96" s="112" t="s">
+      <c r="H96" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="I96" s="113"/>
+      <c r="I96" s="110"/>
       <c r="J96" s="62"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6271,22 +6271,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="118"/>
+      <c r="A97" s="107"/>
       <c r="B97" s="25"/>
-      <c r="C97" s="112" t="s">
-        <v>551</v>
-      </c>
-      <c r="D97" s="113"/>
-      <c r="E97" s="114" t="s">
-        <v>531</v>
-      </c>
-      <c r="F97" s="111"/>
+      <c r="C97" s="115" t="s">
+        <v>550</v>
+      </c>
+      <c r="D97" s="110"/>
+      <c r="E97" s="128" t="s">
+        <v>530</v>
+      </c>
+      <c r="F97" s="112"/>
       <c r="G97" s="33"/>
       <c r="H97" s="70"/>
-      <c r="I97" s="132" t="s">
-        <v>490</v>
-      </c>
-      <c r="J97" s="113"/>
+      <c r="I97" s="109" t="s">
+        <v>489</v>
+      </c>
+      <c r="J97" s="110"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6304,20 +6304,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="118"/>
+      <c r="A98" s="107"/>
       <c r="B98" s="25"/>
-      <c r="C98" s="112" t="s">
+      <c r="C98" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="D98" s="113"/>
-      <c r="E98" s="114" t="s">
+      <c r="D98" s="110"/>
+      <c r="E98" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F98" s="111"/>
+      <c r="F98" s="112"/>
       <c r="G98" s="33"/>
       <c r="H98" s="77"/>
-      <c r="I98" s="138"/>
-      <c r="J98" s="134"/>
+      <c r="I98" s="120"/>
+      <c r="J98" s="121"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6335,16 +6335,16 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="118"/>
+      <c r="A99" s="107"/>
       <c r="B99" s="25"/>
-      <c r="C99" s="120" t="s">
+      <c r="C99" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="D99" s="121"/>
-      <c r="E99" s="120" t="s">
-        <v>436</v>
-      </c>
-      <c r="F99" s="121"/>
+      <c r="D99" s="119"/>
+      <c r="E99" s="118" t="s">
+        <v>435</v>
+      </c>
+      <c r="F99" s="119"/>
       <c r="G99" s="33"/>
       <c r="H99" s="77"/>
       <c r="J99" s="77"/>
@@ -6365,14 +6365,14 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="118"/>
+      <c r="A100" s="107"/>
       <c r="B100" s="25"/>
       <c r="C100" s="72"/>
       <c r="D100" s="73"/>
-      <c r="E100" s="112" t="s">
-        <v>524</v>
-      </c>
-      <c r="F100" s="113"/>
+      <c r="E100" s="115" t="s">
+        <v>523</v>
+      </c>
+      <c r="F100" s="110"/>
       <c r="G100" s="33"/>
       <c r="H100" s="77"/>
       <c r="I100" s="77"/>
@@ -6394,12 +6394,12 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="118"/>
+      <c r="A101" s="107"/>
       <c r="B101" s="25"/>
       <c r="C101" s="72"/>
       <c r="D101" s="73"/>
-      <c r="E101" s="112"/>
-      <c r="F101" s="113"/>
+      <c r="E101" s="115"/>
+      <c r="F101" s="110"/>
       <c r="G101" s="33"/>
       <c r="H101" s="77"/>
       <c r="J101" s="77"/>
@@ -6420,12 +6420,12 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="119"/>
+      <c r="A102" s="108"/>
       <c r="B102" s="25"/>
       <c r="C102" s="72"/>
       <c r="D102" s="73"/>
-      <c r="E102" s="112"/>
-      <c r="F102" s="113"/>
+      <c r="E102" s="115"/>
+      <c r="F102" s="110"/>
       <c r="G102" s="33"/>
       <c r="H102" s="77"/>
       <c r="J102" s="77"/>
@@ -6499,21 +6499,21 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="116" t="s">
+      <c r="A105" s="139" t="s">
         <v>69</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D105" s="70" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F105" s="93" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H105" s="35" t="s">
         <v>70</v>
@@ -6541,10 +6541,10 @@
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="111"/>
+      <c r="A106" s="112"/>
       <c r="B106" s="71"/>
       <c r="C106" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D106" s="70" t="s">
         <v>19</v>
@@ -6558,7 +6558,7 @@
       <c r="G106" s="36"/>
       <c r="H106" s="35"/>
       <c r="I106" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J106" s="70" t="s">
         <v>72</v>
@@ -6580,23 +6580,23 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="111"/>
+      <c r="A107" s="112"/>
       <c r="B107" s="71"/>
       <c r="C107" s="70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D107" s="70" t="s">
         <v>51</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F107" s="70" t="s">
         <v>52</v>
       </c>
       <c r="G107" s="36"/>
       <c r="H107" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>36</v>
@@ -6621,27 +6621,29 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="111"/>
+      <c r="A108" s="112"/>
       <c r="B108" s="71"/>
       <c r="C108" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D108" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="D108" s="15" t="s">
-        <v>365</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G108" s="127" t="s">
-        <v>455</v>
+      <c r="G108" s="113" t="s">
+        <v>454</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I108" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="I108" s="145" t="s">
+        <v>578</v>
+      </c>
       <c r="J108" s="70" t="s">
         <v>39</v>
       </c>
@@ -6662,20 +6664,20 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="111"/>
+      <c r="A109" s="112"/>
       <c r="B109" s="71"/>
       <c r="D109" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G109" s="114"/>
+      <c r="H109" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G109" s="128"/>
-      <c r="H109" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>272</v>
@@ -6697,18 +6699,18 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="111"/>
+      <c r="A110" s="112"/>
       <c r="B110" s="71"/>
       <c r="D110" s="98" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G110" s="128"/>
+      <c r="G110" s="114"/>
       <c r="I110" s="70"/>
       <c r="J110" s="70"/>
       <c r="K110" s="16"/>
@@ -6730,13 +6732,13 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="111"/>
+      <c r="A111" s="112"/>
       <c r="B111" s="71"/>
       <c r="D111" s="98" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F111" s="2"/>
-      <c r="G111" s="128"/>
+      <c r="G111" s="114"/>
       <c r="H111" s="37"/>
       <c r="I111" s="4" t="s">
         <v>239</v>
@@ -6761,12 +6763,12 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="111"/>
+      <c r="A112" s="112"/>
       <c r="B112" s="71"/>
       <c r="D112" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="G112" s="128"/>
+        <v>366</v>
+      </c>
+      <c r="G112" s="114"/>
       <c r="H112" s="37"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6788,13 +6790,13 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="111"/>
+      <c r="A113" s="112"/>
       <c r="B113" s="71"/>
       <c r="C113" s="70"/>
       <c r="E113" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G113" s="128"/>
+        <v>426</v>
+      </c>
+      <c r="G113" s="114"/>
       <c r="H113" s="35"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6816,12 +6818,12 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="111"/>
+      <c r="A114" s="112"/>
       <c r="B114" s="71"/>
       <c r="E114" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="G114" s="128"/>
+        <v>533</v>
+      </c>
+      <c r="G114" s="114"/>
       <c r="H114" s="37"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6842,16 +6844,16 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="111"/>
+      <c r="A115" s="112"/>
       <c r="B115" s="71"/>
       <c r="D115" s="70"/>
       <c r="E115" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G115" s="128"/>
+        <v>469</v>
+      </c>
+      <c r="G115" s="114"/>
       <c r="H115" s="37"/>
       <c r="J115" s="70"/>
       <c r="K115" s="16"/>
@@ -6873,12 +6875,12 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="111"/>
+      <c r="A116" s="112"/>
       <c r="B116" s="71"/>
       <c r="E116" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G116" s="128"/>
+        <v>428</v>
+      </c>
+      <c r="G116" s="114"/>
       <c r="H116" s="70" t="s">
         <v>33</v>
       </c>
@@ -6901,22 +6903,22 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="111"/>
+      <c r="A117" s="112"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="113"/>
-      <c r="E117" s="112" t="s">
+      <c r="C117" s="115"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="F117" s="113"/>
-      <c r="G117" s="128"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="114"/>
       <c r="H117" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I117" s="112" t="s">
+      <c r="I117" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="J117" s="113"/>
+      <c r="J117" s="110"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -6936,16 +6938,16 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="111"/>
+      <c r="A118" s="112"/>
       <c r="B118" s="71"/>
       <c r="C118" s="90" t="s">
-        <v>569</v>
-      </c>
-      <c r="G118" s="128"/>
-      <c r="H118" s="140" t="s">
-        <v>496</v>
-      </c>
-      <c r="I118" s="141"/>
+        <v>568</v>
+      </c>
+      <c r="G118" s="114"/>
+      <c r="H118" s="123" t="s">
+        <v>495</v>
+      </c>
+      <c r="I118" s="124"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -6965,21 +6967,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="111"/>
+      <c r="A119" s="112"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="112" t="s">
-        <v>495</v>
-      </c>
-      <c r="D119" s="113"/>
-      <c r="E119" s="112" t="s">
+      <c r="C119" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="D119" s="110"/>
+      <c r="E119" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="F119" s="113"/>
-      <c r="G119" s="128"/>
-      <c r="I119" s="112" t="s">
+      <c r="F119" s="110"/>
+      <c r="G119" s="114"/>
+      <c r="I119" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J119" s="113"/>
+      <c r="J119" s="110"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -6999,22 +7001,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="111"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="112" t="s">
-        <v>501</v>
-      </c>
-      <c r="D120" s="113"/>
-      <c r="E120" s="120" t="s">
-        <v>443</v>
-      </c>
-      <c r="F120" s="121"/>
+      <c r="C120" s="115" t="s">
+        <v>500</v>
+      </c>
+      <c r="D120" s="110"/>
+      <c r="E120" s="118" t="s">
+        <v>442</v>
+      </c>
+      <c r="F120" s="119"/>
       <c r="G120" s="36"/>
       <c r="H120" s="37"/>
-      <c r="I120" s="112" t="s">
+      <c r="I120" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="J120" s="113"/>
+      <c r="J120" s="110"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -7034,22 +7036,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="111"/>
+      <c r="A121" s="112"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="112" t="s">
-        <v>497</v>
-      </c>
-      <c r="D121" s="113"/>
-      <c r="E121" s="132" t="s">
-        <v>480</v>
-      </c>
-      <c r="F121" s="113"/>
+      <c r="C121" s="115" t="s">
+        <v>496</v>
+      </c>
+      <c r="D121" s="110"/>
+      <c r="E121" s="109" t="s">
+        <v>479</v>
+      </c>
+      <c r="F121" s="110"/>
       <c r="G121" s="36"/>
       <c r="H121" s="37"/>
-      <c r="I121" s="112" t="s">
+      <c r="I121" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="J121" s="113"/>
+      <c r="J121" s="110"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -7069,16 +7071,16 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="111"/>
+      <c r="A122" s="112"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="112" t="s">
+      <c r="C122" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="D122" s="113"/>
-      <c r="E122" s="112" t="s">
-        <v>463</v>
-      </c>
-      <c r="F122" s="113"/>
+      <c r="D122" s="110"/>
+      <c r="E122" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="F122" s="110"/>
       <c r="G122" s="36"/>
       <c r="H122" s="37"/>
       <c r="K122" s="16"/>
@@ -7100,18 +7102,18 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="111"/>
+      <c r="A123" s="112"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="112" t="s">
+      <c r="C123" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="D123" s="113"/>
+      <c r="D123" s="110"/>
       <c r="G123" s="36"/>
       <c r="H123" s="37"/>
-      <c r="I123" s="132" t="s">
-        <v>504</v>
-      </c>
-      <c r="J123" s="113"/>
+      <c r="I123" s="109" t="s">
+        <v>503</v>
+      </c>
+      <c r="J123" s="110"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7131,20 +7133,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="111"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="132" t="s">
-        <v>481</v>
-      </c>
-      <c r="D124" s="113"/>
+      <c r="C124" s="109" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" s="110"/>
       <c r="G124" s="36"/>
       <c r="H124" s="94" t="s">
-        <v>458</v>
-      </c>
-      <c r="I124" s="132" t="s">
-        <v>472</v>
-      </c>
-      <c r="J124" s="113"/>
+        <v>457</v>
+      </c>
+      <c r="I124" s="109" t="s">
+        <v>471</v>
+      </c>
+      <c r="J124" s="110"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7164,16 +7166,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="111"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="113"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="110"/>
       <c r="G125" s="36"/>
       <c r="H125" s="75"/>
-      <c r="I125" s="133" t="s">
-        <v>525</v>
-      </c>
-      <c r="J125" s="134"/>
+      <c r="I125" s="134" t="s">
+        <v>524</v>
+      </c>
+      <c r="J125" s="121"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7193,10 +7195,10 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="111"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="113"/>
+      <c r="C126" s="115"/>
+      <c r="D126" s="110"/>
       <c r="G126" s="36"/>
       <c r="H126" s="37"/>
       <c r="K126" s="16"/>
@@ -7218,7 +7220,7 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="111"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="6"/>
       <c r="C127" s="72"/>
       <c r="D127" s="73"/>
@@ -7296,12 +7298,12 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="117" t="s">
+      <c r="A130" s="106" t="s">
         <v>77</v>
       </c>
       <c r="B130" s="76"/>
       <c r="C130" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>78</v>
@@ -7333,10 +7335,10 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="118"/>
+      <c r="A131" s="107"/>
       <c r="B131" s="71"/>
       <c r="C131" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>81</v>
@@ -7345,8 +7347,8 @@
         <v>71</v>
       </c>
       <c r="H131" s="11"/>
-      <c r="I131" s="131"/>
-      <c r="J131" s="111"/>
+      <c r="I131" s="133"/>
+      <c r="J131" s="112"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7364,13 +7366,13 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="118"/>
+      <c r="A132" s="107"/>
       <c r="B132" s="71"/>
       <c r="C132" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F132" s="93" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="42"/>
@@ -7392,16 +7394,16 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="118"/>
+      <c r="A133" s="107"/>
       <c r="B133" s="71"/>
       <c r="C133" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D133" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7423,10 +7425,10 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="118"/>
+      <c r="A134" s="107"/>
       <c r="B134" s="71"/>
       <c r="D134" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>68</v>
@@ -7451,7 +7453,7 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="118"/>
+      <c r="A135" s="107"/>
       <c r="B135" s="71"/>
       <c r="C135" s="23" t="s">
         <v>275</v>
@@ -7460,7 +7462,7 @@
         <v>279</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I135" s="43"/>
       <c r="J135" s="77"/>
@@ -7481,16 +7483,16 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="118"/>
+      <c r="A136" s="107"/>
       <c r="B136" s="71"/>
       <c r="C136" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E136" s="98" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="44"/>
@@ -7512,16 +7514,16 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="118"/>
+      <c r="A137" s="107"/>
       <c r="B137" s="71"/>
       <c r="C137" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E137" s="99" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G137" s="2"/>
       <c r="I137" s="44"/>
@@ -7543,11 +7545,11 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="118"/>
+      <c r="A138" s="107"/>
       <c r="B138" s="71"/>
       <c r="C138" s="4"/>
       <c r="D138" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="44"/>
@@ -7570,15 +7572,15 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="118"/>
+      <c r="A139" s="107"/>
       <c r="B139" s="71"/>
       <c r="C139" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F139" s="114" t="s">
-        <v>537</v>
-      </c>
-      <c r="G139" s="111"/>
+      <c r="F139" s="128" t="s">
+        <v>536</v>
+      </c>
+      <c r="G139" s="112"/>
       <c r="H139" s="44"/>
       <c r="I139" s="44"/>
       <c r="J139" s="11"/>
@@ -7599,17 +7601,17 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="118"/>
+      <c r="A140" s="107"/>
       <c r="C140" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D140" s="90" t="s">
-        <v>567</v>
-      </c>
-      <c r="F140" s="115" t="s">
+        <v>566</v>
+      </c>
+      <c r="F140" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="G140" s="111"/>
+      <c r="G140" s="112"/>
       <c r="H140" s="44"/>
       <c r="I140" s="44"/>
       <c r="J140" s="11"/>
@@ -7630,18 +7632,18 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="118"/>
+      <c r="A141" s="107"/>
       <c r="C141" s="104" t="s">
-        <v>433</v>
-      </c>
-      <c r="D141" s="112" t="s">
-        <v>561</v>
-      </c>
-      <c r="E141" s="113"/>
-      <c r="F141" s="115" t="s">
+        <v>432</v>
+      </c>
+      <c r="D141" s="115" t="s">
+        <v>560</v>
+      </c>
+      <c r="E141" s="110"/>
+      <c r="F141" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="G141" s="111"/>
+      <c r="G141" s="112"/>
       <c r="H141" s="44"/>
       <c r="I141" s="44"/>
       <c r="J141" s="11"/>
@@ -7662,11 +7664,11 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="118"/>
-      <c r="D142" s="112" t="s">
+      <c r="A142" s="107"/>
+      <c r="D142" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="E142" s="113"/>
+      <c r="E142" s="110"/>
       <c r="G142" s="36"/>
       <c r="H142" s="44"/>
       <c r="I142" s="44"/>
@@ -7688,12 +7690,12 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="118"/>
+      <c r="A143" s="107"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="112" t="s">
+      <c r="D143" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="E143" s="113"/>
+      <c r="E143" s="110"/>
       <c r="H143" s="44"/>
       <c r="I143" s="44"/>
       <c r="J143" s="11"/>
@@ -7714,16 +7716,16 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="118"/>
+      <c r="A144" s="107"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="112" t="s">
+      <c r="D144" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="E144" s="113"/>
-      <c r="F144" s="120" t="s">
+      <c r="E144" s="110"/>
+      <c r="F144" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="G144" s="121"/>
+      <c r="G144" s="119"/>
       <c r="H144" s="44"/>
       <c r="I144" s="44"/>
       <c r="J144" s="11"/>
@@ -7744,16 +7746,16 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="118"/>
+      <c r="A145" s="107"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="136" t="s">
+      <c r="D145" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="E145" s="137"/>
-      <c r="F145" s="120" t="s">
-        <v>446</v>
-      </c>
-      <c r="G145" s="121"/>
+      <c r="E145" s="131"/>
+      <c r="F145" s="118" t="s">
+        <v>445</v>
+      </c>
+      <c r="G145" s="119"/>
       <c r="H145" s="44"/>
       <c r="I145" s="44"/>
       <c r="J145" s="11"/>
@@ -7774,16 +7776,16 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="118"/>
+      <c r="A146" s="107"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="112" t="s">
+      <c r="D146" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="E146" s="113"/>
-      <c r="F146" s="122" t="s">
-        <v>527</v>
-      </c>
-      <c r="G146" s="123"/>
+      <c r="E146" s="110"/>
+      <c r="F146" s="143" t="s">
+        <v>526</v>
+      </c>
+      <c r="G146" s="144"/>
       <c r="H146" s="44"/>
       <c r="I146" s="44"/>
       <c r="J146" s="11"/>
@@ -7804,12 +7806,12 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="118"/>
+      <c r="A147" s="107"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="112" t="s">
+      <c r="D147" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="E147" s="113"/>
+      <c r="E147" s="110"/>
       <c r="H147" s="44"/>
       <c r="I147" s="44"/>
       <c r="J147" s="11"/>
@@ -7830,12 +7832,12 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="118"/>
+      <c r="A148" s="107"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="108" t="s">
-        <v>526</v>
-      </c>
-      <c r="E148" s="109"/>
+      <c r="D148" s="116" t="s">
+        <v>525</v>
+      </c>
+      <c r="E148" s="117"/>
       <c r="H148" s="44"/>
       <c r="I148" s="44"/>
       <c r="J148" s="11"/>
@@ -7856,12 +7858,12 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="118"/>
+      <c r="A149" s="107"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="114" t="s">
+      <c r="D149" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="E149" s="111"/>
+      <c r="E149" s="112"/>
       <c r="F149" s="2"/>
       <c r="G149" s="36"/>
       <c r="H149" s="11"/>
@@ -7884,12 +7886,12 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="118"/>
+      <c r="A150" s="107"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="114" t="s">
-        <v>530</v>
-      </c>
-      <c r="E150" s="111"/>
+      <c r="D150" s="128" t="s">
+        <v>529</v>
+      </c>
+      <c r="E150" s="112"/>
       <c r="F150" s="2"/>
       <c r="G150" s="33"/>
       <c r="H150" s="11"/>
@@ -7912,12 +7914,12 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="118"/>
+      <c r="A151" s="107"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="114" t="s">
+      <c r="D151" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="E151" s="111"/>
+      <c r="E151" s="112"/>
       <c r="F151" s="2"/>
       <c r="G151" s="33"/>
       <c r="H151" s="11"/>
@@ -7940,12 +7942,12 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="119"/>
+      <c r="A152" s="108"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="130" t="s">
+      <c r="D152" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="E152" s="130"/>
+      <c r="E152" s="129"/>
       <c r="F152" s="2"/>
       <c r="G152" s="33"/>
       <c r="H152" s="11"/>
@@ -8440,7 +8442,7 @@
         <v>153</v>
       </c>
       <c r="H166" s="60" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I166" s="60" t="s">
         <v>154</v>
@@ -8780,10 +8782,10 @@
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="H175" s="59" t="s">
         <v>543</v>
-      </c>
-      <c r="H175" s="59" t="s">
-        <v>544</v>
       </c>
       <c r="I175" s="59" t="s">
         <v>178</v>
@@ -8813,10 +8815,10 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="H176" s="59" t="s">
         <v>538</v>
-      </c>
-      <c r="H176" s="59" t="s">
-        <v>539</v>
       </c>
       <c r="I176" s="59" t="s">
         <v>179</v>
@@ -9255,7 +9257,7 @@
       <c r="C192" s="59"/>
       <c r="D192" s="59"/>
       <c r="E192" s="59"/>
-      <c r="F192" s="135"/>
+      <c r="F192" s="127"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9279,7 +9281,7 @@
       <c r="C193" s="59"/>
       <c r="D193" s="59"/>
       <c r="E193" s="59"/>
-      <c r="F193" s="111"/>
+      <c r="F193" s="112"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -9330,7 +9332,7 @@
       <c r="C195" s="59"/>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
-      <c r="F195" s="135"/>
+      <c r="F195" s="127"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9357,7 +9359,7 @@
       <c r="C196" s="59"/>
       <c r="D196" s="59"/>
       <c r="E196" s="59"/>
-      <c r="F196" s="111"/>
+      <c r="F196" s="112"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -12931,6 +12933,113 @@
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="A54:A76"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="A105:A127"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A78:A102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="G108:G119"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="I70:J70"/>
     <mergeCell ref="A30:A52"/>
     <mergeCell ref="A130:A152"/>
     <mergeCell ref="I75:J75"/>
@@ -12955,113 +13064,6 @@
     <mergeCell ref="I74:J74"/>
     <mergeCell ref="I73:J73"/>
     <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G108:G119"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G5:G28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A54:A76"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="A105:A127"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A78:A102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F327A79-4B63-4CAE-8ED2-74F4E538A023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2BB39-2F94-455B-AAF8-F49081C18868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>LA7,A8,A10(15B11EC413)-FF5/MJ</t>
   </si>
   <si>
-    <t>LA15,A16(25B21EC214))-FF6/NEJ</t>
-  </si>
-  <si>
     <t>LA3,A4(18B11EC212)-FF6/RB</t>
   </si>
   <si>
@@ -1546,12 +1543,6 @@
     <t>LB9,B10(19B13BT211) -FF8/ANS</t>
   </si>
   <si>
-    <t>PB7(CS221)-CL07/TRN,AST</t>
-  </si>
-  <si>
-    <t>PB1,B2,B4(CS221)-CL10,11,12/AST,KJ,TAJ,RJM</t>
-  </si>
-  <si>
     <t>LB11,B12 (CS221)-CR301/SHJ</t>
   </si>
   <si>
@@ -1576,9 +1567,6 @@
     <t>LB7,B8 (CS223)-G2/PSO</t>
   </si>
   <si>
-    <t>PB11,12(CS221)-CL17, CL18 /TKT,VRN, MKT, RJM</t>
-  </si>
-  <si>
     <t>LB9,B10(CS223)-G3/RJM</t>
   </si>
   <si>
@@ -1610,9 +1598,6 @@
   </si>
   <si>
     <t>PA8(15B17EC473)-SPL/VK,TA7</t>
-  </si>
-  <si>
-    <t>LA15,A16(24B21EC212)-G2/SHI</t>
   </si>
   <si>
     <t>LA15,A16(25B21EC213)-FF8/KUL</t>
@@ -1920,28 +1905,6 @@
   </si>
   <si>
     <r>
-      <t>LA15,A16(25B21EC213))-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>G8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/KUL</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>PA16(25B25EC212)-</t>
     </r>
     <r>
@@ -2053,6 +2016,43 @@
   </si>
   <si>
     <t>LB5,B6 (CS223)-FF8/MSI</t>
+  </si>
+  <si>
+    <t>LA15,A16(25B21EC214))-CS5/NEJ</t>
+  </si>
+  <si>
+    <r>
+      <t>LA15,A16(25B21EC213))-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/KUL</t>
+    </r>
+  </si>
+  <si>
+    <t>LA15,A16(24B21EC212)-G8/SHI</t>
+  </si>
+  <si>
+    <t>PB11,12(CS221)-CL21, CL22 /TKT,VRN, MKT, RJM</t>
+  </si>
+  <si>
+    <t>PB1,B2,B4(CS221)-CL10,11,12/AST,TRN,TAJ,RJM</t>
+  </si>
+  <si>
+    <t>PB7(CS221)-CL07/KJ,AST</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2613,9 +2613,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2639,6 +2636,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2648,41 +2685,61 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2700,62 +2757,8 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2974,11 +2977,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I108" sqref="I108"/>
+      <selection pane="bottomRight" activeCell="I97" sqref="I97:J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2986,7 +2989,7 @@
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
@@ -2999,18 +3002,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="123"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -3029,7 +3032,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -3072,7 +3075,7 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="116" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
@@ -3084,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I3" s="70" t="s">
         <v>15</v>
@@ -3109,25 +3112,25 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="71"/>
       <c r="C4" s="79" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F4" s="135" t="s">
+        <v>506</v>
+      </c>
+      <c r="F4" s="110" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I4" s="70" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K4" s="73"/>
       <c r="L4" s="9"/>
@@ -3146,26 +3149,26 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="71"/>
       <c r="D5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113" t="s">
-        <v>454</v>
+        <v>252</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="129" t="s">
+        <v>453</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I5" s="70" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3184,26 +3187,26 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="71"/>
       <c r="C6" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="114"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I6" s="98" t="s">
-        <v>277</v>
+        <v>272</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>276</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3221,14 +3224,14 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
       <c r="B7" s="71"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
@@ -3236,9 +3239,9 @@
       <c r="F7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="114"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7" s="70" t="s">
         <v>21</v>
@@ -3261,23 +3264,23 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="71"/>
       <c r="C8" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>262</v>
+        <v>508</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>261</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>557</v>
-      </c>
-      <c r="G8" s="114"/>
+        <v>552</v>
+      </c>
+      <c r="G8" s="130"/>
       <c r="H8" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -3296,23 +3299,23 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="71"/>
       <c r="C9" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>263</v>
+        <v>333</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" s="114"/>
+        <v>346</v>
+      </c>
+      <c r="G9" s="130"/>
       <c r="H9" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="9"/>
@@ -3331,21 +3334,21 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
+    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
       <c r="B10" s="71"/>
       <c r="D10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G10" s="114"/>
+        <v>336</v>
+      </c>
+      <c r="G10" s="130"/>
       <c r="H10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="16"/>
@@ -3366,18 +3369,18 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="71"/>
       <c r="C11" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G11" s="114"/>
+        <v>439</v>
+      </c>
+      <c r="G11" s="130"/>
       <c r="H11" s="70"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
@@ -3398,21 +3401,21 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="71"/>
       <c r="C12" s="79"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G12" s="114"/>
+        <v>442</v>
+      </c>
+      <c r="G12" s="130"/>
       <c r="H12" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" s="99" t="s">
-        <v>407</v>
+        <v>241</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>406</v>
       </c>
       <c r="J12" s="70"/>
       <c r="K12" s="9"/>
@@ -3434,23 +3437,23 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="71"/>
       <c r="C13" s="68" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>527</v>
-      </c>
-      <c r="G13" s="114"/>
+        <v>522</v>
+      </c>
+      <c r="G13" s="130"/>
       <c r="H13" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J13" s="70"/>
       <c r="K13" s="9"/>
@@ -3472,25 +3475,25 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="71"/>
       <c r="C14" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="114"/>
+        <v>44</v>
+      </c>
+      <c r="G14" s="130"/>
       <c r="H14" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I14" s="128" t="s">
+        <v>463</v>
+      </c>
+      <c r="I14" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="112"/>
+      <c r="J14" s="111"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3510,25 +3513,25 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="71"/>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="114"/>
+        <v>269</v>
+      </c>
+      <c r="G15" s="130"/>
       <c r="H15" s="90" t="s">
-        <v>569</v>
-      </c>
-      <c r="I15" s="128" t="s">
-        <v>528</v>
-      </c>
-      <c r="J15" s="112"/>
+        <v>563</v>
+      </c>
+      <c r="I15" s="114" t="s">
+        <v>523</v>
+      </c>
+      <c r="J15" s="111"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3548,20 +3551,20 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="71"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F16" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="114"/>
-      <c r="I16" s="128" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="130"/>
+      <c r="I16" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="112"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3581,21 +3584,21 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="71"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="114"/>
+        <v>265</v>
+      </c>
+      <c r="G17" s="130"/>
       <c r="H17" s="74"/>
-      <c r="I17" s="115" t="s">
-        <v>359</v>
-      </c>
-      <c r="J17" s="110"/>
+      <c r="I17" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="J17" s="113"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3615,14 +3618,14 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="71"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="114"/>
-      <c r="I18" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="110"/>
+      <c r="G18" s="130"/>
+      <c r="I18" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="113"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3642,18 +3645,18 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="71"/>
       <c r="C19" s="4"/>
-      <c r="E19" s="100" t="s">
-        <v>517</v>
+      <c r="E19" s="99" t="s">
+        <v>512</v>
       </c>
       <c r="F19" s="70"/>
-      <c r="G19" s="114"/>
-      <c r="I19" s="115" t="s">
-        <v>219</v>
-      </c>
-      <c r="J19" s="110"/>
+      <c r="G19" s="130"/>
+      <c r="I19" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" s="113"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3673,20 +3676,20 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="71"/>
       <c r="C20" s="4"/>
       <c r="D20" s="75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="114"/>
-      <c r="I20" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="J20" s="110"/>
+        <v>266</v>
+      </c>
+      <c r="G20" s="130"/>
+      <c r="I20" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="J20" s="113"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3706,20 +3709,20 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="71"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="110"/>
+        <v>267</v>
+      </c>
+      <c r="G21" s="130"/>
+      <c r="H21" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="113"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3739,19 +3742,19 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="71"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F22" s="70"/>
-      <c r="G22" s="114"/>
+      <c r="G22" s="130"/>
       <c r="H22" s="74"/>
-      <c r="I22" s="115" t="s">
-        <v>223</v>
-      </c>
-      <c r="J22" s="110"/>
+      <c r="I22" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" s="113"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3771,19 +3774,19 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="71"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F23" s="70"/>
-      <c r="G23" s="114"/>
+      <c r="G23" s="130"/>
       <c r="H23" s="74"/>
-      <c r="I23" s="115" t="s">
-        <v>232</v>
-      </c>
-      <c r="J23" s="110"/>
+      <c r="I23" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" s="113"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3802,14 +3805,14 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="71"/>
       <c r="C24" s="4"/>
       <c r="F24" s="70"/>
-      <c r="G24" s="114"/>
+      <c r="G24" s="130"/>
       <c r="H24" s="74"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="119"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3828,16 +3831,16 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="71"/>
       <c r="C25" s="4"/>
       <c r="F25" s="70"/>
-      <c r="G25" s="114"/>
+      <c r="G25" s="130"/>
       <c r="H25" s="74"/>
-      <c r="I25" s="115" t="s">
-        <v>562</v>
-      </c>
-      <c r="J25" s="110"/>
+      <c r="I25" s="112" t="s">
+        <v>556</v>
+      </c>
+      <c r="J25" s="113"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3856,16 +3859,16 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="71"/>
       <c r="C26" s="4"/>
       <c r="F26" s="70"/>
-      <c r="G26" s="114"/>
+      <c r="G26" s="130"/>
       <c r="H26" s="74"/>
-      <c r="I26" s="115" t="s">
-        <v>549</v>
-      </c>
-      <c r="J26" s="110"/>
+      <c r="I26" s="112" t="s">
+        <v>544</v>
+      </c>
+      <c r="J26" s="113"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3882,15 +3885,15 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="71"/>
       <c r="C27" s="4"/>
       <c r="F27" s="70"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="I27" s="110"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="113"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3907,11 +3910,11 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="71"/>
       <c r="C28" s="4"/>
       <c r="F28" s="70"/>
-      <c r="G28" s="140"/>
+      <c r="G28" s="131"/>
       <c r="H28" s="74"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -3955,7 +3958,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="119" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="12"/>
@@ -3966,13 +3969,13 @@
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J30" s="70" t="s">
         <v>31</v>
@@ -3993,25 +3996,25 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="71"/>
       <c r="C31" s="70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D31" s="70" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F31" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="F31" s="110" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I31" s="70" t="s">
         <v>34</v>
@@ -4035,23 +4038,23 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="71"/>
       <c r="C32" s="70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F32" s="112"/>
+        <v>281</v>
+      </c>
+      <c r="F32" s="111"/>
       <c r="G32" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>37</v>
@@ -4075,28 +4078,28 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="71"/>
       <c r="C33" s="70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F33" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4114,27 +4117,27 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="71"/>
       <c r="C34" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="D34" s="98" t="s">
-        <v>345</v>
+        <v>369</v>
+      </c>
+      <c r="D34" s="97" t="s">
+        <v>344</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F34" s="70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="I34" s="98" t="s">
+        <v>502</v>
+      </c>
+      <c r="I34" s="97" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -4158,28 +4161,28 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="71"/>
       <c r="C35" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="98" t="s">
-        <v>344</v>
+        <v>278</v>
+      </c>
+      <c r="D35" s="97" t="s">
+        <v>343</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F35" s="135" t="s">
-        <v>557</v>
+        <v>283</v>
+      </c>
+      <c r="F35" s="110" t="s">
+        <v>552</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I35" s="98" t="s">
-        <v>295</v>
+        <v>503</v>
+      </c>
+      <c r="I35" s="97" t="s">
+        <v>294</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -4199,22 +4202,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
+      <c r="A36" s="120"/>
       <c r="D36" s="70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="F36" s="112"/>
+        <v>284</v>
+      </c>
+      <c r="F36" s="111"/>
       <c r="G36" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4234,25 +4237,25 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
+      <c r="A37" s="120"/>
       <c r="C37" s="24"/>
       <c r="D37" s="70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G37" s="113" t="s">
-        <v>454</v>
+        <v>285</v>
+      </c>
+      <c r="G37" s="129" t="s">
+        <v>453</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I37" s="94" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4272,22 +4275,22 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
+      <c r="A38" s="120"/>
       <c r="D38" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G38" s="114"/>
+        <v>440</v>
+      </c>
+      <c r="G38" s="130"/>
       <c r="H38" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J38" s="94" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
@@ -4307,23 +4310,23 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
+      <c r="A39" s="120"/>
       <c r="D39" s="70"/>
       <c r="E39" s="24" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G39" s="114"/>
+        <v>443</v>
+      </c>
+      <c r="G39" s="130"/>
       <c r="H39" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I39" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J39" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
@@ -4344,16 +4347,16 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="107"/>
+      <c r="A40" s="120"/>
       <c r="E40" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F40" s="91" t="s">
-        <v>527</v>
-      </c>
-      <c r="G40" s="114"/>
+        <v>522</v>
+      </c>
+      <c r="G40" s="130"/>
       <c r="J40" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
@@ -4374,18 +4377,18 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="107"/>
+      <c r="A41" s="120"/>
       <c r="E41" s="70"/>
       <c r="F41" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="G41" s="114"/>
+        <v>268</v>
+      </c>
+      <c r="G41" s="130"/>
       <c r="H41" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4406,16 +4409,16 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="107"/>
+      <c r="A42" s="120"/>
       <c r="D42" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="G42" s="114"/>
+        <v>286</v>
+      </c>
+      <c r="G42" s="130"/>
       <c r="H42" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="7"/>
@@ -4438,19 +4441,19 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="107"/>
+      <c r="A43" s="120"/>
       <c r="D43" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E43" s="70"/>
       <c r="F43" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="G43" s="114"/>
-      <c r="I43" s="129" t="s">
-        <v>504</v>
-      </c>
-      <c r="J43" s="112"/>
+        <v>287</v>
+      </c>
+      <c r="G43" s="130"/>
+      <c r="I43" s="132" t="s">
+        <v>499</v>
+      </c>
+      <c r="J43" s="111"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -4468,25 +4471,25 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="25"/>
       <c r="C44" s="95" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="G44" s="114"/>
+        <v>288</v>
+      </c>
+      <c r="G44" s="130"/>
       <c r="H44" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I44" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="J44" s="110"/>
+        <v>370</v>
+      </c>
+      <c r="I44" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="J44" s="113"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4504,23 +4507,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="107"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="115" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="110"/>
+      <c r="C45" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="113"/>
       <c r="F45" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="G45" s="114"/>
+        <v>555</v>
+      </c>
+      <c r="G45" s="130"/>
       <c r="H45" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I45" s="115" t="s">
-        <v>216</v>
-      </c>
-      <c r="J45" s="110"/>
+        <v>371</v>
+      </c>
+      <c r="I45" s="112" t="s">
+        <v>215</v>
+      </c>
+      <c r="J45" s="113"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4538,20 +4541,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="25"/>
-      <c r="C46" s="116" t="s">
-        <v>574</v>
-      </c>
-      <c r="D46" s="117"/>
+      <c r="C46" s="108" t="s">
+        <v>568</v>
+      </c>
+      <c r="D46" s="109"/>
       <c r="E46" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" s="114"/>
-      <c r="I46" s="115" t="s">
-        <v>195</v>
-      </c>
-      <c r="J46" s="110"/>
+        <v>251</v>
+      </c>
+      <c r="G46" s="130"/>
+      <c r="I46" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" s="113"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4569,20 +4572,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="115" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" s="110"/>
-      <c r="E47" s="99" t="s">
-        <v>408</v>
-      </c>
-      <c r="G47" s="114"/>
-      <c r="I47" s="115" t="s">
-        <v>551</v>
-      </c>
-      <c r="J47" s="110"/>
+      <c r="C47" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="113"/>
+      <c r="E47" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47" s="130"/>
+      <c r="I47" s="112" t="s">
+        <v>546</v>
+      </c>
+      <c r="J47" s="113"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4600,20 +4603,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="107"/>
-      <c r="C48" s="115" t="s">
-        <v>519</v>
-      </c>
-      <c r="D48" s="110"/>
-      <c r="E48" s="99" t="s">
-        <v>409</v>
+      <c r="A48" s="120"/>
+      <c r="C48" s="112" t="s">
+        <v>514</v>
+      </c>
+      <c r="D48" s="113"/>
+      <c r="E48" s="98" t="s">
+        <v>408</v>
       </c>
       <c r="F48" s="70"/>
-      <c r="G48" s="114"/>
-      <c r="I48" s="115" t="s">
-        <v>260</v>
-      </c>
-      <c r="J48" s="110"/>
+      <c r="G48" s="130"/>
+      <c r="I48" s="112" t="s">
+        <v>259</v>
+      </c>
+      <c r="J48" s="113"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4631,21 +4634,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="107"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="125" t="s">
-        <v>563</v>
-      </c>
-      <c r="D49" s="126"/>
-      <c r="E49" s="115" t="s">
-        <v>492</v>
-      </c>
-      <c r="F49" s="110"/>
-      <c r="G49" s="114"/>
-      <c r="I49" s="115" t="s">
-        <v>258</v>
-      </c>
-      <c r="J49" s="110"/>
+      <c r="C49" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="D49" s="145"/>
+      <c r="E49" s="112" t="s">
+        <v>488</v>
+      </c>
+      <c r="F49" s="113"/>
+      <c r="G49" s="130"/>
+      <c r="I49" s="112" t="s">
+        <v>257</v>
+      </c>
+      <c r="J49" s="113"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4663,19 +4666,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="25"/>
-      <c r="C50" s="115" t="s">
-        <v>520</v>
-      </c>
-      <c r="D50" s="110"/>
+      <c r="C50" s="112" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="113"/>
       <c r="E50" s="70"/>
       <c r="F50" s="70"/>
-      <c r="G50" s="114"/>
-      <c r="I50" s="115" t="s">
-        <v>522</v>
-      </c>
-      <c r="J50" s="110"/>
+      <c r="G50" s="130"/>
+      <c r="I50" s="112" t="s">
+        <v>517</v>
+      </c>
+      <c r="J50" s="113"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4693,15 +4696,15 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="107"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="25"/>
-      <c r="C51" s="115" t="s">
-        <v>547</v>
-      </c>
-      <c r="D51" s="110"/>
+      <c r="C51" s="112" t="s">
+        <v>542</v>
+      </c>
+      <c r="D51" s="113"/>
       <c r="E51" s="70"/>
       <c r="F51" s="70"/>
-      <c r="G51" s="114"/>
+      <c r="G51" s="130"/>
       <c r="I51" s="72"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4720,17 +4723,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
-      <c r="C52" s="115" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="110"/>
+      <c r="A52" s="121"/>
+      <c r="C52" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="113"/>
       <c r="E52" s="70"/>
       <c r="F52" s="70"/>
-      <c r="G52" s="114"/>
+      <c r="G52" s="130"/>
       <c r="H52" s="26"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="121"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="136"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4754,7 +4757,7 @@
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="114"/>
+      <c r="G53" s="130"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
@@ -4775,11 +4778,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="106" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="28"/>
-      <c r="G54" s="114"/>
+      <c r="G54" s="130"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4797,11 +4800,11 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="142"/>
+      <c r="A55" s="107"/>
       <c r="B55" s="71"/>
-      <c r="G55" s="114"/>
+      <c r="G55" s="130"/>
       <c r="J55" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -4820,7 +4823,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="142"/>
+      <c r="A56" s="107"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4846,30 +4849,30 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="142"/>
+      <c r="A57" s="107"/>
       <c r="C57" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D57" s="81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F57" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="113" t="s">
-        <v>454</v>
+        <v>51</v>
+      </c>
+      <c r="G57" s="129" t="s">
+        <v>453</v>
       </c>
       <c r="H57" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -4888,25 +4891,25 @@
       <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="142"/>
-      <c r="C58" s="101" t="s">
-        <v>373</v>
+      <c r="A58" s="107"/>
+      <c r="C58" s="100" t="s">
+        <v>372</v>
       </c>
       <c r="D58" s="81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="114"/>
+      <c r="G58" s="130"/>
       <c r="H58" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I58" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -4925,28 +4928,28 @@
       <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="142"/>
+      <c r="A59" s="107"/>
       <c r="C59" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D59" s="98" t="s">
-        <v>296</v>
+        <v>376</v>
+      </c>
+      <c r="D59" s="97" t="s">
+        <v>295</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F59" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="G59" s="114"/>
+        <v>354</v>
+      </c>
+      <c r="G59" s="130"/>
       <c r="H59" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K59" s="84"/>
       <c r="L59" s="84"/>
@@ -4967,26 +4970,26 @@
       <c r="AA59" s="85"/>
     </row>
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="142"/>
+      <c r="A60" s="107"/>
       <c r="C60" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D60" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" s="114"/>
+        <v>53</v>
+      </c>
+      <c r="G60" s="130"/>
       <c r="H60" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I60" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="J60" s="98" t="s">
-        <v>565</v>
+      <c r="J60" s="97" t="s">
+        <v>559</v>
       </c>
       <c r="K60" s="84"/>
       <c r="L60" s="84"/>
@@ -5007,28 +5010,28 @@
       <c r="AA60" s="85"/>
     </row>
     <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="142"/>
+      <c r="A61" s="107"/>
       <c r="C61" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D61" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="E61" s="101" t="s">
+        <v>378</v>
+      </c>
+      <c r="D61" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="100" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G61" s="114"/>
+      <c r="G61" s="130"/>
       <c r="H61" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="I61" s="98" t="s">
-        <v>303</v>
+        <v>382</v>
+      </c>
+      <c r="I61" s="97" t="s">
+        <v>302</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K61" s="84"/>
       <c r="L61" s="84"/>
@@ -5049,26 +5052,26 @@
       <c r="AA61" s="85"/>
     </row>
     <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="142"/>
+      <c r="A62" s="107"/>
       <c r="C62" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="D62" s="98" t="s">
-        <v>298</v>
+        <v>474</v>
+      </c>
+      <c r="D62" s="97" t="s">
+        <v>297</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="93" t="s">
-        <v>571</v>
-      </c>
-      <c r="G62" s="114"/>
+        <v>565</v>
+      </c>
+      <c r="G62" s="130"/>
       <c r="H62" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I62" s="81" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K62" s="84"/>
       <c r="L62" s="84"/>
@@ -5089,23 +5092,23 @@
       <c r="AA62" s="85"/>
     </row>
     <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="142"/>
+      <c r="A63" s="107"/>
       <c r="C63" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D63" s="81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" s="114"/>
+        <v>45</v>
+      </c>
+      <c r="G63" s="130"/>
       <c r="H63" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K63" s="84"/>
       <c r="L63" s="84"/>
@@ -5126,22 +5129,22 @@
       <c r="AA63" s="85"/>
     </row>
     <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="142"/>
-      <c r="C64" s="101" t="s">
-        <v>412</v>
+      <c r="A64" s="107"/>
+      <c r="C64" s="100" t="s">
+        <v>411</v>
       </c>
       <c r="D64" s="81" t="s">
-        <v>353</v>
-      </c>
-      <c r="G64" s="114"/>
+        <v>352</v>
+      </c>
+      <c r="G64" s="130"/>
       <c r="H64" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K64" s="84"/>
       <c r="L64" s="84"/>
@@ -5162,7 +5165,7 @@
       <c r="AA64" s="85"/>
     </row>
     <row r="65" spans="1:27" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="142"/>
+      <c r="A65" s="107"/>
       <c r="D65" s="23" t="s">
         <v>40</v>
       </c>
@@ -5170,14 +5173,14 @@
         <v>26</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="G65" s="114"/>
+        <v>529</v>
+      </c>
+      <c r="G65" s="130"/>
       <c r="H65" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K65" s="84"/>
       <c r="L65" s="84"/>
@@ -5198,24 +5201,24 @@
       <c r="AA65" s="85"/>
     </row>
     <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="142"/>
+      <c r="A66" s="107"/>
       <c r="B66" s="86"/>
-      <c r="C66" s="102" t="s">
-        <v>434</v>
-      </c>
-      <c r="D66" s="98" t="s">
-        <v>404</v>
+      <c r="C66" s="101" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="97" t="s">
+        <v>403</v>
       </c>
       <c r="E66" s="42"/>
       <c r="F66" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G66" s="114"/>
+        <v>412</v>
+      </c>
+      <c r="G66" s="130"/>
       <c r="H66" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K66" s="84"/>
       <c r="L66" s="84"/>
@@ -5236,25 +5239,25 @@
       <c r="AA66" s="85"/>
     </row>
     <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="142"/>
-      <c r="C67" s="101" t="s">
-        <v>470</v>
+      <c r="A67" s="107"/>
+      <c r="C67" s="100" t="s">
+        <v>469</v>
       </c>
       <c r="D67" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G67" s="130"/>
+      <c r="H67" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="I67" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="23" t="s">
         <v>467</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="G67" s="114"/>
-      <c r="H67" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="I67" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="J67" s="23" t="s">
-        <v>468</v>
       </c>
       <c r="K67" s="84"/>
       <c r="L67" s="84"/>
@@ -5275,22 +5278,22 @@
       <c r="AA67" s="85"/>
     </row>
     <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="142"/>
-      <c r="C68" s="96" t="s">
-        <v>575</v>
+      <c r="A68" s="107"/>
+      <c r="C68" s="95" t="s">
+        <v>569</v>
       </c>
       <c r="D68" s="68" t="s">
-        <v>555</v>
-      </c>
-      <c r="F68" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="G68" s="114"/>
+        <v>550</v>
+      </c>
+      <c r="F68" s="102" t="s">
+        <v>432</v>
+      </c>
+      <c r="G68" s="130"/>
       <c r="H68" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="J68" s="103" t="s">
-        <v>431</v>
+        <v>390</v>
+      </c>
+      <c r="J68" s="102" t="s">
+        <v>430</v>
       </c>
       <c r="K68" s="84"/>
       <c r="L68" s="84"/>
@@ -5311,15 +5314,15 @@
       <c r="AA68" s="85"/>
     </row>
     <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="142"/>
+      <c r="A69" s="107"/>
       <c r="B69" s="87"/>
-      <c r="C69" s="115" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" s="110"/>
+      <c r="C69" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="118"/>
       <c r="G69" s="81"/>
       <c r="H69" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -5338,22 +5341,22 @@
       <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="142"/>
+      <c r="A70" s="107"/>
       <c r="B70" s="87"/>
-      <c r="C70" s="115" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" s="110"/>
+      <c r="C70" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="113"/>
       <c r="G70" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="I70" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="J70" s="110"/>
+        <v>387</v>
+      </c>
+      <c r="I70" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="J70" s="113"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -5371,24 +5374,24 @@
       <c r="Y70" s="13"/>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="142"/>
+      <c r="A71" s="107"/>
       <c r="B71" s="87"/>
-      <c r="C71" s="115" t="s">
-        <v>217</v>
-      </c>
-      <c r="D71" s="110"/>
-      <c r="E71" s="115" t="s">
-        <v>499</v>
-      </c>
-      <c r="F71" s="110"/>
+      <c r="C71" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="113"/>
+      <c r="E71" s="112" t="s">
+        <v>495</v>
+      </c>
+      <c r="F71" s="113"/>
       <c r="G71" s="81"/>
       <c r="H71" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="I71" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="J71" s="110"/>
+        <v>455</v>
+      </c>
+      <c r="I71" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="J71" s="113"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
@@ -5406,24 +5409,24 @@
       <c r="Y71" s="13"/>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="142"/>
+      <c r="A72" s="107"/>
       <c r="B72" s="87"/>
-      <c r="C72" s="116" t="s">
-        <v>577</v>
-      </c>
-      <c r="D72" s="117"/>
-      <c r="E72" s="115" t="s">
-        <v>234</v>
-      </c>
-      <c r="F72" s="110"/>
+      <c r="C72" s="108" t="s">
+        <v>571</v>
+      </c>
+      <c r="D72" s="109"/>
+      <c r="E72" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="F72" s="113"/>
       <c r="G72" s="81"/>
       <c r="H72" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I72" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="J72" s="110"/>
+        <v>404</v>
+      </c>
+      <c r="I72" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="J72" s="113"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
@@ -5441,24 +5444,24 @@
       <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="142"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="25"/>
-      <c r="C73" s="115" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" s="110"/>
-      <c r="E73" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="F73" s="110"/>
+      <c r="C73" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="113"/>
+      <c r="E73" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="113"/>
       <c r="G73" s="70"/>
       <c r="H73" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="I73" s="115" t="s">
-        <v>552</v>
-      </c>
-      <c r="J73" s="110"/>
+        <v>558</v>
+      </c>
+      <c r="I73" s="112" t="s">
+        <v>547</v>
+      </c>
+      <c r="J73" s="113"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5476,16 +5479,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="142"/>
-      <c r="E74" s="115" t="s">
-        <v>548</v>
-      </c>
-      <c r="F74" s="110"/>
+      <c r="A74" s="107"/>
+      <c r="E74" s="112" t="s">
+        <v>543</v>
+      </c>
+      <c r="F74" s="113"/>
       <c r="G74" s="70"/>
-      <c r="I74" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="J74" s="110"/>
+      <c r="I74" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="J74" s="113"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5503,19 +5506,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="142"/>
+      <c r="A75" s="107"/>
       <c r="B75" s="25"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="110"/>
-      <c r="E75" s="118" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" s="119"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="122" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="123"/>
       <c r="G75" s="70"/>
-      <c r="I75" s="109" t="s">
-        <v>486</v>
-      </c>
-      <c r="J75" s="110"/>
+      <c r="I75" s="134" t="s">
+        <v>483</v>
+      </c>
+      <c r="J75" s="113"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5533,17 +5536,17 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="142"/>
+      <c r="A76" s="107"/>
       <c r="B76" s="25"/>
       <c r="C76" s="72"/>
       <c r="D76" s="73"/>
-      <c r="E76" s="115" t="s">
-        <v>461</v>
-      </c>
-      <c r="F76" s="110"/>
+      <c r="E76" s="112" t="s">
+        <v>460</v>
+      </c>
+      <c r="F76" s="113"/>
       <c r="G76" s="70"/>
-      <c r="J76" s="97" t="s">
-        <v>492</v>
+      <c r="J76" s="96" t="s">
+        <v>488</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5588,32 +5591,29 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="106" t="s">
-        <v>58</v>
+      <c r="A78" s="119" t="s">
+        <v>57</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D78" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G78" s="111" t="s">
-        <v>453</v>
+        <v>59</v>
+      </c>
+      <c r="G78" s="146" t="s">
+        <v>452</v>
       </c>
       <c r="H78" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="70" t="s">
-        <v>553</v>
-      </c>
-      <c r="J78" s="135" t="s">
+        <v>548</v>
+      </c>
+      <c r="J78" s="110" t="s">
         <v>14</v>
       </c>
       <c r="K78" s="9"/>
@@ -5635,28 +5635,28 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="107"/>
+      <c r="A79" s="120"/>
       <c r="B79" s="71"/>
       <c r="C79" s="89" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="G79" s="112"/>
+        <v>357</v>
+      </c>
+      <c r="G79" s="111"/>
       <c r="H79" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I79" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="J79" s="112"/>
+      <c r="J79" s="111"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -5676,26 +5676,26 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="107"/>
+      <c r="A80" s="120"/>
       <c r="B80" s="71"/>
       <c r="C80" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D80" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G80" s="112"/>
+      <c r="G80" s="111"/>
       <c r="H80" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J80" s="70" t="s">
         <v>18</v>
@@ -5717,26 +5717,26 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="107"/>
+      <c r="A81" s="120"/>
       <c r="B81" s="71"/>
-      <c r="C81" s="98" t="s">
-        <v>300</v>
+      <c r="C81" s="97" t="s">
+        <v>299</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="G81" s="112"/>
+        <v>306</v>
+      </c>
+      <c r="G81" s="111"/>
       <c r="H81" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I81" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J81" s="70" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5755,28 +5755,27 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="107"/>
+      <c r="A82" s="120"/>
       <c r="B82" s="71"/>
       <c r="C82" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="101" t="s">
-        <v>262</v>
-      </c>
-      <c r="F82" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="G82" s="112"/>
+      <c r="E82" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="G82" s="111"/>
       <c r="H82" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="K82" s="9"/>
+        <v>574</v>
+      </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -5793,23 +5792,23 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="107"/>
+      <c r="A83" s="120"/>
       <c r="B83" s="71"/>
-      <c r="D83" s="98" t="s">
-        <v>299</v>
+      <c r="D83" s="97" t="s">
+        <v>298</v>
       </c>
       <c r="E83" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G83" s="112"/>
+      <c r="G83" s="111"/>
       <c r="H83" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="I83" s="98" t="s">
-        <v>297</v>
+        <v>396</v>
+      </c>
+      <c r="I83" s="97" t="s">
+        <v>296</v>
       </c>
       <c r="J83" s="70" t="s">
         <v>20</v>
@@ -5831,29 +5830,29 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="107"/>
+      <c r="A84" s="120"/>
       <c r="B84" s="71"/>
       <c r="C84" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E84" s="70" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G84" s="112"/>
+        <v>309</v>
+      </c>
+      <c r="G84" s="111"/>
       <c r="H84" s="75" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I84" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J84" s="70" t="s">
         <v>312</v>
-      </c>
-      <c r="J84" s="70" t="s">
-        <v>313</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -5872,29 +5871,29 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="107"/>
+      <c r="A85" s="120"/>
       <c r="B85" s="71"/>
       <c r="C85" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G85" s="112"/>
+        <v>310</v>
+      </c>
+      <c r="G85" s="111"/>
       <c r="H85" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5913,20 +5912,20 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="107"/>
+      <c r="A86" s="120"/>
       <c r="B86" s="71"/>
       <c r="C86" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G86" s="112"/>
+        <v>417</v>
+      </c>
+      <c r="G86" s="111"/>
       <c r="H86" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
@@ -5947,20 +5946,20 @@
       <c r="AA86" s="32"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="107"/>
+      <c r="A87" s="120"/>
       <c r="E87" s="94" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="112"/>
+      <c r="G87" s="111"/>
       <c r="H87" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -5980,14 +5979,14 @@
       <c r="AA87" s="32"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="107"/>
+      <c r="A88" s="120"/>
       <c r="C88" s="2"/>
       <c r="E88" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="G88" s="112"/>
+        <v>419</v>
+      </c>
+      <c r="G88" s="111"/>
       <c r="H88" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -6007,22 +6006,22 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="107"/>
+      <c r="A89" s="120"/>
       <c r="B89" s="30"/>
       <c r="E89" s="94" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I89" s="75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J89" s="70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -6042,25 +6041,25 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="107"/>
-      <c r="C90" s="109" t="s">
-        <v>546</v>
-      </c>
-      <c r="D90" s="110"/>
+      <c r="A90" s="120"/>
+      <c r="C90" s="134" t="s">
+        <v>541</v>
+      </c>
+      <c r="D90" s="113"/>
       <c r="F90" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I90" s="94" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="J90" s="70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6081,22 +6080,22 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="107"/>
-      <c r="C91" s="109" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="122"/>
+      <c r="A91" s="120"/>
+      <c r="C91" s="134" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" s="141"/>
       <c r="F91" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I91" s="75" t="s">
         <v>422</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I91" s="75" t="s">
-        <v>423</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -6117,14 +6116,14 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="107"/>
+      <c r="A92" s="120"/>
       <c r="E92" s="62"/>
       <c r="F92" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J92" s="70"/>
       <c r="K92" s="16"/>
@@ -6146,13 +6145,13 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="107"/>
+      <c r="A93" s="120"/>
       <c r="C93" s="90" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="82" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="J93" s="70"/>
       <c r="K93" s="9"/>
@@ -6172,22 +6171,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="107"/>
+      <c r="A94" s="120"/>
       <c r="B94" s="25"/>
-      <c r="C94" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="D94" s="110"/>
-      <c r="E94" s="115" t="s">
-        <v>222</v>
-      </c>
-      <c r="F94" s="110"/>
+      <c r="C94" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" s="113"/>
+      <c r="E94" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" s="113"/>
       <c r="G94" s="33"/>
       <c r="H94" s="70"/>
-      <c r="I94" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="J94" s="110"/>
+      <c r="I94" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J94" s="113"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -6205,22 +6204,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="107"/>
+      <c r="A95" s="120"/>
       <c r="B95" s="25"/>
-      <c r="C95" s="115" t="s">
-        <v>497</v>
-      </c>
-      <c r="D95" s="110"/>
-      <c r="E95" s="115" t="s">
-        <v>231</v>
-      </c>
-      <c r="F95" s="110"/>
+      <c r="C95" s="112" t="s">
+        <v>493</v>
+      </c>
+      <c r="D95" s="113"/>
+      <c r="E95" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="F95" s="113"/>
       <c r="G95" s="33"/>
       <c r="H95" s="70"/>
-      <c r="I95" s="115" t="s">
-        <v>221</v>
-      </c>
-      <c r="J95" s="110"/>
+      <c r="I95" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="J95" s="113"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -6238,21 +6237,21 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="107"/>
+      <c r="A96" s="120"/>
       <c r="B96" s="25"/>
-      <c r="C96" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="D96" s="110"/>
-      <c r="E96" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="112"/>
+      <c r="C96" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="113"/>
+      <c r="E96" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="111"/>
       <c r="G96" s="33"/>
-      <c r="H96" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="I96" s="110"/>
+      <c r="H96" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="I96" s="113"/>
       <c r="J96" s="62"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6271,22 +6270,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="107"/>
+      <c r="A97" s="120"/>
       <c r="B97" s="25"/>
-      <c r="C97" s="115" t="s">
-        <v>550</v>
-      </c>
-      <c r="D97" s="110"/>
-      <c r="E97" s="128" t="s">
-        <v>530</v>
-      </c>
-      <c r="F97" s="112"/>
+      <c r="C97" s="112" t="s">
+        <v>545</v>
+      </c>
+      <c r="D97" s="113"/>
+      <c r="E97" s="114" t="s">
+        <v>525</v>
+      </c>
+      <c r="F97" s="111"/>
       <c r="G97" s="33"/>
       <c r="H97" s="70"/>
-      <c r="I97" s="109" t="s">
-        <v>489</v>
-      </c>
-      <c r="J97" s="110"/>
+      <c r="I97" s="134" t="s">
+        <v>576</v>
+      </c>
+      <c r="J97" s="113"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6304,20 +6303,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="107"/>
+      <c r="A98" s="120"/>
       <c r="B98" s="25"/>
-      <c r="C98" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" s="110"/>
-      <c r="E98" s="128" t="s">
-        <v>67</v>
-      </c>
-      <c r="F98" s="112"/>
+      <c r="C98" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="113"/>
+      <c r="E98" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="111"/>
       <c r="G98" s="33"/>
       <c r="H98" s="77"/>
-      <c r="I98" s="120"/>
-      <c r="J98" s="121"/>
+      <c r="I98" s="140"/>
+      <c r="J98" s="136"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6335,16 +6334,16 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="107"/>
+      <c r="A99" s="120"/>
       <c r="B99" s="25"/>
-      <c r="C99" s="118" t="s">
-        <v>256</v>
-      </c>
-      <c r="D99" s="119"/>
-      <c r="E99" s="118" t="s">
-        <v>435</v>
-      </c>
-      <c r="F99" s="119"/>
+      <c r="C99" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="123"/>
+      <c r="E99" s="122" t="s">
+        <v>434</v>
+      </c>
+      <c r="F99" s="123"/>
       <c r="G99" s="33"/>
       <c r="H99" s="77"/>
       <c r="J99" s="77"/>
@@ -6365,14 +6364,14 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="107"/>
+      <c r="A100" s="120"/>
       <c r="B100" s="25"/>
       <c r="C100" s="72"/>
       <c r="D100" s="73"/>
-      <c r="E100" s="115" t="s">
-        <v>523</v>
-      </c>
-      <c r="F100" s="110"/>
+      <c r="E100" s="112" t="s">
+        <v>518</v>
+      </c>
+      <c r="F100" s="113"/>
       <c r="G100" s="33"/>
       <c r="H100" s="77"/>
       <c r="I100" s="77"/>
@@ -6394,12 +6393,12 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="107"/>
+      <c r="A101" s="120"/>
       <c r="B101" s="25"/>
       <c r="C101" s="72"/>
       <c r="D101" s="73"/>
-      <c r="E101" s="115"/>
-      <c r="F101" s="110"/>
+      <c r="E101" s="112"/>
+      <c r="F101" s="113"/>
       <c r="G101" s="33"/>
       <c r="H101" s="77"/>
       <c r="J101" s="77"/>
@@ -6420,12 +6419,12 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
+      <c r="A102" s="121"/>
       <c r="B102" s="25"/>
       <c r="C102" s="72"/>
       <c r="D102" s="73"/>
-      <c r="E102" s="115"/>
-      <c r="F102" s="110"/>
+      <c r="E102" s="112"/>
+      <c r="F102" s="113"/>
       <c r="G102" s="33"/>
       <c r="H102" s="77"/>
       <c r="J102" s="77"/>
@@ -6499,30 +6498,30 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="139" t="s">
-        <v>69</v>
+      <c r="A105" s="116" t="s">
+        <v>68</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="70" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D105" s="70" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F105" s="93" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H105" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I105" s="70" t="s">
         <v>30</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -6541,27 +6540,27 @@
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="112"/>
+      <c r="A106" s="111"/>
       <c r="B106" s="71"/>
       <c r="C106" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D106" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G106" s="36"/>
       <c r="H106" s="35"/>
       <c r="I106" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J106" s="70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -6580,29 +6579,29 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="112"/>
+      <c r="A107" s="111"/>
       <c r="B107" s="71"/>
       <c r="C107" s="70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D107" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F107" s="70" t="s">
         <v>51</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F107" s="70" t="s">
-        <v>52</v>
       </c>
       <c r="G107" s="36"/>
       <c r="H107" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>36</v>
       </c>
       <c r="J107" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -6621,28 +6620,28 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="112"/>
+      <c r="A108" s="111"/>
       <c r="B108" s="71"/>
       <c r="C108" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D108" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="D108" s="15" t="s">
-        <v>364</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G108" s="113" t="s">
-        <v>454</v>
+        <v>75</v>
+      </c>
+      <c r="G108" s="129" t="s">
+        <v>453</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I108" s="145" t="s">
-        <v>578</v>
+        <v>436</v>
+      </c>
+      <c r="I108" s="105" t="s">
+        <v>572</v>
       </c>
       <c r="J108" s="70" t="s">
         <v>39</v>
@@ -6664,23 +6663,23 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="112"/>
+      <c r="A109" s="111"/>
       <c r="B109" s="71"/>
-      <c r="D109" s="98" t="s">
+      <c r="D109" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G109" s="130"/>
+      <c r="H109" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G109" s="114"/>
-      <c r="H109" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="J109" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -6699,18 +6698,18 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="112"/>
+      <c r="A110" s="111"/>
       <c r="B110" s="71"/>
-      <c r="D110" s="98" t="s">
-        <v>365</v>
+      <c r="D110" s="97" t="s">
+        <v>364</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G110" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="G110" s="130"/>
       <c r="I110" s="70"/>
       <c r="J110" s="70"/>
       <c r="K110" s="16"/>
@@ -6732,16 +6731,16 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="112"/>
+      <c r="A111" s="111"/>
       <c r="B111" s="71"/>
-      <c r="D111" s="98" t="s">
-        <v>481</v>
+      <c r="D111" s="97" t="s">
+        <v>478</v>
       </c>
       <c r="F111" s="2"/>
-      <c r="G111" s="114"/>
+      <c r="G111" s="130"/>
       <c r="H111" s="37"/>
       <c r="I111" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="16"/>
@@ -6763,12 +6762,12 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="112"/>
+      <c r="A112" s="111"/>
       <c r="B112" s="71"/>
       <c r="D112" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="G112" s="114"/>
+        <v>365</v>
+      </c>
+      <c r="G112" s="130"/>
       <c r="H112" s="37"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6790,13 +6789,13 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="112"/>
+      <c r="A113" s="111"/>
       <c r="B113" s="71"/>
       <c r="C113" s="70"/>
       <c r="E113" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="G113" s="114"/>
+        <v>425</v>
+      </c>
+      <c r="G113" s="130"/>
       <c r="H113" s="35"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6818,12 +6817,12 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="112"/>
+      <c r="A114" s="111"/>
       <c r="B114" s="71"/>
       <c r="E114" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="G114" s="114"/>
+        <v>528</v>
+      </c>
+      <c r="G114" s="130"/>
       <c r="H114" s="37"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6844,16 +6843,16 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="112"/>
+      <c r="A115" s="111"/>
       <c r="B115" s="71"/>
       <c r="D115" s="70"/>
       <c r="E115" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G115" s="114"/>
+        <v>468</v>
+      </c>
+      <c r="G115" s="130"/>
       <c r="H115" s="37"/>
       <c r="J115" s="70"/>
       <c r="K115" s="16"/>
@@ -6875,12 +6874,12 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="112"/>
+      <c r="A116" s="111"/>
       <c r="B116" s="71"/>
       <c r="E116" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G116" s="114"/>
+        <v>427</v>
+      </c>
+      <c r="G116" s="130"/>
       <c r="H116" s="70" t="s">
         <v>33</v>
       </c>
@@ -6903,22 +6902,22 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="112"/>
+      <c r="A117" s="111"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="115"/>
-      <c r="D117" s="110"/>
-      <c r="E117" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="F117" s="110"/>
-      <c r="G117" s="114"/>
+      <c r="C117" s="112"/>
+      <c r="D117" s="113"/>
+      <c r="E117" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="F117" s="113"/>
+      <c r="G117" s="130"/>
       <c r="H117" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I117" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="J117" s="110"/>
+        <v>74</v>
+      </c>
+      <c r="I117" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="J117" s="113"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -6938,16 +6937,16 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="112"/>
+      <c r="A118" s="111"/>
       <c r="B118" s="71"/>
       <c r="C118" s="90" t="s">
-        <v>568</v>
-      </c>
-      <c r="G118" s="114"/>
-      <c r="H118" s="123" t="s">
-        <v>495</v>
-      </c>
-      <c r="I118" s="124"/>
+        <v>562</v>
+      </c>
+      <c r="G118" s="130"/>
+      <c r="H118" s="142" t="s">
+        <v>491</v>
+      </c>
+      <c r="I118" s="143"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -6967,21 +6966,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="112"/>
+      <c r="A119" s="111"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="115" t="s">
-        <v>494</v>
-      </c>
-      <c r="D119" s="110"/>
-      <c r="E119" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="F119" s="110"/>
-      <c r="G119" s="114"/>
-      <c r="I119" s="115" t="s">
-        <v>201</v>
-      </c>
-      <c r="J119" s="110"/>
+      <c r="C119" s="112" t="s">
+        <v>490</v>
+      </c>
+      <c r="D119" s="113"/>
+      <c r="E119" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="F119" s="113"/>
+      <c r="G119" s="130"/>
+      <c r="I119" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="J119" s="113"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -7001,22 +7000,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="112"/>
+      <c r="A120" s="111"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="115" t="s">
-        <v>500</v>
-      </c>
-      <c r="D120" s="110"/>
-      <c r="E120" s="118" t="s">
-        <v>442</v>
-      </c>
-      <c r="F120" s="119"/>
+      <c r="C120" s="112" t="s">
+        <v>496</v>
+      </c>
+      <c r="D120" s="113"/>
+      <c r="E120" s="122" t="s">
+        <v>441</v>
+      </c>
+      <c r="F120" s="123"/>
       <c r="G120" s="36"/>
       <c r="H120" s="37"/>
-      <c r="I120" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="J120" s="110"/>
+      <c r="I120" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="J120" s="113"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -7036,22 +7035,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="112"/>
+      <c r="A121" s="111"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="115" t="s">
-        <v>496</v>
-      </c>
-      <c r="D121" s="110"/>
-      <c r="E121" s="109" t="s">
-        <v>479</v>
-      </c>
-      <c r="F121" s="110"/>
+      <c r="C121" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="D121" s="113"/>
+      <c r="E121" s="134" t="s">
+        <v>578</v>
+      </c>
+      <c r="F121" s="113"/>
       <c r="G121" s="36"/>
       <c r="H121" s="37"/>
-      <c r="I121" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="J121" s="110"/>
+      <c r="I121" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="J121" s="113"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -7071,16 +7070,16 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="112"/>
+      <c r="A122" s="111"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="D122" s="110"/>
-      <c r="E122" s="115" t="s">
-        <v>462</v>
-      </c>
-      <c r="F122" s="110"/>
+      <c r="C122" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="D122" s="113"/>
+      <c r="E122" s="112" t="s">
+        <v>461</v>
+      </c>
+      <c r="F122" s="113"/>
       <c r="G122" s="36"/>
       <c r="H122" s="37"/>
       <c r="K122" s="16"/>
@@ -7102,18 +7101,18 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="112"/>
+      <c r="A123" s="111"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="D123" s="110"/>
+      <c r="C123" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" s="113"/>
       <c r="G123" s="36"/>
       <c r="H123" s="37"/>
-      <c r="I123" s="109" t="s">
-        <v>503</v>
-      </c>
-      <c r="J123" s="110"/>
+      <c r="I123" s="134" t="s">
+        <v>498</v>
+      </c>
+      <c r="J123" s="113"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7133,20 +7132,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="112"/>
+      <c r="A124" s="111"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="109" t="s">
-        <v>480</v>
-      </c>
-      <c r="D124" s="110"/>
+      <c r="C124" s="134" t="s">
+        <v>577</v>
+      </c>
+      <c r="D124" s="113"/>
       <c r="G124" s="36"/>
       <c r="H124" s="94" t="s">
-        <v>457</v>
-      </c>
-      <c r="I124" s="109" t="s">
-        <v>471</v>
-      </c>
-      <c r="J124" s="110"/>
+        <v>456</v>
+      </c>
+      <c r="I124" s="134" t="s">
+        <v>470</v>
+      </c>
+      <c r="J124" s="113"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7166,16 +7165,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="112"/>
+      <c r="A125" s="111"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="115"/>
-      <c r="D125" s="110"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="113"/>
       <c r="G125" s="36"/>
       <c r="H125" s="75"/>
-      <c r="I125" s="134" t="s">
-        <v>524</v>
-      </c>
-      <c r="J125" s="121"/>
+      <c r="I125" s="135" t="s">
+        <v>519</v>
+      </c>
+      <c r="J125" s="136"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7195,10 +7194,10 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="112"/>
+      <c r="A126" s="111"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="115"/>
-      <c r="D126" s="110"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="113"/>
       <c r="G126" s="36"/>
       <c r="H126" s="37"/>
       <c r="K126" s="16"/>
@@ -7220,7 +7219,7 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="112"/>
+      <c r="A127" s="111"/>
       <c r="B127" s="6"/>
       <c r="C127" s="72"/>
       <c r="D127" s="73"/>
@@ -7298,21 +7297,21 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="106" t="s">
-        <v>77</v>
+      <c r="A130" s="119" t="s">
+        <v>76</v>
       </c>
       <c r="B130" s="76"/>
       <c r="C130" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D130" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="F130" s="41" t="s">
         <v>79</v>
-      </c>
-      <c r="F130" s="41" t="s">
-        <v>80</v>
       </c>
       <c r="G130" s="36"/>
       <c r="H130" s="77"/>
@@ -7335,20 +7334,20 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="107"/>
+      <c r="A131" s="120"/>
       <c r="B131" s="71"/>
       <c r="C131" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E131" s="70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H131" s="11"/>
       <c r="I131" s="133"/>
-      <c r="J131" s="112"/>
+      <c r="J131" s="111"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7366,13 +7365,16 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="107"/>
+      <c r="A132" s="120"/>
       <c r="B132" s="71"/>
       <c r="C132" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="D132" s="83" t="s">
+        <v>573</v>
       </c>
       <c r="F132" s="93" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="42"/>
@@ -7394,16 +7396,16 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="107"/>
+      <c r="A133" s="120"/>
       <c r="B133" s="71"/>
       <c r="C133" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D133" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7425,13 +7427,16 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="107"/>
+      <c r="A134" s="120"/>
       <c r="B134" s="71"/>
+      <c r="C134" s="15" t="s">
+        <v>575</v>
+      </c>
       <c r="D134" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H134" s="43"/>
       <c r="I134" s="43"/>
@@ -7453,16 +7458,16 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="107"/>
+      <c r="A135" s="120"/>
       <c r="B135" s="71"/>
       <c r="C135" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I135" s="43"/>
       <c r="J135" s="77"/>
@@ -7483,16 +7488,16 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="107"/>
+      <c r="A136" s="120"/>
       <c r="B136" s="71"/>
       <c r="C136" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E136" s="98" t="s">
-        <v>516</v>
+        <v>327</v>
+      </c>
+      <c r="E136" s="97" t="s">
+        <v>511</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="44"/>
@@ -7514,16 +7519,13 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="107"/>
+      <c r="A137" s="120"/>
       <c r="B137" s="71"/>
-      <c r="C137" s="15" t="s">
-        <v>559</v>
-      </c>
       <c r="D137" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E137" s="99" t="s">
-        <v>429</v>
+        <v>328</v>
+      </c>
+      <c r="E137" s="98" t="s">
+        <v>428</v>
       </c>
       <c r="G137" s="2"/>
       <c r="I137" s="44"/>
@@ -7545,12 +7547,16 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="107"/>
+      <c r="A138" s="120"/>
       <c r="B138" s="71"/>
       <c r="C138" s="4"/>
       <c r="D138" s="2" t="s">
-        <v>342</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="E138" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="F138" s="113"/>
       <c r="G138" s="2"/>
       <c r="H138" s="44"/>
       <c r="I138" s="44"/>
@@ -7572,15 +7578,15 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="107"/>
+      <c r="A139" s="120"/>
       <c r="B139" s="71"/>
       <c r="C139" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F139" s="128" t="s">
-        <v>536</v>
-      </c>
-      <c r="G139" s="112"/>
+        <v>248</v>
+      </c>
+      <c r="F139" s="114" t="s">
+        <v>531</v>
+      </c>
+      <c r="G139" s="111"/>
       <c r="H139" s="44"/>
       <c r="I139" s="44"/>
       <c r="J139" s="11"/>
@@ -7601,17 +7607,14 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="107"/>
+      <c r="A140" s="120"/>
       <c r="C140" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D140" s="90" t="s">
-        <v>566</v>
-      </c>
-      <c r="F140" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="G140" s="112"/>
+        <v>249</v>
+      </c>
+      <c r="F140" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="G140" s="111"/>
       <c r="H140" s="44"/>
       <c r="I140" s="44"/>
       <c r="J140" s="11"/>
@@ -7632,18 +7635,18 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="107"/>
-      <c r="C141" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="D141" s="115" t="s">
-        <v>560</v>
-      </c>
-      <c r="E141" s="110"/>
-      <c r="F141" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="G141" s="112"/>
+      <c r="A141" s="120"/>
+      <c r="C141" s="103" t="s">
+        <v>431</v>
+      </c>
+      <c r="D141" s="112" t="s">
+        <v>554</v>
+      </c>
+      <c r="E141" s="113"/>
+      <c r="F141" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="G141" s="111"/>
       <c r="H141" s="44"/>
       <c r="I141" s="44"/>
       <c r="J141" s="11"/>
@@ -7664,11 +7667,10 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="107"/>
-      <c r="D142" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="E142" s="110"/>
+      <c r="A142" s="120"/>
+      <c r="E142" s="90" t="s">
+        <v>560</v>
+      </c>
       <c r="G142" s="36"/>
       <c r="H142" s="44"/>
       <c r="I142" s="44"/>
@@ -7690,12 +7692,12 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="107"/>
+      <c r="A143" s="120"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="E143" s="110"/>
+      <c r="D143" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="E143" s="113"/>
       <c r="H143" s="44"/>
       <c r="I143" s="44"/>
       <c r="J143" s="11"/>
@@ -7716,16 +7718,16 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="107"/>
+      <c r="A144" s="120"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="E144" s="110"/>
-      <c r="F144" s="118" t="s">
-        <v>254</v>
-      </c>
-      <c r="G144" s="119"/>
+      <c r="D144" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="E144" s="113"/>
+      <c r="F144" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="G144" s="123"/>
       <c r="H144" s="44"/>
       <c r="I144" s="44"/>
       <c r="J144" s="11"/>
@@ -7746,16 +7748,16 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="107"/>
+      <c r="A145" s="120"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="130" t="s">
-        <v>203</v>
-      </c>
-      <c r="E145" s="131"/>
-      <c r="F145" s="118" t="s">
-        <v>445</v>
-      </c>
-      <c r="G145" s="119"/>
+      <c r="D145" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="E145" s="139"/>
+      <c r="F145" s="122" t="s">
+        <v>444</v>
+      </c>
+      <c r="G145" s="123"/>
       <c r="H145" s="44"/>
       <c r="I145" s="44"/>
       <c r="J145" s="11"/>
@@ -7776,16 +7778,16 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="107"/>
+      <c r="A146" s="120"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="E146" s="110"/>
-      <c r="F146" s="143" t="s">
-        <v>526</v>
-      </c>
-      <c r="G146" s="144"/>
+      <c r="D146" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="E146" s="113"/>
+      <c r="F146" s="124" t="s">
+        <v>521</v>
+      </c>
+      <c r="G146" s="125"/>
       <c r="H146" s="44"/>
       <c r="I146" s="44"/>
       <c r="J146" s="11"/>
@@ -7806,12 +7808,12 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="107"/>
+      <c r="A147" s="120"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="115" t="s">
-        <v>226</v>
-      </c>
-      <c r="E147" s="110"/>
+      <c r="D147" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="E147" s="113"/>
       <c r="H147" s="44"/>
       <c r="I147" s="44"/>
       <c r="J147" s="11"/>
@@ -7832,12 +7834,12 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="107"/>
+      <c r="A148" s="120"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="116" t="s">
-        <v>525</v>
-      </c>
-      <c r="E148" s="117"/>
+      <c r="D148" s="108" t="s">
+        <v>520</v>
+      </c>
+      <c r="E148" s="109"/>
       <c r="H148" s="44"/>
       <c r="I148" s="44"/>
       <c r="J148" s="11"/>
@@ -7858,12 +7860,12 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="107"/>
+      <c r="A149" s="120"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="E149" s="112"/>
+      <c r="D149" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E149" s="111"/>
       <c r="F149" s="2"/>
       <c r="G149" s="36"/>
       <c r="H149" s="11"/>
@@ -7886,12 +7888,12 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="107"/>
+      <c r="A150" s="120"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="128" t="s">
-        <v>529</v>
-      </c>
-      <c r="E150" s="112"/>
+      <c r="D150" s="114" t="s">
+        <v>524</v>
+      </c>
+      <c r="E150" s="111"/>
       <c r="F150" s="2"/>
       <c r="G150" s="33"/>
       <c r="H150" s="11"/>
@@ -7914,12 +7916,12 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="107"/>
+      <c r="A151" s="120"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="E151" s="112"/>
+      <c r="D151" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="E151" s="111"/>
       <c r="F151" s="2"/>
       <c r="G151" s="33"/>
       <c r="H151" s="11"/>
@@ -7942,12 +7944,12 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="108"/>
+      <c r="A152" s="121"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="E152" s="129"/>
+      <c r="D152" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152" s="132"/>
       <c r="F152" s="2"/>
       <c r="G152" s="33"/>
       <c r="H152" s="11"/>
@@ -8000,23 +8002,23 @@
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D154" s="77" t="s">
+      <c r="E154" s="77" t="s">
         <v>88</v>
-      </c>
-      <c r="E154" s="77" t="s">
-        <v>89</v>
       </c>
       <c r="F154" s="77"/>
       <c r="G154" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H154" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="H154" s="77" t="s">
+      <c r="I154" s="77" t="s">
         <v>88</v>
-      </c>
-      <c r="I154" s="77" t="s">
-        <v>89</v>
       </c>
       <c r="J154" s="45"/>
       <c r="K154" s="9"/>
@@ -8067,17 +8069,17 @@
       <c r="C156" s="48"/>
       <c r="D156" s="49"/>
       <c r="E156" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I156" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I156" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -8100,20 +8102,20 @@
       <c r="B157" s="9"/>
       <c r="C157" s="50"/>
       <c r="D157" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E157" s="52" t="s">
         <v>91</v>
-      </c>
-      <c r="E157" s="52" t="s">
-        <v>92</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I157" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I157" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="J157" s="49"/>
       <c r="K157" s="9"/>
@@ -8135,24 +8137,24 @@
     <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="105" t="s">
+      <c r="C158" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="D158" s="105" t="s">
+      <c r="E158" s="54" t="s">
         <v>94</v>
-      </c>
-      <c r="E158" s="54" t="s">
-        <v>95</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I158" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I158" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -8174,23 +8176,23 @@
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D159" s="53" t="s">
+      <c r="E159" s="54" t="s">
         <v>97</v>
-      </c>
-      <c r="E159" s="54" t="s">
-        <v>98</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I159" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I159" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -8212,23 +8214,23 @@
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D160" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D160" s="53" t="s">
+      <c r="E160" s="54" t="s">
         <v>100</v>
-      </c>
-      <c r="E160" s="54" t="s">
-        <v>101</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I160" s="92" t="s">
         <v>144</v>
-      </c>
-      <c r="H160" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I160" s="92" t="s">
-        <v>145</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -8250,23 +8252,23 @@
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="D161" s="69" t="s">
+      <c r="E161" s="54" t="s">
         <v>103</v>
-      </c>
-      <c r="E161" s="54" t="s">
-        <v>104</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I161" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="H161" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I161" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -8288,23 +8290,23 @@
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D162" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="D162" s="55" t="s">
+      <c r="E162" s="56" t="s">
         <v>106</v>
-      </c>
-      <c r="E162" s="56" t="s">
-        <v>107</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I162" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="H162" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I162" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -8326,13 +8328,13 @@
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D163" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D163" s="55" t="s">
+      <c r="E163" s="56" t="s">
         <v>109</v>
-      </c>
-      <c r="E163" s="56" t="s">
-        <v>110</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
@@ -8358,13 +8360,13 @@
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D164" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D164" s="55" t="s">
+      <c r="E164" s="56" t="s">
         <v>112</v>
-      </c>
-      <c r="E164" s="56" t="s">
-        <v>113</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
@@ -8391,23 +8393,23 @@
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D165" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D165" s="57" t="s">
+      <c r="E165" s="58" t="s">
         <v>115</v>
-      </c>
-      <c r="E165" s="58" t="s">
-        <v>116</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H165" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="H165" s="60" t="s">
+      <c r="I165" s="60" t="s">
         <v>151</v>
-      </c>
-      <c r="I165" s="60" t="s">
-        <v>152</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -8429,23 +8431,23 @@
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D166" s="57" t="s">
+      <c r="E166" s="58" t="s">
         <v>118</v>
-      </c>
-      <c r="E166" s="58" t="s">
-        <v>119</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="H166" s="60" t="s">
+        <v>536</v>
+      </c>
+      <c r="I166" s="60" t="s">
         <v>153</v>
-      </c>
-      <c r="H166" s="60" t="s">
-        <v>541</v>
-      </c>
-      <c r="I166" s="60" t="s">
-        <v>154</v>
       </c>
       <c r="J166" s="70"/>
       <c r="K166" s="9"/>
@@ -8472,13 +8474,13 @@
       <c r="E167" s="54"/>
       <c r="F167" s="13"/>
       <c r="G167" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="H167" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="H167" s="60" t="s">
+      <c r="I167" s="60" t="s">
         <v>156</v>
-      </c>
-      <c r="I167" s="60" t="s">
-        <v>157</v>
       </c>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
@@ -8500,23 +8502,23 @@
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H168" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="H168" s="60" t="s">
+      <c r="I168" s="60" t="s">
         <v>159</v>
-      </c>
-      <c r="I168" s="60" t="s">
-        <v>160</v>
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -8538,23 +8540,23 @@
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E169" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="D169" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H169" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="H169" s="60" t="s">
+      <c r="I169" s="60" t="s">
         <v>162</v>
-      </c>
-      <c r="I169" s="60" t="s">
-        <v>163</v>
       </c>
       <c r="J169" s="13"/>
       <c r="K169" s="9"/>
@@ -8577,23 +8579,23 @@
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E170" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="H170" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="H170" s="60" t="s">
+      <c r="I170" s="60" t="s">
         <v>165</v>
-      </c>
-      <c r="I170" s="60" t="s">
-        <v>166</v>
       </c>
       <c r="J170" s="13"/>
       <c r="K170" s="9"/>
@@ -8616,23 +8618,23 @@
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E171" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H171" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="H171" s="60" t="s">
+      <c r="I171" s="60" t="s">
         <v>168</v>
-      </c>
-      <c r="I171" s="60" t="s">
-        <v>169</v>
       </c>
       <c r="J171" s="13"/>
       <c r="K171" s="9"/>
@@ -8655,23 +8657,23 @@
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E172" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="H172" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="H172" s="59" t="s">
+      <c r="I172" s="59" t="s">
         <v>171</v>
-      </c>
-      <c r="I172" s="59" t="s">
-        <v>172</v>
       </c>
       <c r="J172" s="13"/>
       <c r="K172" s="9"/>
@@ -8694,23 +8696,23 @@
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E173" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="D173" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="H173" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="H173" s="59" t="s">
+      <c r="I173" s="59" t="s">
         <v>174</v>
-      </c>
-      <c r="I173" s="59" t="s">
-        <v>175</v>
       </c>
       <c r="J173" s="13"/>
       <c r="K173" s="9"/>
@@ -8733,23 +8735,23 @@
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E174" s="92" t="s">
         <v>132</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E174" s="92" t="s">
-        <v>133</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="H174" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I174" s="59" t="s">
         <v>176</v>
-      </c>
-      <c r="H174" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="I174" s="59" t="s">
-        <v>177</v>
       </c>
       <c r="J174" s="13"/>
       <c r="K174" s="9"/>
@@ -8772,23 +8774,23 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="D175" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="59" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H175" s="59" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I175" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J175" s="13"/>
       <c r="K175" s="9"/>
@@ -8815,13 +8817,13 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="59" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H176" s="59" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I176" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J176" s="13"/>
       <c r="K176" s="9"/>
@@ -8902,13 +8904,13 @@
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H179" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="H179" s="13" t="s">
+      <c r="I179" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="I179" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="J179" s="13"/>
       <c r="K179" s="9"/>
@@ -8935,13 +8937,13 @@
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H180" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H180" s="13" t="s">
+      <c r="I180" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="I180" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="J180" s="13"/>
       <c r="K180" s="9"/>
@@ -8969,10 +8971,10 @@
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
       <c r="H181" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I181" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="I181" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="9"/>
@@ -9000,10 +9002,10 @@
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
       <c r="H182" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I182" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="I182" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="J182" s="13"/>
       <c r="K182" s="9"/>
@@ -9031,10 +9033,10 @@
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
       <c r="H183" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I183" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="I183" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="J183" s="13"/>
       <c r="K183" s="9"/>
@@ -9257,7 +9259,7 @@
       <c r="C192" s="59"/>
       <c r="D192" s="59"/>
       <c r="E192" s="59"/>
-      <c r="F192" s="127"/>
+      <c r="F192" s="137"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9281,7 +9283,7 @@
       <c r="C193" s="59"/>
       <c r="D193" s="59"/>
       <c r="E193" s="59"/>
-      <c r="F193" s="112"/>
+      <c r="F193" s="111"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -9332,7 +9334,7 @@
       <c r="C195" s="59"/>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
-      <c r="F195" s="127"/>
+      <c r="F195" s="137"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9359,7 +9361,7 @@
       <c r="C196" s="59"/>
       <c r="D196" s="59"/>
       <c r="E196" s="59"/>
-      <c r="F196" s="112"/>
+      <c r="F196" s="111"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -12933,6 +12935,113 @@
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="A30:A52"/>
+    <mergeCell ref="A130:A152"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="G78:G88"/>
+    <mergeCell ref="G37:G55"/>
+    <mergeCell ref="G57:G68"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G108:G119"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A54:A76"/>
     <mergeCell ref="D148:E148"/>
     <mergeCell ref="F31:F32"/>
@@ -12957,113 +13066,6 @@
     <mergeCell ref="E119:F119"/>
     <mergeCell ref="F145:G145"/>
     <mergeCell ref="F146:G146"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G5:G28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="G108:G119"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A30:A52"/>
-    <mergeCell ref="A130:A152"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="G78:G88"/>
-    <mergeCell ref="G37:G55"/>
-    <mergeCell ref="G57:G68"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="E76:F76"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vibha.gupta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2BB39-2F94-455B-AAF8-F49081C18868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF6E83B-502A-4792-8794-22EB33BE3F4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="581">
   <si>
     <t>B.Tech IV SEMESTER-EVEN SEM 2026</t>
   </si>
@@ -184,9 +184,6 @@
     <t>LABC(HS412)-FF5/NES</t>
   </si>
   <si>
-    <t>PC2(BT372)-BT1/SMG,GMA,NV,ANR,POC</t>
-  </si>
-  <si>
     <t>LC1-C3(BT211)-G4/VGU, SBT</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>LC1-C3(BT414)-G4/RAC, SHM</t>
   </si>
   <si>
-    <t>LC1-C3(12BT211)-FF6/DKP</t>
-  </si>
-  <si>
     <t>THURS</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
     <t>LB14,B16 (CS224)-G3/SHG</t>
   </si>
   <si>
-    <t>PC3(BT372)-BT1/SMG,GMA,NV,ANR,POC</t>
-  </si>
-  <si>
     <t>PC1(BT474)-BT2-BT3/SHM,MAS,DSH,KAR</t>
   </si>
   <si>
@@ -358,9 +349,6 @@
     <t>PMinor-62(24B16PH211)-SND</t>
   </si>
   <si>
-    <t>PC1(BT372)-BT1/SMG,GMA,NV,ANR,POC</t>
-  </si>
-  <si>
     <t>PC2(BT474)-BT2-BT3/SHM,MAS,DSH,KAR</t>
   </si>
   <si>
@@ -910,9 +898,6 @@
     <t>LC1-C3(12BT311)-G6/SAJ</t>
   </si>
   <si>
-    <t>LC1-C3(12BT211)-CR301/DKP</t>
-  </si>
-  <si>
     <t>LG1,G2(MA223)-G6/MSD</t>
   </si>
   <si>
@@ -976,9 +961,6 @@
     <t>LC1-C3(12BT211)-G9/DKP</t>
   </si>
   <si>
-    <t>LMinor(24B12PH211)-G7/SHIV</t>
-  </si>
-  <si>
     <t>LABC(HS332)-G3/PRI</t>
   </si>
   <si>
@@ -1018,9 +1000,6 @@
     <t>LB9,B10 (CS221)-FF9/DL</t>
   </si>
   <si>
-    <t>LG1,G2 (CS222)-FF5/AKM</t>
-  </si>
-  <si>
     <t>LB14,B16 (CS222)-FF8/SOS</t>
   </si>
   <si>
@@ -1057,9 +1036,6 @@
     <t>LG1,G2(MA223)-FF8/MSD</t>
   </si>
   <si>
-    <t>LG1,G2(MA222)-FF9/DCS</t>
-  </si>
-  <si>
     <t>LG1,G2 (CS221)-G6/MKT</t>
   </si>
   <si>
@@ -1345,33 +1321,18 @@
     <t>TB7 (CS221) –TS16 /DL</t>
   </si>
   <si>
-    <t>TC1(BT211)-TS16/VGU, SBT</t>
-  </si>
-  <si>
-    <t>TC3(BT312)-TS17/MOB, GMA</t>
-  </si>
-  <si>
     <t>TG2(25B11MA232)-TS13/HPT</t>
   </si>
   <si>
-    <t>TC3(BT312)-TS16/MOB, GMA</t>
-  </si>
-  <si>
     <t>TC2(BT211)-TS16/VGU, SBT</t>
   </si>
   <si>
-    <t>TC1(BT312)-TS17/MOB, GMA</t>
-  </si>
-  <si>
     <t>TB11 (CS221) – TS13/KJ</t>
   </si>
   <si>
     <t>TG1(25B11MA231)-TS16/GA</t>
   </si>
   <si>
-    <t>TA17(25B11MA231)-TS13/MKB</t>
-  </si>
-  <si>
     <t>TA18(25B11MA231)-TS16/GA</t>
   </si>
   <si>
@@ -1390,9 +1351,6 @@
     <t>TC3(BT211)-TS17/VGU, SBT</t>
   </si>
   <si>
-    <t>TC2(BT312)-TS20/MOB, GMA</t>
-  </si>
-  <si>
     <t>TB12 (CS221) – TS13/TRN</t>
   </si>
   <si>
@@ -1516,15 +1474,9 @@
     <t>TA1(15B11EC411)-TS13/RRJ</t>
   </si>
   <si>
-    <t>TB10 (CS221) –TR305 /TKT</t>
-  </si>
-  <si>
     <t>PB3,B14(CS221)-CL02,03/IC,TRN,KJ,MKT</t>
   </si>
   <si>
-    <t>TB16 (CS221) – TR302/TKT</t>
-  </si>
-  <si>
     <t>LB14,B16 (CS223)-FF9/PSO</t>
   </si>
   <si>
@@ -1678,25 +1630,7 @@
     <t>LB(CS213)-G5/HN</t>
   </si>
   <si>
-    <t>PC1(BT471)-Bioinfo/CKJ,RD,APC</t>
-  </si>
-  <si>
-    <t>PC3(BT471)-BIOINFO/CKJ, RD,APC</t>
-  </si>
-  <si>
-    <t>PC2(BT471)-BIOINFO/CKJ, RD,APC</t>
-  </si>
-  <si>
     <t>LC1-C3(BT411)-G4/NDH, RD</t>
-  </si>
-  <si>
-    <t>TC3(BT411)-TS13/NDH,RD</t>
-  </si>
-  <si>
-    <t>TC1(BT411)-TS16/NDH,RD</t>
-  </si>
-  <si>
-    <t>TC2(BT411)-TS13/NDH,RD</t>
   </si>
   <si>
     <t>LC1-C3(BT414)-G6/RAC,SHM</t>
@@ -2054,12 +1988,84 @@
   <si>
     <t>PB7(CS221)-CL07/KJ,AST</t>
   </si>
+  <si>
+    <t>LB(CS242)-G4/AYS</t>
+  </si>
+  <si>
+    <t>LG1,G2 (CS222)-CS5/AKM</t>
+  </si>
+  <si>
+    <t>TB16 (CS221) – TR326/TKT</t>
+  </si>
+  <si>
+    <t>LG1,G2(MA222)-CS4/DCS</t>
+  </si>
+  <si>
+    <t>TA17(25B11MA231)-TS12/MKB</t>
+  </si>
+  <si>
+    <t>LMinor(24B12PH211)-CS4/SHIV</t>
+  </si>
+  <si>
+    <t>LMinor(24B12PH211)-CS2/SHIV</t>
+  </si>
+  <si>
+    <t>LA(17B1NEC735)-FF6/SIM</t>
+  </si>
+  <si>
+    <t>TB10 (CS221) –TR326 /TKT</t>
+  </si>
+  <si>
+    <t>TC1(BT211)-TS8/VGU, SBT</t>
+  </si>
+  <si>
+    <t>TC2(BT411)-TS13/NDH,RD,JYGU</t>
+  </si>
+  <si>
+    <t>TC3(BT312)-TS17/MOB, GMA,RASA</t>
+  </si>
+  <si>
+    <t>TC3(BT411)-TS13/NDH,RD, JYGU</t>
+  </si>
+  <si>
+    <t>TC1(BT312)-TS17/MOB, GMA,RASA</t>
+  </si>
+  <si>
+    <t>TC1(BT411)-TS16/NDH,RD,JYGU</t>
+  </si>
+  <si>
+    <t>TC2(BT312)-TS20/MOB, GMA,RASA</t>
+  </si>
+  <si>
+    <t>PC2(BT471)-BIOINFO/CKJ, RD,APC,JYGU</t>
+  </si>
+  <si>
+    <t>PC3(BT372)-BT1/SMG,GMA,NV,ANR,POC,RASA</t>
+  </si>
+  <si>
+    <t>PC3(BT471)-BIOINFO/CKJ, RD,APC,JYGU</t>
+  </si>
+  <si>
+    <t>PC1(BT372)-BT1/SMG,GMA,NV,ANR,POC,RASA</t>
+  </si>
+  <si>
+    <t>PC2(BT372)-BT1/SMG,GMA,NV,ANR,POC,RASA</t>
+  </si>
+  <si>
+    <t>PC1(BT471)-Bioinfo/CKJ,RD,APC,JYGU</t>
+  </si>
+  <si>
+    <t>LC1-C3(12BT211)-FF4/DKP</t>
+  </si>
+  <si>
+    <t>LC1-C3(12BT211)-CS2/DKP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,6 +2109,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2360,9 +2373,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="150">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2372,12 +2385,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2402,7 +2415,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2424,8 +2437,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2435,7 +2447,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2454,12 +2466,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2481,7 +2493,7 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2518,11 +2530,11 @@
     <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2544,7 +2556,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2569,12 +2580,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2587,57 +2592,72 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2645,22 +2665,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2691,10 +2705,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2716,6 +2730,9 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2724,14 +2741,20 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2742,20 +2765,23 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
@@ -2775,6 +2801,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2977,11 +3007,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="86" zoomScaleSheetLayoutView="86" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I97" sqref="I97:J97"/>
+      <selection pane="bottomRight" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3002,18 +3032,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="123"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="122"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -3032,7 +3062,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -3075,24 +3105,24 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="115" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="76" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I3" s="70" t="s">
+        <v>434</v>
+      </c>
+      <c r="I3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="69" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="9"/>
@@ -3112,27 +3142,26 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="79" t="s">
-        <v>475</v>
+      <c r="A4" s="112"/>
+      <c r="C4" s="77" t="s">
+        <v>459</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F4" s="110" t="s">
+        <v>490</v>
+      </c>
+      <c r="F4" s="111" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I4" s="70" t="s">
+        <v>435</v>
+      </c>
+      <c r="I4" s="69" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="K4" s="73"/>
+        <v>469</v>
+      </c>
+      <c r="K4" s="71"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -3149,26 +3178,28 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="112"/>
+      <c r="C5" s="102" t="s">
+        <v>558</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="129" t="s">
-        <v>453</v>
-      </c>
-      <c r="H5" s="80" t="s">
-        <v>337</v>
-      </c>
-      <c r="I5" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="112"/>
+      <c r="G5" s="128" t="s">
+        <v>439</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="70" t="s">
-        <v>486</v>
+      <c r="J5" s="69" t="s">
+        <v>470</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3186,27 +3217,26 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="71"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="112"/>
       <c r="C6" s="2" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="F6" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="130"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I6" s="97" t="s">
-        <v>276</v>
+        <v>267</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>271</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3225,28 +3255,27 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="112"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="130"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -3264,23 +3293,22 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="112"/>
       <c r="C8" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E8" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>552</v>
-      </c>
-      <c r="G8" s="130"/>
+        <v>492</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>530</v>
+      </c>
+      <c r="G8" s="129"/>
       <c r="H8" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -3299,23 +3327,22 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="112"/>
       <c r="C9" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>262</v>
+        <v>325</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>258</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="G9" s="130"/>
+        <v>338</v>
+      </c>
+      <c r="G9" s="129"/>
       <c r="H9" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="9"/>
@@ -3334,21 +3361,20 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="71"/>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
       <c r="D10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>263</v>
+        <v>326</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>259</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G10" s="130"/>
+        <v>328</v>
+      </c>
+      <c r="G10" s="129"/>
       <c r="H10" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="16"/>
@@ -3369,19 +3395,18 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="112"/>
       <c r="C11" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>264</v>
+        <v>242</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>260</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="70"/>
+        <v>425</v>
+      </c>
+      <c r="G11" s="129"/>
+      <c r="H11" s="69"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -3401,23 +3426,22 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="112"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G12" s="130"/>
+        <v>428</v>
+      </c>
+      <c r="G12" s="129"/>
       <c r="H12" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I12" s="98" t="s">
-        <v>406</v>
-      </c>
-      <c r="J12" s="70"/>
+        <v>237</v>
+      </c>
+      <c r="I12" s="94" t="s">
+        <v>398</v>
+      </c>
+      <c r="J12" s="69"/>
       <c r="K12" s="9"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3437,25 +3461,24 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="68" t="s">
-        <v>473</v>
+      <c r="A13" s="112"/>
+      <c r="C13" s="67" t="s">
+        <v>457</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>522</v>
-      </c>
-      <c r="G13" s="130"/>
+        <v>493</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>506</v>
+      </c>
+      <c r="G13" s="129"/>
       <c r="H13" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J13" s="70"/>
+        <v>448</v>
+      </c>
+      <c r="J13" s="69"/>
       <c r="K13" s="9"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -3475,25 +3498,24 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="112"/>
       <c r="C14" s="2" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="130"/>
+        <v>494</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="129"/>
       <c r="H14" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="I14" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="111"/>
+        <v>449</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>577</v>
+      </c>
+      <c r="J14" s="112"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3513,25 +3535,24 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="112"/>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="90" t="s">
-        <v>563</v>
-      </c>
-      <c r="I15" s="114" t="s">
-        <v>523</v>
-      </c>
-      <c r="J15" s="111"/>
+        <v>70</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="129"/>
+      <c r="H15" s="86" t="s">
+        <v>541</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>578</v>
+      </c>
+      <c r="J15" s="112"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3551,20 +3572,19 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="112"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" s="130"/>
-      <c r="I16" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="111"/>
+        <v>359</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="129"/>
+      <c r="I16" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="112"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3584,21 +3604,20 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="112"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="112" t="s">
-        <v>358</v>
-      </c>
-      <c r="J17" s="113"/>
+        <v>261</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="105" t="s">
+        <v>350</v>
+      </c>
+      <c r="J17" s="106"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3618,14 +3637,13 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="112"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="130"/>
-      <c r="I18" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="J18" s="113"/>
+      <c r="G18" s="129"/>
+      <c r="I18" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="106"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3645,18 +3663,17 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="112"/>
       <c r="C19" s="4"/>
-      <c r="E19" s="99" t="s">
-        <v>512</v>
-      </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="130"/>
-      <c r="I19" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="J19" s="113"/>
+      <c r="E19" s="95" t="s">
+        <v>496</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="129"/>
+      <c r="I19" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="106"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3676,20 +3693,19 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="112"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="130"/>
-      <c r="I20" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20" s="113"/>
+      <c r="D20" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="129"/>
+      <c r="I20" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" s="106"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3709,20 +3725,19 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="71"/>
+      <c r="A21" s="112"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="G21" s="130"/>
-      <c r="H21" s="112" t="s">
-        <v>205</v>
-      </c>
-      <c r="I21" s="113"/>
+        <v>236</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>579</v>
+      </c>
+      <c r="G21" s="129"/>
+      <c r="H21" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="106"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3742,19 +3757,18 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="71"/>
+      <c r="A22" s="112"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="J22" s="113"/>
+        <v>240</v>
+      </c>
+      <c r="F22" s="69"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" s="106"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3774,19 +3788,18 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="112"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="J23" s="113"/>
+        <v>246</v>
+      </c>
+      <c r="F23" s="69"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" s="106"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3805,14 +3818,13 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="112"/>
       <c r="C24" s="4"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="122"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3831,16 +3843,15 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="71"/>
+      <c r="A25" s="112"/>
       <c r="C25" s="4"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="112" t="s">
-        <v>556</v>
-      </c>
-      <c r="J25" s="113"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="105" t="s">
+        <v>534</v>
+      </c>
+      <c r="J25" s="106"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3859,16 +3870,15 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="112"/>
       <c r="C26" s="4"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="112" t="s">
-        <v>544</v>
-      </c>
-      <c r="J26" s="113"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="105" t="s">
+        <v>522</v>
+      </c>
+      <c r="J26" s="106"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3885,15 +3895,14 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
-      <c r="B27" s="71"/>
+      <c r="A27" s="112"/>
       <c r="C27" s="4"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="112" t="s">
-        <v>256</v>
-      </c>
-      <c r="I27" s="113"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="I27" s="106"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3910,12 +3919,11 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
-      <c r="B28" s="71"/>
+      <c r="A28" s="112"/>
       <c r="C28" s="4"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="74"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="72"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3958,27 +3966,27 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="119" t="s">
-        <v>29</v>
+      <c r="A30" s="118" t="s">
+        <v>28</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="J30" s="70" t="s">
-        <v>31</v>
+        <v>342</v>
+      </c>
+      <c r="J30" s="69" t="s">
+        <v>30</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -3996,31 +4004,27 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="D31" s="70" t="s">
+      <c r="A31" s="119"/>
+      <c r="C31" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I31" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I31" s="70" t="s">
+      <c r="J31" s="69" t="s">
         <v>34</v>
-      </c>
-      <c r="J31" s="70" t="s">
-        <v>35</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -4038,29 +4042,28 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="70" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>342</v>
+      <c r="A32" s="119"/>
+      <c r="C32" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>334</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="F32" s="111"/>
+        <v>276</v>
+      </c>
+      <c r="F32" s="112"/>
       <c r="G32" s="2" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="69" t="s">
         <v>37</v>
-      </c>
-      <c r="J32" s="70" t="s">
-        <v>38</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -4078,28 +4081,25 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="70" t="s">
+      <c r="A33" s="119"/>
+      <c r="C33" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4117,27 +4117,26 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="119"/>
       <c r="C34" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="D34" s="97" t="s">
-        <v>344</v>
+        <v>361</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>336</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>347</v>
+        <v>460</v>
+      </c>
+      <c r="F34" s="69" t="s">
+        <v>339</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I34" s="97" t="s">
+        <v>486</v>
+      </c>
+      <c r="I34" s="93" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -4161,28 +4160,27 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="120"/>
-      <c r="B35" s="71"/>
+      <c r="A35" s="119"/>
       <c r="C35" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="97" t="s">
-        <v>343</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F35" s="110" t="s">
-        <v>552</v>
+      <c r="F35" s="111" t="s">
+        <v>530</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I35" s="97" t="s">
-        <v>294</v>
+        <v>487</v>
+      </c>
+      <c r="I35" s="93" t="s">
+        <v>288</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -4202,22 +4200,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120"/>
-      <c r="D36" s="70" t="s">
-        <v>345</v>
+      <c r="A36" s="119"/>
+      <c r="D36" s="69" t="s">
+        <v>337</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F36" s="111"/>
+        <v>279</v>
+      </c>
+      <c r="F36" s="112"/>
       <c r="G36" s="2" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4237,25 +4235,25 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="120"/>
+      <c r="A37" s="119"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="70" t="s">
-        <v>279</v>
+      <c r="D37" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G37" s="129" t="s">
-        <v>453</v>
+        <v>280</v>
+      </c>
+      <c r="G37" s="128" t="s">
+        <v>439</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I37" s="94" t="s">
-        <v>457</v>
+        <v>286</v>
+      </c>
+      <c r="I37" s="90" t="s">
+        <v>443</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4275,22 +4273,22 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="120"/>
+      <c r="A38" s="119"/>
       <c r="D38" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G38" s="130"/>
+        <v>426</v>
+      </c>
+      <c r="G38" s="129"/>
       <c r="H38" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J38" s="94" t="s">
-        <v>471</v>
+        <v>287</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>559</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
@@ -4310,23 +4308,23 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
-      <c r="D39" s="70"/>
+      <c r="A39" s="119"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="24" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G39" s="130"/>
+        <v>429</v>
+      </c>
+      <c r="G39" s="129"/>
       <c r="H39" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="I39" s="75" t="s">
-        <v>409</v>
-      </c>
-      <c r="J39" s="74" t="s">
-        <v>235</v>
+        <v>488</v>
+      </c>
+      <c r="I39" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>231</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
@@ -4347,16 +4345,16 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="120"/>
+      <c r="A40" s="119"/>
       <c r="E40" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F40" s="91" t="s">
-        <v>522</v>
-      </c>
-      <c r="G40" s="130"/>
-      <c r="J40" s="74" t="s">
-        <v>237</v>
+        <v>500</v>
+      </c>
+      <c r="F40" s="87" t="s">
+        <v>506</v>
+      </c>
+      <c r="G40" s="129"/>
+      <c r="J40" s="72" t="s">
+        <v>233</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
@@ -4377,18 +4375,18 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="G41" s="130"/>
+      <c r="A41" s="119"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" s="129"/>
       <c r="H41" s="1" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="74" t="s">
-        <v>410</v>
+      <c r="J41" s="72" t="s">
+        <v>402</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4409,16 +4407,16 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="120"/>
+      <c r="A42" s="119"/>
       <c r="D42" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F42" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="130"/>
+        <v>450</v>
+      </c>
+      <c r="F42" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" s="129"/>
       <c r="H42" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="7"/>
@@ -4441,19 +4439,18 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="120"/>
+      <c r="A43" s="119"/>
       <c r="D43" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="G43" s="130"/>
-      <c r="I43" s="132" t="s">
-        <v>499</v>
-      </c>
-      <c r="J43" s="111"/>
+        <v>239</v>
+      </c>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="129"/>
+      <c r="J43" s="69" t="s">
+        <v>283</v>
+      </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -4471,25 +4468,22 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="95" t="s">
-        <v>570</v>
+      <c r="A44" s="119"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="91" t="s">
+        <v>548</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F44" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="130"/>
+        <v>238</v>
+      </c>
+      <c r="G44" s="129"/>
       <c r="H44" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I44" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="J44" s="113"/>
+        <v>362</v>
+      </c>
+      <c r="I44" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44" s="106"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4507,23 +4501,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="113"/>
-      <c r="F45" s="83" t="s">
-        <v>555</v>
-      </c>
-      <c r="G45" s="130"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="106"/>
+      <c r="F45" s="79" t="s">
+        <v>533</v>
+      </c>
+      <c r="G45" s="129"/>
       <c r="H45" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I45" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="J45" s="113"/>
+        <v>363</v>
+      </c>
+      <c r="I45" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="J45" s="106"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4541,20 +4535,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="120"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="108" t="s">
-        <v>568</v>
-      </c>
-      <c r="D46" s="109"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="109" t="s">
+        <v>546</v>
+      </c>
+      <c r="D46" s="110"/>
       <c r="E46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G46" s="130"/>
-      <c r="I46" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="J46" s="113"/>
+        <v>247</v>
+      </c>
+      <c r="G46" s="129"/>
+      <c r="I46" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="106"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4572,20 +4566,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="112" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="113"/>
-      <c r="E47" s="98" t="s">
-        <v>407</v>
-      </c>
-      <c r="G47" s="130"/>
-      <c r="I47" s="112" t="s">
-        <v>546</v>
-      </c>
-      <c r="J47" s="113"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="106"/>
+      <c r="E47" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" s="129"/>
+      <c r="I47" s="105" t="s">
+        <v>524</v>
+      </c>
+      <c r="J47" s="106"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4603,20 +4597,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="120"/>
-      <c r="C48" s="112" t="s">
-        <v>514</v>
-      </c>
-      <c r="D48" s="113"/>
-      <c r="E48" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="130"/>
-      <c r="I48" s="112" t="s">
-        <v>259</v>
-      </c>
-      <c r="J48" s="113"/>
+      <c r="A48" s="119"/>
+      <c r="C48" s="105" t="s">
+        <v>498</v>
+      </c>
+      <c r="D48" s="106"/>
+      <c r="E48" s="94" t="s">
+        <v>400</v>
+      </c>
+      <c r="F48" s="69"/>
+      <c r="G48" s="129"/>
+      <c r="I48" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="J48" s="106"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4634,21 +4628,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="120"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="112" t="s">
-        <v>488</v>
-      </c>
-      <c r="F49" s="113"/>
-      <c r="G49" s="130"/>
-      <c r="I49" s="112" t="s">
-        <v>257</v>
-      </c>
-      <c r="J49" s="113"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="143" t="s">
+        <v>535</v>
+      </c>
+      <c r="D49" s="144"/>
+      <c r="E49" s="105" t="s">
+        <v>472</v>
+      </c>
+      <c r="F49" s="106"/>
+      <c r="G49" s="129"/>
+      <c r="I49" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="J49" s="106"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4666,19 +4660,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="120"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="112" t="s">
-        <v>515</v>
-      </c>
-      <c r="D50" s="113"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="130"/>
-      <c r="I50" s="112" t="s">
-        <v>517</v>
-      </c>
-      <c r="J50" s="113"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="105" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" s="106"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="129"/>
+      <c r="I50" s="105" t="s">
+        <v>501</v>
+      </c>
+      <c r="J50" s="106"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4696,16 +4690,16 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="120"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="112" t="s">
-        <v>542</v>
-      </c>
-      <c r="D51" s="113"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="130"/>
-      <c r="I51" s="72"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="105" t="s">
+        <v>520</v>
+      </c>
+      <c r="D51" s="106"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="129"/>
+      <c r="I51" s="70"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -4723,17 +4717,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
-      <c r="C52" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="113"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="136"/>
+      <c r="A52" s="120"/>
+      <c r="C52" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="106"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="138"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4751,16 +4745,16 @@
       <c r="Y52" s="9"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
@@ -4778,11 +4772,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="106" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="G54" s="130"/>
+      <c r="A54" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="G54" s="129"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4800,12 +4794,8 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
-      <c r="B55" s="71"/>
-      <c r="G55" s="130"/>
-      <c r="J55" s="23" t="s">
-        <v>303</v>
-      </c>
+      <c r="A55" s="108"/>
+      <c r="G55" s="129"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4823,7 +4813,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4849,30 +4839,27 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="107"/>
+      <c r="A57" s="108"/>
       <c r="C57" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D57" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F57" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="128" t="s">
+        <v>439</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="69" t="s">
         <v>47</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="F57" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="129" t="s">
-        <v>453</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -4891,25 +4878,25 @@
       <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="107"/>
-      <c r="C58" s="100" t="s">
-        <v>372</v>
-      </c>
-      <c r="D58" s="81" t="s">
-        <v>50</v>
+      <c r="A58" s="108"/>
+      <c r="C58" s="96" t="s">
+        <v>364</v>
+      </c>
+      <c r="D58" s="69" t="s">
+        <v>49</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="130"/>
+      <c r="G58" s="129"/>
       <c r="H58" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="I58" s="81" t="s">
-        <v>52</v>
+        <v>371</v>
+      </c>
+      <c r="I58" s="69" t="s">
+        <v>51</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -4928,401 +4915,402 @@
       <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="107"/>
+      <c r="A59" s="108"/>
       <c r="C59" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="D59" s="97" t="s">
-        <v>295</v>
+        <v>368</v>
+      </c>
+      <c r="D59" s="93" t="s">
+        <v>289</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="F59" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="G59" s="130"/>
+        <v>473</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="G59" s="129"/>
       <c r="H59" s="23" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
-      <c r="U59" s="84"/>
-      <c r="V59" s="84"/>
-      <c r="W59" s="84"/>
-      <c r="X59" s="84"/>
-      <c r="Y59" s="84"/>
-      <c r="Z59" s="85"/>
-      <c r="AA59" s="85"/>
+        <v>440</v>
+      </c>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="80"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="80"/>
+      <c r="V59" s="80"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="80"/>
+      <c r="Y59" s="80"/>
+      <c r="Z59" s="81"/>
+      <c r="AA59" s="81"/>
     </row>
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="107"/>
+      <c r="A60" s="108"/>
       <c r="C60" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="81" t="s">
-        <v>33</v>
+        <v>369</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>32</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="129"/>
+      <c r="H60" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="I60" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" s="93" t="s">
+        <v>537</v>
+      </c>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="80"/>
+      <c r="V60" s="80"/>
+      <c r="W60" s="80"/>
+      <c r="X60" s="80"/>
+      <c r="Y60" s="80"/>
+      <c r="Z60" s="81"/>
+      <c r="AA60" s="81"/>
+    </row>
+    <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="108"/>
+      <c r="C61" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="129"/>
+      <c r="H61" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="I61" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="J61" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="130"/>
-      <c r="H60" s="23" t="s">
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="80"/>
+      <c r="U61" s="80"/>
+      <c r="V61" s="80"/>
+      <c r="W61" s="80"/>
+      <c r="X61" s="80"/>
+      <c r="Y61" s="80"/>
+      <c r="Z61" s="81"/>
+      <c r="AA61" s="81"/>
+    </row>
+    <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="108"/>
+      <c r="C62" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="G62" s="129"/>
+      <c r="H62" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="I62" s="69" t="s">
+        <v>481</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="80"/>
+      <c r="O62" s="80"/>
+      <c r="P62" s="80"/>
+      <c r="Q62" s="80"/>
+      <c r="R62" s="80"/>
+      <c r="S62" s="80"/>
+      <c r="T62" s="80"/>
+      <c r="U62" s="80"/>
+      <c r="V62" s="80"/>
+      <c r="W62" s="80"/>
+      <c r="X62" s="80"/>
+      <c r="Y62" s="80"/>
+      <c r="Z62" s="81"/>
+      <c r="AA62" s="81"/>
+    </row>
+    <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="108"/>
+      <c r="C63" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="129"/>
+      <c r="H63" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="80"/>
+      <c r="R63" s="80"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="80"/>
+      <c r="U63" s="80"/>
+      <c r="V63" s="80"/>
+      <c r="W63" s="80"/>
+      <c r="X63" s="80"/>
+      <c r="Y63" s="80"/>
+      <c r="Z63" s="81"/>
+      <c r="AA63" s="81"/>
+    </row>
+    <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="108"/>
+      <c r="C64" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="G64" s="129"/>
+      <c r="H64" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80"/>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="80"/>
+      <c r="R64" s="80"/>
+      <c r="S64" s="80"/>
+      <c r="T64" s="80"/>
+      <c r="U64" s="80"/>
+      <c r="V64" s="80"/>
+      <c r="W64" s="80"/>
+      <c r="X64" s="80"/>
+      <c r="Y64" s="80"/>
+      <c r="Z64" s="81"/>
+      <c r="AA64" s="81"/>
+    </row>
+    <row r="65" spans="1:27" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="108"/>
+      <c r="D65" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="G65" s="129"/>
+      <c r="H65" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="I65" s="23"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="80"/>
+      <c r="U65" s="80"/>
+      <c r="V65" s="80"/>
+      <c r="W65" s="80"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="80"/>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="81"/>
+    </row>
+    <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="108"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="97" t="s">
+        <v>419</v>
+      </c>
+      <c r="D66" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="E66" s="41"/>
+      <c r="F66" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="G66" s="129"/>
+      <c r="H66" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="80"/>
+      <c r="U66" s="80"/>
+      <c r="V66" s="80"/>
+      <c r="W66" s="80"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
+      <c r="Z66" s="81"/>
+      <c r="AA66" s="81"/>
+    </row>
+    <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="108"/>
+      <c r="C67" s="96" t="s">
+        <v>565</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="G67" s="129"/>
+      <c r="H67" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="I60" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="J60" s="97" t="s">
-        <v>559</v>
-      </c>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="84"/>
-      <c r="V60" s="84"/>
-      <c r="W60" s="84"/>
-      <c r="X60" s="84"/>
-      <c r="Y60" s="84"/>
-      <c r="Z60" s="85"/>
-      <c r="AA60" s="85"/>
-    </row>
-    <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="107"/>
-      <c r="C61" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D61" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="E61" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" s="130"/>
-      <c r="H61" s="23" t="s">
+      <c r="I67" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="80"/>
+      <c r="S67" s="80"/>
+      <c r="T67" s="80"/>
+      <c r="U67" s="80"/>
+      <c r="V67" s="80"/>
+      <c r="W67" s="80"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
+      <c r="Z67" s="81"/>
+      <c r="AA67" s="81"/>
+    </row>
+    <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="108"/>
+      <c r="C68" s="91" t="s">
+        <v>547</v>
+      </c>
+      <c r="D68" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="F68" s="98" t="s">
+        <v>418</v>
+      </c>
+      <c r="G68" s="129"/>
+      <c r="H68" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="I61" s="97" t="s">
-        <v>302</v>
-      </c>
-      <c r="J61" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="84"/>
-      <c r="S61" s="84"/>
-      <c r="T61" s="84"/>
-      <c r="U61" s="84"/>
-      <c r="V61" s="84"/>
-      <c r="W61" s="84"/>
-      <c r="X61" s="84"/>
-      <c r="Y61" s="84"/>
-      <c r="Z61" s="85"/>
-      <c r="AA61" s="85"/>
-    </row>
-    <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="107"/>
-      <c r="C62" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="D62" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="93" t="s">
-        <v>565</v>
-      </c>
-      <c r="G62" s="130"/>
-      <c r="H62" s="23" t="s">
+      <c r="I68" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="J68" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
+      <c r="R68" s="80"/>
+      <c r="S68" s="80"/>
+      <c r="T68" s="80"/>
+      <c r="U68" s="80"/>
+      <c r="V68" s="80"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
+      <c r="Z68" s="81"/>
+      <c r="AA68" s="81"/>
+    </row>
+    <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="108"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="117"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="23" t="s">
         <v>383</v>
-      </c>
-      <c r="I62" s="81" t="s">
-        <v>497</v>
-      </c>
-      <c r="J62" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="84"/>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="84"/>
-      <c r="S62" s="84"/>
-      <c r="T62" s="84"/>
-      <c r="U62" s="84"/>
-      <c r="V62" s="84"/>
-      <c r="W62" s="84"/>
-      <c r="X62" s="84"/>
-      <c r="Y62" s="84"/>
-      <c r="Z62" s="85"/>
-      <c r="AA62" s="85"/>
-    </row>
-    <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="107"/>
-      <c r="C63" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D63" s="81" t="s">
-        <v>351</v>
-      </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" s="130"/>
-      <c r="H63" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
-      <c r="U63" s="84"/>
-      <c r="V63" s="84"/>
-      <c r="W63" s="84"/>
-      <c r="X63" s="84"/>
-      <c r="Y63" s="84"/>
-      <c r="Z63" s="85"/>
-      <c r="AA63" s="85"/>
-    </row>
-    <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="107"/>
-      <c r="C64" s="100" t="s">
-        <v>411</v>
-      </c>
-      <c r="D64" s="81" t="s">
-        <v>352</v>
-      </c>
-      <c r="G64" s="130"/>
-      <c r="H64" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="J64" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="84"/>
-      <c r="S64" s="84"/>
-      <c r="T64" s="84"/>
-      <c r="U64" s="84"/>
-      <c r="V64" s="84"/>
-      <c r="W64" s="84"/>
-      <c r="X64" s="84"/>
-      <c r="Y64" s="84"/>
-      <c r="Z64" s="85"/>
-      <c r="AA64" s="85"/>
-    </row>
-    <row r="65" spans="1:27" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="107"/>
-      <c r="D65" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>529</v>
-      </c>
-      <c r="G65" s="130"/>
-      <c r="H65" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="S65" s="84"/>
-      <c r="T65" s="84"/>
-      <c r="U65" s="84"/>
-      <c r="V65" s="84"/>
-      <c r="W65" s="84"/>
-      <c r="X65" s="84"/>
-      <c r="Y65" s="84"/>
-      <c r="Z65" s="85"/>
-      <c r="AA65" s="85"/>
-    </row>
-    <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="107"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="101" t="s">
-        <v>433</v>
-      </c>
-      <c r="D66" s="97" t="s">
-        <v>403</v>
-      </c>
-      <c r="E66" s="42"/>
-      <c r="F66" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="G66" s="130"/>
-      <c r="H66" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="S66" s="84"/>
-      <c r="T66" s="84"/>
-      <c r="U66" s="84"/>
-      <c r="V66" s="84"/>
-      <c r="W66" s="84"/>
-      <c r="X66" s="84"/>
-      <c r="Y66" s="84"/>
-      <c r="Z66" s="85"/>
-      <c r="AA66" s="85"/>
-    </row>
-    <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="107"/>
-      <c r="C67" s="100" t="s">
-        <v>469</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G67" s="130"/>
-      <c r="H67" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="I67" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="J67" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="84"/>
-      <c r="S67" s="84"/>
-      <c r="T67" s="84"/>
-      <c r="U67" s="84"/>
-      <c r="V67" s="84"/>
-      <c r="W67" s="84"/>
-      <c r="X67" s="84"/>
-      <c r="Y67" s="84"/>
-      <c r="Z67" s="85"/>
-      <c r="AA67" s="85"/>
-    </row>
-    <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
-      <c r="C68" s="95" t="s">
-        <v>569</v>
-      </c>
-      <c r="D68" s="68" t="s">
-        <v>550</v>
-      </c>
-      <c r="F68" s="102" t="s">
-        <v>432</v>
-      </c>
-      <c r="G68" s="130"/>
-      <c r="H68" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="J68" s="102" t="s">
-        <v>430</v>
-      </c>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="84"/>
-      <c r="T68" s="84"/>
-      <c r="U68" s="84"/>
-      <c r="V68" s="84"/>
-      <c r="W68" s="84"/>
-      <c r="X68" s="84"/>
-      <c r="Y68" s="84"/>
-      <c r="Z68" s="85"/>
-      <c r="AA68" s="85"/>
-    </row>
-    <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="107"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" s="118"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="23" t="s">
-        <v>391</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -5341,22 +5329,22 @@
       <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="107"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="113"/>
-      <c r="G70" s="2" t="s">
-        <v>535</v>
+      <c r="A70" s="108"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="106"/>
+      <c r="G70" s="145" t="s">
+        <v>513</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="I70" s="112" t="s">
-        <v>197</v>
-      </c>
-      <c r="J70" s="113"/>
+        <v>379</v>
+      </c>
+      <c r="I70" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="J70" s="106"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -5374,24 +5362,24 @@
       <c r="Y70" s="13"/>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="107"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="112" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="113"/>
-      <c r="E71" s="112" t="s">
-        <v>495</v>
-      </c>
-      <c r="F71" s="113"/>
-      <c r="G71" s="81"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="106"/>
+      <c r="E71" s="105" t="s">
+        <v>479</v>
+      </c>
+      <c r="F71" s="106"/>
+      <c r="G71" s="146"/>
       <c r="H71" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="I71" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="J71" s="113"/>
+        <v>441</v>
+      </c>
+      <c r="I71" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71" s="106"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
@@ -5409,24 +5397,26 @@
       <c r="Y71" s="13"/>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="107"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="108" t="s">
-        <v>571</v>
-      </c>
-      <c r="D72" s="109"/>
-      <c r="E72" s="112" t="s">
-        <v>233</v>
-      </c>
-      <c r="F72" s="113"/>
-      <c r="G72" s="81"/>
+      <c r="A72" s="108"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="109" t="s">
+        <v>549</v>
+      </c>
+      <c r="D72" s="110"/>
+      <c r="E72" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="F72" s="106"/>
+      <c r="G72" s="104" t="s">
+        <v>562</v>
+      </c>
       <c r="H72" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I72" s="112" t="s">
-        <v>219</v>
-      </c>
-      <c r="J72" s="113"/>
+        <v>396</v>
+      </c>
+      <c r="I72" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="J72" s="106"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
@@ -5444,24 +5434,24 @@
       <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="107"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="112" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="112" t="s">
-        <v>260</v>
-      </c>
-      <c r="F73" s="113"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="88" t="s">
-        <v>558</v>
-      </c>
-      <c r="I73" s="112" t="s">
-        <v>547</v>
-      </c>
-      <c r="J73" s="113"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="106"/>
+      <c r="E73" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="F73" s="106"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="84" t="s">
+        <v>536</v>
+      </c>
+      <c r="I73" s="105" t="s">
+        <v>525</v>
+      </c>
+      <c r="J73" s="106"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5479,16 +5469,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="107"/>
-      <c r="E74" s="112" t="s">
-        <v>543</v>
-      </c>
-      <c r="F74" s="113"/>
-      <c r="G74" s="70"/>
-      <c r="I74" s="112" t="s">
-        <v>223</v>
-      </c>
-      <c r="J74" s="113"/>
+      <c r="A74" s="108"/>
+      <c r="E74" s="105" t="s">
+        <v>521</v>
+      </c>
+      <c r="F74" s="106"/>
+      <c r="G74" s="69"/>
+      <c r="I74" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="J74" s="106"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5506,19 +5496,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="107"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="122" t="s">
-        <v>254</v>
-      </c>
-      <c r="F75" s="123"/>
-      <c r="G75" s="70"/>
+      <c r="A75" s="108"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" s="122"/>
+      <c r="G75" s="69"/>
       <c r="I75" s="134" t="s">
-        <v>483</v>
-      </c>
-      <c r="J75" s="113"/>
+        <v>467</v>
+      </c>
+      <c r="J75" s="106"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5536,17 +5526,17 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="107"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="112" t="s">
-        <v>460</v>
-      </c>
-      <c r="F76" s="113"/>
-      <c r="G76" s="70"/>
-      <c r="J76" s="96" t="s">
-        <v>488</v>
+      <c r="A76" s="108"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="105" t="s">
+        <v>446</v>
+      </c>
+      <c r="F76" s="106"/>
+      <c r="G76" s="69"/>
+      <c r="J76" s="92" t="s">
+        <v>472</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5565,7 +5555,7 @@
       <c r="Y76" s="9"/>
     </row>
     <row r="77" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="19"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -5591,30 +5581,27 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="119" t="s">
-        <v>57</v>
+      <c r="A78" s="118" t="s">
+        <v>55</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="D78" s="70" t="s">
-        <v>375</v>
+        <v>348</v>
+      </c>
+      <c r="D78" s="69" t="s">
+        <v>367</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" s="146" t="s">
-        <v>452</v>
-      </c>
-      <c r="H78" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="149" t="s">
+        <v>438</v>
+      </c>
+      <c r="H78" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I78" s="70" t="s">
-        <v>548</v>
-      </c>
-      <c r="J78" s="110" t="s">
-        <v>14</v>
+      <c r="I78" s="69" t="s">
+        <v>526</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -5635,28 +5622,26 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="120"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="89" t="s">
-        <v>475</v>
-      </c>
-      <c r="D79" s="70" t="s">
-        <v>60</v>
+      <c r="A79" s="119"/>
+      <c r="C79" s="85" t="s">
+        <v>459</v>
+      </c>
+      <c r="D79" s="69" t="s">
+        <v>58</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="G79" s="111"/>
+        <v>349</v>
+      </c>
+      <c r="G79" s="112"/>
       <c r="H79" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="I79" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" s="111"/>
+        <v>384</v>
+      </c>
+      <c r="I79" s="69" t="s">
+        <v>33</v>
+      </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -5676,28 +5661,27 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="120"/>
-      <c r="B80" s="71"/>
+      <c r="A80" s="119"/>
       <c r="C80" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="70" t="s">
         <v>62</v>
       </c>
+      <c r="D80" s="69" t="s">
+        <v>60</v>
+      </c>
       <c r="E80" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" s="111"/>
+        <v>35</v>
+      </c>
+      <c r="G80" s="112"/>
       <c r="H80" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J80" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J80" s="69" t="s">
         <v>18</v>
       </c>
       <c r="K80" s="9"/>
@@ -5717,26 +5701,25 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="120"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="97" t="s">
+      <c r="A81" s="119"/>
+      <c r="C81" s="93" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E81" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G81" s="111"/>
+      <c r="G81" s="112"/>
       <c r="H81" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="I81" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="J81" s="70" t="s">
-        <v>553</v>
+        <v>386</v>
+      </c>
+      <c r="I81" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="J81" s="69" t="s">
+        <v>531</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5755,26 +5738,25 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="120"/>
-      <c r="B82" s="71"/>
+      <c r="A82" s="119"/>
       <c r="C82" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="F82" s="97" t="s">
-        <v>301</v>
-      </c>
-      <c r="G82" s="111"/>
+        <v>39</v>
+      </c>
+      <c r="E82" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" s="93" t="s">
+        <v>295</v>
+      </c>
+      <c r="G82" s="112"/>
       <c r="H82" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5792,25 +5774,24 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="120"/>
-      <c r="B83" s="71"/>
-      <c r="D83" s="97" t="s">
-        <v>298</v>
+      <c r="A83" s="119"/>
+      <c r="D83" s="93" t="s">
+        <v>292</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G83" s="111"/>
+        <v>301</v>
+      </c>
+      <c r="G83" s="112"/>
       <c r="H83" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="I83" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="J83" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="I83" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="J83" s="69" t="s">
         <v>20</v>
       </c>
       <c r="K83" s="9"/>
@@ -5830,29 +5811,28 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="120"/>
-      <c r="B84" s="71"/>
+      <c r="A84" s="119"/>
       <c r="C84" s="4" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E84" s="70" t="s">
-        <v>494</v>
+        <v>471</v>
+      </c>
+      <c r="E84" s="69" t="s">
+        <v>478</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G84" s="111"/>
-      <c r="H84" s="75" t="s">
-        <v>423</v>
+        <v>302</v>
+      </c>
+      <c r="G84" s="112"/>
+      <c r="H84" s="73" t="s">
+        <v>410</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J84" s="70" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="J84" s="69" t="s">
+        <v>305</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -5871,29 +5851,28 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="120"/>
-      <c r="B85" s="71"/>
+      <c r="A85" s="119"/>
       <c r="C85" s="4" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G85" s="111"/>
+        <v>303</v>
+      </c>
+      <c r="G85" s="112"/>
       <c r="H85" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="I85" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="I85" s="23" t="s">
-        <v>438</v>
-      </c>
       <c r="J85" s="23" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5912,81 +5891,91 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="120"/>
-      <c r="B86" s="71"/>
+      <c r="A86" s="119"/>
       <c r="C86" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G86" s="111"/>
+        <v>570</v>
+      </c>
+      <c r="E86" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G86" s="112"/>
       <c r="H86" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
-      <c r="V86" s="32"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="32"/>
-      <c r="Y86" s="32"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
+        <v>306</v>
+      </c>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="31"/>
+      <c r="V86" s="31"/>
+      <c r="W86" s="31"/>
+      <c r="X86" s="31"/>
+      <c r="Y86" s="31"/>
+      <c r="Z86" s="31"/>
+      <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="120"/>
-      <c r="E87" s="94" t="s">
-        <v>418</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="111"/>
+      <c r="A87" s="119"/>
+      <c r="E87" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G87" s="112"/>
       <c r="H87" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
+        <v>307</v>
+      </c>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
+      <c r="T87" s="31"/>
+      <c r="U87" s="31"/>
+      <c r="V87" s="31"/>
+      <c r="W87" s="31"/>
+      <c r="X87" s="31"/>
+      <c r="Y87" s="31"/>
+      <c r="Z87" s="31"/>
+      <c r="AA87" s="31"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="120"/>
+      <c r="A88" s="119"/>
       <c r="C88" s="2"/>
-      <c r="E88" s="75" t="s">
-        <v>419</v>
-      </c>
-      <c r="G88" s="111"/>
+      <c r="E88" s="90" t="s">
+        <v>544</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G88" s="112"/>
       <c r="H88" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -6006,22 +5995,19 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="120"/>
-      <c r="B89" s="30"/>
-      <c r="E89" s="94" t="s">
-        <v>566</v>
-      </c>
+      <c r="A89" s="119"/>
+      <c r="B89" s="29"/>
       <c r="G89" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I89" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="J89" s="70" t="s">
-        <v>315</v>
+        <v>392</v>
+      </c>
+      <c r="I89" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="J89" s="69" t="s">
+        <v>308</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -6041,25 +6027,19 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="120"/>
+      <c r="A90" s="119"/>
       <c r="C90" s="134" t="s">
-        <v>541</v>
-      </c>
-      <c r="D90" s="113"/>
-      <c r="F90" s="4" t="s">
-        <v>420</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D90" s="106"/>
       <c r="G90" s="2" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I90" s="94" t="s">
-        <v>567</v>
-      </c>
-      <c r="J90" s="70" t="s">
-        <v>316</v>
+        <v>393</v>
+      </c>
+      <c r="I90" s="90" t="s">
+        <v>545</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6080,22 +6060,16 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="120"/>
+      <c r="A91" s="119"/>
       <c r="C91" s="134" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" s="141"/>
-      <c r="F91" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>355</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D91" s="139"/>
       <c r="H91" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I91" s="75" t="s">
-        <v>422</v>
+        <v>394</v>
+      </c>
+      <c r="I91" s="73" t="s">
+        <v>409</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -6116,16 +6090,13 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="120"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G92" s="33"/>
+      <c r="A92" s="119"/>
+      <c r="E92" s="61"/>
+      <c r="G92" s="32"/>
       <c r="H92" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J92" s="70"/>
+        <v>451</v>
+      </c>
+      <c r="J92" s="69"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
       <c r="M92" s="16"/>
@@ -6145,15 +6116,15 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="120"/>
-      <c r="C93" s="90" t="s">
-        <v>561</v>
-      </c>
-      <c r="G93" s="33"/>
-      <c r="H93" s="82" t="s">
-        <v>549</v>
-      </c>
-      <c r="J93" s="70"/>
+      <c r="A93" s="119"/>
+      <c r="C93" s="86" t="s">
+        <v>539</v>
+      </c>
+      <c r="G93" s="32"/>
+      <c r="H93" s="78" t="s">
+        <v>527</v>
+      </c>
+      <c r="J93" s="69"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -6171,22 +6142,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="120"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="D94" s="113"/>
-      <c r="E94" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="F94" s="113"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J94" s="113"/>
+      <c r="A94" s="119"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="106"/>
+      <c r="E94" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94" s="106"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="J94" s="106"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -6204,22 +6175,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="120"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="112" t="s">
-        <v>493</v>
-      </c>
-      <c r="D95" s="113"/>
-      <c r="E95" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="F95" s="113"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="112" t="s">
-        <v>220</v>
-      </c>
-      <c r="J95" s="113"/>
+      <c r="A95" s="119"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="105" t="s">
+        <v>477</v>
+      </c>
+      <c r="D95" s="106"/>
+      <c r="E95" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" s="106"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="J95" s="106"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -6237,22 +6208,22 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="120"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" s="113"/>
-      <c r="E96" s="114" t="s">
-        <v>65</v>
-      </c>
-      <c r="F96" s="111"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="I96" s="113"/>
-      <c r="J96" s="62"/>
+      <c r="A96" s="119"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96" s="106"/>
+      <c r="E96" s="113" t="s">
+        <v>574</v>
+      </c>
+      <c r="F96" s="112"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="I96" s="106"/>
+      <c r="J96" s="61"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
@@ -6270,22 +6241,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="120"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="112" t="s">
-        <v>545</v>
-      </c>
-      <c r="D97" s="113"/>
-      <c r="E97" s="114" t="s">
-        <v>525</v>
-      </c>
-      <c r="F97" s="111"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="70"/>
+      <c r="A97" s="119"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="105" t="s">
+        <v>523</v>
+      </c>
+      <c r="D97" s="106"/>
+      <c r="E97" s="113" t="s">
+        <v>573</v>
+      </c>
+      <c r="F97" s="112"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="69"/>
       <c r="I97" s="134" t="s">
-        <v>576</v>
-      </c>
-      <c r="J97" s="113"/>
+        <v>554</v>
+      </c>
+      <c r="J97" s="106"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6303,20 +6274,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="120"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="112" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" s="113"/>
-      <c r="E98" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="F98" s="111"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="140"/>
-      <c r="J98" s="136"/>
+      <c r="A98" s="119"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" s="106"/>
+      <c r="E98" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="112"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="142"/>
+      <c r="J98" s="138"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6334,19 +6305,19 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="120"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="122" t="s">
-        <v>255</v>
-      </c>
-      <c r="D99" s="123"/>
-      <c r="E99" s="122" t="s">
-        <v>434</v>
-      </c>
-      <c r="F99" s="123"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="77"/>
-      <c r="J99" s="77"/>
+      <c r="A99" s="119"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="121" t="s">
+        <v>251</v>
+      </c>
+      <c r="D99" s="122"/>
+      <c r="E99" s="121" t="s">
+        <v>420</v>
+      </c>
+      <c r="F99" s="122"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="75"/>
+      <c r="J99" s="75"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
@@ -6364,18 +6335,18 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="120"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="112" t="s">
-        <v>518</v>
-      </c>
-      <c r="F100" s="113"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
+      <c r="A100" s="119"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="105" t="s">
+        <v>502</v>
+      </c>
+      <c r="F100" s="106"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
@@ -6393,15 +6364,17 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="120"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="112"/>
-      <c r="F101" s="113"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="77"/>
-      <c r="J101" s="77"/>
+      <c r="A101" s="119"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="132"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="75"/>
+      <c r="J101" s="75"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
@@ -6419,15 +6392,15 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="121"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="112"/>
-      <c r="F102" s="113"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="77"/>
-      <c r="J102" s="77"/>
+      <c r="A102" s="120"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="75"/>
+      <c r="J102" s="75"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
@@ -6445,16 +6418,16 @@
       <c r="Y102" s="9"/>
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
@@ -6472,7 +6445,7 @@
       <c r="Y103" s="9"/>
     </row>
     <row r="104" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="19"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -6498,30 +6471,33 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="116" t="s">
-        <v>68</v>
+      <c r="A105" s="115" t="s">
+        <v>65</v>
       </c>
       <c r="B105" s="12"/>
-      <c r="C105" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="D105" s="70" t="s">
+      <c r="C105" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="D105" s="69" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="F105" s="93" t="s">
-        <v>565</v>
-      </c>
-      <c r="H105" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I105" s="70" t="s">
-        <v>30</v>
+        <v>358</v>
+      </c>
+      <c r="F105" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="G105" s="147" t="s">
+        <v>557</v>
+      </c>
+      <c r="H105" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I105" s="69" t="s">
+        <v>29</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -6540,27 +6516,26 @@
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="111"/>
-      <c r="B106" s="71"/>
+      <c r="A106" s="112"/>
       <c r="C106" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="D106" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="D106" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G106" s="36"/>
-      <c r="H106" s="35"/>
+        <v>44</v>
+      </c>
+      <c r="G106" s="148"/>
+      <c r="H106" s="34"/>
       <c r="I106" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="J106" s="70" t="s">
-        <v>71</v>
+        <v>468</v>
+      </c>
+      <c r="J106" s="69" t="s">
+        <v>68</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -6579,29 +6554,30 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="111"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="D107" s="70" t="s">
+      <c r="A107" s="112"/>
+      <c r="C107" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="D107" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F107" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F107" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="G107" s="36"/>
+      <c r="G107" s="104" t="s">
+        <v>563</v>
+      </c>
       <c r="H107" s="2" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J107" s="70" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="J107" s="69" t="s">
+        <v>69</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -6620,31 +6596,30 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="111"/>
-      <c r="B108" s="71"/>
+      <c r="A108" s="112"/>
       <c r="C108" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G108" s="129" t="s">
-        <v>453</v>
+        <v>72</v>
+      </c>
+      <c r="G108" s="128" t="s">
+        <v>439</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I108" s="105" t="s">
-        <v>572</v>
-      </c>
-      <c r="J108" s="70" t="s">
-        <v>39</v>
+        <v>422</v>
+      </c>
+      <c r="I108" s="101" t="s">
+        <v>550</v>
+      </c>
+      <c r="J108" s="69" t="s">
+        <v>38</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -6663,23 +6638,22 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="111"/>
-      <c r="B109" s="71"/>
-      <c r="D109" s="97" t="s">
-        <v>317</v>
+      <c r="A109" s="112"/>
+      <c r="D109" s="93" t="s">
+        <v>309</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G109" s="130"/>
+        <v>463</v>
+      </c>
+      <c r="G109" s="129"/>
       <c r="H109" s="2" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -6698,20 +6672,19 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="111"/>
-      <c r="B110" s="71"/>
-      <c r="D110" s="97" t="s">
-        <v>364</v>
+      <c r="A110" s="112"/>
+      <c r="D110" s="93" t="s">
+        <v>356</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G110" s="130"/>
-      <c r="I110" s="70"/>
-      <c r="J110" s="70"/>
+        <v>54</v>
+      </c>
+      <c r="G110" s="129"/>
+      <c r="I110" s="69"/>
+      <c r="J110" s="69"/>
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
       <c r="M110" s="16"/>
@@ -6731,16 +6704,17 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="111"/>
-      <c r="B111" s="71"/>
-      <c r="D111" s="97" t="s">
-        <v>478</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="130"/>
-      <c r="H111" s="37"/>
+      <c r="A111" s="112"/>
+      <c r="D111" s="93" t="s">
+        <v>462</v>
+      </c>
+      <c r="F111" s="69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G111" s="129"/>
+      <c r="H111" s="36"/>
       <c r="I111" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="16"/>
@@ -6762,13 +6736,12 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="111"/>
-      <c r="B112" s="71"/>
+      <c r="A112" s="112"/>
       <c r="D112" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="G112" s="130"/>
-      <c r="H112" s="37"/>
+        <v>357</v>
+      </c>
+      <c r="G112" s="129"/>
+      <c r="H112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
       <c r="L112" s="16"/>
@@ -6789,14 +6762,13 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="111"/>
-      <c r="B113" s="71"/>
-      <c r="C113" s="70"/>
+      <c r="A113" s="112"/>
+      <c r="C113" s="69"/>
       <c r="E113" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G113" s="130"/>
-      <c r="H113" s="35"/>
+        <v>412</v>
+      </c>
+      <c r="G113" s="129"/>
+      <c r="H113" s="34"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
       <c r="L113" s="16"/>
@@ -6817,13 +6789,12 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="111"/>
-      <c r="B114" s="71"/>
+      <c r="A114" s="112"/>
       <c r="E114" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G114" s="130"/>
-      <c r="H114" s="37"/>
+        <v>571</v>
+      </c>
+      <c r="G114" s="129"/>
+      <c r="H114" s="36"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
@@ -6843,18 +6814,17 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="111"/>
-      <c r="B115" s="71"/>
-      <c r="D115" s="70"/>
+      <c r="A115" s="112"/>
+      <c r="D115" s="69"/>
       <c r="E115" s="4" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G115" s="130"/>
-      <c r="H115" s="37"/>
-      <c r="J115" s="70"/>
+        <v>454</v>
+      </c>
+      <c r="G115" s="129"/>
+      <c r="H115" s="36"/>
+      <c r="J115" s="69"/>
       <c r="K115" s="16"/>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
@@ -6874,14 +6844,13 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="111"/>
-      <c r="B116" s="71"/>
+      <c r="A116" s="112"/>
       <c r="E116" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G116" s="130"/>
-      <c r="H116" s="70" t="s">
-        <v>33</v>
+        <v>572</v>
+      </c>
+      <c r="G116" s="129"/>
+      <c r="H116" s="69" t="s">
+        <v>32</v>
       </c>
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
@@ -6902,22 +6871,22 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="111"/>
+      <c r="A117" s="112"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="113"/>
-      <c r="E117" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="F117" s="113"/>
-      <c r="G117" s="130"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="F117" s="106"/>
+      <c r="G117" s="129"/>
       <c r="H117" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I117" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="J117" s="113"/>
+        <v>71</v>
+      </c>
+      <c r="I117" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="J117" s="106"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -6937,16 +6906,15 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="111"/>
-      <c r="B118" s="71"/>
-      <c r="C118" s="90" t="s">
-        <v>562</v>
-      </c>
-      <c r="G118" s="130"/>
-      <c r="H118" s="142" t="s">
-        <v>491</v>
-      </c>
-      <c r="I118" s="143"/>
+      <c r="A118" s="112"/>
+      <c r="C118" s="86" t="s">
+        <v>540</v>
+      </c>
+      <c r="G118" s="129"/>
+      <c r="H118" s="135" t="s">
+        <v>475</v>
+      </c>
+      <c r="I118" s="136"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -6966,21 +6934,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="111"/>
+      <c r="A119" s="112"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="112" t="s">
-        <v>490</v>
-      </c>
-      <c r="D119" s="113"/>
-      <c r="E119" s="112" t="s">
-        <v>227</v>
-      </c>
-      <c r="F119" s="113"/>
-      <c r="G119" s="130"/>
-      <c r="I119" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="J119" s="113"/>
+      <c r="C119" s="105" t="s">
+        <v>474</v>
+      </c>
+      <c r="D119" s="106"/>
+      <c r="E119" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="F119" s="106"/>
+      <c r="G119" s="129"/>
+      <c r="I119" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="J119" s="106"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -7000,22 +6968,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="111"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="112" t="s">
-        <v>496</v>
-      </c>
-      <c r="D120" s="113"/>
-      <c r="E120" s="122" t="s">
-        <v>441</v>
-      </c>
-      <c r="F120" s="123"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="112" t="s">
-        <v>217</v>
-      </c>
-      <c r="J120" s="113"/>
+      <c r="C120" s="105" t="s">
+        <v>480</v>
+      </c>
+      <c r="D120" s="106"/>
+      <c r="E120" s="121" t="s">
+        <v>427</v>
+      </c>
+      <c r="F120" s="122"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="J120" s="106"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -7035,22 +7003,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="111"/>
+      <c r="A121" s="112"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="112" t="s">
-        <v>492</v>
-      </c>
-      <c r="D121" s="113"/>
+      <c r="C121" s="105" t="s">
+        <v>476</v>
+      </c>
+      <c r="D121" s="106"/>
       <c r="E121" s="134" t="s">
-        <v>578</v>
-      </c>
-      <c r="F121" s="113"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="J121" s="113"/>
+        <v>556</v>
+      </c>
+      <c r="F121" s="106"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="J121" s="106"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -7070,18 +7038,18 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="111"/>
+      <c r="A122" s="112"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="112" t="s">
-        <v>207</v>
-      </c>
-      <c r="D122" s="113"/>
-      <c r="E122" s="112" t="s">
-        <v>461</v>
-      </c>
-      <c r="F122" s="113"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="37"/>
+      <c r="C122" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" s="106"/>
+      <c r="E122" s="105" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" s="106"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="36"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
@@ -7101,18 +7069,22 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="111"/>
+      <c r="A123" s="112"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="112" t="s">
-        <v>226</v>
-      </c>
-      <c r="D123" s="113"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="37"/>
+      <c r="C123" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" s="106"/>
+      <c r="E123" s="132" t="s">
+        <v>483</v>
+      </c>
+      <c r="F123" s="112"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="36"/>
       <c r="I123" s="134" t="s">
-        <v>498</v>
-      </c>
-      <c r="J123" s="113"/>
+        <v>482</v>
+      </c>
+      <c r="J123" s="106"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7132,20 +7104,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="111"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="6"/>
       <c r="C124" s="134" t="s">
-        <v>577</v>
-      </c>
-      <c r="D124" s="113"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="94" t="s">
-        <v>456</v>
+        <v>555</v>
+      </c>
+      <c r="D124" s="106"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="90" t="s">
+        <v>442</v>
       </c>
       <c r="I124" s="134" t="s">
-        <v>470</v>
-      </c>
-      <c r="J124" s="113"/>
+        <v>455</v>
+      </c>
+      <c r="J124" s="106"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7165,16 +7137,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="111"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="113"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="75"/>
-      <c r="I125" s="135" t="s">
-        <v>519</v>
-      </c>
-      <c r="J125" s="136"/>
+      <c r="C125" s="105"/>
+      <c r="D125" s="106"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="73"/>
+      <c r="I125" s="137" t="s">
+        <v>503</v>
+      </c>
+      <c r="J125" s="138"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7194,12 +7166,12 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="111"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="113"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="37"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="106"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="36"/>
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
@@ -7219,12 +7191,12 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="111"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="6"/>
-      <c r="C127" s="72"/>
-      <c r="D127" s="73"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="37"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="71"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="36"/>
       <c r="K127" s="16"/>
       <c r="L127" s="16"/>
       <c r="M127" s="16"/>
@@ -7244,16 +7216,16 @@
       <c r="AA127" s="17"/>
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="39"/>
-      <c r="F128" s="40"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
@@ -7271,7 +7243,7 @@
       <c r="Y128" s="9"/>
     </row>
     <row r="129" spans="1:25" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
+      <c r="A129" s="30"/>
       <c r="B129" s="19"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -7297,26 +7269,26 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="119" t="s">
+      <c r="A130" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" s="74"/>
+      <c r="C130" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F130" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B130" s="76"/>
-      <c r="C130" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F130" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G130" s="36"/>
-      <c r="H130" s="77"/>
-      <c r="I130" s="42"/>
-      <c r="J130" s="77"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="75"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="75"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
@@ -7334,20 +7306,19 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="120"/>
-      <c r="B131" s="71"/>
+      <c r="A131" s="119"/>
       <c r="C131" s="23" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E131" s="70" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="E131" s="69" t="s">
+        <v>67</v>
       </c>
       <c r="H131" s="11"/>
       <c r="I131" s="133"/>
-      <c r="J131" s="111"/>
+      <c r="J131" s="112"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7365,19 +7336,18 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="120"/>
-      <c r="B132" s="71"/>
+      <c r="A132" s="119"/>
       <c r="C132" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="D132" s="83" t="s">
-        <v>573</v>
-      </c>
-      <c r="F132" s="93" t="s">
-        <v>564</v>
+        <v>316</v>
+      </c>
+      <c r="D132" s="79" t="s">
+        <v>551</v>
+      </c>
+      <c r="F132" s="89" t="s">
+        <v>542</v>
       </c>
       <c r="H132" s="11"/>
-      <c r="I132" s="42"/>
+      <c r="I132" s="41"/>
       <c r="J132" s="11"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -7396,16 +7366,15 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="120"/>
-      <c r="B133" s="71"/>
+      <c r="A133" s="119"/>
       <c r="C133" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="D133" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="D133" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7427,20 +7396,19 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="120"/>
-      <c r="B134" s="71"/>
+      <c r="A134" s="119"/>
       <c r="C134" s="15" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="77"/>
+        <v>64</v>
+      </c>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="75"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
@@ -7458,19 +7426,18 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
-      <c r="B135" s="71"/>
+      <c r="A135" s="119"/>
       <c r="C135" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="I135" s="43"/>
-      <c r="J135" s="77"/>
+        <v>321</v>
+      </c>
+      <c r="I135" s="42"/>
+      <c r="J135" s="75"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
@@ -7488,19 +7455,18 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="120"/>
-      <c r="B136" s="71"/>
-      <c r="C136" s="23" t="s">
-        <v>435</v>
+      <c r="A136" s="119"/>
+      <c r="C136" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E136" s="97" t="s">
-        <v>511</v>
+        <v>319</v>
+      </c>
+      <c r="E136" s="93" t="s">
+        <v>495</v>
       </c>
       <c r="G136" s="2"/>
-      <c r="I136" s="44"/>
+      <c r="I136" s="43"/>
       <c r="J136" s="11"/>
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
@@ -7519,16 +7485,18 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="120"/>
-      <c r="B137" s="71"/>
+      <c r="A137" s="119"/>
+      <c r="C137" s="111" t="s">
+        <v>564</v>
+      </c>
       <c r="D137" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E137" s="98" t="s">
-        <v>428</v>
+        <v>320</v>
+      </c>
+      <c r="E137" s="94" t="s">
+        <v>414</v>
       </c>
       <c r="G137" s="2"/>
-      <c r="I137" s="44"/>
+      <c r="I137" s="43"/>
       <c r="J137" s="11"/>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
@@ -7547,19 +7515,18 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="120"/>
-      <c r="B138" s="71"/>
-      <c r="C138" s="4"/>
+      <c r="A138" s="119"/>
+      <c r="C138" s="112"/>
       <c r="D138" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E138" s="112" t="s">
-        <v>206</v>
-      </c>
-      <c r="F138" s="113"/>
+        <v>333</v>
+      </c>
+      <c r="E138" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F138" s="106"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
       <c r="J138" s="11"/>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
@@ -7578,17 +7545,16 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="120"/>
-      <c r="B139" s="71"/>
+      <c r="A139" s="119"/>
       <c r="C139" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F139" s="114" t="s">
-        <v>531</v>
-      </c>
-      <c r="G139" s="111"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44"/>
+        <v>244</v>
+      </c>
+      <c r="F139" s="113" t="s">
+        <v>509</v>
+      </c>
+      <c r="G139" s="112"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="43"/>
       <c r="J139" s="11"/>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
@@ -7607,16 +7573,16 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="120"/>
+      <c r="A140" s="119"/>
       <c r="C140" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F140" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="G140" s="111"/>
-      <c r="H140" s="44"/>
-      <c r="I140" s="44"/>
+        <v>245</v>
+      </c>
+      <c r="F140" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="G140" s="112"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
       <c r="J140" s="11"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
@@ -7635,20 +7601,17 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="120"/>
-      <c r="C141" s="103" t="s">
-        <v>431</v>
-      </c>
-      <c r="D141" s="112" t="s">
-        <v>554</v>
-      </c>
-      <c r="E141" s="113"/>
-      <c r="F141" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="G141" s="111"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="44"/>
+      <c r="A141" s="119"/>
+      <c r="C141" s="99" t="s">
+        <v>417</v>
+      </c>
+      <c r="E141" s="61"/>
+      <c r="F141" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="G141" s="112"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
       <c r="J141" s="11"/>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
@@ -7667,13 +7630,13 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="120"/>
-      <c r="E142" s="90" t="s">
-        <v>560</v>
-      </c>
-      <c r="G142" s="36"/>
-      <c r="H142" s="44"/>
-      <c r="I142" s="44"/>
+      <c r="A142" s="119"/>
+      <c r="E142" s="86" t="s">
+        <v>538</v>
+      </c>
+      <c r="G142" s="35"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
       <c r="J142" s="11"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -7692,14 +7655,14 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="120"/>
+      <c r="A143" s="119"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="112" t="s">
-        <v>214</v>
-      </c>
-      <c r="E143" s="113"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="44"/>
+      <c r="D143" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="E143" s="106"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
       <c r="J143" s="11"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -7718,18 +7681,18 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="120"/>
+      <c r="A144" s="119"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="E144" s="113"/>
-      <c r="F144" s="122" t="s">
-        <v>253</v>
-      </c>
-      <c r="G144" s="123"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="44"/>
+      <c r="D144" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="E144" s="106"/>
+      <c r="F144" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="G144" s="122"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="43"/>
       <c r="J144" s="11"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -7748,18 +7711,18 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="120"/>
+      <c r="A145" s="119"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="138" t="s">
-        <v>202</v>
-      </c>
-      <c r="E145" s="139"/>
-      <c r="F145" s="122" t="s">
-        <v>444</v>
-      </c>
-      <c r="G145" s="123"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44"/>
+      <c r="D145" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="E145" s="141"/>
+      <c r="F145" s="121" t="s">
+        <v>430</v>
+      </c>
+      <c r="G145" s="122"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
       <c r="J145" s="11"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
@@ -7778,18 +7741,18 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="120"/>
+      <c r="A146" s="119"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="112" t="s">
-        <v>203</v>
-      </c>
-      <c r="E146" s="113"/>
-      <c r="F146" s="124" t="s">
-        <v>521</v>
-      </c>
-      <c r="G146" s="125"/>
-      <c r="H146" s="44"/>
-      <c r="I146" s="44"/>
+      <c r="D146" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="E146" s="106"/>
+      <c r="F146" s="123" t="s">
+        <v>505</v>
+      </c>
+      <c r="G146" s="124"/>
+      <c r="H146" s="43"/>
+      <c r="I146" s="43"/>
       <c r="J146" s="11"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -7808,14 +7771,14 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="120"/>
+      <c r="A147" s="119"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="E147" s="113"/>
-      <c r="H147" s="44"/>
-      <c r="I147" s="44"/>
+      <c r="D147" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" s="106"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="43"/>
       <c r="J147" s="11"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -7834,14 +7797,14 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="120"/>
+      <c r="A148" s="119"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="108" t="s">
-        <v>520</v>
-      </c>
-      <c r="E148" s="109"/>
-      <c r="H148" s="44"/>
-      <c r="I148" s="44"/>
+      <c r="D148" s="109" t="s">
+        <v>504</v>
+      </c>
+      <c r="E148" s="110"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
       <c r="J148" s="11"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
@@ -7860,14 +7823,14 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="120"/>
+      <c r="A149" s="119"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="114" t="s">
-        <v>83</v>
-      </c>
-      <c r="E149" s="111"/>
+      <c r="D149" s="113" t="s">
+        <v>576</v>
+      </c>
+      <c r="E149" s="112"/>
       <c r="F149" s="2"/>
-      <c r="G149" s="36"/>
+      <c r="G149" s="35"/>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
@@ -7888,14 +7851,14 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="120"/>
+      <c r="A150" s="119"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="114" t="s">
-        <v>524</v>
-      </c>
-      <c r="E150" s="111"/>
+      <c r="D150" s="113" t="s">
+        <v>575</v>
+      </c>
+      <c r="E150" s="112"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="33"/>
+      <c r="G150" s="32"/>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
@@ -7916,14 +7879,14 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="120"/>
+      <c r="A151" s="119"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="E151" s="111"/>
+      <c r="D151" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="E151" s="112"/>
       <c r="F151" s="2"/>
-      <c r="G151" s="33"/>
+      <c r="G151" s="32"/>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
@@ -7944,14 +7907,13 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="121"/>
+      <c r="A152" s="120"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="132" t="s">
-        <v>85</v>
-      </c>
-      <c r="E152" s="132"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="33"/>
+      <c r="E152" s="105" t="s">
+        <v>532</v>
+      </c>
+      <c r="F152" s="106"/>
+      <c r="G152" s="32"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
       <c r="J152" s="11"/>
@@ -7972,16 +7934,16 @@
       <c r="Y152" s="9"/>
     </row>
     <row r="153" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
-      <c r="B153" s="63"/>
-      <c r="C153" s="64"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="65"/>
-      <c r="F153" s="64"/>
-      <c r="G153" s="66"/>
-      <c r="H153" s="67"/>
-      <c r="I153" s="67"/>
-      <c r="J153" s="67"/>
+      <c r="A153" s="62"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="63"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="64"/>
+      <c r="F153" s="63"/>
+      <c r="G153" s="65"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="66"/>
+      <c r="J153" s="66"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
@@ -8001,26 +7963,26 @@
     <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
-      <c r="C154" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="E154" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="F154" s="77"/>
-      <c r="G154" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="H154" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="I154" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="J154" s="45"/>
+      <c r="C154" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="F154" s="75"/>
+      <c r="G154" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H154" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="I154" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="J154" s="44"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
@@ -8041,12 +8003,12 @@
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="11"/>
-      <c r="D155" s="70"/>
+      <c r="D155" s="69"/>
       <c r="E155" s="11"/>
       <c r="F155" s="15"/>
-      <c r="G155" s="46"/>
-      <c r="H155" s="47"/>
-      <c r="I155" s="46"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="45"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
@@ -8066,20 +8028,20 @@
     <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
-      <c r="C156" s="48"/>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49" t="s">
-        <v>89</v>
+      <c r="C156" s="47"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -8100,24 +8062,24 @@
     <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
-      <c r="C157" s="50"/>
-      <c r="D157" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E157" s="52" t="s">
-        <v>91</v>
+      <c r="C157" s="49"/>
+      <c r="D157" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E157" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J157" s="49"/>
+        <v>134</v>
+      </c>
+      <c r="J157" s="48"/>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
       <c r="M157" s="9"/>
@@ -8137,24 +8099,24 @@
     <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="D158" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="E158" s="54" t="s">
-        <v>94</v>
+      <c r="C158" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="D158" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="E158" s="53" t="s">
+        <v>90</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -8175,24 +8137,24 @@
     <row r="159" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
-      <c r="C159" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D159" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E159" s="54" t="s">
-        <v>97</v>
+      <c r="C159" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D159" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E159" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -8213,24 +8175,24 @@
     <row r="160" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
-      <c r="C160" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D160" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E160" s="54" t="s">
-        <v>100</v>
+      <c r="C160" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E160" s="53" t="s">
+        <v>96</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I160" s="92" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="I160" s="88" t="s">
+        <v>140</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -8251,24 +8213,24 @@
     <row r="161" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D161" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E161" s="54" t="s">
-        <v>103</v>
+      <c r="C161" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D161" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E161" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -8289,24 +8251,24 @@
     <row r="162" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
-      <c r="C162" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D162" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E162" s="56" t="s">
-        <v>106</v>
+      <c r="C162" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E162" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -8327,14 +8289,14 @@
     <row r="163" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
-      <c r="C163" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D163" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E163" s="56" t="s">
-        <v>109</v>
+      <c r="C163" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D163" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E163" s="55" t="s">
+        <v>105</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
@@ -8359,20 +8321,20 @@
     <row r="164" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
-      <c r="C164" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D164" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E164" s="56" t="s">
-        <v>112</v>
+      <c r="C164" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D164" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E164" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="70"/>
+      <c r="J164" s="69"/>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
       <c r="M164" s="9"/>
@@ -8392,24 +8354,24 @@
     <row r="165" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
-      <c r="C165" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D165" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E165" s="58" t="s">
-        <v>115</v>
+      <c r="C165" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D165" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E165" s="57" t="s">
+        <v>111</v>
       </c>
       <c r="F165" s="13"/>
-      <c r="G165" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="H165" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="I165" s="60" t="s">
-        <v>151</v>
+      <c r="G165" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H165" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="I165" s="59" t="s">
+        <v>147</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -8430,26 +8392,26 @@
     <row r="166" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
-      <c r="C166" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="D166" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="E166" s="58" t="s">
-        <v>118</v>
+      <c r="C166" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E166" s="57" t="s">
+        <v>114</v>
       </c>
       <c r="F166" s="13"/>
-      <c r="G166" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="H166" s="60" t="s">
-        <v>536</v>
-      </c>
-      <c r="I166" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="J166" s="70"/>
+      <c r="G166" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H166" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="I166" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="J166" s="69"/>
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
       <c r="M166" s="9"/>
@@ -8470,17 +8432,17 @@
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="15"/>
-      <c r="D167" s="53"/>
-      <c r="E167" s="54"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="53"/>
       <c r="F167" s="13"/>
-      <c r="G167" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="H167" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="I167" s="60" t="s">
-        <v>156</v>
+      <c r="G167" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="H167" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="I167" s="59" t="s">
+        <v>152</v>
       </c>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
@@ -8502,23 +8464,23 @@
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F168" s="9"/>
-      <c r="G168" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H168" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="I168" s="60" t="s">
-        <v>159</v>
+      <c r="G168" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="H168" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="I168" s="59" t="s">
+        <v>155</v>
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -8540,23 +8502,23 @@
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F169" s="13"/>
-      <c r="G169" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="H169" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="I169" s="60" t="s">
-        <v>162</v>
+      <c r="G169" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="H169" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="I169" s="59" t="s">
+        <v>158</v>
       </c>
       <c r="J169" s="13"/>
       <c r="K169" s="9"/>
@@ -8579,23 +8541,23 @@
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F170" s="13"/>
-      <c r="G170" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="H170" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="I170" s="60" t="s">
-        <v>165</v>
+      <c r="G170" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="H170" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="I170" s="59" t="s">
+        <v>161</v>
       </c>
       <c r="J170" s="13"/>
       <c r="K170" s="9"/>
@@ -8618,23 +8580,23 @@
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F171" s="13"/>
-      <c r="G171" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="H171" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="I171" s="60" t="s">
-        <v>168</v>
+      <c r="G171" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H171" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="I171" s="59" t="s">
+        <v>164</v>
       </c>
       <c r="J171" s="13"/>
       <c r="K171" s="9"/>
@@ -8657,23 +8619,23 @@
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F172" s="13"/>
-      <c r="G172" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="H172" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="I172" s="59" t="s">
-        <v>171</v>
+      <c r="G172" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H172" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="I172" s="58" t="s">
+        <v>167</v>
       </c>
       <c r="J172" s="13"/>
       <c r="K172" s="9"/>
@@ -8696,23 +8658,23 @@
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F173" s="13"/>
-      <c r="G173" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="H173" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="I173" s="59" t="s">
-        <v>174</v>
+      <c r="G173" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H173" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="I173" s="58" t="s">
+        <v>170</v>
       </c>
       <c r="J173" s="13"/>
       <c r="K173" s="9"/>
@@ -8735,23 +8697,23 @@
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E174" s="92" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="E174" s="88" t="s">
+        <v>128</v>
       </c>
       <c r="F174" s="13"/>
-      <c r="G174" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="H174" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="I174" s="59" t="s">
-        <v>176</v>
+      <c r="G174" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="H174" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="I174" s="58" t="s">
+        <v>172</v>
       </c>
       <c r="J174" s="13"/>
       <c r="K174" s="9"/>
@@ -8774,23 +8736,23 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F175" s="13"/>
-      <c r="G175" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="H175" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="I175" s="59" t="s">
-        <v>177</v>
+      <c r="G175" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="H175" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="I175" s="58" t="s">
+        <v>173</v>
       </c>
       <c r="J175" s="13"/>
       <c r="K175" s="9"/>
@@ -8816,14 +8778,14 @@
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
-      <c r="G176" s="59" t="s">
-        <v>532</v>
-      </c>
-      <c r="H176" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="I176" s="59" t="s">
-        <v>178</v>
+      <c r="G176" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="H176" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="I176" s="58" t="s">
+        <v>174</v>
       </c>
       <c r="J176" s="13"/>
       <c r="K176" s="9"/>
@@ -8904,13 +8866,13 @@
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J179" s="13"/>
       <c r="K179" s="9"/>
@@ -8937,13 +8899,13 @@
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J180" s="13"/>
       <c r="K180" s="9"/>
@@ -8971,10 +8933,10 @@
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
       <c r="H181" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="9"/>
@@ -9002,10 +8964,10 @@
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
       <c r="H182" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J182" s="13"/>
       <c r="K182" s="9"/>
@@ -9033,10 +8995,10 @@
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
       <c r="H183" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J183" s="13"/>
       <c r="K183" s="9"/>
@@ -9085,9 +9047,9 @@
     <row r="185" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
-      <c r="C185" s="59"/>
-      <c r="D185" s="60"/>
-      <c r="E185" s="60"/>
+      <c r="C185" s="58"/>
+      <c r="D185" s="59"/>
+      <c r="E185" s="59"/>
       <c r="F185" s="13"/>
       <c r="G185" s="9"/>
       <c r="H185" s="13"/>
@@ -9112,9 +9074,9 @@
     <row r="186" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
-      <c r="C186" s="59"/>
-      <c r="D186" s="60"/>
-      <c r="E186" s="60"/>
+      <c r="C186" s="58"/>
+      <c r="D186" s="59"/>
+      <c r="E186" s="59"/>
       <c r="F186" s="13"/>
       <c r="J186" s="13"/>
       <c r="K186" s="9"/>
@@ -9136,9 +9098,9 @@
     <row r="187" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
-      <c r="C187" s="61"/>
-      <c r="D187" s="60"/>
-      <c r="E187" s="60"/>
+      <c r="C187" s="60"/>
+      <c r="D187" s="59"/>
+      <c r="E187" s="59"/>
       <c r="F187" s="13"/>
       <c r="J187" s="13"/>
       <c r="K187" s="9"/>
@@ -9160,9 +9122,9 @@
     <row r="188" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
-      <c r="C188" s="59"/>
-      <c r="D188" s="60"/>
-      <c r="E188" s="60"/>
+      <c r="C188" s="58"/>
+      <c r="D188" s="59"/>
+      <c r="E188" s="59"/>
       <c r="F188" s="13"/>
       <c r="J188" s="13"/>
       <c r="K188" s="9"/>
@@ -9184,9 +9146,9 @@
     <row r="189" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
-      <c r="C189" s="59"/>
-      <c r="D189" s="60"/>
-      <c r="E189" s="60"/>
+      <c r="C189" s="58"/>
+      <c r="D189" s="59"/>
+      <c r="E189" s="59"/>
       <c r="F189" s="13"/>
       <c r="J189" s="13"/>
       <c r="K189" s="9"/>
@@ -9208,9 +9170,9 @@
     <row r="190" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
-      <c r="C190" s="59"/>
-      <c r="D190" s="60"/>
-      <c r="E190" s="60"/>
+      <c r="C190" s="58"/>
+      <c r="D190" s="59"/>
+      <c r="E190" s="59"/>
       <c r="F190" s="13"/>
       <c r="J190" s="13"/>
       <c r="K190" s="9"/>
@@ -9232,9 +9194,9 @@
     <row r="191" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
-      <c r="C191" s="59"/>
-      <c r="D191" s="60"/>
-      <c r="E191" s="60"/>
+      <c r="C191" s="58"/>
+      <c r="D191" s="59"/>
+      <c r="E191" s="59"/>
       <c r="F191" s="13"/>
       <c r="J191" s="13"/>
       <c r="K191" s="9"/>
@@ -9256,10 +9218,10 @@
     <row r="192" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
-      <c r="C192" s="59"/>
-      <c r="D192" s="59"/>
-      <c r="E192" s="59"/>
-      <c r="F192" s="137"/>
+      <c r="C192" s="58"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="131"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9280,10 +9242,10 @@
     <row r="193" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="59"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="111"/>
+      <c r="C193" s="58"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="112"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -9304,9 +9266,9 @@
     <row r="194" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
-      <c r="C194" s="59"/>
-      <c r="D194" s="59"/>
-      <c r="E194" s="59"/>
+      <c r="C194" s="58"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="58"/>
       <c r="F194" s="13"/>
       <c r="G194" s="9"/>
       <c r="H194" s="13"/>
@@ -9331,10 +9293,10 @@
     <row r="195" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
-      <c r="C195" s="59"/>
-      <c r="D195" s="59"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="137"/>
+      <c r="C195" s="58"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="131"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9358,10 +9320,10 @@
     <row r="196" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
-      <c r="C196" s="59"/>
-      <c r="D196" s="59"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="111"/>
+      <c r="C196" s="58"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="112"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -12934,8 +12896,7 @@
     <row r="1059" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="131">
-    <mergeCell ref="A30:A52"/>
+  <mergeCells count="132">
     <mergeCell ref="A130:A152"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="G78:G88"/>
@@ -12955,21 +12916,30 @@
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G70:G71"/>
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="I74:J74"/>
     <mergeCell ref="I73:J73"/>
     <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G108:G119"/>
+    <mergeCell ref="G105:G106"/>
     <mergeCell ref="I97:J97"/>
     <mergeCell ref="I98:J98"/>
     <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C137:C138"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="E102:F102"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E73:F73"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -12979,29 +12949,26 @@
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="I70:J70"/>
-    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G108:G119"/>
     <mergeCell ref="E120:F120"/>
     <mergeCell ref="C124:D124"/>
     <mergeCell ref="E138:F138"/>
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="E121:F121"/>
+    <mergeCell ref="D145:E145"/>
     <mergeCell ref="F192:F193"/>
     <mergeCell ref="F195:F196"/>
     <mergeCell ref="F139:G139"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="D141:E141"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="E123:F123"/>
     <mergeCell ref="I131:J131"/>
     <mergeCell ref="I120:J120"/>
     <mergeCell ref="C122:D122"/>
@@ -13018,11 +12985,6 @@
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="E99:F99"/>
     <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="J78:J79"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A28"/>
@@ -13042,6 +13004,8 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="G5:G28"/>
     <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A30:A52"/>
+    <mergeCell ref="E152:F152"/>
     <mergeCell ref="A54:A76"/>
     <mergeCell ref="D148:E148"/>
     <mergeCell ref="F31:F32"/>
@@ -13055,7 +13019,6 @@
     <mergeCell ref="E97:F97"/>
     <mergeCell ref="A105:A127"/>
     <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E101:F101"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C69:D69"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vibha.gupta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF6E83B-502A-4792-8794-22EB33BE3F4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D799D5-5DC3-4D79-A7AF-07805927B2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="1" r:id="rId1"/>
@@ -685,9 +685,6 @@
     <t>PA8(18B15EC212)-ADC/RK,AGO</t>
   </si>
   <si>
-    <t>PA15(25B25EC212)-ADE/SIM,BVI</t>
-  </si>
-  <si>
     <t>PA1 (18B15EC212)-ADC/NEJ,VNS,SHWETA</t>
   </si>
   <si>
@@ -1099,9 +1096,6 @@
     <t>LG1,G2(25B11MA232)-G4/HZR</t>
   </si>
   <si>
-    <t>LA1,A2(15B11EC411)-CR301/JMO</t>
-  </si>
-  <si>
     <t>LB5,B6(25B11EC311)-CS2/MO</t>
   </si>
   <si>
@@ -1204,9 +1198,6 @@
     <t>LB1,B2 (CS221)-CR301/MKT</t>
   </si>
   <si>
-    <t>LA1,A2(15B11EC411)-F8/JMO</t>
-  </si>
-  <si>
     <t>LG1,G2 (CS222)-FF1/AKM</t>
   </si>
   <si>
@@ -1292,9 +1283,6 @@
   </si>
   <si>
     <t>TB (HS213)-CS1/YN</t>
-  </si>
-  <si>
-    <t>LB14,B16 (CS221)-G9/TKT</t>
   </si>
   <si>
     <t>LB5,B6(25B11EC311)-LT3/MO</t>
@@ -2059,6 +2047,37 @@
   </si>
   <si>
     <t>LC1-C3(12BT211)-CS2/DKP</t>
+  </si>
+  <si>
+    <r>
+      <t>LB14,B16 (CS221)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CR425</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/TKT</t>
+    </r>
+  </si>
+  <si>
+    <t>LA1,A2(15B11EC411)-CS5/JMO</t>
+  </si>
+  <si>
+    <t>LA1,A2(15B11EC411)-CS8/JMO</t>
+  </si>
+  <si>
+    <t>PA15(25B25EC212)-EDC/SIM,BVI</t>
   </si>
 </sst>
 </file>
@@ -2653,43 +2672,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2699,46 +2681,53 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,19 +2739,13 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,20 +2754,56 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3007,11 +3026,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="86" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I68" sqref="I68"/>
+      <selection pane="bottomRight" activeCell="H96" sqref="H96:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3032,18 +3051,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="122"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="120"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -3062,7 +3081,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -3105,7 +3124,7 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="142" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
@@ -3117,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>15</v>
@@ -3142,24 +3161,24 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
+      <c r="A4" s="111"/>
       <c r="C4" s="77" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F4" s="111" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="128" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K4" s="71"/>
       <c r="L4" s="9"/>
@@ -3178,28 +3197,28 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="111"/>
       <c r="C5" s="102" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="128" t="s">
-        <v>439</v>
+        <v>247</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="112" t="s">
+        <v>435</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I5" s="69" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3218,25 +3237,25 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="111"/>
       <c r="C6" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="129"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3255,12 +3274,12 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
+      <c r="A7" s="111"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -3268,9 +3287,9 @@
       <c r="F7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I7" s="69" t="s">
         <v>21</v>
@@ -3293,22 +3312,22 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
+      <c r="A8" s="111"/>
       <c r="C8" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E8" s="93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>530</v>
-      </c>
-      <c r="G8" s="129"/>
+        <v>526</v>
+      </c>
+      <c r="G8" s="113"/>
       <c r="H8" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -3327,22 +3346,22 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
+      <c r="A9" s="111"/>
       <c r="C9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E9" s="93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="129"/>
+        <v>336</v>
+      </c>
+      <c r="G9" s="113"/>
       <c r="H9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="9"/>
@@ -3362,19 +3381,19 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
+      <c r="A10" s="111"/>
       <c r="D10" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G10" s="129"/>
+        <v>327</v>
+      </c>
+      <c r="G10" s="113"/>
       <c r="H10" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="16"/>
@@ -3395,17 +3414,17 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
+      <c r="A11" s="111"/>
       <c r="C11" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G11" s="129"/>
+        <v>421</v>
+      </c>
+      <c r="G11" s="113"/>
       <c r="H11" s="69"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
@@ -3426,20 +3445,20 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
+      <c r="A12" s="111"/>
       <c r="C12" s="77"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G12" s="129"/>
+        <v>424</v>
+      </c>
+      <c r="G12" s="113"/>
       <c r="H12" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I12" s="94" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="9"/>
@@ -3461,22 +3480,22 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+      <c r="A13" s="111"/>
       <c r="C13" s="67" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E13" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="G13" s="129"/>
+        <v>502</v>
+      </c>
+      <c r="G13" s="113"/>
       <c r="H13" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="9"/>
@@ -3498,24 +3517,24 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="111"/>
       <c r="C14" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="129"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="I14" s="113" t="s">
-        <v>577</v>
-      </c>
-      <c r="J14" s="112"/>
+        <v>445</v>
+      </c>
+      <c r="I14" s="137" t="s">
+        <v>573</v>
+      </c>
+      <c r="J14" s="111"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3535,7 +3554,7 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
+      <c r="A15" s="111"/>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3543,16 +3562,16 @@
         <v>70</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="G15" s="129"/>
+        <v>263</v>
+      </c>
+      <c r="G15" s="113"/>
       <c r="H15" s="86" t="s">
-        <v>541</v>
-      </c>
-      <c r="I15" s="113" t="s">
-        <v>578</v>
-      </c>
-      <c r="J15" s="112"/>
+        <v>537</v>
+      </c>
+      <c r="I15" s="137" t="s">
+        <v>574</v>
+      </c>
+      <c r="J15" s="111"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3572,19 +3591,19 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
+      <c r="A16" s="111"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="129"/>
-      <c r="I16" s="113" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="113"/>
+      <c r="I16" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="112"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3604,20 +3623,20 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
+      <c r="A17" s="111"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="129"/>
+        <v>260</v>
+      </c>
+      <c r="G17" s="113"/>
       <c r="H17" s="72"/>
-      <c r="I17" s="105" t="s">
-        <v>350</v>
-      </c>
-      <c r="J17" s="106"/>
+      <c r="I17" s="114" t="s">
+        <v>348</v>
+      </c>
+      <c r="J17" s="109"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3637,13 +3656,13 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
+      <c r="A18" s="111"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="129"/>
-      <c r="I18" s="105" t="s">
+      <c r="G18" s="113"/>
+      <c r="I18" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="106"/>
+      <c r="J18" s="109"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3663,17 +3682,17 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
+      <c r="A19" s="111"/>
       <c r="C19" s="4"/>
       <c r="E19" s="95" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F19" s="69"/>
-      <c r="G19" s="129"/>
-      <c r="I19" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="J19" s="106"/>
+      <c r="G19" s="113"/>
+      <c r="I19" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="109"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3693,19 +3712,19 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
+      <c r="A20" s="111"/>
       <c r="C20" s="4"/>
       <c r="D20" s="73" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="129"/>
-      <c r="I20" s="105" t="s">
-        <v>207</v>
-      </c>
-      <c r="J20" s="106"/>
+        <v>261</v>
+      </c>
+      <c r="G20" s="113"/>
+      <c r="I20" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" s="109"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3725,19 +3744,19 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
+      <c r="A21" s="111"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>579</v>
-      </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="I21" s="106"/>
+        <v>575</v>
+      </c>
+      <c r="G21" s="113"/>
+      <c r="H21" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" s="109"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3757,18 +3776,18 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
+      <c r="A22" s="111"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F22" s="69"/>
-      <c r="G22" s="129"/>
+      <c r="G22" s="113"/>
       <c r="H22" s="72"/>
-      <c r="I22" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="J22" s="106"/>
+      <c r="I22" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="109"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3788,18 +3807,18 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="111"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F23" s="69"/>
-      <c r="G23" s="129"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="72"/>
-      <c r="I23" s="105" t="s">
-        <v>227</v>
-      </c>
-      <c r="J23" s="106"/>
+      <c r="I23" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" s="109"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3818,13 +3837,13 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
+      <c r="A24" s="111"/>
       <c r="C24" s="4"/>
       <c r="F24" s="69"/>
-      <c r="G24" s="129"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="72"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3843,15 +3862,15 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
+      <c r="A25" s="111"/>
       <c r="C25" s="4"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="129"/>
+      <c r="G25" s="113"/>
       <c r="H25" s="72"/>
-      <c r="I25" s="105" t="s">
-        <v>534</v>
-      </c>
-      <c r="J25" s="106"/>
+      <c r="I25" s="114" t="s">
+        <v>530</v>
+      </c>
+      <c r="J25" s="109"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3870,15 +3889,15 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
+      <c r="A26" s="111"/>
       <c r="C26" s="4"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="129"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="105" t="s">
-        <v>522</v>
-      </c>
-      <c r="J26" s="106"/>
+      <c r="I26" s="114" t="s">
+        <v>518</v>
+      </c>
+      <c r="J26" s="109"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3895,14 +3914,14 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
+      <c r="A27" s="111"/>
       <c r="C27" s="4"/>
       <c r="F27" s="69"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="105" t="s">
-        <v>252</v>
-      </c>
-      <c r="I27" s="106"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27" s="109"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3919,10 +3938,10 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
+      <c r="A28" s="111"/>
       <c r="C28" s="4"/>
       <c r="F28" s="69"/>
-      <c r="G28" s="130"/>
+      <c r="G28" s="143"/>
       <c r="H28" s="72"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -3966,7 +3985,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="105" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="12"/>
@@ -3977,13 +3996,13 @@
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J30" s="69" t="s">
         <v>30</v>
@@ -4004,21 +4023,21 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
+      <c r="A31" s="106"/>
       <c r="C31" s="69" t="s">
-        <v>330</v>
+        <v>579</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="128" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I31" s="69" t="s">
         <v>33</v>
@@ -4042,22 +4061,22 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
+      <c r="A32" s="106"/>
       <c r="C32" s="69" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="F32" s="112"/>
+        <v>275</v>
+      </c>
+      <c r="F32" s="111"/>
       <c r="G32" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>36</v>
@@ -4081,25 +4100,25 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="106"/>
       <c r="C33" s="69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F33" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4117,24 +4136,24 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
+      <c r="A34" s="106"/>
       <c r="C34" s="23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I34" s="93" t="s">
         <v>22</v>
@@ -4160,27 +4179,27 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="106"/>
       <c r="C35" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F35" s="111" t="s">
-        <v>530</v>
+        <v>277</v>
+      </c>
+      <c r="F35" s="128" t="s">
+        <v>526</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I35" s="93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -4200,22 +4219,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="106"/>
       <c r="D36" s="69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="112"/>
+        <v>278</v>
+      </c>
+      <c r="F36" s="111"/>
       <c r="G36" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4235,25 +4254,25 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
+      <c r="A37" s="106"/>
       <c r="C37" s="24"/>
       <c r="D37" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G37" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" s="112" t="s">
+        <v>435</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I37" s="90" t="s">
         <v>439</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="I37" s="90" t="s">
-        <v>443</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4273,22 +4292,22 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
+      <c r="A38" s="106"/>
       <c r="D38" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G38" s="129"/>
+        <v>422</v>
+      </c>
+      <c r="G38" s="113"/>
       <c r="H38" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I38" s="90" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
@@ -4308,23 +4327,23 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
+      <c r="A39" s="106"/>
       <c r="D39" s="69"/>
       <c r="E39" s="24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G39" s="129"/>
+        <v>425</v>
+      </c>
+      <c r="G39" s="113"/>
       <c r="H39" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J39" s="72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
@@ -4345,16 +4364,16 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
+      <c r="A40" s="106"/>
       <c r="E40" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>506</v>
-      </c>
-      <c r="G40" s="129"/>
+        <v>502</v>
+      </c>
+      <c r="G40" s="113"/>
       <c r="J40" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
@@ -4375,18 +4394,18 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
+      <c r="A41" s="106"/>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="G41" s="129"/>
+        <v>262</v>
+      </c>
+      <c r="G41" s="113"/>
       <c r="H41" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="72" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4407,16 +4426,16 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
+      <c r="A42" s="106"/>
       <c r="D42" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="G42" s="129"/>
+        <v>280</v>
+      </c>
+      <c r="G42" s="113"/>
       <c r="H42" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="7"/>
@@ -4439,17 +4458,17 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+      <c r="A43" s="106"/>
       <c r="D43" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="G43" s="113"/>
+      <c r="J43" s="69" t="s">
         <v>282</v>
-      </c>
-      <c r="G43" s="129"/>
-      <c r="J43" s="69" t="s">
-        <v>283</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -4468,22 +4487,22 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="6"/>
       <c r="C44" s="91" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="129"/>
+        <v>237</v>
+      </c>
+      <c r="G44" s="113"/>
       <c r="H44" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I44" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="J44" s="106"/>
+        <v>360</v>
+      </c>
+      <c r="I44" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="109"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4501,23 +4520,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="119"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="106"/>
+      <c r="D45" s="109"/>
       <c r="F45" s="79" t="s">
-        <v>533</v>
-      </c>
-      <c r="G45" s="129"/>
+        <v>529</v>
+      </c>
+      <c r="G45" s="113"/>
       <c r="H45" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="I45" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="J45" s="106"/>
+        <v>361</v>
+      </c>
+      <c r="I45" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" s="109"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4535,20 +4554,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="109" t="s">
-        <v>546</v>
-      </c>
-      <c r="D46" s="110"/>
+      <c r="C46" s="115" t="s">
+        <v>542</v>
+      </c>
+      <c r="D46" s="116"/>
       <c r="E46" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G46" s="129"/>
-      <c r="I46" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="G46" s="113"/>
+      <c r="I46" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="J46" s="106"/>
+      <c r="J46" s="109"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4566,20 +4585,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="106"/>
+      <c r="C47" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="109"/>
       <c r="E47" s="94" t="s">
-        <v>399</v>
-      </c>
-      <c r="G47" s="129"/>
-      <c r="I47" s="105" t="s">
-        <v>524</v>
-      </c>
-      <c r="J47" s="106"/>
+        <v>395</v>
+      </c>
+      <c r="G47" s="113"/>
+      <c r="I47" s="114" t="s">
+        <v>520</v>
+      </c>
+      <c r="J47" s="109"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4597,20 +4616,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="119"/>
-      <c r="C48" s="105" t="s">
-        <v>498</v>
-      </c>
-      <c r="D48" s="106"/>
+      <c r="A48" s="106"/>
+      <c r="C48" s="114" t="s">
+        <v>494</v>
+      </c>
+      <c r="D48" s="109"/>
       <c r="E48" s="94" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F48" s="69"/>
-      <c r="G48" s="129"/>
-      <c r="I48" s="105" t="s">
-        <v>255</v>
-      </c>
-      <c r="J48" s="106"/>
+      <c r="G48" s="113"/>
+      <c r="I48" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="J48" s="109"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4628,21 +4647,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="143" t="s">
-        <v>535</v>
-      </c>
-      <c r="D49" s="144"/>
-      <c r="E49" s="105" t="s">
-        <v>472</v>
-      </c>
-      <c r="F49" s="106"/>
-      <c r="G49" s="129"/>
-      <c r="I49" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="J49" s="106"/>
+      <c r="C49" s="131" t="s">
+        <v>531</v>
+      </c>
+      <c r="D49" s="132"/>
+      <c r="E49" s="114" t="s">
+        <v>468</v>
+      </c>
+      <c r="F49" s="109"/>
+      <c r="G49" s="113"/>
+      <c r="I49" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="J49" s="109"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4660,19 +4679,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="119"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="105" t="s">
-        <v>499</v>
-      </c>
-      <c r="D50" s="106"/>
+      <c r="C50" s="114" t="s">
+        <v>495</v>
+      </c>
+      <c r="D50" s="109"/>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
-      <c r="G50" s="129"/>
-      <c r="I50" s="105" t="s">
-        <v>501</v>
-      </c>
-      <c r="J50" s="106"/>
+      <c r="G50" s="113"/>
+      <c r="I50" s="114" t="s">
+        <v>497</v>
+      </c>
+      <c r="J50" s="109"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4690,15 +4709,15 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="119"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="105" t="s">
-        <v>520</v>
-      </c>
-      <c r="D51" s="106"/>
+      <c r="C51" s="114" t="s">
+        <v>516</v>
+      </c>
+      <c r="D51" s="109"/>
       <c r="E51" s="69"/>
       <c r="F51" s="69"/>
-      <c r="G51" s="129"/>
+      <c r="G51" s="113"/>
       <c r="I51" s="70"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4717,17 +4736,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
-      <c r="C52" s="105" t="s">
+      <c r="A52" s="107"/>
+      <c r="C52" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="106"/>
+      <c r="D52" s="109"/>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
-      <c r="G52" s="129"/>
+      <c r="G52" s="113"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="138"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="124"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4751,7 +4770,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="129"/>
+      <c r="G53" s="113"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -4772,11 +4791,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="144" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="G54" s="129"/>
+      <c r="G54" s="113"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4794,8 +4813,8 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="G55" s="129"/>
+      <c r="A55" s="145"/>
+      <c r="G55" s="113"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4813,7 +4832,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+      <c r="A56" s="145"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4839,21 +4858,18 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
-      <c r="C57" s="24" t="s">
-        <v>365</v>
-      </c>
+      <c r="A57" s="145"/>
       <c r="D57" s="69" t="s">
         <v>46</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F57" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="128" t="s">
-        <v>439</v>
+      <c r="G57" s="112" t="s">
+        <v>435</v>
       </c>
       <c r="H57" s="28" t="s">
         <v>10</v>
@@ -4878,9 +4894,9 @@
       <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
+      <c r="A58" s="145"/>
       <c r="C58" s="96" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D58" s="69" t="s">
         <v>49</v>
@@ -4888,9 +4904,9 @@
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="129"/>
+      <c r="G58" s="113"/>
       <c r="H58" s="23" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I58" s="69" t="s">
         <v>51</v>
@@ -4915,28 +4931,28 @@
       <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+      <c r="A59" s="145"/>
       <c r="C59" s="24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="G59" s="129"/>
+        <v>344</v>
+      </c>
+      <c r="G59" s="113"/>
       <c r="H59" s="23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K59" s="80"/>
       <c r="L59" s="80"/>
@@ -4957,9 +4973,9 @@
       <c r="AA59" s="81"/>
     </row>
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+      <c r="A60" s="145"/>
       <c r="C60" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D60" s="69" t="s">
         <v>32</v>
@@ -4968,15 +4984,15 @@
       <c r="F60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="129"/>
+      <c r="G60" s="113"/>
       <c r="H60" s="23" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I60" s="69" t="s">
         <v>42</v>
       </c>
       <c r="J60" s="93" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K60" s="80"/>
       <c r="L60" s="80"/>
@@ -4997,25 +5013,25 @@
       <c r="AA60" s="81"/>
     </row>
     <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+      <c r="A61" s="145"/>
       <c r="C61" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E61" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G61" s="129"/>
+      <c r="G61" s="113"/>
       <c r="H61" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I61" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J61" s="24" t="s">
         <v>53</v>
@@ -5039,26 +5055,28 @@
       <c r="AA61" s="81"/>
     </row>
     <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
+      <c r="A62" s="145"/>
       <c r="C62" s="23" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="E62" s="23"/>
+        <v>290</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>578</v>
+      </c>
       <c r="F62" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="G62" s="129"/>
+        <v>539</v>
+      </c>
+      <c r="G62" s="113"/>
       <c r="H62" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K62" s="80"/>
       <c r="L62" s="80"/>
@@ -5079,23 +5097,23 @@
       <c r="AA62" s="81"/>
     </row>
     <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+      <c r="A63" s="145"/>
       <c r="C63" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" s="69" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="129"/>
+      <c r="G63" s="113"/>
       <c r="H63" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K63" s="80"/>
       <c r="L63" s="80"/>
@@ -5116,22 +5134,22 @@
       <c r="AA63" s="81"/>
     </row>
     <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
+      <c r="A64" s="145"/>
       <c r="C64" s="96" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="G64" s="129"/>
+        <v>342</v>
+      </c>
+      <c r="G64" s="113"/>
       <c r="H64" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K64" s="80"/>
       <c r="L64" s="80"/>
@@ -5152,7 +5170,7 @@
       <c r="AA64" s="81"/>
     </row>
     <row r="65" spans="1:27" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+      <c r="A65" s="145"/>
       <c r="D65" s="23" t="s">
         <v>39</v>
       </c>
@@ -5160,11 +5178,11 @@
         <v>25</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="G65" s="129"/>
+        <v>563</v>
+      </c>
+      <c r="G65" s="113"/>
       <c r="H65" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I65" s="23"/>
       <c r="K65" s="80"/>
@@ -5186,24 +5204,24 @@
       <c r="AA65" s="81"/>
     </row>
     <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
+      <c r="A66" s="145"/>
       <c r="B66" s="82"/>
       <c r="C66" s="97" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>395</v>
+        <v>577</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="G66" s="129"/>
+        <v>562</v>
+      </c>
+      <c r="G66" s="113"/>
       <c r="H66" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K66" s="80"/>
       <c r="L66" s="80"/>
@@ -5224,25 +5242,25 @@
       <c r="AA66" s="81"/>
     </row>
     <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
+      <c r="A67" s="145"/>
       <c r="C67" s="96" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="G67" s="129"/>
+        <v>564</v>
+      </c>
+      <c r="G67" s="113"/>
       <c r="H67" s="23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I67" s="69" t="s">
         <v>45</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K67" s="80"/>
       <c r="L67" s="80"/>
@@ -5263,25 +5281,25 @@
       <c r="AA67" s="81"/>
     </row>
     <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
+      <c r="A68" s="145"/>
       <c r="C68" s="91" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>418</v>
-      </c>
-      <c r="G68" s="129"/>
+        <v>414</v>
+      </c>
+      <c r="G68" s="113"/>
       <c r="H68" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J68" s="98" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K68" s="80"/>
       <c r="L68" s="80"/>
@@ -5302,15 +5320,15 @@
       <c r="AA68" s="81"/>
     </row>
     <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
+      <c r="A69" s="145"/>
       <c r="B69" s="83"/>
-      <c r="C69" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" s="117"/>
+      <c r="C69" s="146" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="147"/>
       <c r="G69" s="69"/>
       <c r="H69" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -5329,22 +5347,22 @@
       <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
+      <c r="A70" s="145"/>
       <c r="B70" s="83"/>
-      <c r="C70" s="105" t="s">
+      <c r="C70" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="106"/>
-      <c r="G70" s="145" t="s">
-        <v>513</v>
+      <c r="D70" s="109"/>
+      <c r="G70" s="117" t="s">
+        <v>509</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="I70" s="105" t="s">
-        <v>193</v>
-      </c>
-      <c r="J70" s="106"/>
+        <v>376</v>
+      </c>
+      <c r="I70" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="J70" s="109"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -5362,24 +5380,24 @@
       <c r="Y70" s="13"/>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+      <c r="A71" s="145"/>
       <c r="B71" s="83"/>
-      <c r="C71" s="105" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" s="106"/>
-      <c r="E71" s="105" t="s">
-        <v>479</v>
-      </c>
-      <c r="F71" s="106"/>
-      <c r="G71" s="146"/>
+      <c r="C71" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="109"/>
+      <c r="E71" s="114" t="s">
+        <v>475</v>
+      </c>
+      <c r="F71" s="109"/>
+      <c r="G71" s="118"/>
       <c r="H71" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="I71" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="J71" s="106"/>
+        <v>437</v>
+      </c>
+      <c r="I71" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" s="109"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
@@ -5397,26 +5415,26 @@
       <c r="Y71" s="13"/>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
+      <c r="A72" s="145"/>
       <c r="B72" s="83"/>
-      <c r="C72" s="109" t="s">
-        <v>549</v>
-      </c>
-      <c r="D72" s="110"/>
-      <c r="E72" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="F72" s="106"/>
+      <c r="C72" s="115" t="s">
+        <v>545</v>
+      </c>
+      <c r="D72" s="116"/>
+      <c r="E72" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F72" s="109"/>
       <c r="G72" s="104" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="I72" s="105" t="s">
-        <v>215</v>
-      </c>
-      <c r="J72" s="106"/>
+        <v>392</v>
+      </c>
+      <c r="I72" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="J72" s="109"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
@@ -5434,24 +5452,24 @@
       <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+      <c r="A73" s="145"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="106"/>
-      <c r="E73" s="105" t="s">
-        <v>256</v>
-      </c>
-      <c r="F73" s="106"/>
+      <c r="C73" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="109"/>
+      <c r="E73" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="F73" s="109"/>
       <c r="G73" s="69"/>
       <c r="H73" s="84" t="s">
-        <v>536</v>
-      </c>
-      <c r="I73" s="105" t="s">
-        <v>525</v>
-      </c>
-      <c r="J73" s="106"/>
+        <v>532</v>
+      </c>
+      <c r="I73" s="114" t="s">
+        <v>521</v>
+      </c>
+      <c r="J73" s="109"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5469,16 +5487,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
-      <c r="E74" s="105" t="s">
-        <v>521</v>
-      </c>
-      <c r="F74" s="106"/>
+      <c r="A74" s="145"/>
+      <c r="E74" s="114" t="s">
+        <v>517</v>
+      </c>
+      <c r="F74" s="109"/>
       <c r="G74" s="69"/>
-      <c r="I74" s="105" t="s">
-        <v>219</v>
-      </c>
-      <c r="J74" s="106"/>
+      <c r="I74" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="J74" s="109"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5496,19 +5514,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+      <c r="A75" s="145"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="105"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="121" t="s">
-        <v>250</v>
-      </c>
-      <c r="F75" s="122"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="119" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" s="120"/>
       <c r="G75" s="69"/>
-      <c r="I75" s="134" t="s">
-        <v>467</v>
-      </c>
-      <c r="J75" s="106"/>
+      <c r="I75" s="108" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" s="109"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5526,17 +5544,17 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+      <c r="A76" s="145"/>
       <c r="B76" s="6"/>
       <c r="C76" s="70"/>
       <c r="D76" s="71"/>
-      <c r="E76" s="105" t="s">
-        <v>446</v>
-      </c>
-      <c r="F76" s="106"/>
+      <c r="E76" s="114" t="s">
+        <v>442</v>
+      </c>
+      <c r="F76" s="109"/>
       <c r="G76" s="69"/>
       <c r="J76" s="92" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5581,27 +5599,27 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="118" t="s">
+      <c r="A78" s="105" t="s">
         <v>55</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="149" t="s">
-        <v>438</v>
+      <c r="G78" s="110" t="s">
+        <v>434</v>
       </c>
       <c r="H78" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="69" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -5622,9 +5640,9 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="119"/>
+      <c r="A79" s="106"/>
       <c r="C79" s="85" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D79" s="69" t="s">
         <v>58</v>
@@ -5633,11 +5651,11 @@
         <v>19</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G79" s="112"/>
+        <v>347</v>
+      </c>
+      <c r="G79" s="111"/>
       <c r="H79" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I79" s="69" t="s">
         <v>33</v>
@@ -5661,7 +5679,7 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="119"/>
+      <c r="A80" s="106"/>
       <c r="C80" s="2" t="s">
         <v>62</v>
       </c>
@@ -5674,9 +5692,9 @@
       <c r="F80" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="112"/>
+      <c r="G80" s="111"/>
       <c r="H80" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>59</v>
@@ -5701,25 +5719,25 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="119"/>
+      <c r="A81" s="106"/>
       <c r="C81" s="93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G81" s="112"/>
+        <v>298</v>
+      </c>
+      <c r="G81" s="111"/>
       <c r="H81" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I81" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5738,25 +5756,25 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="119"/>
+      <c r="A82" s="106"/>
       <c r="C82" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E82" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F82" s="93" t="s">
-        <v>295</v>
-      </c>
-      <c r="G82" s="112"/>
+        <v>294</v>
+      </c>
+      <c r="G82" s="111"/>
       <c r="H82" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5774,22 +5792,22 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="119"/>
+      <c r="A83" s="106"/>
       <c r="D83" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E83" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G83" s="112"/>
+      <c r="G83" s="111"/>
       <c r="H83" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I83" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J83" s="69" t="s">
         <v>20</v>
@@ -5811,28 +5829,28 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="119"/>
+      <c r="A84" s="106"/>
       <c r="C84" s="4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G84" s="112"/>
+        <v>301</v>
+      </c>
+      <c r="G84" s="111"/>
       <c r="H84" s="73" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I84" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J84" s="69" t="s">
         <v>304</v>
-      </c>
-      <c r="J84" s="69" t="s">
-        <v>305</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -5851,28 +5869,28 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="119"/>
+      <c r="A85" s="106"/>
       <c r="C85" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G85" s="112"/>
+        <v>302</v>
+      </c>
+      <c r="G85" s="111"/>
       <c r="H85" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5891,25 +5909,25 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="119"/>
+      <c r="A86" s="106"/>
       <c r="C86" s="4" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E86" s="90" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G86" s="112"/>
+        <v>557</v>
+      </c>
+      <c r="G86" s="111"/>
       <c r="H86" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K86" s="31"/>
       <c r="L86" s="31"/>
@@ -5930,22 +5948,22 @@
       <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="119"/>
+      <c r="A87" s="106"/>
       <c r="E87" s="73" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G87" s="112"/>
+        <v>404</v>
+      </c>
+      <c r="G87" s="111"/>
       <c r="H87" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L87" s="31"/>
       <c r="M87" s="31"/>
@@ -5965,17 +5983,17 @@
       <c r="AA87" s="31"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="119"/>
+      <c r="A88" s="106"/>
       <c r="C88" s="2"/>
       <c r="E88" s="90" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G88" s="112"/>
+        <v>242</v>
+      </c>
+      <c r="G88" s="111"/>
       <c r="H88" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -5995,19 +6013,19 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="119"/>
+      <c r="A89" s="106"/>
       <c r="B89" s="29"/>
       <c r="G89" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I89" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J89" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -6027,19 +6045,19 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="119"/>
-      <c r="C90" s="134" t="s">
-        <v>519</v>
-      </c>
-      <c r="D90" s="106"/>
+      <c r="A90" s="106"/>
+      <c r="C90" s="108" t="s">
+        <v>515</v>
+      </c>
+      <c r="D90" s="109"/>
       <c r="G90" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I90" s="90" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6060,16 +6078,16 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
-      <c r="C91" s="134" t="s">
-        <v>254</v>
-      </c>
-      <c r="D91" s="139"/>
+      <c r="A91" s="106"/>
+      <c r="C91" s="108" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" s="129"/>
       <c r="H91" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I91" s="73" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -6090,11 +6108,11 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="119"/>
+      <c r="A92" s="106"/>
       <c r="E92" s="61"/>
       <c r="G92" s="32"/>
       <c r="H92" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J92" s="69"/>
       <c r="K92" s="16"/>
@@ -6116,13 +6134,13 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="119"/>
+      <c r="A93" s="106"/>
       <c r="C93" s="86" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="78" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J93" s="69"/>
       <c r="K93" s="9"/>
@@ -6142,22 +6160,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="119"/>
+      <c r="A94" s="106"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="D94" s="106"/>
-      <c r="E94" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="F94" s="106"/>
+      <c r="C94" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="109"/>
+      <c r="E94" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" s="109"/>
       <c r="G94" s="32"/>
       <c r="H94" s="69"/>
-      <c r="I94" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="J94" s="106"/>
+      <c r="I94" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="J94" s="109"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -6175,22 +6193,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="119"/>
+      <c r="A95" s="106"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="105" t="s">
-        <v>477</v>
-      </c>
-      <c r="D95" s="106"/>
-      <c r="E95" s="105" t="s">
-        <v>226</v>
-      </c>
-      <c r="F95" s="106"/>
+      <c r="C95" s="114" t="s">
+        <v>473</v>
+      </c>
+      <c r="D95" s="109"/>
+      <c r="E95" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="F95" s="109"/>
       <c r="G95" s="32"/>
       <c r="H95" s="69"/>
-      <c r="I95" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="J95" s="106"/>
+      <c r="I95" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="J95" s="109"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -6208,21 +6226,21 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="119"/>
+      <c r="A96" s="106"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="105" t="s">
-        <v>200</v>
-      </c>
-      <c r="D96" s="106"/>
-      <c r="E96" s="113" t="s">
-        <v>574</v>
-      </c>
-      <c r="F96" s="112"/>
+      <c r="C96" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="109"/>
+      <c r="E96" s="137" t="s">
+        <v>570</v>
+      </c>
+      <c r="F96" s="111"/>
       <c r="G96" s="32"/>
-      <c r="H96" s="105" t="s">
-        <v>192</v>
-      </c>
-      <c r="I96" s="106"/>
+      <c r="H96" s="114" t="s">
+        <v>580</v>
+      </c>
+      <c r="I96" s="109"/>
       <c r="J96" s="61"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6241,22 +6259,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="119"/>
+      <c r="A97" s="106"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="105" t="s">
-        <v>523</v>
-      </c>
-      <c r="D97" s="106"/>
-      <c r="E97" s="113" t="s">
-        <v>573</v>
-      </c>
-      <c r="F97" s="112"/>
+      <c r="C97" s="114" t="s">
+        <v>519</v>
+      </c>
+      <c r="D97" s="109"/>
+      <c r="E97" s="137" t="s">
+        <v>569</v>
+      </c>
+      <c r="F97" s="111"/>
       <c r="G97" s="32"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="134" t="s">
-        <v>554</v>
-      </c>
-      <c r="J97" s="106"/>
+      <c r="I97" s="108" t="s">
+        <v>550</v>
+      </c>
+      <c r="J97" s="109"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6274,20 +6292,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="119"/>
+      <c r="A98" s="106"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="D98" s="106"/>
-      <c r="E98" s="113" t="s">
+      <c r="C98" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98" s="109"/>
+      <c r="E98" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="112"/>
+      <c r="F98" s="111"/>
       <c r="G98" s="32"/>
       <c r="H98" s="75"/>
-      <c r="I98" s="142"/>
-      <c r="J98" s="138"/>
+      <c r="I98" s="123"/>
+      <c r="J98" s="124"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6305,16 +6323,16 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="119"/>
+      <c r="A99" s="106"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="D99" s="122"/>
-      <c r="E99" s="121" t="s">
-        <v>420</v>
-      </c>
-      <c r="F99" s="122"/>
+      <c r="C99" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="120"/>
+      <c r="E99" s="119" t="s">
+        <v>416</v>
+      </c>
+      <c r="F99" s="120"/>
       <c r="G99" s="32"/>
       <c r="H99" s="75"/>
       <c r="J99" s="75"/>
@@ -6335,14 +6353,14 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="119"/>
+      <c r="A100" s="106"/>
       <c r="B100" s="6"/>
       <c r="C100" s="70"/>
       <c r="D100" s="71"/>
-      <c r="E100" s="105" t="s">
-        <v>502</v>
-      </c>
-      <c r="F100" s="106"/>
+      <c r="E100" s="114" t="s">
+        <v>498</v>
+      </c>
+      <c r="F100" s="109"/>
       <c r="G100" s="32"/>
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
@@ -6364,14 +6382,14 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="119"/>
+      <c r="A101" s="106"/>
       <c r="B101" s="6"/>
       <c r="C101" s="70"/>
       <c r="D101" s="71"/>
-      <c r="E101" s="132" t="s">
+      <c r="E101" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="132"/>
+      <c r="F101" s="130"/>
       <c r="G101" s="32"/>
       <c r="H101" s="75"/>
       <c r="J101" s="75"/>
@@ -6392,12 +6410,12 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
+      <c r="A102" s="107"/>
       <c r="B102" s="6"/>
       <c r="C102" s="70"/>
       <c r="D102" s="71"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="106"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="109"/>
       <c r="G102" s="32"/>
       <c r="H102" s="75"/>
       <c r="J102" s="75"/>
@@ -6471,24 +6489,24 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="115" t="s">
+      <c r="A105" s="142" t="s">
         <v>65</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D105" s="69" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F105" s="89" t="s">
-        <v>543</v>
-      </c>
-      <c r="G105" s="147" t="s">
-        <v>557</v>
+        <v>539</v>
+      </c>
+      <c r="G105" s="121" t="s">
+        <v>553</v>
       </c>
       <c r="H105" s="34" t="s">
         <v>66</v>
@@ -6516,9 +6534,9 @@
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="112"/>
+      <c r="A106" s="111"/>
       <c r="C106" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D106" s="69" t="s">
         <v>19</v>
@@ -6529,10 +6547,10 @@
       <c r="F106" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="148"/>
+      <c r="G106" s="122"/>
       <c r="H106" s="34"/>
       <c r="I106" s="23" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J106" s="69" t="s">
         <v>68</v>
@@ -6554,24 +6572,24 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="112"/>
+      <c r="A107" s="111"/>
       <c r="C107" s="69" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D107" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F107" s="69" t="s">
         <v>50</v>
       </c>
       <c r="G107" s="104" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>35</v>
@@ -6596,27 +6614,27 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="112"/>
+      <c r="A108" s="111"/>
       <c r="C108" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="128" t="s">
-        <v>439</v>
+      <c r="G108" s="112" t="s">
+        <v>435</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I108" s="101" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J108" s="69" t="s">
         <v>38</v>
@@ -6638,22 +6656,22 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="112"/>
+      <c r="A109" s="111"/>
       <c r="D109" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G109" s="113"/>
+      <c r="H109" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G109" s="129"/>
-      <c r="H109" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="J109" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -6672,17 +6690,17 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="112"/>
+      <c r="A110" s="111"/>
       <c r="D110" s="93" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="129"/>
+      <c r="G110" s="113"/>
       <c r="I110" s="69"/>
       <c r="J110" s="69"/>
       <c r="K110" s="16"/>
@@ -6704,17 +6722,17 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="112"/>
+      <c r="A111" s="111"/>
       <c r="D111" s="93" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F111" s="69" t="s">
-        <v>560</v>
-      </c>
-      <c r="G111" s="129"/>
+        <v>556</v>
+      </c>
+      <c r="G111" s="113"/>
       <c r="H111" s="36"/>
       <c r="I111" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="16"/>
@@ -6736,11 +6754,11 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="112"/>
+      <c r="A112" s="111"/>
       <c r="D112" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="G112" s="129"/>
+        <v>355</v>
+      </c>
+      <c r="G112" s="113"/>
       <c r="H112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6762,12 +6780,12 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="112"/>
+      <c r="A113" s="111"/>
       <c r="C113" s="69"/>
       <c r="E113" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G113" s="129"/>
+        <v>408</v>
+      </c>
+      <c r="G113" s="113"/>
       <c r="H113" s="34"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6789,11 +6807,11 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="112"/>
+      <c r="A114" s="111"/>
       <c r="E114" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="G114" s="129"/>
+        <v>567</v>
+      </c>
+      <c r="G114" s="113"/>
       <c r="H114" s="36"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6814,15 +6832,15 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="112"/>
+      <c r="A115" s="111"/>
       <c r="D115" s="69"/>
       <c r="E115" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G115" s="129"/>
+        <v>450</v>
+      </c>
+      <c r="G115" s="113"/>
       <c r="H115" s="36"/>
       <c r="J115" s="69"/>
       <c r="K115" s="16"/>
@@ -6844,11 +6862,11 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="112"/>
+      <c r="A116" s="111"/>
       <c r="E116" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="G116" s="129"/>
+        <v>568</v>
+      </c>
+      <c r="G116" s="113"/>
       <c r="H116" s="69" t="s">
         <v>32</v>
       </c>
@@ -6871,22 +6889,22 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="112"/>
+      <c r="A117" s="111"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="105"/>
-      <c r="D117" s="106"/>
-      <c r="E117" s="105" t="s">
-        <v>209</v>
-      </c>
-      <c r="F117" s="106"/>
-      <c r="G117" s="129"/>
+      <c r="C117" s="114"/>
+      <c r="D117" s="109"/>
+      <c r="E117" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="F117" s="109"/>
+      <c r="G117" s="113"/>
       <c r="H117" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I117" s="105" t="s">
-        <v>195</v>
-      </c>
-      <c r="J117" s="106"/>
+      <c r="I117" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="J117" s="109"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -6906,15 +6924,15 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="112"/>
+      <c r="A118" s="111"/>
       <c r="C118" s="86" t="s">
-        <v>540</v>
-      </c>
-      <c r="G118" s="129"/>
-      <c r="H118" s="135" t="s">
-        <v>475</v>
-      </c>
-      <c r="I118" s="136"/>
+        <v>536</v>
+      </c>
+      <c r="G118" s="113"/>
+      <c r="H118" s="125" t="s">
+        <v>471</v>
+      </c>
+      <c r="I118" s="126"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -6934,21 +6952,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="112"/>
+      <c r="A119" s="111"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="105" t="s">
-        <v>474</v>
-      </c>
-      <c r="D119" s="106"/>
-      <c r="E119" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="F119" s="106"/>
-      <c r="G119" s="129"/>
-      <c r="I119" s="105" t="s">
-        <v>196</v>
-      </c>
-      <c r="J119" s="106"/>
+      <c r="C119" s="114" t="s">
+        <v>470</v>
+      </c>
+      <c r="D119" s="109"/>
+      <c r="E119" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F119" s="109"/>
+      <c r="G119" s="113"/>
+      <c r="I119" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="J119" s="109"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -6968,22 +6986,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="112"/>
+      <c r="A120" s="111"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="105" t="s">
-        <v>480</v>
-      </c>
-      <c r="D120" s="106"/>
-      <c r="E120" s="121" t="s">
-        <v>427</v>
-      </c>
-      <c r="F120" s="122"/>
+      <c r="C120" s="114" t="s">
+        <v>476</v>
+      </c>
+      <c r="D120" s="109"/>
+      <c r="E120" s="119" t="s">
+        <v>423</v>
+      </c>
+      <c r="F120" s="120"/>
       <c r="G120" s="35"/>
       <c r="H120" s="36"/>
-      <c r="I120" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="J120" s="106"/>
+      <c r="I120" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="J120" s="109"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -7003,22 +7021,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="112"/>
+      <c r="A121" s="111"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="105" t="s">
-        <v>476</v>
-      </c>
-      <c r="D121" s="106"/>
-      <c r="E121" s="134" t="s">
-        <v>556</v>
-      </c>
-      <c r="F121" s="106"/>
+      <c r="C121" s="114" t="s">
+        <v>472</v>
+      </c>
+      <c r="D121" s="109"/>
+      <c r="E121" s="108" t="s">
+        <v>552</v>
+      </c>
+      <c r="F121" s="109"/>
       <c r="G121" s="35"/>
       <c r="H121" s="36"/>
-      <c r="I121" s="105" t="s">
-        <v>220</v>
-      </c>
-      <c r="J121" s="106"/>
+      <c r="I121" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="J121" s="109"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -7038,16 +7056,16 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="112"/>
+      <c r="A122" s="111"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="D122" s="106"/>
-      <c r="E122" s="105" t="s">
-        <v>447</v>
-      </c>
-      <c r="F122" s="106"/>
+      <c r="C122" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="D122" s="109"/>
+      <c r="E122" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="F122" s="109"/>
       <c r="G122" s="35"/>
       <c r="H122" s="36"/>
       <c r="K122" s="16"/>
@@ -7069,22 +7087,22 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="112"/>
+      <c r="A123" s="111"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="D123" s="106"/>
-      <c r="E123" s="132" t="s">
-        <v>483</v>
-      </c>
-      <c r="F123" s="112"/>
+      <c r="C123" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="D123" s="109"/>
+      <c r="E123" s="130" t="s">
+        <v>479</v>
+      </c>
+      <c r="F123" s="111"/>
       <c r="G123" s="35"/>
       <c r="H123" s="36"/>
-      <c r="I123" s="134" t="s">
-        <v>482</v>
-      </c>
-      <c r="J123" s="106"/>
+      <c r="I123" s="108" t="s">
+        <v>478</v>
+      </c>
+      <c r="J123" s="109"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7104,20 +7122,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="112"/>
+      <c r="A124" s="111"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="134" t="s">
-        <v>555</v>
-      </c>
-      <c r="D124" s="106"/>
+      <c r="C124" s="108" t="s">
+        <v>551</v>
+      </c>
+      <c r="D124" s="109"/>
       <c r="G124" s="35"/>
       <c r="H124" s="90" t="s">
-        <v>442</v>
-      </c>
-      <c r="I124" s="134" t="s">
-        <v>455</v>
-      </c>
-      <c r="J124" s="106"/>
+        <v>438</v>
+      </c>
+      <c r="I124" s="108" t="s">
+        <v>451</v>
+      </c>
+      <c r="J124" s="109"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7137,16 +7155,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="112"/>
+      <c r="A125" s="111"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="105"/>
-      <c r="D125" s="106"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="109"/>
       <c r="G125" s="35"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="137" t="s">
-        <v>503</v>
-      </c>
-      <c r="J125" s="138"/>
+      <c r="I125" s="127" t="s">
+        <v>499</v>
+      </c>
+      <c r="J125" s="124"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7166,10 +7184,10 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="112"/>
+      <c r="A126" s="111"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="106"/>
+      <c r="C126" s="114"/>
+      <c r="D126" s="109"/>
       <c r="G126" s="35"/>
       <c r="H126" s="36"/>
       <c r="K126" s="16"/>
@@ -7191,7 +7209,7 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="112"/>
+      <c r="A127" s="111"/>
       <c r="B127" s="6"/>
       <c r="C127" s="70"/>
       <c r="D127" s="71"/>
@@ -7269,12 +7287,12 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="118" t="s">
+      <c r="A130" s="105" t="s">
         <v>73</v>
       </c>
       <c r="B130" s="74"/>
       <c r="C130" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>74</v>
@@ -7306,9 +7324,9 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="119"/>
+      <c r="A131" s="106"/>
       <c r="C131" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>77</v>
@@ -7317,8 +7335,8 @@
         <v>67</v>
       </c>
       <c r="H131" s="11"/>
-      <c r="I131" s="133"/>
-      <c r="J131" s="112"/>
+      <c r="I131" s="138"/>
+      <c r="J131" s="111"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7336,15 +7354,15 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="119"/>
+      <c r="A132" s="106"/>
       <c r="C132" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D132" s="79" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F132" s="89" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="41"/>
@@ -7366,15 +7384,15 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="119"/>
+      <c r="A133" s="106"/>
       <c r="C133" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D133" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7396,12 +7414,12 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="119"/>
+      <c r="A134" s="106"/>
       <c r="C134" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>64</v>
@@ -7426,15 +7444,15 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="119"/>
+      <c r="A135" s="106"/>
       <c r="C135" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I135" s="42"/>
       <c r="J135" s="75"/>
@@ -7455,15 +7473,15 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="119"/>
+      <c r="A136" s="106"/>
       <c r="C136" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E136" s="93" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="43"/>
@@ -7485,15 +7503,15 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="119"/>
-      <c r="C137" s="111" t="s">
-        <v>564</v>
+      <c r="A137" s="106"/>
+      <c r="C137" s="128" t="s">
+        <v>560</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E137" s="94" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G137" s="2"/>
       <c r="I137" s="43"/>
@@ -7515,15 +7533,15 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="119"/>
-      <c r="C138" s="112"/>
+      <c r="A138" s="106"/>
+      <c r="C138" s="111"/>
       <c r="D138" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E138" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="F138" s="106"/>
+        <v>331</v>
+      </c>
+      <c r="E138" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="F138" s="109"/>
       <c r="G138" s="2"/>
       <c r="H138" s="43"/>
       <c r="I138" s="43"/>
@@ -7545,14 +7563,14 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="119"/>
+      <c r="A139" s="106"/>
       <c r="C139" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F139" s="113" t="s">
-        <v>509</v>
-      </c>
-      <c r="G139" s="112"/>
+        <v>243</v>
+      </c>
+      <c r="F139" s="137" t="s">
+        <v>505</v>
+      </c>
+      <c r="G139" s="111"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
       <c r="J139" s="11"/>
@@ -7573,14 +7591,14 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="119"/>
+      <c r="A140" s="106"/>
       <c r="C140" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F140" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="F140" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="G140" s="112"/>
+      <c r="G140" s="111"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
       <c r="J140" s="11"/>
@@ -7601,15 +7619,15 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="119"/>
+      <c r="A141" s="106"/>
       <c r="C141" s="99" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E141" s="61"/>
-      <c r="F141" s="114" t="s">
+      <c r="F141" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="G141" s="112"/>
+      <c r="G141" s="111"/>
       <c r="H141" s="43"/>
       <c r="I141" s="43"/>
       <c r="J141" s="11"/>
@@ -7630,9 +7648,9 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="119"/>
+      <c r="A142" s="106"/>
       <c r="E142" s="86" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="43"/>
@@ -7655,12 +7673,12 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="119"/>
+      <c r="A143" s="106"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="105" t="s">
-        <v>210</v>
-      </c>
-      <c r="E143" s="106"/>
+      <c r="D143" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="E143" s="109"/>
       <c r="H143" s="43"/>
       <c r="I143" s="43"/>
       <c r="J143" s="11"/>
@@ -7681,16 +7699,16 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="119"/>
+      <c r="A144" s="106"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="E144" s="106"/>
-      <c r="F144" s="121" t="s">
-        <v>249</v>
-      </c>
-      <c r="G144" s="122"/>
+      <c r="D144" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="E144" s="109"/>
+      <c r="F144" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="G144" s="120"/>
       <c r="H144" s="43"/>
       <c r="I144" s="43"/>
       <c r="J144" s="11"/>
@@ -7711,16 +7729,16 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="119"/>
+      <c r="A145" s="106"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="140" t="s">
-        <v>198</v>
-      </c>
-      <c r="E145" s="141"/>
-      <c r="F145" s="121" t="s">
-        <v>430</v>
-      </c>
-      <c r="G145" s="122"/>
+      <c r="D145" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="E145" s="135"/>
+      <c r="F145" s="119" t="s">
+        <v>426</v>
+      </c>
+      <c r="G145" s="120"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
       <c r="J145" s="11"/>
@@ -7741,16 +7759,16 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="119"/>
+      <c r="A146" s="106"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="E146" s="106"/>
-      <c r="F146" s="123" t="s">
-        <v>505</v>
-      </c>
-      <c r="G146" s="124"/>
+      <c r="D146" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E146" s="109"/>
+      <c r="F146" s="148" t="s">
+        <v>501</v>
+      </c>
+      <c r="G146" s="149"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
       <c r="J146" s="11"/>
@@ -7771,12 +7789,12 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="119"/>
+      <c r="A147" s="106"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="E147" s="106"/>
+      <c r="D147" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="E147" s="109"/>
       <c r="H147" s="43"/>
       <c r="I147" s="43"/>
       <c r="J147" s="11"/>
@@ -7797,12 +7815,12 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="119"/>
+      <c r="A148" s="106"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="109" t="s">
-        <v>504</v>
-      </c>
-      <c r="E148" s="110"/>
+      <c r="D148" s="115" t="s">
+        <v>500</v>
+      </c>
+      <c r="E148" s="116"/>
       <c r="H148" s="43"/>
       <c r="I148" s="43"/>
       <c r="J148" s="11"/>
@@ -7823,12 +7841,12 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="119"/>
+      <c r="A149" s="106"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="113" t="s">
-        <v>576</v>
-      </c>
-      <c r="E149" s="112"/>
+      <c r="D149" s="137" t="s">
+        <v>572</v>
+      </c>
+      <c r="E149" s="111"/>
       <c r="F149" s="2"/>
       <c r="G149" s="35"/>
       <c r="H149" s="11"/>
@@ -7851,12 +7869,12 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="119"/>
+      <c r="A150" s="106"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="113" t="s">
-        <v>575</v>
-      </c>
-      <c r="E150" s="112"/>
+      <c r="D150" s="137" t="s">
+        <v>571</v>
+      </c>
+      <c r="E150" s="111"/>
       <c r="F150" s="2"/>
       <c r="G150" s="32"/>
       <c r="H150" s="11"/>
@@ -7879,12 +7897,12 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="119"/>
+      <c r="A151" s="106"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="113" t="s">
+      <c r="D151" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="E151" s="112"/>
+      <c r="E151" s="111"/>
       <c r="F151" s="2"/>
       <c r="G151" s="32"/>
       <c r="H151" s="11"/>
@@ -7907,12 +7925,12 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="120"/>
+      <c r="A152" s="107"/>
       <c r="C152" s="2"/>
-      <c r="E152" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="F152" s="106"/>
+      <c r="E152" s="114" t="s">
+        <v>528</v>
+      </c>
+      <c r="F152" s="109"/>
       <c r="G152" s="32"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -8406,7 +8424,7 @@
         <v>148</v>
       </c>
       <c r="H166" s="59" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I166" s="59" t="s">
         <v>149</v>
@@ -8746,10 +8764,10 @@
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="58" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H175" s="58" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I175" s="58" t="s">
         <v>173</v>
@@ -8779,10 +8797,10 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="58" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H176" s="58" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I176" s="58" t="s">
         <v>174</v>
@@ -9221,7 +9239,7 @@
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
       <c r="E192" s="58"/>
-      <c r="F192" s="131"/>
+      <c r="F192" s="136"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9245,7 +9263,7 @@
       <c r="C193" s="58"/>
       <c r="D193" s="58"/>
       <c r="E193" s="58"/>
-      <c r="F193" s="112"/>
+      <c r="F193" s="111"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -9296,7 +9314,7 @@
       <c r="C195" s="58"/>
       <c r="D195" s="58"/>
       <c r="E195" s="58"/>
-      <c r="F195" s="131"/>
+      <c r="F195" s="136"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9323,7 +9341,7 @@
       <c r="C196" s="58"/>
       <c r="D196" s="58"/>
       <c r="E196" s="58"/>
-      <c r="F196" s="112"/>
+      <c r="F196" s="111"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -12897,6 +12915,114 @@
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="A54:A76"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="A105:A127"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A78:A102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A30:A52"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G108:G119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
     <mergeCell ref="A130:A152"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="G78:G88"/>
@@ -12921,114 +13047,6 @@
     <mergeCell ref="I74:J74"/>
     <mergeCell ref="I73:J73"/>
     <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G108:G119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G5:G28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A30:A52"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="A54:A76"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="A105:A127"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A78:A102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D799D5-5DC3-4D79-A7AF-07805927B2A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323F501-85CB-408D-B8C8-A9446183B1D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,9 +862,6 @@
     <t>PB1,B2(25B16CS211)-CL21,22,23/BS,PAG,SMS</t>
   </si>
   <si>
-    <t>PB7,B8(CS222)-CL15,16/AYS,AKM,PU</t>
-  </si>
-  <si>
     <t>PB5,B6(CS222)-CL05,06/SYN,SUD,NIY</t>
   </si>
   <si>
@@ -1201,9 +1198,6 @@
     <t>LG1,G2 (CS222)-FF1/AKM</t>
   </si>
   <si>
-    <t>LB3,B4(25B11EC311)-LT3/MO</t>
-  </si>
-  <si>
     <t>LG1,G2(25B11MA232)-CR526/HZR</t>
   </si>
   <si>
@@ -1222,9 +1216,6 @@
     <t>TA1-A10 (HS332)-TS17/AMN</t>
   </si>
   <si>
-    <t>TA15-A18, C1-C3, G1-G2 (HS332)-TR302/PRI</t>
-  </si>
-  <si>
     <t>TACG (HS435)-TS20/PSH</t>
   </si>
   <si>
@@ -1264,9 +1255,6 @@
     <t>TB1-B5 (HS332)-TS12/AMN</t>
   </si>
   <si>
-    <t>TB6-B16 (HS332)-TR302/PRI</t>
-  </si>
-  <si>
     <t>TB1-B6 (HS435)-FF5/PSH</t>
   </si>
   <si>
@@ -1661,9 +1649,6 @@
   </si>
   <si>
     <t>PB14,B16(CS224)-CL14,15/AKM,SLK,ATI</t>
-  </si>
-  <si>
-    <t>PG1,G2(CS222)-CL13,14/TRN,AMS,SOS</t>
   </si>
   <si>
     <r>
@@ -2078,6 +2063,40 @@
   </si>
   <si>
     <t>PA15(25B25EC212)-EDC/SIM,BVI</t>
+  </si>
+  <si>
+    <t>TA15-A18, C1-C3, G1-G2 (HS332)-CR301/PRI</t>
+  </si>
+  <si>
+    <t>TB6-B16 (HS332)-CR526/PRI</t>
+  </si>
+  <si>
+    <t>PG1,G2(CS222)-CL13,14/AMS,AKM,SOS</t>
+  </si>
+  <si>
+    <t>PB7,B8(CS222)-CL15,16/TRN,AYS,PU</t>
+  </si>
+  <si>
+    <r>
+      <t>LB3,B4(25B11EC311)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FF8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/MO</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2672,6 +2691,43 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2681,54 +2737,65 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2739,13 +2806,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2754,56 +2815,14 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3027,10 +3046,10 @@
   <dimension ref="A1:AA1060"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H96" sqref="H96:I96"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3051,18 +3070,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="120"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="122"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -3081,7 +3100,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -3124,7 +3143,7 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="115" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
@@ -3136,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>15</v>
@@ -3161,24 +3180,24 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
+      <c r="A4" s="112"/>
       <c r="C4" s="77" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F4" s="128" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="111" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K4" s="71"/>
       <c r="L4" s="9"/>
@@ -3197,28 +3216,28 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
+      <c r="A5" s="112"/>
       <c r="C5" s="102" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112" t="s">
-        <v>435</v>
+      <c r="F5" s="112"/>
+      <c r="G5" s="128" t="s">
+        <v>431</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I5" s="69" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3237,25 +3256,25 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="112"/>
       <c r="C6" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="113"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3274,12 +3293,12 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
+      <c r="A7" s="112"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -3287,9 +3306,9 @@
       <c r="F7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="113"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I7" s="69" t="s">
         <v>21</v>
@@ -3312,22 +3331,22 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
+      <c r="A8" s="112"/>
       <c r="C8" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E8" s="93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="G8" s="113"/>
+        <v>521</v>
+      </c>
+      <c r="G8" s="129"/>
       <c r="H8" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -3346,22 +3365,22 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
+      <c r="A9" s="112"/>
       <c r="C9" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="G9" s="113"/>
+        <v>335</v>
+      </c>
+      <c r="G9" s="129"/>
       <c r="H9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="9"/>
@@ -3381,19 +3400,19 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
+      <c r="A10" s="112"/>
       <c r="D10" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G10" s="113"/>
+        <v>326</v>
+      </c>
+      <c r="G10" s="129"/>
       <c r="H10" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="16"/>
@@ -3414,17 +3433,17 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
+      <c r="A11" s="112"/>
       <c r="C11" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G11" s="113"/>
+        <v>417</v>
+      </c>
+      <c r="G11" s="129"/>
       <c r="H11" s="69"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
@@ -3445,20 +3464,20 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="112"/>
       <c r="C12" s="77"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G12" s="113"/>
+        <v>420</v>
+      </c>
+      <c r="G12" s="129"/>
       <c r="H12" s="4" t="s">
         <v>236</v>
       </c>
       <c r="I12" s="94" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="9"/>
@@ -3480,22 +3499,22 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="112"/>
       <c r="C13" s="67" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E13" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>502</v>
-      </c>
-      <c r="G13" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G13" s="129"/>
       <c r="H13" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="9"/>
@@ -3517,24 +3536,24 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="112"/>
       <c r="C14" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="113"/>
+      <c r="G14" s="129"/>
       <c r="H14" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I14" s="137" t="s">
-        <v>573</v>
-      </c>
-      <c r="J14" s="111"/>
+        <v>441</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J14" s="112"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3554,7 +3573,7 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="112"/>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3562,16 +3581,16 @@
         <v>70</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="G15" s="113"/>
+        <v>262</v>
+      </c>
+      <c r="G15" s="129"/>
       <c r="H15" s="86" t="s">
-        <v>537</v>
-      </c>
-      <c r="I15" s="137" t="s">
-        <v>574</v>
-      </c>
-      <c r="J15" s="111"/>
+        <v>532</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J15" s="112"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3591,19 +3610,19 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="112"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="G16" s="113"/>
-      <c r="I16" s="137" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="129"/>
+      <c r="I16" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="111"/>
+      <c r="J16" s="112"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3623,20 +3642,20 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
+      <c r="A17" s="112"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="113"/>
+        <v>259</v>
+      </c>
+      <c r="G17" s="129"/>
       <c r="H17" s="72"/>
-      <c r="I17" s="114" t="s">
-        <v>348</v>
-      </c>
-      <c r="J17" s="109"/>
+      <c r="I17" s="105" t="s">
+        <v>347</v>
+      </c>
+      <c r="J17" s="106"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3656,13 +3675,13 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
+      <c r="A18" s="112"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="113"/>
-      <c r="I18" s="114" t="s">
+      <c r="G18" s="129"/>
+      <c r="I18" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="109"/>
+      <c r="J18" s="106"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3682,17 +3701,17 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
+      <c r="A19" s="112"/>
       <c r="C19" s="4"/>
       <c r="E19" s="95" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F19" s="69"/>
-      <c r="G19" s="113"/>
-      <c r="I19" s="114" t="s">
+      <c r="G19" s="129"/>
+      <c r="I19" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="109"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3712,19 +3731,19 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
+      <c r="A20" s="112"/>
       <c r="C20" s="4"/>
       <c r="D20" s="73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="113"/>
-      <c r="I20" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="129"/>
+      <c r="I20" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="109"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3744,19 +3763,19 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
+      <c r="A21" s="112"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>235</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>575</v>
-      </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="114" t="s">
+        <v>570</v>
+      </c>
+      <c r="G21" s="129"/>
+      <c r="H21" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="109"/>
+      <c r="I21" s="106"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3776,18 +3795,18 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
+      <c r="A22" s="112"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>239</v>
       </c>
       <c r="F22" s="69"/>
-      <c r="G22" s="113"/>
+      <c r="G22" s="129"/>
       <c r="H22" s="72"/>
-      <c r="I22" s="114" t="s">
+      <c r="I22" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="109"/>
+      <c r="J22" s="106"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3807,18 +3826,18 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
+      <c r="A23" s="112"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
         <v>245</v>
       </c>
       <c r="F23" s="69"/>
-      <c r="G23" s="113"/>
+      <c r="G23" s="129"/>
       <c r="H23" s="72"/>
-      <c r="I23" s="114" t="s">
+      <c r="I23" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="J23" s="109"/>
+      <c r="J23" s="106"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3837,13 +3856,13 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
+      <c r="A24" s="112"/>
       <c r="C24" s="4"/>
       <c r="F24" s="69"/>
-      <c r="G24" s="113"/>
+      <c r="G24" s="129"/>
       <c r="H24" s="72"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="122"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3862,15 +3881,15 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
+      <c r="A25" s="112"/>
       <c r="C25" s="4"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="113"/>
+      <c r="G25" s="129"/>
       <c r="H25" s="72"/>
-      <c r="I25" s="114" t="s">
-        <v>530</v>
-      </c>
-      <c r="J25" s="109"/>
+      <c r="I25" s="105" t="s">
+        <v>525</v>
+      </c>
+      <c r="J25" s="106"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3889,15 +3908,15 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
+      <c r="A26" s="112"/>
       <c r="C26" s="4"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="113"/>
+      <c r="G26" s="129"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="114" t="s">
-        <v>518</v>
-      </c>
-      <c r="J26" s="109"/>
+      <c r="I26" s="105" t="s">
+        <v>578</v>
+      </c>
+      <c r="J26" s="106"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3914,14 +3933,14 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
+      <c r="A27" s="112"/>
       <c r="C27" s="4"/>
       <c r="F27" s="69"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="I27" s="109"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="105" t="s">
+        <v>579</v>
+      </c>
+      <c r="I27" s="106"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3938,10 +3957,10 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
+      <c r="A28" s="112"/>
       <c r="C28" s="4"/>
       <c r="F28" s="69"/>
-      <c r="G28" s="143"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="72"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -3985,7 +4004,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="118" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="12"/>
@@ -3996,13 +4015,13 @@
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J30" s="69" t="s">
         <v>30</v>
@@ -4023,21 +4042,21 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="119"/>
       <c r="C31" s="69" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F31" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="111" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I31" s="69" t="s">
         <v>33</v>
@@ -4061,22 +4080,22 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
+      <c r="A32" s="119"/>
       <c r="C32" s="69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="F32" s="111"/>
+        <v>274</v>
+      </c>
+      <c r="F32" s="112"/>
       <c r="G32" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>36</v>
@@ -4100,25 +4119,25 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
+      <c r="A33" s="119"/>
       <c r="C33" s="69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F33" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4136,24 +4155,24 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
+      <c r="A34" s="119"/>
       <c r="C34" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I34" s="93" t="s">
         <v>22</v>
@@ -4179,27 +4198,27 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
+      <c r="A35" s="119"/>
       <c r="C35" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F35" s="128" t="s">
-        <v>526</v>
+        <v>276</v>
+      </c>
+      <c r="F35" s="111" t="s">
+        <v>521</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I35" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -4219,22 +4238,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
+      <c r="A36" s="119"/>
       <c r="D36" s="69" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F36" s="111"/>
+        <v>277</v>
+      </c>
+      <c r="F36" s="112"/>
       <c r="G36" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4254,25 +4273,25 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
+      <c r="A37" s="119"/>
       <c r="C37" s="24"/>
       <c r="D37" s="69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G37" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" s="128" t="s">
+        <v>431</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" s="90" t="s">
         <v>435</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I37" s="90" t="s">
-        <v>439</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4292,22 +4311,22 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
+      <c r="A38" s="119"/>
       <c r="D38" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G38" s="113"/>
+        <v>418</v>
+      </c>
+      <c r="G38" s="129"/>
       <c r="H38" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I38" s="90" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
@@ -4327,20 +4346,20 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
+      <c r="A39" s="119"/>
       <c r="D39" s="69"/>
       <c r="E39" s="24" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G39" s="113"/>
+        <v>421</v>
+      </c>
+      <c r="G39" s="129"/>
       <c r="H39" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J39" s="72" t="s">
         <v>230</v>
@@ -4364,14 +4383,14 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
+      <c r="A40" s="119"/>
       <c r="E40" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>502</v>
-      </c>
-      <c r="G40" s="113"/>
+        <v>498</v>
+      </c>
+      <c r="G40" s="129"/>
       <c r="J40" s="72" t="s">
         <v>232</v>
       </c>
@@ -4394,18 +4413,18 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="119"/>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="G41" s="113"/>
+        <v>261</v>
+      </c>
+      <c r="G41" s="129"/>
       <c r="H41" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="72" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4426,16 +4445,16 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
+      <c r="A42" s="119"/>
       <c r="D42" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>280</v>
-      </c>
-      <c r="G42" s="113"/>
+        <v>279</v>
+      </c>
+      <c r="G42" s="129"/>
       <c r="H42" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="7"/>
@@ -4458,17 +4477,17 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
+      <c r="A43" s="119"/>
       <c r="D43" s="4" t="s">
         <v>238</v>
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" s="129"/>
+      <c r="J43" s="69" t="s">
         <v>281</v>
-      </c>
-      <c r="G43" s="113"/>
-      <c r="J43" s="69" t="s">
-        <v>282</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -4487,22 +4506,22 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="6"/>
       <c r="C44" s="91" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G44" s="113"/>
+      <c r="G44" s="129"/>
       <c r="H44" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I44" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="I44" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="109"/>
+      <c r="J44" s="106"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4520,23 +4539,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="106"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="109"/>
+      <c r="D45" s="106"/>
       <c r="F45" s="79" t="s">
-        <v>529</v>
-      </c>
-      <c r="G45" s="113"/>
+        <v>524</v>
+      </c>
+      <c r="G45" s="129"/>
       <c r="H45" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I45" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="I45" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="J45" s="109"/>
+      <c r="J45" s="106"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4554,20 +4573,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="115" t="s">
-        <v>542</v>
-      </c>
-      <c r="D46" s="116"/>
+      <c r="C46" s="109" t="s">
+        <v>537</v>
+      </c>
+      <c r="D46" s="110"/>
       <c r="E46" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="113"/>
-      <c r="I46" s="114" t="s">
+      <c r="G46" s="129"/>
+      <c r="I46" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="J46" s="109"/>
+      <c r="J46" s="106"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4585,20 +4604,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="D47" s="109"/>
+      <c r="D47" s="106"/>
       <c r="E47" s="94" t="s">
-        <v>395</v>
-      </c>
-      <c r="G47" s="113"/>
-      <c r="I47" s="114" t="s">
-        <v>520</v>
-      </c>
-      <c r="J47" s="109"/>
+        <v>391</v>
+      </c>
+      <c r="G47" s="129"/>
+      <c r="I47" s="105" t="s">
+        <v>515</v>
+      </c>
+      <c r="J47" s="106"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4616,20 +4635,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
-      <c r="C48" s="114" t="s">
-        <v>494</v>
-      </c>
-      <c r="D48" s="109"/>
+      <c r="A48" s="119"/>
+      <c r="C48" s="105" t="s">
+        <v>490</v>
+      </c>
+      <c r="D48" s="106"/>
       <c r="E48" s="94" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F48" s="69"/>
-      <c r="G48" s="113"/>
-      <c r="I48" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="J48" s="109"/>
+      <c r="G48" s="129"/>
+      <c r="I48" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="J48" s="106"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4647,21 +4666,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="131" t="s">
-        <v>531</v>
-      </c>
-      <c r="D49" s="132"/>
-      <c r="E49" s="114" t="s">
-        <v>468</v>
-      </c>
-      <c r="F49" s="109"/>
-      <c r="G49" s="113"/>
-      <c r="I49" s="114" t="s">
-        <v>252</v>
-      </c>
-      <c r="J49" s="109"/>
+      <c r="C49" s="145" t="s">
+        <v>526</v>
+      </c>
+      <c r="D49" s="146"/>
+      <c r="E49" s="105" t="s">
+        <v>464</v>
+      </c>
+      <c r="F49" s="106"/>
+      <c r="G49" s="129"/>
+      <c r="I49" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="J49" s="106"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4679,19 +4698,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
+      <c r="A50" s="119"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="114" t="s">
-        <v>495</v>
-      </c>
-      <c r="D50" s="109"/>
+      <c r="C50" s="105" t="s">
+        <v>491</v>
+      </c>
+      <c r="D50" s="106"/>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
-      <c r="G50" s="113"/>
-      <c r="I50" s="114" t="s">
-        <v>497</v>
-      </c>
-      <c r="J50" s="109"/>
+      <c r="G50" s="129"/>
+      <c r="I50" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="J50" s="106"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4709,15 +4728,15 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="106"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="114" t="s">
-        <v>516</v>
-      </c>
-      <c r="D51" s="109"/>
+      <c r="C51" s="105" t="s">
+        <v>512</v>
+      </c>
+      <c r="D51" s="106"/>
       <c r="E51" s="69"/>
       <c r="F51" s="69"/>
-      <c r="G51" s="113"/>
+      <c r="G51" s="129"/>
       <c r="I51" s="70"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4736,17 +4755,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="107"/>
-      <c r="C52" s="114" t="s">
+      <c r="A52" s="120"/>
+      <c r="C52" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="109"/>
+      <c r="D52" s="106"/>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
-      <c r="G52" s="113"/>
+      <c r="G52" s="129"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="132"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4770,7 +4789,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="113"/>
+      <c r="G53" s="129"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -4791,11 +4810,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="144" t="s">
+      <c r="A54" s="107" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="G54" s="113"/>
+      <c r="G54" s="129"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4813,8 +4832,8 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="145"/>
-      <c r="G55" s="113"/>
+      <c r="A55" s="108"/>
+      <c r="G55" s="129"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4832,7 +4851,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="145"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4858,18 +4877,18 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="145"/>
+      <c r="A57" s="108"/>
       <c r="D57" s="69" t="s">
         <v>46</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F57" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="112" t="s">
-        <v>435</v>
+      <c r="G57" s="128" t="s">
+        <v>431</v>
       </c>
       <c r="H57" s="28" t="s">
         <v>10</v>
@@ -4894,9 +4913,9 @@
       <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="145"/>
+      <c r="A58" s="108"/>
       <c r="C58" s="96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D58" s="69" t="s">
         <v>49</v>
@@ -4904,9 +4923,9 @@
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="113"/>
+      <c r="G58" s="129"/>
       <c r="H58" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I58" s="69" t="s">
         <v>51</v>
@@ -4931,28 +4950,28 @@
       <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="145"/>
+      <c r="A59" s="108"/>
       <c r="C59" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="G59" s="113"/>
+        <v>343</v>
+      </c>
+      <c r="G59" s="129"/>
       <c r="H59" s="23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K59" s="80"/>
       <c r="L59" s="80"/>
@@ -4973,9 +4992,9 @@
       <c r="AA59" s="81"/>
     </row>
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="145"/>
+      <c r="A60" s="108"/>
       <c r="C60" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D60" s="69" t="s">
         <v>32</v>
@@ -4984,15 +5003,15 @@
       <c r="F60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="113"/>
+      <c r="G60" s="129"/>
       <c r="H60" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I60" s="69" t="s">
         <v>42</v>
       </c>
       <c r="J60" s="93" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K60" s="80"/>
       <c r="L60" s="80"/>
@@ -5013,25 +5032,25 @@
       <c r="AA60" s="81"/>
     </row>
     <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="145"/>
+      <c r="A61" s="108"/>
       <c r="C61" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E61" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G61" s="113"/>
-      <c r="H61" s="23" t="s">
-        <v>371</v>
+      <c r="G61" s="129"/>
+      <c r="H61" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="I61" s="93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J61" s="24" t="s">
         <v>53</v>
@@ -5055,28 +5074,28 @@
       <c r="AA61" s="81"/>
     </row>
     <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="145"/>
+      <c r="A62" s="108"/>
       <c r="C62" s="23" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F62" s="89" t="s">
-        <v>539</v>
-      </c>
-      <c r="G62" s="113"/>
+        <v>534</v>
+      </c>
+      <c r="G62" s="129"/>
       <c r="H62" s="23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K62" s="80"/>
       <c r="L62" s="80"/>
@@ -5097,23 +5116,23 @@
       <c r="AA62" s="81"/>
     </row>
     <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="145"/>
+      <c r="A63" s="108"/>
       <c r="C63" s="23" t="s">
         <v>240</v>
       </c>
       <c r="D63" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="113"/>
+      <c r="G63" s="129"/>
       <c r="H63" s="23" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K63" s="80"/>
       <c r="L63" s="80"/>
@@ -5134,22 +5153,22 @@
       <c r="AA63" s="81"/>
     </row>
     <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="145"/>
+      <c r="A64" s="108"/>
       <c r="C64" s="96" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>342</v>
-      </c>
-      <c r="G64" s="113"/>
+        <v>341</v>
+      </c>
+      <c r="G64" s="129"/>
       <c r="H64" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K64" s="80"/>
       <c r="L64" s="80"/>
@@ -5170,7 +5189,7 @@
       <c r="AA64" s="81"/>
     </row>
     <row r="65" spans="1:27" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="145"/>
+      <c r="A65" s="108"/>
       <c r="D65" s="23" t="s">
         <v>39</v>
       </c>
@@ -5178,11 +5197,11 @@
         <v>25</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="G65" s="113"/>
+        <v>558</v>
+      </c>
+      <c r="G65" s="129"/>
       <c r="H65" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I65" s="23"/>
       <c r="K65" s="80"/>
@@ -5204,24 +5223,24 @@
       <c r="AA65" s="81"/>
     </row>
     <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="145"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="82"/>
       <c r="C66" s="97" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="G66" s="113"/>
+        <v>557</v>
+      </c>
+      <c r="G66" s="129"/>
       <c r="H66" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K66" s="80"/>
       <c r="L66" s="80"/>
@@ -5242,25 +5261,25 @@
       <c r="AA66" s="81"/>
     </row>
     <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="145"/>
+      <c r="A67" s="108"/>
       <c r="C67" s="96" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="G67" s="113"/>
+        <v>559</v>
+      </c>
+      <c r="G67" s="129"/>
       <c r="H67" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I67" s="69" t="s">
         <v>45</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K67" s="80"/>
       <c r="L67" s="80"/>
@@ -5281,25 +5300,25 @@
       <c r="AA67" s="81"/>
     </row>
     <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="145"/>
+      <c r="A68" s="108"/>
       <c r="C68" s="91" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>414</v>
-      </c>
-      <c r="G68" s="113"/>
+        <v>410</v>
+      </c>
+      <c r="G68" s="129"/>
       <c r="H68" s="23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="J68" s="98" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K68" s="80"/>
       <c r="L68" s="80"/>
@@ -5320,15 +5339,15 @@
       <c r="AA68" s="81"/>
     </row>
     <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="145"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="83"/>
-      <c r="C69" s="146" t="s">
+      <c r="C69" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="147"/>
+      <c r="D69" s="117"/>
       <c r="G69" s="69"/>
       <c r="H69" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -5347,22 +5366,22 @@
       <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="145"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="83"/>
-      <c r="C70" s="114" t="s">
+      <c r="C70" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="109"/>
-      <c r="G70" s="117" t="s">
-        <v>509</v>
+      <c r="D70" s="106"/>
+      <c r="G70" s="148" t="s">
+        <v>505</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="I70" s="114" t="s">
+        <v>373</v>
+      </c>
+      <c r="I70" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="J70" s="109"/>
+      <c r="J70" s="106"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -5380,24 +5399,24 @@
       <c r="Y70" s="13"/>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="145"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="83"/>
-      <c r="C71" s="114" t="s">
+      <c r="C71" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="109"/>
-      <c r="E71" s="114" t="s">
-        <v>475</v>
-      </c>
-      <c r="F71" s="109"/>
-      <c r="G71" s="118"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="105" t="s">
+        <v>471</v>
+      </c>
+      <c r="F71" s="106"/>
+      <c r="G71" s="149"/>
       <c r="H71" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="I71" s="114" t="s">
+        <v>433</v>
+      </c>
+      <c r="I71" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="J71" s="109"/>
+      <c r="J71" s="106"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
@@ -5415,26 +5434,26 @@
       <c r="Y71" s="13"/>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="145"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="83"/>
-      <c r="C72" s="115" t="s">
-        <v>545</v>
-      </c>
-      <c r="D72" s="116"/>
-      <c r="E72" s="114" t="s">
+      <c r="C72" s="109" t="s">
+        <v>540</v>
+      </c>
+      <c r="D72" s="110"/>
+      <c r="E72" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="109"/>
+      <c r="F72" s="106"/>
       <c r="G72" s="104" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I72" s="114" t="s">
+        <v>388</v>
+      </c>
+      <c r="I72" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="J72" s="109"/>
+      <c r="J72" s="106"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
@@ -5452,24 +5471,24 @@
       <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="145"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="114" t="s">
+      <c r="C73" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="D73" s="109"/>
-      <c r="E73" s="114" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" s="109"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="106"/>
       <c r="G73" s="69"/>
       <c r="H73" s="84" t="s">
-        <v>532</v>
-      </c>
-      <c r="I73" s="114" t="s">
-        <v>521</v>
-      </c>
-      <c r="J73" s="109"/>
+        <v>527</v>
+      </c>
+      <c r="I73" s="105" t="s">
+        <v>516</v>
+      </c>
+      <c r="J73" s="106"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5487,16 +5506,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="145"/>
-      <c r="E74" s="114" t="s">
-        <v>517</v>
-      </c>
-      <c r="F74" s="109"/>
+      <c r="A74" s="108"/>
+      <c r="E74" s="105" t="s">
+        <v>513</v>
+      </c>
+      <c r="F74" s="106"/>
       <c r="G74" s="69"/>
-      <c r="I74" s="114" t="s">
+      <c r="I74" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="J74" s="109"/>
+      <c r="J74" s="106"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5514,19 +5533,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="145"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="109"/>
-      <c r="E75" s="119" t="s">
+      <c r="C75" s="105"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="121" t="s">
         <v>249</v>
       </c>
-      <c r="F75" s="120"/>
+      <c r="F75" s="122"/>
       <c r="G75" s="69"/>
-      <c r="I75" s="108" t="s">
-        <v>463</v>
-      </c>
-      <c r="J75" s="109"/>
+      <c r="I75" s="136" t="s">
+        <v>459</v>
+      </c>
+      <c r="J75" s="106"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5544,17 +5563,17 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="145"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="6"/>
       <c r="C76" s="70"/>
       <c r="D76" s="71"/>
-      <c r="E76" s="114" t="s">
-        <v>442</v>
-      </c>
-      <c r="F76" s="109"/>
+      <c r="E76" s="105" t="s">
+        <v>438</v>
+      </c>
+      <c r="F76" s="106"/>
       <c r="G76" s="69"/>
       <c r="J76" s="92" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5599,27 +5618,27 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="105" t="s">
+      <c r="A78" s="118" t="s">
         <v>55</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>364</v>
+        <v>580</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="110" t="s">
-        <v>434</v>
+      <c r="G78" s="147" t="s">
+        <v>430</v>
       </c>
       <c r="H78" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="69" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -5640,9 +5659,9 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="106"/>
+      <c r="A79" s="119"/>
       <c r="C79" s="85" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D79" s="69" t="s">
         <v>58</v>
@@ -5651,11 +5670,11 @@
         <v>19</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="G79" s="111"/>
+        <v>346</v>
+      </c>
+      <c r="G79" s="112"/>
       <c r="H79" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I79" s="69" t="s">
         <v>33</v>
@@ -5679,7 +5698,7 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="106"/>
+      <c r="A80" s="119"/>
       <c r="C80" s="2" t="s">
         <v>62</v>
       </c>
@@ -5692,9 +5711,9 @@
       <c r="F80" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="111"/>
+      <c r="G80" s="112"/>
       <c r="H80" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>59</v>
@@ -5719,25 +5738,25 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="106"/>
+      <c r="A81" s="119"/>
       <c r="C81" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G81" s="111"/>
+        <v>297</v>
+      </c>
+      <c r="G81" s="112"/>
       <c r="H81" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I81" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5756,25 +5775,25 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
+      <c r="A82" s="119"/>
       <c r="C82" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E82" s="96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F82" s="93" t="s">
-        <v>294</v>
-      </c>
-      <c r="G82" s="111"/>
+        <v>293</v>
+      </c>
+      <c r="G82" s="112"/>
       <c r="H82" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5792,22 +5811,22 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
+      <c r="A83" s="119"/>
       <c r="D83" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E83" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G83" s="111"/>
+      <c r="G83" s="112"/>
       <c r="H83" s="4" t="s">
-        <v>385</v>
+        <v>577</v>
       </c>
       <c r="I83" s="93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J83" s="69" t="s">
         <v>20</v>
@@ -5829,28 +5848,28 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
+      <c r="A84" s="119"/>
       <c r="C84" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G84" s="111"/>
+        <v>300</v>
+      </c>
+      <c r="G84" s="112"/>
       <c r="H84" s="73" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I84" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J84" s="69" t="s">
         <v>303</v>
-      </c>
-      <c r="J84" s="69" t="s">
-        <v>304</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -5869,28 +5888,28 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
+      <c r="A85" s="119"/>
       <c r="C85" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G85" s="111"/>
+        <v>301</v>
+      </c>
+      <c r="G85" s="112"/>
       <c r="H85" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5909,25 +5928,25 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
+      <c r="A86" s="119"/>
       <c r="C86" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E86" s="90" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G86" s="111"/>
+        <v>552</v>
+      </c>
+      <c r="G86" s="112"/>
       <c r="H86" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K86" s="31"/>
       <c r="L86" s="31"/>
@@ -5948,22 +5967,22 @@
       <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106"/>
+      <c r="A87" s="119"/>
       <c r="E87" s="73" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G87" s="111"/>
+        <v>400</v>
+      </c>
+      <c r="G87" s="112"/>
       <c r="H87" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L87" s="31"/>
       <c r="M87" s="31"/>
@@ -5983,17 +6002,17 @@
       <c r="AA87" s="31"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="106"/>
+      <c r="A88" s="119"/>
       <c r="C88" s="2"/>
       <c r="E88" s="90" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G88" s="111"/>
+      <c r="G88" s="112"/>
       <c r="H88" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -6013,19 +6032,19 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
+      <c r="A89" s="119"/>
       <c r="B89" s="29"/>
       <c r="G89" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I89" s="73" t="s">
         <v>231</v>
       </c>
       <c r="J89" s="69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -6045,19 +6064,19 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="C90" s="108" t="s">
-        <v>515</v>
-      </c>
-      <c r="D90" s="109"/>
+      <c r="A90" s="119"/>
+      <c r="C90" s="136" t="s">
+        <v>511</v>
+      </c>
+      <c r="D90" s="106"/>
       <c r="G90" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I90" s="90" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6078,16 +6097,16 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="C91" s="108" t="s">
-        <v>253</v>
-      </c>
-      <c r="D91" s="129"/>
+      <c r="A91" s="119"/>
+      <c r="C91" s="136" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="144"/>
       <c r="H91" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I91" s="73" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -6108,11 +6127,11 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="106"/>
+      <c r="A92" s="119"/>
       <c r="E92" s="61"/>
       <c r="G92" s="32"/>
       <c r="H92" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J92" s="69"/>
       <c r="K92" s="16"/>
@@ -6134,13 +6153,13 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="106"/>
+      <c r="A93" s="119"/>
       <c r="C93" s="86" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="78" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J93" s="69"/>
       <c r="K93" s="9"/>
@@ -6160,22 +6179,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
+      <c r="A94" s="119"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="114" t="s">
+      <c r="C94" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="D94" s="109"/>
-      <c r="E94" s="114" t="s">
+      <c r="D94" s="106"/>
+      <c r="E94" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="F94" s="109"/>
+      <c r="F94" s="106"/>
       <c r="G94" s="32"/>
       <c r="H94" s="69"/>
-      <c r="I94" s="114" t="s">
+      <c r="I94" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="J94" s="109"/>
+      <c r="J94" s="106"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -6193,22 +6212,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
+      <c r="A95" s="119"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="114" t="s">
-        <v>473</v>
-      </c>
-      <c r="D95" s="109"/>
-      <c r="E95" s="114" t="s">
+      <c r="C95" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D95" s="106"/>
+      <c r="E95" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="F95" s="109"/>
+      <c r="F95" s="106"/>
       <c r="G95" s="32"/>
       <c r="H95" s="69"/>
-      <c r="I95" s="114" t="s">
+      <c r="I95" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="J95" s="109"/>
+      <c r="J95" s="106"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -6226,21 +6245,21 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
+      <c r="A96" s="119"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="114" t="s">
+      <c r="C96" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="D96" s="109"/>
-      <c r="E96" s="137" t="s">
-        <v>570</v>
-      </c>
-      <c r="F96" s="111"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="113" t="s">
+        <v>565</v>
+      </c>
+      <c r="F96" s="112"/>
       <c r="G96" s="32"/>
-      <c r="H96" s="114" t="s">
-        <v>580</v>
-      </c>
-      <c r="I96" s="109"/>
+      <c r="H96" s="105" t="s">
+        <v>575</v>
+      </c>
+      <c r="I96" s="106"/>
       <c r="J96" s="61"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6259,22 +6278,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="106"/>
+      <c r="A97" s="119"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="114" t="s">
-        <v>519</v>
-      </c>
-      <c r="D97" s="109"/>
-      <c r="E97" s="137" t="s">
-        <v>569</v>
-      </c>
-      <c r="F97" s="111"/>
+      <c r="C97" s="105" t="s">
+        <v>514</v>
+      </c>
+      <c r="D97" s="106"/>
+      <c r="E97" s="113" t="s">
+        <v>564</v>
+      </c>
+      <c r="F97" s="112"/>
       <c r="G97" s="32"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="108" t="s">
-        <v>550</v>
-      </c>
-      <c r="J97" s="109"/>
+      <c r="I97" s="136" t="s">
+        <v>545</v>
+      </c>
+      <c r="J97" s="106"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6292,20 +6311,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="106"/>
+      <c r="A98" s="119"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="114" t="s">
+      <c r="C98" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="D98" s="109"/>
-      <c r="E98" s="137" t="s">
+      <c r="D98" s="106"/>
+      <c r="E98" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="111"/>
+      <c r="F98" s="112"/>
       <c r="G98" s="32"/>
       <c r="H98" s="75"/>
-      <c r="I98" s="123"/>
-      <c r="J98" s="124"/>
+      <c r="I98" s="131"/>
+      <c r="J98" s="132"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6323,16 +6342,16 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="106"/>
+      <c r="A99" s="119"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="119" t="s">
+      <c r="C99" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="120"/>
-      <c r="E99" s="119" t="s">
-        <v>416</v>
-      </c>
-      <c r="F99" s="120"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="121" t="s">
+        <v>412</v>
+      </c>
+      <c r="F99" s="122"/>
       <c r="G99" s="32"/>
       <c r="H99" s="75"/>
       <c r="J99" s="75"/>
@@ -6353,14 +6372,14 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="106"/>
+      <c r="A100" s="119"/>
       <c r="B100" s="6"/>
       <c r="C100" s="70"/>
       <c r="D100" s="71"/>
-      <c r="E100" s="114" t="s">
-        <v>498</v>
-      </c>
-      <c r="F100" s="109"/>
+      <c r="E100" s="105" t="s">
+        <v>494</v>
+      </c>
+      <c r="F100" s="106"/>
       <c r="G100" s="32"/>
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
@@ -6382,14 +6401,14 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="106"/>
+      <c r="A101" s="119"/>
       <c r="B101" s="6"/>
       <c r="C101" s="70"/>
       <c r="D101" s="71"/>
-      <c r="E101" s="130" t="s">
+      <c r="E101" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="130"/>
+      <c r="F101" s="134"/>
       <c r="G101" s="32"/>
       <c r="H101" s="75"/>
       <c r="J101" s="75"/>
@@ -6410,12 +6429,12 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="107"/>
+      <c r="A102" s="120"/>
       <c r="B102" s="6"/>
       <c r="C102" s="70"/>
       <c r="D102" s="71"/>
-      <c r="E102" s="114"/>
-      <c r="F102" s="109"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="106"/>
       <c r="G102" s="32"/>
       <c r="H102" s="75"/>
       <c r="J102" s="75"/>
@@ -6489,24 +6508,24 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="142" t="s">
+      <c r="A105" s="115" t="s">
         <v>65</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D105" s="69" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F105" s="89" t="s">
-        <v>539</v>
-      </c>
-      <c r="G105" s="121" t="s">
-        <v>553</v>
+        <v>534</v>
+      </c>
+      <c r="G105" s="139" t="s">
+        <v>548</v>
       </c>
       <c r="H105" s="34" t="s">
         <v>66</v>
@@ -6534,9 +6553,9 @@
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="111"/>
+      <c r="A106" s="112"/>
       <c r="C106" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D106" s="69" t="s">
         <v>19</v>
@@ -6547,10 +6566,10 @@
       <c r="F106" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="122"/>
+      <c r="G106" s="140"/>
       <c r="H106" s="34"/>
       <c r="I106" s="23" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J106" s="69" t="s">
         <v>68</v>
@@ -6572,24 +6591,24 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="111"/>
+      <c r="A107" s="112"/>
       <c r="C107" s="69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D107" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F107" s="69" t="s">
         <v>50</v>
       </c>
       <c r="G107" s="104" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>35</v>
@@ -6614,27 +6633,27 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="111"/>
+      <c r="A108" s="112"/>
       <c r="C108" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D108" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D108" s="15" t="s">
-        <v>353</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="112" t="s">
-        <v>435</v>
+      <c r="G108" s="128" t="s">
+        <v>431</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I108" s="101" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="J108" s="69" t="s">
         <v>38</v>
@@ -6656,22 +6675,22 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="111"/>
+      <c r="A109" s="112"/>
       <c r="D109" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G109" s="129"/>
+      <c r="H109" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G109" s="113"/>
-      <c r="H109" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="J109" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -6690,17 +6709,17 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="111"/>
+      <c r="A110" s="112"/>
       <c r="D110" s="93" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="113"/>
+      <c r="G110" s="129"/>
       <c r="I110" s="69"/>
       <c r="J110" s="69"/>
       <c r="K110" s="16"/>
@@ -6722,14 +6741,14 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="111"/>
+      <c r="A111" s="112"/>
       <c r="D111" s="93" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F111" s="69" t="s">
-        <v>556</v>
-      </c>
-      <c r="G111" s="113"/>
+        <v>551</v>
+      </c>
+      <c r="G111" s="129"/>
       <c r="H111" s="36"/>
       <c r="I111" s="4" t="s">
         <v>233</v>
@@ -6754,11 +6773,11 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="111"/>
+      <c r="A112" s="112"/>
       <c r="D112" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="G112" s="113"/>
+        <v>354</v>
+      </c>
+      <c r="G112" s="129"/>
       <c r="H112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6780,12 +6799,12 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="111"/>
+      <c r="A113" s="112"/>
       <c r="C113" s="69"/>
       <c r="E113" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="G113" s="113"/>
+        <v>404</v>
+      </c>
+      <c r="G113" s="129"/>
       <c r="H113" s="34"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6807,11 +6826,11 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="111"/>
+      <c r="A114" s="112"/>
       <c r="E114" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="G114" s="113"/>
+        <v>562</v>
+      </c>
+      <c r="G114" s="129"/>
       <c r="H114" s="36"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6832,15 +6851,15 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="111"/>
+      <c r="A115" s="112"/>
       <c r="D115" s="69"/>
       <c r="E115" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G115" s="113"/>
+        <v>446</v>
+      </c>
+      <c r="G115" s="129"/>
       <c r="H115" s="36"/>
       <c r="J115" s="69"/>
       <c r="K115" s="16"/>
@@ -6862,11 +6881,11 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="111"/>
+      <c r="A116" s="112"/>
       <c r="E116" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="G116" s="113"/>
+        <v>563</v>
+      </c>
+      <c r="G116" s="129"/>
       <c r="H116" s="69" t="s">
         <v>32</v>
       </c>
@@ -6889,22 +6908,22 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="111"/>
+      <c r="A117" s="112"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="114"/>
-      <c r="D117" s="109"/>
-      <c r="E117" s="114" t="s">
+      <c r="C117" s="105"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="F117" s="109"/>
-      <c r="G117" s="113"/>
+      <c r="F117" s="106"/>
+      <c r="G117" s="129"/>
       <c r="H117" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I117" s="114" t="s">
+      <c r="I117" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="J117" s="109"/>
+      <c r="J117" s="106"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -6924,15 +6943,15 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="111"/>
+      <c r="A118" s="112"/>
       <c r="C118" s="86" t="s">
-        <v>536</v>
-      </c>
-      <c r="G118" s="113"/>
-      <c r="H118" s="125" t="s">
-        <v>471</v>
-      </c>
-      <c r="I118" s="126"/>
+        <v>531</v>
+      </c>
+      <c r="G118" s="129"/>
+      <c r="H118" s="141" t="s">
+        <v>467</v>
+      </c>
+      <c r="I118" s="142"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -6952,21 +6971,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="111"/>
+      <c r="A119" s="112"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="114" t="s">
-        <v>470</v>
-      </c>
-      <c r="D119" s="109"/>
-      <c r="E119" s="114" t="s">
+      <c r="C119" s="105" t="s">
+        <v>466</v>
+      </c>
+      <c r="D119" s="106"/>
+      <c r="E119" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="F119" s="109"/>
-      <c r="G119" s="113"/>
-      <c r="I119" s="114" t="s">
+      <c r="F119" s="106"/>
+      <c r="G119" s="129"/>
+      <c r="I119" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="J119" s="109"/>
+      <c r="J119" s="106"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -6986,22 +7005,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="111"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="114" t="s">
-        <v>476</v>
-      </c>
-      <c r="D120" s="109"/>
-      <c r="E120" s="119" t="s">
-        <v>423</v>
-      </c>
-      <c r="F120" s="120"/>
+      <c r="C120" s="105" t="s">
+        <v>472</v>
+      </c>
+      <c r="D120" s="106"/>
+      <c r="E120" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="F120" s="122"/>
       <c r="G120" s="35"/>
       <c r="H120" s="36"/>
-      <c r="I120" s="114" t="s">
+      <c r="I120" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="J120" s="109"/>
+      <c r="J120" s="106"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -7021,22 +7040,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="111"/>
+      <c r="A121" s="112"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="114" t="s">
-        <v>472</v>
-      </c>
-      <c r="D121" s="109"/>
-      <c r="E121" s="108" t="s">
-        <v>552</v>
-      </c>
-      <c r="F121" s="109"/>
+      <c r="C121" s="105" t="s">
+        <v>468</v>
+      </c>
+      <c r="D121" s="106"/>
+      <c r="E121" s="136" t="s">
+        <v>547</v>
+      </c>
+      <c r="F121" s="106"/>
       <c r="G121" s="35"/>
       <c r="H121" s="36"/>
-      <c r="I121" s="114" t="s">
+      <c r="I121" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="J121" s="109"/>
+      <c r="J121" s="106"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -7056,16 +7075,16 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="111"/>
+      <c r="A122" s="112"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="114" t="s">
+      <c r="C122" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="D122" s="109"/>
-      <c r="E122" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="F122" s="109"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="105" t="s">
+        <v>439</v>
+      </c>
+      <c r="F122" s="106"/>
       <c r="G122" s="35"/>
       <c r="H122" s="36"/>
       <c r="K122" s="16"/>
@@ -7087,22 +7106,22 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="111"/>
+      <c r="A123" s="112"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="114" t="s">
+      <c r="C123" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="D123" s="109"/>
-      <c r="E123" s="130" t="s">
-        <v>479</v>
-      </c>
-      <c r="F123" s="111"/>
+      <c r="D123" s="106"/>
+      <c r="E123" s="134" t="s">
+        <v>475</v>
+      </c>
+      <c r="F123" s="112"/>
       <c r="G123" s="35"/>
       <c r="H123" s="36"/>
-      <c r="I123" s="108" t="s">
-        <v>478</v>
-      </c>
-      <c r="J123" s="109"/>
+      <c r="I123" s="136" t="s">
+        <v>474</v>
+      </c>
+      <c r="J123" s="106"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7122,20 +7141,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="111"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="108" t="s">
-        <v>551</v>
-      </c>
-      <c r="D124" s="109"/>
+      <c r="C124" s="136" t="s">
+        <v>546</v>
+      </c>
+      <c r="D124" s="106"/>
       <c r="G124" s="35"/>
       <c r="H124" s="90" t="s">
-        <v>438</v>
-      </c>
-      <c r="I124" s="108" t="s">
-        <v>451</v>
-      </c>
-      <c r="J124" s="109"/>
+        <v>434</v>
+      </c>
+      <c r="I124" s="136" t="s">
+        <v>447</v>
+      </c>
+      <c r="J124" s="106"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7155,16 +7174,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="111"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="114"/>
-      <c r="D125" s="109"/>
+      <c r="C125" s="105"/>
+      <c r="D125" s="106"/>
       <c r="G125" s="35"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="127" t="s">
-        <v>499</v>
-      </c>
-      <c r="J125" s="124"/>
+      <c r="I125" s="143" t="s">
+        <v>495</v>
+      </c>
+      <c r="J125" s="132"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7184,10 +7203,10 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="111"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="114"/>
-      <c r="D126" s="109"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="106"/>
       <c r="G126" s="35"/>
       <c r="H126" s="36"/>
       <c r="K126" s="16"/>
@@ -7209,7 +7228,7 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="111"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="6"/>
       <c r="C127" s="70"/>
       <c r="D127" s="71"/>
@@ -7287,12 +7306,12 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="105" t="s">
+      <c r="A130" s="118" t="s">
         <v>73</v>
       </c>
       <c r="B130" s="74"/>
       <c r="C130" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>74</v>
@@ -7324,9 +7343,9 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="106"/>
+      <c r="A131" s="119"/>
       <c r="C131" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>77</v>
@@ -7335,8 +7354,8 @@
         <v>67</v>
       </c>
       <c r="H131" s="11"/>
-      <c r="I131" s="138"/>
-      <c r="J131" s="111"/>
+      <c r="I131" s="135"/>
+      <c r="J131" s="112"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7354,15 +7373,15 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="106"/>
+      <c r="A132" s="119"/>
       <c r="C132" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D132" s="79" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F132" s="89" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="41"/>
@@ -7384,15 +7403,15 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="106"/>
+      <c r="A133" s="119"/>
       <c r="C133" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D133" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7414,12 +7433,12 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="106"/>
+      <c r="A134" s="119"/>
       <c r="C134" s="15" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>64</v>
@@ -7444,15 +7463,15 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="106"/>
+      <c r="A135" s="119"/>
       <c r="C135" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I135" s="42"/>
       <c r="J135" s="75"/>
@@ -7473,15 +7492,15 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="106"/>
+      <c r="A136" s="119"/>
       <c r="C136" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E136" s="93" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="43"/>
@@ -7503,15 +7522,15 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="106"/>
-      <c r="C137" s="128" t="s">
-        <v>560</v>
+      <c r="A137" s="119"/>
+      <c r="C137" s="111" t="s">
+        <v>555</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E137" s="94" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G137" s="2"/>
       <c r="I137" s="43"/>
@@ -7533,15 +7552,15 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="106"/>
-      <c r="C138" s="111"/>
+      <c r="A138" s="119"/>
+      <c r="C138" s="112"/>
       <c r="D138" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E138" s="114" t="s">
+        <v>330</v>
+      </c>
+      <c r="E138" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="F138" s="109"/>
+      <c r="F138" s="106"/>
       <c r="G138" s="2"/>
       <c r="H138" s="43"/>
       <c r="I138" s="43"/>
@@ -7563,14 +7582,14 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="106"/>
+      <c r="A139" s="119"/>
       <c r="C139" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F139" s="137" t="s">
-        <v>505</v>
-      </c>
-      <c r="G139" s="111"/>
+      <c r="F139" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="G139" s="112"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
       <c r="J139" s="11"/>
@@ -7591,14 +7610,14 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="106"/>
+      <c r="A140" s="119"/>
       <c r="C140" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F140" s="133" t="s">
+      <c r="F140" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="G140" s="111"/>
+      <c r="G140" s="112"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
       <c r="J140" s="11"/>
@@ -7619,15 +7638,15 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="106"/>
+      <c r="A141" s="119"/>
       <c r="C141" s="99" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E141" s="61"/>
-      <c r="F141" s="133" t="s">
+      <c r="F141" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="G141" s="111"/>
+      <c r="G141" s="112"/>
       <c r="H141" s="43"/>
       <c r="I141" s="43"/>
       <c r="J141" s="11"/>
@@ -7648,9 +7667,9 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="106"/>
+      <c r="A142" s="119"/>
       <c r="E142" s="86" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="43"/>
@@ -7673,12 +7692,12 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="106"/>
+      <c r="A143" s="119"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="114" t="s">
+      <c r="D143" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="E143" s="109"/>
+      <c r="E143" s="106"/>
       <c r="H143" s="43"/>
       <c r="I143" s="43"/>
       <c r="J143" s="11"/>
@@ -7699,16 +7718,16 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="106"/>
+      <c r="A144" s="119"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="114" t="s">
+      <c r="D144" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="E144" s="109"/>
-      <c r="F144" s="119" t="s">
+      <c r="E144" s="106"/>
+      <c r="F144" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="G144" s="120"/>
+      <c r="G144" s="122"/>
       <c r="H144" s="43"/>
       <c r="I144" s="43"/>
       <c r="J144" s="11"/>
@@ -7729,16 +7748,16 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="106"/>
+      <c r="A145" s="119"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="134" t="s">
+      <c r="D145" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="E145" s="135"/>
-      <c r="F145" s="119" t="s">
-        <v>426</v>
-      </c>
-      <c r="G145" s="120"/>
+      <c r="E145" s="138"/>
+      <c r="F145" s="121" t="s">
+        <v>422</v>
+      </c>
+      <c r="G145" s="122"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
       <c r="J145" s="11"/>
@@ -7759,16 +7778,16 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="106"/>
+      <c r="A146" s="119"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="114" t="s">
+      <c r="D146" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="E146" s="109"/>
-      <c r="F146" s="148" t="s">
-        <v>501</v>
-      </c>
-      <c r="G146" s="149"/>
+      <c r="E146" s="106"/>
+      <c r="F146" s="123" t="s">
+        <v>497</v>
+      </c>
+      <c r="G146" s="124"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
       <c r="J146" s="11"/>
@@ -7789,12 +7808,12 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="106"/>
+      <c r="A147" s="119"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="114" t="s">
+      <c r="D147" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="E147" s="109"/>
+      <c r="E147" s="106"/>
       <c r="H147" s="43"/>
       <c r="I147" s="43"/>
       <c r="J147" s="11"/>
@@ -7815,12 +7834,12 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="106"/>
+      <c r="A148" s="119"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="115" t="s">
-        <v>500</v>
-      </c>
-      <c r="E148" s="116"/>
+      <c r="D148" s="109" t="s">
+        <v>496</v>
+      </c>
+      <c r="E148" s="110"/>
       <c r="H148" s="43"/>
       <c r="I148" s="43"/>
       <c r="J148" s="11"/>
@@ -7841,12 +7860,12 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="106"/>
+      <c r="A149" s="119"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="137" t="s">
-        <v>572</v>
-      </c>
-      <c r="E149" s="111"/>
+      <c r="D149" s="113" t="s">
+        <v>567</v>
+      </c>
+      <c r="E149" s="112"/>
       <c r="F149" s="2"/>
       <c r="G149" s="35"/>
       <c r="H149" s="11"/>
@@ -7869,12 +7888,12 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="106"/>
+      <c r="A150" s="119"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="137" t="s">
-        <v>571</v>
-      </c>
-      <c r="E150" s="111"/>
+      <c r="D150" s="113" t="s">
+        <v>566</v>
+      </c>
+      <c r="E150" s="112"/>
       <c r="F150" s="2"/>
       <c r="G150" s="32"/>
       <c r="H150" s="11"/>
@@ -7897,12 +7916,12 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="106"/>
+      <c r="A151" s="119"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="137" t="s">
+      <c r="D151" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="E151" s="111"/>
+      <c r="E151" s="112"/>
       <c r="F151" s="2"/>
       <c r="G151" s="32"/>
       <c r="H151" s="11"/>
@@ -7925,12 +7944,12 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="107"/>
+      <c r="A152" s="120"/>
       <c r="C152" s="2"/>
-      <c r="E152" s="114" t="s">
-        <v>528</v>
-      </c>
-      <c r="F152" s="109"/>
+      <c r="E152" s="105" t="s">
+        <v>523</v>
+      </c>
+      <c r="F152" s="106"/>
       <c r="G152" s="32"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -8424,7 +8443,7 @@
         <v>148</v>
       </c>
       <c r="H166" s="59" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I166" s="59" t="s">
         <v>149</v>
@@ -8764,10 +8783,10 @@
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="58" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H175" s="58" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I175" s="58" t="s">
         <v>173</v>
@@ -8797,10 +8816,10 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="58" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H176" s="58" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I176" s="58" t="s">
         <v>174</v>
@@ -9239,7 +9258,7 @@
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
       <c r="E192" s="58"/>
-      <c r="F192" s="136"/>
+      <c r="F192" s="133"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9263,7 +9282,7 @@
       <c r="C193" s="58"/>
       <c r="D193" s="58"/>
       <c r="E193" s="58"/>
-      <c r="F193" s="111"/>
+      <c r="F193" s="112"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -9314,7 +9333,7 @@
       <c r="C195" s="58"/>
       <c r="D195" s="58"/>
       <c r="E195" s="58"/>
-      <c r="F195" s="136"/>
+      <c r="F195" s="133"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9341,7 +9360,7 @@
       <c r="C196" s="58"/>
       <c r="D196" s="58"/>
       <c r="E196" s="58"/>
-      <c r="F196" s="111"/>
+      <c r="F196" s="112"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -12915,6 +12934,114 @@
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="A130:A152"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="G78:G88"/>
+    <mergeCell ref="G37:G55"/>
+    <mergeCell ref="G57:G68"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G108:G119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A30:A52"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
     <mergeCell ref="E152:F152"/>
     <mergeCell ref="A54:A76"/>
     <mergeCell ref="D148:E148"/>
@@ -12939,114 +13066,6 @@
     <mergeCell ref="E119:F119"/>
     <mergeCell ref="F145:G145"/>
     <mergeCell ref="F146:G146"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G5:G28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A30:A52"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G108:G119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A130:A152"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="G78:G88"/>
-    <mergeCell ref="G37:G55"/>
-    <mergeCell ref="G57:G68"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="E76:F76"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\TT_27 jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323F501-85CB-408D-B8C8-A9446183B1D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DFC6E4-FBED-42A9-A258-2FE1B9972DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="579">
   <si>
     <t>B.Tech IV SEMESTER-EVEN SEM 2026</t>
   </si>
@@ -862,15 +862,9 @@
     <t>PB1,B2(25B16CS211)-CL21,22,23/BS,PAG,SMS</t>
   </si>
   <si>
-    <t>PB5,B6(CS222)-CL05,06/SYN,SUD,NIY</t>
-  </si>
-  <si>
     <t>PB10 (CS221) – CL07/AMT,SHV</t>
   </si>
   <si>
-    <t>PB1,B2(CS224)-CL02,03/TAJ,ATI,SHG</t>
-  </si>
-  <si>
     <t>PB11,B12(CS224)-CL11,12/ALK,AMT,TAJ</t>
   </si>
   <si>
@@ -886,9 +880,6 @@
     <t>LA17,A18(25B11MA231)-G9/MKB</t>
   </si>
   <si>
-    <t>LB10-B14(CS211)-FF9/NET</t>
-  </si>
-  <si>
     <t>LC1-C3(12BT311)-G6/SAJ</t>
   </si>
   <si>
@@ -988,9 +979,6 @@
     <t>LB9,B10 (CS223)-FF1/RJM</t>
   </si>
   <si>
-    <t>LB7,B8 (CS221)-FF8/KJ</t>
-  </si>
-  <si>
     <t>LB9,B10 (CS221)-FF9/DL</t>
   </si>
   <si>
@@ -1303,9 +1291,6 @@
     <t>TC2(BT211)-TS16/VGU, SBT</t>
   </si>
   <si>
-    <t>TB11 (CS221) – TS13/KJ</t>
-  </si>
-  <si>
     <t>TG1(25B11MA231)-TS16/GA</t>
   </si>
   <si>
@@ -1387,15 +1372,9 @@
     <t>LB(CS242)-G3/AYS</t>
   </si>
   <si>
-    <t>PMinor(24B15CS245)-CL01/MSI</t>
-  </si>
-  <si>
     <t>PMinor(24B15CS244)-CL02/AYS</t>
   </si>
   <si>
-    <t>PMinor(24B15CS245)-CL02/MSI</t>
-  </si>
-  <si>
     <t>PMinor(24B15CS244)-CL03/AYS</t>
   </si>
   <si>
@@ -1450,9 +1429,6 @@
     <t>TA1(15B11EC411)-TS13/RRJ</t>
   </si>
   <si>
-    <t>PB3,B14(CS221)-CL02,03/IC,TRN,KJ,MKT</t>
-  </si>
-  <si>
     <t>LB14,B16 (CS223)-FF9/PSO</t>
   </si>
   <si>
@@ -1531,9 +1507,6 @@
     <t>LA15,A16(25B21EC213)-FF8/KUL</t>
   </si>
   <si>
-    <t>PB16(CS221)-CL324/SHJ,TKT</t>
-  </si>
-  <si>
     <t>PG1(25B15MA233)-CL324/RSA</t>
   </si>
   <si>
@@ -1646,9 +1619,6 @@
   </si>
   <si>
     <t>PB7,B8(CS224)-CL13,14/AKM,DEP,ASI</t>
-  </si>
-  <si>
-    <t>PB14,B16(CS224)-CL14,15/AKM,SLK,ATI</t>
   </si>
   <si>
     <r>
@@ -1956,9 +1926,6 @@
     <t>PB11,12(CS221)-CL21, CL22 /TKT,VRN, MKT, RJM</t>
   </si>
   <si>
-    <t>PB1,B2,B4(CS221)-CL10,11,12/AST,TRN,TAJ,RJM</t>
-  </si>
-  <si>
     <t>PB7(CS221)-CL07/KJ,AST</t>
   </si>
   <si>
@@ -1966,9 +1933,6 @@
   </si>
   <si>
     <t>LG1,G2 (CS222)-CS5/AKM</t>
-  </si>
-  <si>
-    <t>TB16 (CS221) – TR326/TKT</t>
   </si>
   <si>
     <t>LG1,G2(MA222)-CS4/DCS</t>
@@ -2096,6 +2060,55 @@
         <family val="1"/>
       </rPr>
       <t>/MO</t>
+    </r>
+  </si>
+  <si>
+    <t>PB1,B2(CS224)-CL02,03/SLK,ATI,SHG</t>
+  </si>
+  <si>
+    <t>PB5,B6(CS222)-CL05,06/SYN,NIY</t>
+  </si>
+  <si>
+    <t>PB14(CS224)-CL14/AKM,ATI</t>
+  </si>
+  <si>
+    <t>TB11 (CS221) – TS13/TKT</t>
+  </si>
+  <si>
+    <t>PB1,B2,B4(CS221)-CL10,11,12/AST,TRN,TAJ,RJM,KJ</t>
+  </si>
+  <si>
+    <t>PB3,B14(CS221)-CL02,03/TRN,KJ,MKT</t>
+  </si>
+  <si>
+    <t>PMinor(24B15CS245)-CL01/NET</t>
+  </si>
+  <si>
+    <t>PMinor(24B15CS245)-CL324/NET</t>
+  </si>
+  <si>
+    <t>LB10-B14(CS211)-LT3/NET</t>
+  </si>
+  <si>
+    <r>
+      <t>LB7,B8 (CS221)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/KJ</t>
     </r>
   </si>
 </sst>
@@ -2269,7 +2282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2407,11 +2420,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2636,9 +2662,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2659,26 +2682,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2691,11 +2694,114 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2703,126 +2809,73 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3046,10 +3099,10 @@
   <dimension ref="A1:AA1060"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3070,18 +3123,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="122"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -3100,7 +3153,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -3143,7 +3196,7 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="131" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
@@ -3154,8 +3207,8 @@
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>426</v>
+      <c r="G3" s="96" t="s">
+        <v>575</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>15</v>
@@ -3180,24 +3233,24 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
+      <c r="A4" s="103"/>
       <c r="C4" s="77" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F4" s="111" t="s">
+        <v>473</v>
+      </c>
+      <c r="F4" s="124" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="K4" s="71"/>
       <c r="L4" s="9"/>
@@ -3216,28 +3269,28 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="C5" s="102" t="s">
-        <v>549</v>
+      <c r="A5" s="103"/>
+      <c r="C5" s="93" t="s">
+        <v>538</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="128" t="s">
-        <v>431</v>
-      </c>
-      <c r="H5" s="103" t="s">
-        <v>327</v>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104" t="s">
+        <v>424</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>323</v>
       </c>
       <c r="I5" s="69" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3256,25 +3309,25 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="103"/>
       <c r="C6" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="129"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I6" s="93" t="s">
-        <v>269</v>
+        <v>262</v>
+      </c>
+      <c r="I6" s="141" t="s">
+        <v>266</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3293,12 +3346,12 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="112"/>
+      <c r="A7" s="103"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -3306,9 +3359,9 @@
       <c r="F7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I7" s="69" t="s">
         <v>21</v>
@@ -3331,22 +3384,22 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
+      <c r="A8" s="103"/>
       <c r="C8" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>255</v>
+        <v>475</v>
+      </c>
+      <c r="E8" s="141" t="s">
+        <v>253</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>521</v>
-      </c>
-      <c r="G8" s="129"/>
+        <v>511</v>
+      </c>
+      <c r="G8" s="105"/>
       <c r="H8" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -3365,22 +3418,22 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
+      <c r="A9" s="103"/>
       <c r="C9" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>256</v>
+        <v>319</v>
+      </c>
+      <c r="E9" s="141" t="s">
+        <v>254</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="129"/>
+        <v>331</v>
+      </c>
+      <c r="G9" s="105"/>
       <c r="H9" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="9"/>
@@ -3400,19 +3453,19 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
+      <c r="A10" s="103"/>
       <c r="D10" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G10" s="129"/>
+        <v>322</v>
+      </c>
+      <c r="G10" s="105"/>
       <c r="H10" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="16"/>
@@ -3433,17 +3486,17 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
+      <c r="A11" s="103"/>
       <c r="C11" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G11" s="129"/>
+        <v>412</v>
+      </c>
+      <c r="G11" s="105"/>
       <c r="H11" s="69"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
@@ -3464,20 +3517,20 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
+      <c r="A12" s="103"/>
       <c r="C12" s="77"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G12" s="129"/>
+        <v>415</v>
+      </c>
+      <c r="G12" s="105"/>
       <c r="H12" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I12" s="94" t="s">
-        <v>390</v>
+      <c r="I12" s="142" t="s">
+        <v>386</v>
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="9"/>
@@ -3499,22 +3552,22 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+      <c r="A13" s="103"/>
       <c r="C13" s="67" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E13" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="87" t="s">
-        <v>498</v>
-      </c>
-      <c r="G13" s="129"/>
+      <c r="F13" s="86" t="s">
+        <v>489</v>
+      </c>
+      <c r="G13" s="105"/>
       <c r="H13" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="9"/>
@@ -3536,24 +3589,24 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="103"/>
       <c r="C14" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="129"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="I14" s="113" t="s">
-        <v>568</v>
-      </c>
-      <c r="J14" s="112"/>
+        <v>434</v>
+      </c>
+      <c r="I14" s="126" t="s">
+        <v>556</v>
+      </c>
+      <c r="J14" s="103"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3573,7 +3626,7 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
+      <c r="A15" s="103"/>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3581,16 +3634,16 @@
         <v>70</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="G15" s="129"/>
-      <c r="H15" s="86" t="s">
-        <v>532</v>
-      </c>
-      <c r="I15" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="J15" s="112"/>
+        <v>259</v>
+      </c>
+      <c r="G15" s="105"/>
+      <c r="H15" s="85" t="s">
+        <v>522</v>
+      </c>
+      <c r="I15" s="126" t="s">
+        <v>557</v>
+      </c>
+      <c r="J15" s="103"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3610,19 +3663,19 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
+      <c r="A16" s="103"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" s="129"/>
-      <c r="I16" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="105"/>
+      <c r="I16" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="112"/>
+      <c r="J16" s="103"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3642,20 +3695,20 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
+      <c r="A17" s="103"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="129"/>
+        <v>353</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="G17" s="105"/>
       <c r="H17" s="72"/>
-      <c r="I17" s="105" t="s">
-        <v>347</v>
-      </c>
-      <c r="J17" s="106"/>
+      <c r="I17" s="108" t="s">
+        <v>343</v>
+      </c>
+      <c r="J17" s="101"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3675,13 +3728,13 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
+      <c r="A18" s="103"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="129"/>
-      <c r="I18" s="105" t="s">
+      <c r="G18" s="105"/>
+      <c r="I18" s="108" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="106"/>
+      <c r="J18" s="101"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3701,17 +3754,17 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
+      <c r="A19" s="103"/>
       <c r="C19" s="4"/>
-      <c r="E19" s="95" t="s">
-        <v>488</v>
+      <c r="E19" s="143" t="s">
+        <v>479</v>
       </c>
       <c r="F19" s="69"/>
-      <c r="G19" s="129"/>
-      <c r="I19" s="105" t="s">
+      <c r="G19" s="105"/>
+      <c r="I19" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="106"/>
+      <c r="J19" s="101"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3731,19 +3784,19 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
+      <c r="A20" s="103"/>
       <c r="C20" s="4"/>
       <c r="D20" s="73" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="129"/>
-      <c r="I20" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="105"/>
+      <c r="I20" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="106"/>
+      <c r="J20" s="101"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3763,19 +3816,19 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
+      <c r="A21" s="103"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>235</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>570</v>
-      </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="105" t="s">
+        <v>558</v>
+      </c>
+      <c r="G21" s="105"/>
+      <c r="H21" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="106"/>
+      <c r="I21" s="101"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3795,18 +3848,18 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
+      <c r="A22" s="103"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>239</v>
       </c>
       <c r="F22" s="69"/>
-      <c r="G22" s="129"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="72"/>
-      <c r="I22" s="105" t="s">
+      <c r="I22" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="106"/>
+      <c r="J22" s="101"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3826,18 +3879,18 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="103"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
         <v>245</v>
       </c>
       <c r="F23" s="69"/>
-      <c r="G23" s="129"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="72"/>
-      <c r="I23" s="105" t="s">
+      <c r="I23" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="J23" s="106"/>
+      <c r="J23" s="101"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3856,13 +3909,13 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
+      <c r="A24" s="103"/>
       <c r="C24" s="4"/>
       <c r="F24" s="69"/>
-      <c r="G24" s="129"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="72"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3881,15 +3934,15 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
+      <c r="A25" s="103"/>
       <c r="C25" s="4"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="129"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="72"/>
-      <c r="I25" s="105" t="s">
-        <v>525</v>
-      </c>
-      <c r="J25" s="106"/>
+      <c r="I25" s="108" t="s">
+        <v>515</v>
+      </c>
+      <c r="J25" s="101"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3908,15 +3961,15 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
+      <c r="A26" s="103"/>
       <c r="C26" s="4"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="129"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="105" t="s">
-        <v>578</v>
-      </c>
-      <c r="J26" s="106"/>
+      <c r="I26" s="108" t="s">
+        <v>566</v>
+      </c>
+      <c r="J26" s="101"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3933,14 +3986,14 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
+      <c r="A27" s="103"/>
       <c r="C27" s="4"/>
       <c r="F27" s="69"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="105" t="s">
-        <v>579</v>
-      </c>
-      <c r="I27" s="106"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="108" t="s">
+        <v>567</v>
+      </c>
+      <c r="I27" s="101"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3957,10 +4010,10 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
+      <c r="A28" s="103"/>
       <c r="C28" s="4"/>
       <c r="F28" s="69"/>
-      <c r="G28" s="130"/>
+      <c r="G28" s="132"/>
       <c r="H28" s="72"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -4004,7 +4057,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="98" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="12"/>
@@ -4015,13 +4068,13 @@
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J30" s="69" t="s">
         <v>30</v>
@@ -4042,21 +4095,21 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
+      <c r="A31" s="99"/>
       <c r="C31" s="69" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="F31" s="111" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="124" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I31" s="69" t="s">
         <v>33</v>
@@ -4080,22 +4133,22 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
+      <c r="A32" s="99"/>
       <c r="C32" s="69" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F32" s="112"/>
+        <v>271</v>
+      </c>
+      <c r="F32" s="103"/>
       <c r="G32" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>36</v>
@@ -4119,25 +4172,25 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="99"/>
       <c r="C33" s="69" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F33" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4155,26 +4208,26 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
+      <c r="A34" s="99"/>
       <c r="C34" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" s="93" t="s">
-        <v>333</v>
+        <v>354</v>
+      </c>
+      <c r="D34" s="141" t="s">
+        <v>329</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="I34" s="93" t="s">
+        <v>469</v>
+      </c>
+      <c r="I34" s="141" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -4198,27 +4251,24 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="99"/>
       <c r="C35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="93" t="s">
-        <v>332</v>
+        <v>268</v>
+      </c>
+      <c r="D35" s="141" t="s">
+        <v>328</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="F35" s="111" t="s">
-        <v>521</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>428</v>
+        <v>273</v>
+      </c>
+      <c r="F35" s="124" t="s">
+        <v>511</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I35" s="93" t="s">
-        <v>286</v>
+        <v>470</v>
+      </c>
+      <c r="I35" s="141" t="s">
+        <v>283</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -4238,22 +4288,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="99"/>
       <c r="D36" s="69" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F36" s="112"/>
+        <v>274</v>
+      </c>
+      <c r="F36" s="103"/>
       <c r="G36" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4273,25 +4323,25 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
+      <c r="A37" s="99"/>
       <c r="C37" s="24"/>
       <c r="D37" s="69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G37" s="128" t="s">
-        <v>431</v>
+        <v>275</v>
+      </c>
+      <c r="G37" s="104" t="s">
+        <v>424</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I37" s="90" t="s">
-        <v>435</v>
+        <v>281</v>
+      </c>
+      <c r="I37" s="144" t="s">
+        <v>428</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4311,23 +4361,21 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
+      <c r="A38" s="99"/>
       <c r="D38" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G38" s="129"/>
+        <v>413</v>
+      </c>
+      <c r="G38" s="105"/>
       <c r="H38" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I38" s="90" t="s">
-        <v>550</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="I38" s="89"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
@@ -4346,20 +4394,20 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
+      <c r="A39" s="99"/>
       <c r="D39" s="69"/>
       <c r="E39" s="24" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G39" s="129"/>
+        <v>416</v>
+      </c>
+      <c r="G39" s="105"/>
       <c r="H39" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J39" s="72" t="s">
         <v>230</v>
@@ -4383,14 +4431,14 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
+      <c r="A40" s="99"/>
       <c r="E40" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F40" s="87" t="s">
-        <v>498</v>
-      </c>
-      <c r="G40" s="129"/>
+        <v>483</v>
+      </c>
+      <c r="F40" s="86" t="s">
+        <v>489</v>
+      </c>
+      <c r="G40" s="105"/>
       <c r="J40" s="72" t="s">
         <v>232</v>
       </c>
@@ -4413,18 +4461,18 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
+      <c r="A41" s="99"/>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="G41" s="129"/>
+        <v>258</v>
+      </c>
+      <c r="G41" s="105"/>
       <c r="H41" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="72" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4445,16 +4493,16 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
+      <c r="A42" s="99"/>
       <c r="D42" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="G42" s="129"/>
+        <v>276</v>
+      </c>
+      <c r="G42" s="105"/>
       <c r="H42" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="7"/>
@@ -4477,17 +4525,17 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+      <c r="A43" s="99"/>
       <c r="D43" s="4" t="s">
         <v>238</v>
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
-        <v>280</v>
-      </c>
-      <c r="G43" s="129"/>
+        <v>277</v>
+      </c>
+      <c r="G43" s="105"/>
       <c r="J43" s="69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -4506,22 +4554,23 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="91" t="s">
-        <v>539</v>
-      </c>
+      <c r="C44" s="153" t="s">
+        <v>529</v>
+      </c>
+      <c r="D44" s="154"/>
       <c r="E44" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G44" s="129"/>
+      <c r="G44" s="105"/>
       <c r="H44" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="I44" s="105" t="s">
+        <v>355</v>
+      </c>
+      <c r="I44" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="106"/>
+      <c r="J44" s="101"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4539,23 +4588,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="119"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="106"/>
+      <c r="D45" s="101"/>
       <c r="F45" s="79" t="s">
-        <v>524</v>
-      </c>
-      <c r="G45" s="129"/>
+        <v>514</v>
+      </c>
+      <c r="G45" s="105"/>
       <c r="H45" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I45" s="105" t="s">
+        <v>356</v>
+      </c>
+      <c r="I45" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="J45" s="106"/>
+      <c r="J45" s="101"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4573,20 +4622,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="6"/>
       <c r="C46" s="109" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D46" s="110"/>
       <c r="E46" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="129"/>
-      <c r="I46" s="105" t="s">
+      <c r="G46" s="105"/>
+      <c r="I46" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="J46" s="106"/>
+      <c r="J46" s="101"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4604,20 +4653,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
+      <c r="A47" s="99"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="94" t="s">
-        <v>391</v>
-      </c>
-      <c r="G47" s="129"/>
-      <c r="I47" s="105" t="s">
-        <v>515</v>
-      </c>
-      <c r="J47" s="106"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="142" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" s="105"/>
+      <c r="I47" s="108" t="s">
+        <v>505</v>
+      </c>
+      <c r="J47" s="101"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4635,20 +4684,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="119"/>
-      <c r="C48" s="105" t="s">
-        <v>490</v>
-      </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="94" t="s">
-        <v>392</v>
+      <c r="A48" s="99"/>
+      <c r="C48" s="108" t="s">
+        <v>481</v>
+      </c>
+      <c r="D48" s="101"/>
+      <c r="E48" s="142" t="s">
+        <v>388</v>
       </c>
       <c r="F48" s="69"/>
-      <c r="G48" s="129"/>
-      <c r="I48" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="J48" s="106"/>
+      <c r="G48" s="105"/>
+      <c r="I48" s="115" t="s">
+        <v>569</v>
+      </c>
+      <c r="J48" s="116"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4666,21 +4715,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
+      <c r="A49" s="99"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="145" t="s">
-        <v>526</v>
-      </c>
-      <c r="D49" s="146"/>
-      <c r="E49" s="105" t="s">
-        <v>464</v>
-      </c>
-      <c r="F49" s="106"/>
-      <c r="G49" s="129"/>
-      <c r="I49" s="105" t="s">
-        <v>251</v>
-      </c>
-      <c r="J49" s="106"/>
+      <c r="C49" s="106" t="s">
+        <v>516</v>
+      </c>
+      <c r="D49" s="107"/>
+      <c r="E49" s="108" t="s">
+        <v>456</v>
+      </c>
+      <c r="F49" s="101"/>
+      <c r="G49" s="105"/>
+      <c r="I49" s="115" t="s">
+        <v>570</v>
+      </c>
+      <c r="J49" s="116"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4698,19 +4747,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="119"/>
+      <c r="A50" s="99"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="105" t="s">
-        <v>491</v>
-      </c>
-      <c r="D50" s="106"/>
+      <c r="C50" s="108" t="s">
+        <v>482</v>
+      </c>
+      <c r="D50" s="101"/>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
-      <c r="G50" s="129"/>
-      <c r="I50" s="105" t="s">
-        <v>493</v>
-      </c>
-      <c r="J50" s="106"/>
+      <c r="G50" s="105"/>
+      <c r="I50" s="108" t="s">
+        <v>484</v>
+      </c>
+      <c r="J50" s="101"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4728,15 +4777,15 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="119"/>
+      <c r="A51" s="99"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="105" t="s">
-        <v>512</v>
-      </c>
-      <c r="D51" s="106"/>
+      <c r="C51" s="158" t="s">
+        <v>503</v>
+      </c>
+      <c r="D51" s="157"/>
       <c r="E51" s="69"/>
       <c r="F51" s="69"/>
-      <c r="G51" s="129"/>
+      <c r="G51" s="105"/>
       <c r="I51" s="70"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4755,17 +4804,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="120"/>
-      <c r="C52" s="105" t="s">
+      <c r="A52" s="100"/>
+      <c r="C52" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="106"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
-      <c r="G52" s="129"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="132"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="123"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4789,7 +4838,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="129"/>
+      <c r="G53" s="105"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -4810,11 +4859,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="133" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="G54" s="129"/>
+      <c r="G54" s="105"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4832,8 +4881,8 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="G55" s="129"/>
+      <c r="A55" s="134"/>
+      <c r="G55" s="105"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4851,7 +4900,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+      <c r="A56" s="134"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4877,18 +4926,18 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+      <c r="A57" s="134"/>
       <c r="D57" s="69" t="s">
         <v>46</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F57" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="128" t="s">
-        <v>431</v>
+      <c r="G57" s="104" t="s">
+        <v>424</v>
       </c>
       <c r="H57" s="28" t="s">
         <v>10</v>
@@ -4913,9 +4962,9 @@
       <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
-      <c r="C58" s="96" t="s">
-        <v>361</v>
+      <c r="A58" s="134"/>
+      <c r="C58" s="145" t="s">
+        <v>357</v>
       </c>
       <c r="D58" s="69" t="s">
         <v>49</v>
@@ -4923,9 +4972,9 @@
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="129"/>
+      <c r="G58" s="105"/>
       <c r="H58" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I58" s="69" t="s">
         <v>51</v>
@@ -4950,28 +4999,28 @@
       <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
+      <c r="A59" s="134"/>
       <c r="C59" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D59" s="141" t="s">
+        <v>284</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="G59" s="105"/>
+      <c r="H59" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="D59" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="F59" s="69" t="s">
-        <v>343</v>
-      </c>
-      <c r="G59" s="129"/>
-      <c r="H59" s="23" t="s">
-        <v>367</v>
-      </c>
       <c r="I59" s="23" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K59" s="80"/>
       <c r="L59" s="80"/>
@@ -4992,9 +5041,9 @@
       <c r="AA59" s="81"/>
     </row>
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+      <c r="A60" s="134"/>
       <c r="C60" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D60" s="69" t="s">
         <v>32</v>
@@ -5003,15 +5052,15 @@
       <c r="F60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="129"/>
+      <c r="G60" s="105"/>
       <c r="H60" s="23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I60" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J60" s="93" t="s">
-        <v>528</v>
+      <c r="J60" s="141" t="s">
+        <v>518</v>
       </c>
       <c r="K60" s="80"/>
       <c r="L60" s="80"/>
@@ -5032,25 +5081,25 @@
       <c r="AA60" s="81"/>
     </row>
     <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+      <c r="A61" s="134"/>
       <c r="C61" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D61" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" s="141" t="s">
+        <v>285</v>
+      </c>
+      <c r="E61" s="145" t="s">
         <v>288</v>
       </c>
-      <c r="E61" s="96" t="s">
-        <v>291</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G61" s="129"/>
+        <v>289</v>
+      </c>
+      <c r="G61" s="105"/>
       <c r="H61" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="I61" s="93" t="s">
-        <v>294</v>
+        <v>564</v>
+      </c>
+      <c r="I61" s="141" t="s">
+        <v>290</v>
       </c>
       <c r="J61" s="24" t="s">
         <v>53</v>
@@ -5074,28 +5123,28 @@
       <c r="AA61" s="81"/>
     </row>
     <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
+      <c r="A62" s="134"/>
       <c r="C62" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>289</v>
+        <v>442</v>
+      </c>
+      <c r="D62" s="141" t="s">
+        <v>286</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="F62" s="89" t="s">
-        <v>534</v>
-      </c>
-      <c r="G62" s="129"/>
+        <v>561</v>
+      </c>
+      <c r="F62" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="G62" s="105"/>
       <c r="H62" s="23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K62" s="80"/>
       <c r="L62" s="80"/>
@@ -5116,23 +5165,23 @@
       <c r="AA62" s="81"/>
     </row>
     <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
+      <c r="A63" s="134"/>
       <c r="C63" s="23" t="s">
         <v>240</v>
       </c>
       <c r="D63" s="69" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="129"/>
+      <c r="G63" s="105"/>
       <c r="H63" s="23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K63" s="80"/>
       <c r="L63" s="80"/>
@@ -5153,22 +5202,22 @@
       <c r="AA63" s="81"/>
     </row>
     <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
-      <c r="C64" s="96" t="s">
-        <v>395</v>
+      <c r="A64" s="134"/>
+      <c r="C64" s="145" t="s">
+        <v>391</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>341</v>
-      </c>
-      <c r="G64" s="129"/>
+        <v>337</v>
+      </c>
+      <c r="G64" s="105"/>
       <c r="H64" s="23" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K64" s="80"/>
       <c r="L64" s="80"/>
@@ -5189,7 +5238,7 @@
       <c r="AA64" s="81"/>
     </row>
     <row r="65" spans="1:27" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
+      <c r="A65" s="134"/>
       <c r="D65" s="23" t="s">
         <v>39</v>
       </c>
@@ -5197,11 +5246,11 @@
         <v>25</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="G65" s="129"/>
+        <v>546</v>
+      </c>
+      <c r="G65" s="105"/>
       <c r="H65" s="23" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I65" s="23"/>
       <c r="K65" s="80"/>
@@ -5223,24 +5272,24 @@
       <c r="AA65" s="81"/>
     </row>
     <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
+      <c r="A66" s="134"/>
       <c r="B66" s="82"/>
-      <c r="C66" s="97" t="s">
-        <v>411</v>
-      </c>
-      <c r="D66" s="93" t="s">
-        <v>572</v>
+      <c r="C66" s="146" t="s">
+        <v>406</v>
+      </c>
+      <c r="D66" s="141" t="s">
+        <v>560</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="G66" s="129"/>
+        <v>545</v>
+      </c>
+      <c r="G66" s="105"/>
       <c r="H66" s="23" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K66" s="80"/>
       <c r="L66" s="80"/>
@@ -5261,25 +5310,25 @@
       <c r="AA66" s="81"/>
     </row>
     <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="C67" s="96" t="s">
-        <v>556</v>
+      <c r="A67" s="134"/>
+      <c r="C67" s="145" t="s">
+        <v>544</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="G67" s="129"/>
+        <v>547</v>
+      </c>
+      <c r="G67" s="105"/>
       <c r="H67" s="23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I67" s="69" t="s">
         <v>45</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K67" s="80"/>
       <c r="L67" s="80"/>
@@ -5300,25 +5349,25 @@
       <c r="AA67" s="81"/>
     </row>
     <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="C68" s="91" t="s">
-        <v>538</v>
+      <c r="A68" s="134"/>
+      <c r="C68" s="90" t="s">
+        <v>528</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>519</v>
-      </c>
-      <c r="F68" s="98" t="s">
-        <v>410</v>
-      </c>
-      <c r="G68" s="129"/>
+        <v>509</v>
+      </c>
+      <c r="F68" s="147" t="s">
+        <v>405</v>
+      </c>
+      <c r="G68" s="105"/>
       <c r="H68" s="23" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="J68" s="98" t="s">
-        <v>408</v>
+        <v>559</v>
+      </c>
+      <c r="J68" s="147" t="s">
+        <v>403</v>
       </c>
       <c r="K68" s="80"/>
       <c r="L68" s="80"/>
@@ -5339,15 +5388,15 @@
       <c r="AA68" s="81"/>
     </row>
     <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
+      <c r="A69" s="134"/>
       <c r="B69" s="83"/>
-      <c r="C69" s="116" t="s">
+      <c r="C69" s="135" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="117"/>
+      <c r="D69" s="136"/>
       <c r="G69" s="69"/>
       <c r="H69" s="23" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -5366,22 +5415,22 @@
       <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
+      <c r="A70" s="134"/>
       <c r="B70" s="83"/>
-      <c r="C70" s="105" t="s">
+      <c r="C70" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="106"/>
-      <c r="G70" s="148" t="s">
-        <v>505</v>
+      <c r="D70" s="101"/>
+      <c r="G70" s="111" t="s">
+        <v>496</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="I70" s="105" t="s">
+        <v>369</v>
+      </c>
+      <c r="I70" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="J70" s="106"/>
+      <c r="J70" s="101"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -5399,24 +5448,24 @@
       <c r="Y70" s="13"/>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
+      <c r="A71" s="134"/>
       <c r="B71" s="83"/>
-      <c r="C71" s="105" t="s">
+      <c r="C71" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="106"/>
-      <c r="E71" s="105" t="s">
-        <v>471</v>
-      </c>
-      <c r="F71" s="106"/>
-      <c r="G71" s="149"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="108" t="s">
+        <v>463</v>
+      </c>
+      <c r="F71" s="101"/>
+      <c r="G71" s="112"/>
       <c r="H71" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="I71" s="105" t="s">
+        <v>426</v>
+      </c>
+      <c r="I71" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="J71" s="106"/>
+      <c r="J71" s="101"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
@@ -5434,26 +5483,26 @@
       <c r="Y71" s="13"/>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
+      <c r="A72" s="134"/>
       <c r="B72" s="83"/>
       <c r="C72" s="109" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D72" s="110"/>
-      <c r="E72" s="105" t="s">
+      <c r="E72" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="106"/>
-      <c r="G72" s="104" t="s">
-        <v>553</v>
+      <c r="F72" s="101"/>
+      <c r="G72" s="95" t="s">
+        <v>541</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="I72" s="105" t="s">
+        <v>384</v>
+      </c>
+      <c r="I72" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="J72" s="106"/>
+      <c r="J72" s="101"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
@@ -5471,24 +5520,24 @@
       <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
+      <c r="A73" s="134"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="105" t="s">
+      <c r="C73" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="D73" s="106"/>
-      <c r="E73" s="105" t="s">
-        <v>254</v>
-      </c>
-      <c r="F73" s="106"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="F73" s="101"/>
       <c r="G73" s="69"/>
-      <c r="H73" s="84" t="s">
-        <v>527</v>
-      </c>
-      <c r="I73" s="105" t="s">
-        <v>516</v>
-      </c>
-      <c r="J73" s="106"/>
+      <c r="H73" s="148" t="s">
+        <v>517</v>
+      </c>
+      <c r="I73" s="108" t="s">
+        <v>506</v>
+      </c>
+      <c r="J73" s="101"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5506,16 +5555,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="108"/>
-      <c r="E74" s="105" t="s">
-        <v>513</v>
-      </c>
-      <c r="F74" s="106"/>
+      <c r="A74" s="134"/>
+      <c r="E74" s="115" t="s">
+        <v>571</v>
+      </c>
+      <c r="F74" s="116"/>
       <c r="G74" s="69"/>
-      <c r="I74" s="105" t="s">
+      <c r="I74" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="J74" s="106"/>
+      <c r="J74" s="101"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5533,19 +5582,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="108"/>
+      <c r="A75" s="134"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="105"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="121" t="s">
+      <c r="C75" s="108"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="F75" s="122"/>
+      <c r="F75" s="114"/>
       <c r="G75" s="69"/>
-      <c r="I75" s="136" t="s">
-        <v>459</v>
-      </c>
-      <c r="J75" s="106"/>
+      <c r="I75" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="J75" s="107"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5563,17 +5612,17 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="6"/>
       <c r="C76" s="70"/>
       <c r="D76" s="71"/>
-      <c r="E76" s="105" t="s">
-        <v>438</v>
-      </c>
-      <c r="F76" s="106"/>
+      <c r="E76" s="108" t="s">
+        <v>431</v>
+      </c>
+      <c r="F76" s="101"/>
       <c r="G76" s="69"/>
-      <c r="J76" s="92" t="s">
-        <v>464</v>
+      <c r="J76" s="91" t="s">
+        <v>456</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5618,27 +5667,27 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="118" t="s">
+      <c r="A78" s="98" t="s">
         <v>55</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="147" t="s">
-        <v>430</v>
+      <c r="G78" s="102" t="s">
+        <v>423</v>
       </c>
       <c r="H78" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="69" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -5659,9 +5708,9 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="119"/>
-      <c r="C79" s="85" t="s">
-        <v>451</v>
+      <c r="A79" s="99"/>
+      <c r="C79" s="84" t="s">
+        <v>443</v>
       </c>
       <c r="D79" s="69" t="s">
         <v>58</v>
@@ -5670,11 +5719,11 @@
         <v>19</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="G79" s="112"/>
+        <v>342</v>
+      </c>
+      <c r="G79" s="103"/>
       <c r="H79" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I79" s="69" t="s">
         <v>33</v>
@@ -5698,7 +5747,7 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="119"/>
+      <c r="A80" s="99"/>
       <c r="C80" s="2" t="s">
         <v>62</v>
       </c>
@@ -5711,9 +5760,9 @@
       <c r="F80" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="112"/>
+      <c r="G80" s="103"/>
       <c r="H80" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>59</v>
@@ -5738,25 +5787,25 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="119"/>
-      <c r="C81" s="93" t="s">
-        <v>291</v>
+      <c r="A81" s="99"/>
+      <c r="C81" s="141" t="s">
+        <v>288</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="G81" s="112"/>
+        <v>293</v>
+      </c>
+      <c r="G81" s="103"/>
       <c r="H81" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I81" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5775,25 +5824,25 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="119"/>
+      <c r="A82" s="99"/>
       <c r="C82" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="F82" s="93" t="s">
-        <v>293</v>
-      </c>
-      <c r="G82" s="112"/>
+      <c r="E82" s="145" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82" s="141" t="s">
+        <v>578</v>
+      </c>
+      <c r="G82" s="103"/>
       <c r="H82" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5811,22 +5860,22 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="119"/>
-      <c r="D83" s="93" t="s">
-        <v>290</v>
+      <c r="A83" s="99"/>
+      <c r="D83" s="141" t="s">
+        <v>287</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G83" s="112"/>
+        <v>295</v>
+      </c>
+      <c r="G83" s="103"/>
       <c r="H83" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="I83" s="93" t="s">
-        <v>288</v>
+        <v>565</v>
+      </c>
+      <c r="I83" s="141" t="s">
+        <v>285</v>
       </c>
       <c r="J83" s="69" t="s">
         <v>20</v>
@@ -5848,28 +5897,28 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="119"/>
+      <c r="A84" s="99"/>
       <c r="C84" s="4" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G84" s="112"/>
+        <v>296</v>
+      </c>
+      <c r="G84" s="103"/>
       <c r="H84" s="73" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J84" s="69" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -5888,28 +5937,28 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="119"/>
+      <c r="A85" s="99"/>
       <c r="C85" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G85" s="112"/>
+        <v>297</v>
+      </c>
+      <c r="G85" s="103"/>
       <c r="H85" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5928,25 +5977,25 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="119"/>
+      <c r="A86" s="99"/>
       <c r="C86" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E86" s="90" t="s">
-        <v>398</v>
+        <v>549</v>
+      </c>
+      <c r="E86" s="149" t="s">
+        <v>572</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="G86" s="112"/>
+        <v>540</v>
+      </c>
+      <c r="G86" s="103"/>
       <c r="H86" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K86" s="31"/>
       <c r="L86" s="31"/>
@@ -5967,22 +6016,22 @@
       <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="119"/>
+      <c r="A87" s="99"/>
       <c r="E87" s="73" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G87" s="112"/>
+        <v>395</v>
+      </c>
+      <c r="G87" s="103"/>
       <c r="H87" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L87" s="31"/>
       <c r="M87" s="31"/>
@@ -6002,17 +6051,17 @@
       <c r="AA87" s="31"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="119"/>
+      <c r="A88" s="99"/>
       <c r="C88" s="2"/>
-      <c r="E88" s="90" t="s">
-        <v>535</v>
+      <c r="E88" s="89" t="s">
+        <v>525</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G88" s="112"/>
+      <c r="G88" s="103"/>
       <c r="H88" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -6032,19 +6081,19 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="119"/>
+      <c r="A89" s="99"/>
       <c r="B89" s="29"/>
       <c r="G89" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I89" s="73" t="s">
         <v>231</v>
       </c>
       <c r="J89" s="69" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -6064,19 +6113,19 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="119"/>
-      <c r="C90" s="136" t="s">
-        <v>511</v>
-      </c>
-      <c r="D90" s="106"/>
+      <c r="A90" s="99"/>
+      <c r="C90" s="106" t="s">
+        <v>502</v>
+      </c>
+      <c r="D90" s="107"/>
       <c r="G90" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I90" s="90" t="s">
-        <v>536</v>
+        <v>382</v>
+      </c>
+      <c r="I90" s="89" t="s">
+        <v>526</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6097,16 +6146,16 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
-      <c r="C91" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" s="144"/>
+      <c r="A91" s="99"/>
+      <c r="C91" s="106" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="152"/>
       <c r="H91" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I91" s="73" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -6127,11 +6176,11 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="119"/>
+      <c r="A92" s="99"/>
       <c r="E92" s="61"/>
       <c r="G92" s="32"/>
       <c r="H92" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J92" s="69"/>
       <c r="K92" s="16"/>
@@ -6153,13 +6202,13 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="119"/>
-      <c r="C93" s="86" t="s">
-        <v>530</v>
+      <c r="A93" s="99"/>
+      <c r="C93" s="85" t="s">
+        <v>520</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="78" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="J93" s="69"/>
       <c r="K93" s="9"/>
@@ -6179,22 +6228,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="119"/>
+      <c r="A94" s="99"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="105" t="s">
+      <c r="C94" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="D94" s="106"/>
-      <c r="E94" s="105" t="s">
+      <c r="D94" s="101"/>
+      <c r="E94" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="F94" s="106"/>
+      <c r="F94" s="101"/>
       <c r="G94" s="32"/>
       <c r="H94" s="69"/>
-      <c r="I94" s="105" t="s">
+      <c r="I94" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="J94" s="106"/>
+      <c r="J94" s="101"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -6212,22 +6261,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="119"/>
+      <c r="A95" s="99"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="105" t="s">
-        <v>469</v>
-      </c>
-      <c r="D95" s="106"/>
-      <c r="E95" s="105" t="s">
+      <c r="C95" s="108" t="s">
+        <v>461</v>
+      </c>
+      <c r="D95" s="101"/>
+      <c r="E95" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="F95" s="106"/>
+      <c r="F95" s="101"/>
       <c r="G95" s="32"/>
       <c r="H95" s="69"/>
-      <c r="I95" s="105" t="s">
+      <c r="I95" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="J95" s="106"/>
+      <c r="J95" s="101"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -6245,21 +6294,21 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="119"/>
+      <c r="A96" s="99"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="105" t="s">
+      <c r="C96" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="D96" s="106"/>
-      <c r="E96" s="113" t="s">
-        <v>565</v>
-      </c>
-      <c r="F96" s="112"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="126" t="s">
+        <v>553</v>
+      </c>
+      <c r="F96" s="103"/>
       <c r="G96" s="32"/>
-      <c r="H96" s="105" t="s">
-        <v>575</v>
-      </c>
-      <c r="I96" s="106"/>
+      <c r="H96" s="108" t="s">
+        <v>563</v>
+      </c>
+      <c r="I96" s="101"/>
       <c r="J96" s="61"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6278,22 +6327,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="119"/>
+      <c r="A97" s="99"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="105" t="s">
-        <v>514</v>
-      </c>
-      <c r="D97" s="106"/>
-      <c r="E97" s="113" t="s">
-        <v>564</v>
-      </c>
-      <c r="F97" s="112"/>
+      <c r="C97" s="108" t="s">
+        <v>504</v>
+      </c>
+      <c r="D97" s="101"/>
+      <c r="E97" s="126" t="s">
+        <v>552</v>
+      </c>
+      <c r="F97" s="103"/>
       <c r="G97" s="32"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="136" t="s">
-        <v>545</v>
-      </c>
-      <c r="J97" s="106"/>
+      <c r="I97" s="106" t="s">
+        <v>535</v>
+      </c>
+      <c r="J97" s="107"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6311,20 +6360,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="119"/>
+      <c r="A98" s="99"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="105" t="s">
+      <c r="C98" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="D98" s="106"/>
-      <c r="E98" s="113" t="s">
+      <c r="D98" s="101"/>
+      <c r="E98" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="112"/>
+      <c r="F98" s="103"/>
       <c r="G98" s="32"/>
       <c r="H98" s="75"/>
-      <c r="I98" s="131"/>
-      <c r="J98" s="132"/>
+      <c r="I98" s="122"/>
+      <c r="J98" s="123"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6342,16 +6391,16 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="119"/>
+      <c r="A99" s="99"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="121" t="s">
+      <c r="C99" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="122"/>
-      <c r="E99" s="121" t="s">
-        <v>412</v>
-      </c>
-      <c r="F99" s="122"/>
+      <c r="D99" s="114"/>
+      <c r="E99" s="113" t="s">
+        <v>407</v>
+      </c>
+      <c r="F99" s="114"/>
       <c r="G99" s="32"/>
       <c r="H99" s="75"/>
       <c r="J99" s="75"/>
@@ -6372,14 +6421,14 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="119"/>
+      <c r="A100" s="99"/>
       <c r="B100" s="6"/>
       <c r="C100" s="70"/>
       <c r="D100" s="71"/>
-      <c r="E100" s="105" t="s">
-        <v>494</v>
-      </c>
-      <c r="F100" s="106"/>
+      <c r="E100" s="108" t="s">
+        <v>485</v>
+      </c>
+      <c r="F100" s="101"/>
       <c r="G100" s="32"/>
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
@@ -6401,14 +6450,14 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="119"/>
+      <c r="A101" s="99"/>
       <c r="B101" s="6"/>
       <c r="C101" s="70"/>
       <c r="D101" s="71"/>
-      <c r="E101" s="134" t="s">
+      <c r="E101" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="134"/>
+      <c r="F101" s="117"/>
       <c r="G101" s="32"/>
       <c r="H101" s="75"/>
       <c r="J101" s="75"/>
@@ -6429,12 +6478,12 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="120"/>
+      <c r="A102" s="100"/>
       <c r="B102" s="6"/>
       <c r="C102" s="70"/>
       <c r="D102" s="71"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="106"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="101"/>
       <c r="G102" s="32"/>
       <c r="H102" s="75"/>
       <c r="J102" s="75"/>
@@ -6507,25 +6556,25 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="115" t="s">
+    <row r="105" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="131" t="s">
         <v>65</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="69" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D105" s="69" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="F105" s="89" t="s">
-        <v>534</v>
-      </c>
-      <c r="G105" s="139" t="s">
-        <v>548</v>
+        <v>351</v>
+      </c>
+      <c r="F105" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="G105" s="155" t="s">
+        <v>537</v>
       </c>
       <c r="H105" s="34" t="s">
         <v>66</v>
@@ -6552,10 +6601,10 @@
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
     </row>
-    <row r="106" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="112"/>
+    <row r="106" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="103"/>
       <c r="C106" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D106" s="69" t="s">
         <v>19</v>
@@ -6566,10 +6615,12 @@
       <c r="F106" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="140"/>
+      <c r="G106" s="156" t="s">
+        <v>576</v>
+      </c>
       <c r="H106" s="34"/>
       <c r="I106" s="23" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="J106" s="69" t="s">
         <v>68</v>
@@ -6591,24 +6642,24 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="112"/>
+      <c r="A107" s="103"/>
       <c r="C107" s="69" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D107" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F107" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G107" s="104" t="s">
-        <v>554</v>
+      <c r="G107" s="97" t="s">
+        <v>542</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>35</v>
@@ -6633,27 +6684,27 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="112"/>
+      <c r="A108" s="103"/>
       <c r="C108" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="128" t="s">
-        <v>431</v>
+      <c r="G108" s="104" t="s">
+        <v>424</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I108" s="101" t="s">
-        <v>541</v>
+        <v>409</v>
+      </c>
+      <c r="I108" s="92" t="s">
+        <v>531</v>
       </c>
       <c r="J108" s="69" t="s">
         <v>38</v>
@@ -6675,22 +6726,22 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="112"/>
-      <c r="D109" s="93" t="s">
-        <v>307</v>
+      <c r="A109" s="103"/>
+      <c r="D109" s="141" t="s">
+        <v>303</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G109" s="129"/>
+        <v>447</v>
+      </c>
+      <c r="G109" s="105"/>
       <c r="H109" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -6709,17 +6760,17 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="112"/>
-      <c r="D110" s="93" t="s">
-        <v>353</v>
+      <c r="A110" s="103"/>
+      <c r="D110" s="141" t="s">
+        <v>349</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="129"/>
+      <c r="G110" s="105"/>
       <c r="I110" s="69"/>
       <c r="J110" s="69"/>
       <c r="K110" s="16"/>
@@ -6741,14 +6792,14 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="112"/>
-      <c r="D111" s="93" t="s">
-        <v>454</v>
+      <c r="A111" s="103"/>
+      <c r="D111" s="141" t="s">
+        <v>446</v>
       </c>
       <c r="F111" s="69" t="s">
-        <v>551</v>
-      </c>
-      <c r="G111" s="129"/>
+        <v>539</v>
+      </c>
+      <c r="G111" s="105"/>
       <c r="H111" s="36"/>
       <c r="I111" s="4" t="s">
         <v>233</v>
@@ -6773,11 +6824,11 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="112"/>
+      <c r="A112" s="103"/>
       <c r="D112" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="G112" s="129"/>
+        <v>350</v>
+      </c>
+      <c r="G112" s="105"/>
       <c r="H112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6799,12 +6850,12 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="112"/>
+      <c r="A113" s="103"/>
       <c r="C113" s="69"/>
       <c r="E113" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G113" s="129"/>
+        <v>399</v>
+      </c>
+      <c r="G113" s="105"/>
       <c r="H113" s="34"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6826,11 +6877,11 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="112"/>
+      <c r="A114" s="103"/>
       <c r="E114" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="G114" s="129"/>
+        <v>550</v>
+      </c>
+      <c r="G114" s="105"/>
       <c r="H114" s="36"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6851,15 +6902,15 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="112"/>
+      <c r="A115" s="103"/>
       <c r="D115" s="69"/>
       <c r="E115" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G115" s="129"/>
+        <v>439</v>
+      </c>
+      <c r="G115" s="105"/>
       <c r="H115" s="36"/>
       <c r="J115" s="69"/>
       <c r="K115" s="16"/>
@@ -6881,11 +6932,11 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="112"/>
+      <c r="A116" s="103"/>
       <c r="E116" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="G116" s="129"/>
+        <v>551</v>
+      </c>
+      <c r="G116" s="105"/>
       <c r="H116" s="69" t="s">
         <v>32</v>
       </c>
@@ -6908,22 +6959,22 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="112"/>
+      <c r="A117" s="103"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="105"/>
-      <c r="D117" s="106"/>
-      <c r="E117" s="105" t="s">
+      <c r="C117" s="108"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="F117" s="106"/>
-      <c r="G117" s="129"/>
+      <c r="F117" s="101"/>
+      <c r="G117" s="105"/>
       <c r="H117" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I117" s="105" t="s">
+      <c r="I117" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="J117" s="106"/>
+      <c r="J117" s="101"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -6943,15 +6994,15 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="112"/>
-      <c r="C118" s="86" t="s">
-        <v>531</v>
-      </c>
-      <c r="G118" s="129"/>
-      <c r="H118" s="141" t="s">
-        <v>467</v>
-      </c>
-      <c r="I118" s="142"/>
+      <c r="A118" s="103"/>
+      <c r="C118" s="85" t="s">
+        <v>521</v>
+      </c>
+      <c r="G118" s="105"/>
+      <c r="H118" s="115" t="s">
+        <v>459</v>
+      </c>
+      <c r="I118" s="116"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -6971,21 +7022,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="112"/>
+      <c r="A119" s="103"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="105" t="s">
-        <v>466</v>
-      </c>
-      <c r="D119" s="106"/>
-      <c r="E119" s="105" t="s">
+      <c r="C119" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="D119" s="101"/>
+      <c r="E119" s="108" t="s">
         <v>222</v>
       </c>
-      <c r="F119" s="106"/>
-      <c r="G119" s="129"/>
-      <c r="I119" s="105" t="s">
+      <c r="F119" s="101"/>
+      <c r="G119" s="105"/>
+      <c r="I119" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="J119" s="106"/>
+      <c r="J119" s="101"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -7005,22 +7056,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="112"/>
+      <c r="A120" s="103"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="105" t="s">
-        <v>472</v>
-      </c>
-      <c r="D120" s="106"/>
-      <c r="E120" s="121" t="s">
-        <v>419</v>
-      </c>
-      <c r="F120" s="122"/>
+      <c r="C120" s="108" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="101"/>
+      <c r="E120" s="113" t="s">
+        <v>414</v>
+      </c>
+      <c r="F120" s="114"/>
       <c r="G120" s="35"/>
       <c r="H120" s="36"/>
-      <c r="I120" s="105" t="s">
+      <c r="I120" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="J120" s="106"/>
+      <c r="J120" s="101"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -7040,22 +7091,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="112"/>
+      <c r="A121" s="103"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="105" t="s">
-        <v>468</v>
-      </c>
-      <c r="D121" s="106"/>
-      <c r="E121" s="136" t="s">
-        <v>547</v>
-      </c>
-      <c r="F121" s="106"/>
+      <c r="C121" s="108" t="s">
+        <v>460</v>
+      </c>
+      <c r="D121" s="101"/>
+      <c r="E121" s="106" t="s">
+        <v>536</v>
+      </c>
+      <c r="F121" s="107"/>
       <c r="G121" s="35"/>
       <c r="H121" s="36"/>
-      <c r="I121" s="105" t="s">
+      <c r="I121" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="J121" s="106"/>
+      <c r="J121" s="101"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -7075,16 +7126,16 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="112"/>
+      <c r="A122" s="103"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="105" t="s">
+      <c r="C122" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D122" s="106"/>
-      <c r="E122" s="105" t="s">
-        <v>439</v>
-      </c>
-      <c r="F122" s="106"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="108" t="s">
+        <v>432</v>
+      </c>
+      <c r="F122" s="101"/>
       <c r="G122" s="35"/>
       <c r="H122" s="36"/>
       <c r="K122" s="16"/>
@@ -7106,22 +7157,20 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="112"/>
+      <c r="A123" s="103"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="105" t="s">
+      <c r="C123" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="D123" s="106"/>
-      <c r="E123" s="134" t="s">
-        <v>475</v>
-      </c>
-      <c r="F123" s="112"/>
+      <c r="D123" s="101"/>
+      <c r="E123" s="117" t="s">
+        <v>466</v>
+      </c>
+      <c r="F123" s="103"/>
       <c r="G123" s="35"/>
       <c r="H123" s="36"/>
-      <c r="I123" s="136" t="s">
-        <v>474</v>
-      </c>
-      <c r="J123" s="106"/>
+      <c r="I123" s="106"/>
+      <c r="J123" s="107"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7141,20 +7190,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="112"/>
+      <c r="A124" s="103"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="136" t="s">
-        <v>546</v>
-      </c>
-      <c r="D124" s="106"/>
+      <c r="C124" s="139" t="s">
+        <v>573</v>
+      </c>
+      <c r="D124" s="119"/>
       <c r="G124" s="35"/>
-      <c r="H124" s="90" t="s">
-        <v>434</v>
-      </c>
-      <c r="I124" s="136" t="s">
-        <v>447</v>
-      </c>
-      <c r="J124" s="106"/>
+      <c r="H124" s="144" t="s">
+        <v>427</v>
+      </c>
+      <c r="I124" s="139" t="s">
+        <v>574</v>
+      </c>
+      <c r="J124" s="116"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7174,16 +7223,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="112"/>
+      <c r="A125" s="103"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="105"/>
-      <c r="D125" s="106"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="101"/>
       <c r="G125" s="35"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="143" t="s">
-        <v>495</v>
-      </c>
-      <c r="J125" s="132"/>
+      <c r="I125" s="140" t="s">
+        <v>486</v>
+      </c>
+      <c r="J125" s="123"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7203,10 +7252,10 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="112"/>
+      <c r="A126" s="103"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="106"/>
+      <c r="C126" s="108"/>
+      <c r="D126" s="101"/>
       <c r="G126" s="35"/>
       <c r="H126" s="36"/>
       <c r="K126" s="16"/>
@@ -7228,7 +7277,7 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="112"/>
+      <c r="A127" s="103"/>
       <c r="B127" s="6"/>
       <c r="C127" s="70"/>
       <c r="D127" s="71"/>
@@ -7306,12 +7355,12 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="118" t="s">
+      <c r="A130" s="98" t="s">
         <v>73</v>
       </c>
       <c r="B130" s="74"/>
       <c r="C130" s="23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>74</v>
@@ -7343,9 +7392,9 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="119"/>
+      <c r="A131" s="99"/>
       <c r="C131" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>77</v>
@@ -7354,8 +7403,8 @@
         <v>67</v>
       </c>
       <c r="H131" s="11"/>
-      <c r="I131" s="135"/>
-      <c r="J131" s="112"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="103"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7373,15 +7422,15 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="119"/>
+      <c r="A132" s="99"/>
       <c r="C132" s="23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D132" s="79" t="s">
-        <v>542</v>
-      </c>
-      <c r="F132" s="89" t="s">
-        <v>533</v>
+        <v>532</v>
+      </c>
+      <c r="F132" s="88" t="s">
+        <v>523</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="41"/>
@@ -7403,15 +7452,15 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="119"/>
+      <c r="A133" s="99"/>
       <c r="C133" s="23" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D133" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7433,12 +7482,12 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="119"/>
+      <c r="A134" s="99"/>
       <c r="C134" s="15" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>64</v>
@@ -7463,15 +7512,15 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="119"/>
+      <c r="A135" s="99"/>
       <c r="C135" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I135" s="42"/>
       <c r="J135" s="75"/>
@@ -7492,15 +7541,15 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="119"/>
+      <c r="A136" s="99"/>
       <c r="C136" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E136" s="93" t="s">
-        <v>487</v>
+        <v>313</v>
+      </c>
+      <c r="E136" s="141" t="s">
+        <v>478</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="43"/>
@@ -7522,15 +7571,15 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="119"/>
-      <c r="C137" s="111" t="s">
-        <v>555</v>
+      <c r="A137" s="99"/>
+      <c r="C137" s="124" t="s">
+        <v>543</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E137" s="94" t="s">
-        <v>406</v>
+        <v>314</v>
+      </c>
+      <c r="E137" s="142" t="s">
+        <v>401</v>
       </c>
       <c r="G137" s="2"/>
       <c r="I137" s="43"/>
@@ -7552,15 +7601,15 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="119"/>
-      <c r="C138" s="112"/>
+      <c r="A138" s="99"/>
+      <c r="C138" s="103"/>
       <c r="D138" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E138" s="105" t="s">
+        <v>326</v>
+      </c>
+      <c r="E138" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="F138" s="106"/>
+      <c r="F138" s="101"/>
       <c r="G138" s="2"/>
       <c r="H138" s="43"/>
       <c r="I138" s="43"/>
@@ -7582,14 +7631,14 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="119"/>
+      <c r="A139" s="99"/>
       <c r="C139" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F139" s="113" t="s">
-        <v>501</v>
-      </c>
-      <c r="G139" s="112"/>
+      <c r="F139" s="126" t="s">
+        <v>492</v>
+      </c>
+      <c r="G139" s="103"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
       <c r="J139" s="11"/>
@@ -7610,14 +7659,14 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="119"/>
+      <c r="A140" s="99"/>
       <c r="C140" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F140" s="114" t="s">
+      <c r="F140" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="G140" s="112"/>
+      <c r="G140" s="103"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
       <c r="J140" s="11"/>
@@ -7638,15 +7687,15 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="119"/>
-      <c r="C141" s="99" t="s">
-        <v>409</v>
+      <c r="A141" s="99"/>
+      <c r="C141" s="150" t="s">
+        <v>404</v>
       </c>
       <c r="E141" s="61"/>
-      <c r="F141" s="114" t="s">
+      <c r="F141" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="G141" s="112"/>
+      <c r="G141" s="103"/>
       <c r="H141" s="43"/>
       <c r="I141" s="43"/>
       <c r="J141" s="11"/>
@@ -7667,9 +7716,9 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="119"/>
-      <c r="E142" s="86" t="s">
-        <v>529</v>
+      <c r="A142" s="99"/>
+      <c r="E142" s="85" t="s">
+        <v>519</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="43"/>
@@ -7692,12 +7741,12 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="119"/>
+      <c r="A143" s="99"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="105" t="s">
+      <c r="D143" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="E143" s="106"/>
+      <c r="E143" s="101"/>
       <c r="H143" s="43"/>
       <c r="I143" s="43"/>
       <c r="J143" s="11"/>
@@ -7718,16 +7767,16 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="119"/>
+      <c r="A144" s="99"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="105" t="s">
+      <c r="D144" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="E144" s="106"/>
-      <c r="F144" s="121" t="s">
+      <c r="E144" s="101"/>
+      <c r="F144" s="113" t="s">
         <v>248</v>
       </c>
-      <c r="G144" s="122"/>
+      <c r="G144" s="114"/>
       <c r="H144" s="43"/>
       <c r="I144" s="43"/>
       <c r="J144" s="11"/>
@@ -7748,16 +7797,16 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="119"/>
+      <c r="A145" s="99"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="137" t="s">
+      <c r="D145" s="120" t="s">
         <v>197</v>
       </c>
-      <c r="E145" s="138"/>
-      <c r="F145" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="G145" s="122"/>
+      <c r="E145" s="121"/>
+      <c r="F145" s="113" t="s">
+        <v>417</v>
+      </c>
+      <c r="G145" s="114"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
       <c r="J145" s="11"/>
@@ -7778,16 +7827,16 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="119"/>
+      <c r="A146" s="99"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="105" t="s">
+      <c r="D146" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="E146" s="106"/>
-      <c r="F146" s="123" t="s">
-        <v>497</v>
-      </c>
-      <c r="G146" s="124"/>
+      <c r="E146" s="101"/>
+      <c r="F146" s="137" t="s">
+        <v>488</v>
+      </c>
+      <c r="G146" s="138"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
       <c r="J146" s="11"/>
@@ -7808,12 +7857,12 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="119"/>
+      <c r="A147" s="99"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="105" t="s">
+      <c r="D147" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="E147" s="106"/>
+      <c r="E147" s="101"/>
       <c r="H147" s="43"/>
       <c r="I147" s="43"/>
       <c r="J147" s="11"/>
@@ -7834,12 +7883,12 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="119"/>
+      <c r="A148" s="99"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="109" t="s">
-        <v>496</v>
-      </c>
-      <c r="E148" s="110"/>
+      <c r="D148" s="106" t="s">
+        <v>487</v>
+      </c>
+      <c r="E148" s="107"/>
       <c r="H148" s="43"/>
       <c r="I148" s="43"/>
       <c r="J148" s="11"/>
@@ -7860,12 +7909,12 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="119"/>
+      <c r="A149" s="99"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="113" t="s">
-        <v>567</v>
-      </c>
-      <c r="E149" s="112"/>
+      <c r="D149" s="126" t="s">
+        <v>555</v>
+      </c>
+      <c r="E149" s="103"/>
       <c r="F149" s="2"/>
       <c r="G149" s="35"/>
       <c r="H149" s="11"/>
@@ -7888,12 +7937,12 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="119"/>
+      <c r="A150" s="99"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="113" t="s">
-        <v>566</v>
-      </c>
-      <c r="E150" s="112"/>
+      <c r="D150" s="126" t="s">
+        <v>554</v>
+      </c>
+      <c r="E150" s="103"/>
       <c r="F150" s="2"/>
       <c r="G150" s="32"/>
       <c r="H150" s="11"/>
@@ -7916,12 +7965,12 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="119"/>
+      <c r="A151" s="99"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="113" t="s">
+      <c r="D151" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E151" s="112"/>
+      <c r="E151" s="103"/>
       <c r="F151" s="2"/>
       <c r="G151" s="32"/>
       <c r="H151" s="11"/>
@@ -7944,12 +7993,12 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="120"/>
+      <c r="A152" s="100"/>
       <c r="C152" s="2"/>
-      <c r="E152" s="105" t="s">
-        <v>523</v>
-      </c>
-      <c r="F152" s="106"/>
+      <c r="E152" s="108" t="s">
+        <v>513</v>
+      </c>
+      <c r="F152" s="101"/>
       <c r="G152" s="32"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -8136,10 +8185,10 @@
     <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="100" t="s">
+      <c r="C158" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="D158" s="100" t="s">
+      <c r="D158" s="151" t="s">
         <v>89</v>
       </c>
       <c r="E158" s="53" t="s">
@@ -8228,7 +8277,7 @@
       <c r="H160" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I160" s="88" t="s">
+      <c r="I160" s="87" t="s">
         <v>140</v>
       </c>
       <c r="K160" s="9"/>
@@ -8443,7 +8492,7 @@
         <v>148</v>
       </c>
       <c r="H166" s="59" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="I166" s="59" t="s">
         <v>149</v>
@@ -8739,7 +8788,7 @@
       <c r="D174" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E174" s="88" t="s">
+      <c r="E174" s="87" t="s">
         <v>128</v>
       </c>
       <c r="F174" s="13"/>
@@ -8783,10 +8832,10 @@
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="58" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="H175" s="58" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="I175" s="58" t="s">
         <v>173</v>
@@ -8816,10 +8865,10 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="58" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H176" s="58" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I176" s="58" t="s">
         <v>174</v>
@@ -9258,7 +9307,7 @@
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
       <c r="E192" s="58"/>
-      <c r="F192" s="133"/>
+      <c r="F192" s="125"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9282,7 +9331,7 @@
       <c r="C193" s="58"/>
       <c r="D193" s="58"/>
       <c r="E193" s="58"/>
-      <c r="F193" s="112"/>
+      <c r="F193" s="103"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -9333,7 +9382,7 @@
       <c r="C195" s="58"/>
       <c r="D195" s="58"/>
       <c r="E195" s="58"/>
-      <c r="F195" s="133"/>
+      <c r="F195" s="125"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9360,7 +9409,7 @@
       <c r="C196" s="58"/>
       <c r="D196" s="58"/>
       <c r="E196" s="58"/>
-      <c r="F196" s="112"/>
+      <c r="F196" s="103"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -12933,7 +12982,114 @@
     <row r="1059" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="131">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="A54:A76"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="A105:A127"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A78:A102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A30:A52"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G108:G119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="A130:A152"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="G78:G88"/>
@@ -12958,114 +13114,6 @@
     <mergeCell ref="I74:J74"/>
     <mergeCell ref="I73:J73"/>
     <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G108:G119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G5:G28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A30:A52"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="A54:A76"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="A105:A127"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A78:A102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\TT_27 jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\TT_27 jan\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DFC6E4-FBED-42A9-A258-2FE1B9972DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13067FA-8708-4617-90FC-E59BC59324A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1360,9 +1360,6 @@
     <t>LB(CS212)-G4/SHO</t>
   </si>
   <si>
-    <t>PB(25B16CS212)-CL02,03,04/APJ,SHO</t>
-  </si>
-  <si>
     <t>LB(CS243)-G6/NET</t>
   </si>
   <si>
@@ -1568,9 +1565,6 @@
   </si>
   <si>
     <t>PG1,G2(CS221)-CL10,11/VRN,SHV,DL,RJM</t>
-  </si>
-  <si>
-    <t>PB8(CS221)-CL02/VRN,TKT</t>
   </si>
   <si>
     <t>PB(25B16CS213)-CL17,18/HN,VIK</t>
@@ -1926,9 +1920,6 @@
     <t>PB11,12(CS221)-CL21, CL22 /TKT,VRN, MKT, RJM</t>
   </si>
   <si>
-    <t>PB7(CS221)-CL07/KJ,AST</t>
-  </si>
-  <si>
     <t>LB(CS242)-G4/AYS</t>
   </si>
   <si>
@@ -2110,6 +2101,15 @@
       </rPr>
       <t>/KJ</t>
     </r>
+  </si>
+  <si>
+    <t>PB(25B16CS212)-CL02,03,04/APJ,SHO,KRL</t>
+  </si>
+  <si>
+    <t>PB7(CS221)-CL07/TKT,AST</t>
+  </si>
+  <si>
+    <t>PB8(CS221)-CL02/VRN,KJ</t>
   </si>
 </sst>
 </file>
@@ -2172,7 +2172,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2278,6 +2278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2437,7 +2443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2700,133 +2706,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2856,26 +2735,168 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3099,10 +3120,10 @@
   <dimension ref="A1:AA1060"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="D148" sqref="D148:E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3123,18 +3144,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="114"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="134"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -3196,7 +3217,7 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="127" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
@@ -3208,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>15</v>
@@ -3233,24 +3254,24 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
+      <c r="A4" s="122"/>
       <c r="C4" s="77" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F4" s="124" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" s="121" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K4" s="71"/>
       <c r="L4" s="9"/>
@@ -3269,9 +3290,9 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="122"/>
       <c r="C5" s="93" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>318</v>
@@ -3279,9 +3300,9 @@
       <c r="E5" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104" t="s">
-        <v>424</v>
+      <c r="F5" s="122"/>
+      <c r="G5" s="140" t="s">
+        <v>423</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>323</v>
@@ -3290,7 +3311,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3309,12 +3330,12 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
+      <c r="A6" s="122"/>
       <c r="C6" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>321</v>
@@ -3322,11 +3343,11 @@
       <c r="F6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="105"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I6" s="141" t="s">
+      <c r="I6" s="98" t="s">
         <v>266</v>
       </c>
       <c r="K6" s="9"/>
@@ -3346,12 +3367,12 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
+      <c r="A7" s="122"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -3359,7 +3380,7 @@
       <c r="F7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="105"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="2" t="s">
         <v>263</v>
       </c>
@@ -3384,20 +3405,20 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
+      <c r="A8" s="122"/>
       <c r="C8" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E8" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="E8" s="98" t="s">
         <v>253</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>511</v>
-      </c>
-      <c r="G8" s="105"/>
+        <v>509</v>
+      </c>
+      <c r="G8" s="141"/>
       <c r="H8" s="2" t="s">
         <v>264</v>
       </c>
@@ -3418,20 +3439,20 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
+      <c r="A9" s="122"/>
       <c r="C9" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E9" s="141" t="s">
+      <c r="E9" s="98" t="s">
         <v>254</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="105"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="2" t="s">
         <v>265</v>
       </c>
@@ -3453,7 +3474,7 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
+      <c r="A10" s="122"/>
       <c r="D10" s="1" t="s">
         <v>320</v>
       </c>
@@ -3463,7 +3484,7 @@
       <c r="F10" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="2" t="s">
         <v>325</v>
       </c>
@@ -3486,7 +3507,7 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
+      <c r="A11" s="122"/>
       <c r="C11" s="4" t="s">
         <v>241</v>
       </c>
@@ -3496,7 +3517,7 @@
       <c r="F11" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G11" s="105"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="69"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
@@ -3517,7 +3538,7 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
+      <c r="A12" s="122"/>
       <c r="C12" s="77"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
@@ -3525,11 +3546,11 @@
       <c r="F12" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G12" s="105"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I12" s="142" t="s">
+      <c r="I12" s="99" t="s">
         <v>386</v>
       </c>
       <c r="J12" s="69"/>
@@ -3552,22 +3573,22 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
+      <c r="A13" s="122"/>
       <c r="C13" s="67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E13" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="86" t="s">
-        <v>489</v>
-      </c>
-      <c r="G13" s="105"/>
+        <v>487</v>
+      </c>
+      <c r="G13" s="141"/>
       <c r="H13" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="9"/>
@@ -3589,24 +3610,24 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
+      <c r="A14" s="122"/>
       <c r="C14" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="105"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="I14" s="126" t="s">
-        <v>556</v>
-      </c>
-      <c r="J14" s="103"/>
+        <v>433</v>
+      </c>
+      <c r="I14" s="125" t="s">
+        <v>553</v>
+      </c>
+      <c r="J14" s="122"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3626,7 +3647,7 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
+      <c r="A15" s="122"/>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3636,14 +3657,14 @@
       <c r="F15" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="G15" s="105"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="85" t="s">
-        <v>522</v>
-      </c>
-      <c r="I15" s="126" t="s">
-        <v>557</v>
-      </c>
-      <c r="J15" s="103"/>
+        <v>520</v>
+      </c>
+      <c r="I15" s="125" t="s">
+        <v>554</v>
+      </c>
+      <c r="J15" s="122"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3663,7 +3684,7 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
+      <c r="A16" s="122"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
         <v>352</v>
@@ -3671,11 +3692,11 @@
       <c r="F16" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="I16" s="126" t="s">
+      <c r="G16" s="141"/>
+      <c r="I16" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="103"/>
+      <c r="J16" s="122"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3695,20 +3716,20 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
+      <c r="A17" s="122"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>577</v>
-      </c>
-      <c r="G17" s="105"/>
+        <v>574</v>
+      </c>
+      <c r="G17" s="141"/>
       <c r="H17" s="72"/>
-      <c r="I17" s="108" t="s">
+      <c r="I17" s="115" t="s">
         <v>343</v>
       </c>
-      <c r="J17" s="101"/>
+      <c r="J17" s="116"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3728,13 +3749,13 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
+      <c r="A18" s="122"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="105"/>
-      <c r="I18" s="108" t="s">
+      <c r="G18" s="141"/>
+      <c r="I18" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="101"/>
+      <c r="J18" s="116"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3754,17 +3775,17 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
+      <c r="A19" s="122"/>
       <c r="C19" s="4"/>
-      <c r="E19" s="143" t="s">
-        <v>479</v>
+      <c r="E19" s="100" t="s">
+        <v>478</v>
       </c>
       <c r="F19" s="69"/>
-      <c r="G19" s="105"/>
-      <c r="I19" s="108" t="s">
+      <c r="G19" s="141"/>
+      <c r="I19" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="101"/>
+      <c r="J19" s="116"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3784,7 +3805,7 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
+      <c r="A20" s="122"/>
       <c r="C20" s="4"/>
       <c r="D20" s="73" t="s">
         <v>317</v>
@@ -3792,11 +3813,11 @@
       <c r="F20" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="I20" s="108" t="s">
+      <c r="G20" s="141"/>
+      <c r="I20" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="101"/>
+      <c r="J20" s="116"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3816,19 +3837,19 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
+      <c r="A21" s="122"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>235</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>558</v>
-      </c>
-      <c r="G21" s="105"/>
-      <c r="H21" s="108" t="s">
+        <v>555</v>
+      </c>
+      <c r="G21" s="141"/>
+      <c r="H21" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="101"/>
+      <c r="I21" s="116"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3848,18 +3869,18 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
+      <c r="A22" s="122"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>239</v>
       </c>
       <c r="F22" s="69"/>
-      <c r="G22" s="105"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="72"/>
-      <c r="I22" s="108" t="s">
+      <c r="I22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="101"/>
+      <c r="J22" s="116"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3879,18 +3900,18 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
+      <c r="A23" s="122"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
         <v>245</v>
       </c>
       <c r="F23" s="69"/>
-      <c r="G23" s="105"/>
+      <c r="G23" s="141"/>
       <c r="H23" s="72"/>
-      <c r="I23" s="108" t="s">
+      <c r="I23" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="J23" s="101"/>
+      <c r="J23" s="116"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3909,13 +3930,13 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
+      <c r="A24" s="122"/>
       <c r="C24" s="4"/>
       <c r="F24" s="69"/>
-      <c r="G24" s="105"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="72"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="134"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3934,15 +3955,15 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
+      <c r="A25" s="122"/>
       <c r="C25" s="4"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="105"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="72"/>
-      <c r="I25" s="108" t="s">
-        <v>515</v>
-      </c>
-      <c r="J25" s="101"/>
+      <c r="I25" s="115" t="s">
+        <v>513</v>
+      </c>
+      <c r="J25" s="116"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3961,15 +3982,15 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
+      <c r="A26" s="122"/>
       <c r="C26" s="4"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="105"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="108" t="s">
-        <v>566</v>
-      </c>
-      <c r="J26" s="101"/>
+      <c r="I26" s="115" t="s">
+        <v>563</v>
+      </c>
+      <c r="J26" s="116"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -3986,14 +4007,14 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
+      <c r="A27" s="122"/>
       <c r="C27" s="4"/>
       <c r="F27" s="69"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="108" t="s">
-        <v>567</v>
-      </c>
-      <c r="I27" s="101"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="115" t="s">
+        <v>564</v>
+      </c>
+      <c r="I27" s="116"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -4010,10 +4031,10 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
+      <c r="A28" s="122"/>
       <c r="C28" s="4"/>
       <c r="F28" s="69"/>
-      <c r="G28" s="132"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="72"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -4057,7 +4078,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="130" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="12"/>
@@ -4095,9 +4116,9 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
+      <c r="A31" s="131"/>
       <c r="C31" s="69" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>32</v>
@@ -4105,11 +4126,11 @@
       <c r="E31" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="F31" s="124" t="s">
+      <c r="F31" s="121" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I31" s="69" t="s">
         <v>33</v>
@@ -4133,7 +4154,7 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
+      <c r="A32" s="131"/>
       <c r="C32" s="69" t="s">
         <v>324</v>
       </c>
@@ -4143,9 +4164,9 @@
       <c r="E32" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="F32" s="103"/>
+      <c r="F32" s="122"/>
       <c r="G32" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>279</v>
@@ -4172,7 +4193,7 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
+      <c r="A33" s="131"/>
       <c r="C33" s="69" t="s">
         <v>267</v>
       </c>
@@ -4184,13 +4205,13 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>334</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4208,26 +4229,26 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
+      <c r="A34" s="131"/>
       <c r="C34" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="98" t="s">
         <v>329</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F34" s="69" t="s">
         <v>332</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I34" s="141" t="s">
+        <v>468</v>
+      </c>
+      <c r="I34" s="98" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -4251,23 +4272,23 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
+      <c r="A35" s="131"/>
       <c r="C35" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D35" s="141" t="s">
+      <c r="D35" s="98" t="s">
         <v>328</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="F35" s="124" t="s">
-        <v>511</v>
+      <c r="F35" s="121" t="s">
+        <v>509</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I35" s="141" t="s">
+        <v>469</v>
+      </c>
+      <c r="I35" s="98" t="s">
         <v>283</v>
       </c>
       <c r="K35" s="16"/>
@@ -4288,22 +4309,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
+      <c r="A36" s="131"/>
       <c r="D36" s="69" t="s">
         <v>330</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F36" s="103"/>
+      <c r="F36" s="122"/>
       <c r="G36" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>280</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4323,7 +4344,7 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
+      <c r="A37" s="131"/>
       <c r="C37" s="24"/>
       <c r="D37" s="69" t="s">
         <v>269</v>
@@ -4334,14 +4355,14 @@
       <c r="F37" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G37" s="104" t="s">
-        <v>424</v>
+      <c r="G37" s="140" t="s">
+        <v>423</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I37" s="144" t="s">
-        <v>428</v>
+      <c r="I37" s="101" t="s">
+        <v>427</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4361,17 +4382,17 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
+      <c r="A38" s="131"/>
       <c r="D38" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G38" s="105"/>
+      <c r="G38" s="141"/>
       <c r="H38" s="1" t="s">
         <v>282</v>
       </c>
@@ -4394,17 +4415,17 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
+      <c r="A39" s="131"/>
       <c r="D39" s="69"/>
       <c r="E39" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="141"/>
       <c r="H39" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I39" s="73" t="s">
         <v>389</v>
@@ -4431,14 +4452,14 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="99"/>
+      <c r="A40" s="131"/>
       <c r="E40" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F40" s="86" t="s">
-        <v>489</v>
-      </c>
-      <c r="G40" s="105"/>
+        <v>487</v>
+      </c>
+      <c r="G40" s="141"/>
       <c r="J40" s="72" t="s">
         <v>232</v>
       </c>
@@ -4461,14 +4482,14 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
+      <c r="A41" s="131"/>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="G41" s="105"/>
+      <c r="G41" s="141"/>
       <c r="H41" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="72" t="s">
@@ -4493,14 +4514,14 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
+      <c r="A42" s="131"/>
       <c r="D42" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F42" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="G42" s="105"/>
+      <c r="G42" s="141"/>
       <c r="H42" s="1" t="s">
         <v>333</v>
       </c>
@@ -4525,7 +4546,7 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
+      <c r="A43" s="131"/>
       <c r="D43" s="4" t="s">
         <v>238</v>
       </c>
@@ -4533,7 +4554,7 @@
       <c r="F43" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="G43" s="105"/>
+      <c r="G43" s="141"/>
       <c r="J43" s="69" t="s">
         <v>278</v>
       </c>
@@ -4554,23 +4575,23 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="99"/>
+      <c r="A44" s="131"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="153" t="s">
-        <v>529</v>
-      </c>
-      <c r="D44" s="154"/>
+      <c r="C44" s="113" t="s">
+        <v>527</v>
+      </c>
+      <c r="D44" s="114"/>
       <c r="E44" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G44" s="105"/>
+      <c r="G44" s="141"/>
       <c r="H44" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I44" s="108" t="s">
+      <c r="I44" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="101"/>
+      <c r="J44" s="116"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4588,23 +4609,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
+      <c r="A45" s="131"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="101"/>
+      <c r="D45" s="116"/>
       <c r="F45" s="79" t="s">
-        <v>514</v>
-      </c>
-      <c r="G45" s="105"/>
+        <v>512</v>
+      </c>
+      <c r="G45" s="141"/>
       <c r="H45" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I45" s="108" t="s">
+      <c r="I45" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="J45" s="101"/>
+      <c r="J45" s="116"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4622,20 +4643,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="109" t="s">
-        <v>527</v>
-      </c>
-      <c r="D46" s="110"/>
+      <c r="C46" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="D46" s="124"/>
       <c r="E46" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="105"/>
-      <c r="I46" s="108" t="s">
+      <c r="G46" s="141"/>
+      <c r="I46" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="J46" s="101"/>
+      <c r="J46" s="116"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4653,20 +4674,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="D47" s="101"/>
-      <c r="E47" s="142" t="s">
+      <c r="D47" s="116"/>
+      <c r="E47" s="99" t="s">
         <v>387</v>
       </c>
-      <c r="G47" s="105"/>
-      <c r="I47" s="108" t="s">
-        <v>505</v>
-      </c>
-      <c r="J47" s="101"/>
+      <c r="G47" s="141"/>
+      <c r="I47" s="115" t="s">
+        <v>503</v>
+      </c>
+      <c r="J47" s="116"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4684,20 +4705,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="C48" s="108" t="s">
-        <v>481</v>
-      </c>
-      <c r="D48" s="101"/>
-      <c r="E48" s="142" t="s">
+      <c r="A48" s="131"/>
+      <c r="C48" s="115" t="s">
+        <v>480</v>
+      </c>
+      <c r="D48" s="116"/>
+      <c r="E48" s="99" t="s">
         <v>388</v>
       </c>
       <c r="F48" s="69"/>
-      <c r="G48" s="105"/>
-      <c r="I48" s="115" t="s">
-        <v>569</v>
-      </c>
-      <c r="J48" s="116"/>
+      <c r="G48" s="141"/>
+      <c r="I48" s="145" t="s">
+        <v>566</v>
+      </c>
+      <c r="J48" s="146"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4715,21 +4736,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="106" t="s">
-        <v>516</v>
-      </c>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108" t="s">
-        <v>456</v>
-      </c>
-      <c r="F49" s="101"/>
-      <c r="G49" s="105"/>
-      <c r="I49" s="115" t="s">
-        <v>570</v>
-      </c>
-      <c r="J49" s="116"/>
+      <c r="C49" s="119" t="s">
+        <v>514</v>
+      </c>
+      <c r="D49" s="120"/>
+      <c r="E49" s="115" t="s">
+        <v>455</v>
+      </c>
+      <c r="F49" s="116"/>
+      <c r="G49" s="141"/>
+      <c r="I49" s="145" t="s">
+        <v>567</v>
+      </c>
+      <c r="J49" s="146"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4747,19 +4768,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="108" t="s">
-        <v>482</v>
-      </c>
-      <c r="D50" s="101"/>
+      <c r="C50" s="115" t="s">
+        <v>481</v>
+      </c>
+      <c r="D50" s="116"/>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
-      <c r="G50" s="105"/>
-      <c r="I50" s="108" t="s">
-        <v>484</v>
-      </c>
-      <c r="J50" s="101"/>
+      <c r="G50" s="141"/>
+      <c r="I50" s="115" t="s">
+        <v>483</v>
+      </c>
+      <c r="J50" s="116"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4777,15 +4798,15 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
+      <c r="A51" s="131"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="158" t="s">
-        <v>503</v>
-      </c>
-      <c r="D51" s="157"/>
+      <c r="C51" s="112" t="s">
+        <v>501</v>
+      </c>
+      <c r="D51" s="111"/>
       <c r="E51" s="69"/>
       <c r="F51" s="69"/>
-      <c r="G51" s="105"/>
+      <c r="G51" s="141"/>
       <c r="I51" s="70"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4804,17 +4825,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="100"/>
-      <c r="C52" s="108" t="s">
+      <c r="A52" s="132"/>
+      <c r="C52" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="101"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
-      <c r="G52" s="105"/>
+      <c r="G52" s="141"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="123"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="144"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4838,7 +4859,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="105"/>
+      <c r="G53" s="141"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -4859,11 +4880,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="117" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="G54" s="105"/>
+      <c r="G54" s="141"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4881,8 +4902,8 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="134"/>
-      <c r="G55" s="105"/>
+      <c r="A55" s="118"/>
+      <c r="G55" s="141"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4900,7 +4921,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="134"/>
+      <c r="A56" s="118"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4926,7 +4947,7 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="134"/>
+      <c r="A57" s="118"/>
       <c r="D57" s="69" t="s">
         <v>46</v>
       </c>
@@ -4936,8 +4957,8 @@
       <c r="F57" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="104" t="s">
-        <v>424</v>
+      <c r="G57" s="140" t="s">
+        <v>423</v>
       </c>
       <c r="H57" s="28" t="s">
         <v>10</v>
@@ -4962,8 +4983,8 @@
       <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
-      <c r="C58" s="145" t="s">
+      <c r="A58" s="118"/>
+      <c r="C58" s="102" t="s">
         <v>357</v>
       </c>
       <c r="D58" s="69" t="s">
@@ -4972,7 +4993,7 @@
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="105"/>
+      <c r="G58" s="141"/>
       <c r="H58" s="23" t="s">
         <v>362</v>
       </c>
@@ -4999,28 +5020,28 @@
       <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="134"/>
+      <c r="A59" s="118"/>
       <c r="C59" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="D59" s="141" t="s">
+      <c r="D59" s="98" t="s">
         <v>284</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F59" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="G59" s="105"/>
+      <c r="G59" s="141"/>
       <c r="H59" s="23" t="s">
         <v>363</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K59" s="80"/>
       <c r="L59" s="80"/>
@@ -5041,7 +5062,7 @@
       <c r="AA59" s="81"/>
     </row>
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="134"/>
+      <c r="A60" s="118"/>
       <c r="C60" s="4" t="s">
         <v>360</v>
       </c>
@@ -5052,15 +5073,15 @@
       <c r="F60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="105"/>
+      <c r="G60" s="141"/>
       <c r="H60" s="23" t="s">
         <v>364</v>
       </c>
       <c r="I60" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J60" s="141" t="s">
-        <v>518</v>
+      <c r="J60" s="98" t="s">
+        <v>516</v>
       </c>
       <c r="K60" s="80"/>
       <c r="L60" s="80"/>
@@ -5081,24 +5102,24 @@
       <c r="AA60" s="81"/>
     </row>
     <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="134"/>
+      <c r="A61" s="118"/>
       <c r="C61" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D61" s="141" t="s">
+      <c r="D61" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="145" t="s">
+      <c r="E61" s="102" t="s">
         <v>288</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G61" s="105"/>
+      <c r="G61" s="141"/>
       <c r="H61" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="I61" s="141" t="s">
+        <v>561</v>
+      </c>
+      <c r="I61" s="98" t="s">
         <v>290</v>
       </c>
       <c r="J61" s="24" t="s">
@@ -5123,28 +5144,28 @@
       <c r="AA61" s="81"/>
     </row>
     <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="134"/>
+      <c r="A62" s="118"/>
       <c r="C62" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="D62" s="141" t="s">
+        <v>441</v>
+      </c>
+      <c r="D62" s="98" t="s">
         <v>286</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F62" s="88" t="s">
-        <v>524</v>
-      </c>
-      <c r="G62" s="105"/>
+        <v>522</v>
+      </c>
+      <c r="G62" s="141"/>
       <c r="H62" s="23" t="s">
         <v>365</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K62" s="80"/>
       <c r="L62" s="80"/>
@@ -5165,7 +5186,7 @@
       <c r="AA62" s="81"/>
     </row>
     <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="134"/>
+      <c r="A63" s="118"/>
       <c r="C63" s="23" t="s">
         <v>240</v>
       </c>
@@ -5176,7 +5197,7 @@
       <c r="F63" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="105"/>
+      <c r="G63" s="141"/>
       <c r="H63" s="23" t="s">
         <v>366</v>
       </c>
@@ -5202,19 +5223,19 @@
       <c r="AA63" s="81"/>
     </row>
     <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="134"/>
-      <c r="C64" s="145" t="s">
+      <c r="A64" s="118"/>
+      <c r="C64" s="102" t="s">
         <v>391</v>
       </c>
       <c r="D64" s="69" t="s">
         <v>337</v>
       </c>
-      <c r="G64" s="105"/>
+      <c r="G64" s="141"/>
       <c r="H64" s="23" t="s">
         <v>367</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J64" s="23" t="s">
         <v>291</v>
@@ -5238,7 +5259,7 @@
       <c r="AA64" s="81"/>
     </row>
     <row r="65" spans="1:27" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="134"/>
+      <c r="A65" s="118"/>
       <c r="D65" s="23" t="s">
         <v>39</v>
       </c>
@@ -5246,9 +5267,9 @@
         <v>25</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="G65" s="105"/>
+        <v>543</v>
+      </c>
+      <c r="G65" s="141"/>
       <c r="H65" s="23" t="s">
         <v>368</v>
       </c>
@@ -5272,19 +5293,19 @@
       <c r="AA65" s="81"/>
     </row>
     <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="134"/>
+      <c r="A66" s="118"/>
       <c r="B66" s="82"/>
-      <c r="C66" s="146" t="s">
+      <c r="C66" s="103" t="s">
         <v>406</v>
       </c>
-      <c r="D66" s="141" t="s">
-        <v>560</v>
+      <c r="D66" s="98" t="s">
+        <v>557</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="G66" s="105"/>
+        <v>542</v>
+      </c>
+      <c r="G66" s="141"/>
       <c r="H66" s="23" t="s">
         <v>370</v>
       </c>
@@ -5310,17 +5331,17 @@
       <c r="AA66" s="81"/>
     </row>
     <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="134"/>
-      <c r="C67" s="145" t="s">
+      <c r="A67" s="118"/>
+      <c r="C67" s="102" t="s">
+        <v>541</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="F67" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="D67" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="G67" s="105"/>
+      <c r="G67" s="141"/>
       <c r="H67" s="23" t="s">
         <v>371</v>
       </c>
@@ -5328,7 +5349,7 @@
         <v>45</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K67" s="80"/>
       <c r="L67" s="80"/>
@@ -5349,24 +5370,24 @@
       <c r="AA67" s="81"/>
     </row>
     <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="134"/>
+      <c r="A68" s="118"/>
       <c r="C68" s="90" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="F68" s="147" t="s">
+        <v>507</v>
+      </c>
+      <c r="F68" s="104" t="s">
         <v>405</v>
       </c>
-      <c r="G68" s="105"/>
+      <c r="G68" s="141"/>
       <c r="H68" s="23" t="s">
         <v>372</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="J68" s="147" t="s">
+        <v>556</v>
+      </c>
+      <c r="J68" s="104" t="s">
         <v>403</v>
       </c>
       <c r="K68" s="80"/>
@@ -5388,12 +5409,12 @@
       <c r="AA68" s="81"/>
     </row>
     <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="134"/>
+      <c r="A69" s="118"/>
       <c r="B69" s="83"/>
-      <c r="C69" s="135" t="s">
+      <c r="C69" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="136"/>
+      <c r="D69" s="129"/>
       <c r="G69" s="69"/>
       <c r="H69" s="23" t="s">
         <v>373</v>
@@ -5415,22 +5436,22 @@
       <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="134"/>
+      <c r="A70" s="118"/>
       <c r="B70" s="83"/>
-      <c r="C70" s="108" t="s">
+      <c r="C70" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="101"/>
-      <c r="G70" s="111" t="s">
-        <v>496</v>
+      <c r="D70" s="116"/>
+      <c r="G70" s="157" t="s">
+        <v>494</v>
       </c>
       <c r="H70" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="I70" s="108" t="s">
+      <c r="I70" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="J70" s="101"/>
+      <c r="J70" s="116"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -5448,24 +5469,24 @@
       <c r="Y70" s="13"/>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="134"/>
+      <c r="A71" s="118"/>
       <c r="B71" s="83"/>
-      <c r="C71" s="108" t="s">
+      <c r="C71" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="101"/>
-      <c r="E71" s="108" t="s">
-        <v>463</v>
-      </c>
-      <c r="F71" s="101"/>
-      <c r="G71" s="112"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="F71" s="116"/>
+      <c r="G71" s="158"/>
       <c r="H71" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="I71" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="I71" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="J71" s="101"/>
+      <c r="J71" s="116"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
@@ -5483,26 +5504,26 @@
       <c r="Y71" s="13"/>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="134"/>
+      <c r="A72" s="118"/>
       <c r="B72" s="83"/>
-      <c r="C72" s="109" t="s">
-        <v>530</v>
-      </c>
-      <c r="D72" s="110"/>
-      <c r="E72" s="108" t="s">
+      <c r="C72" s="123" t="s">
+        <v>528</v>
+      </c>
+      <c r="D72" s="124"/>
+      <c r="E72" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="101"/>
+      <c r="F72" s="116"/>
       <c r="G72" s="95" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I72" s="108" t="s">
+      <c r="I72" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="J72" s="101"/>
+      <c r="J72" s="116"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
@@ -5520,24 +5541,24 @@
       <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="134"/>
+      <c r="A73" s="118"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="108" t="s">
+      <c r="C73" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="D73" s="101"/>
-      <c r="E73" s="108" t="s">
+      <c r="D73" s="116"/>
+      <c r="E73" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="F73" s="101"/>
+      <c r="F73" s="116"/>
       <c r="G73" s="69"/>
-      <c r="H73" s="148" t="s">
-        <v>517</v>
-      </c>
-      <c r="I73" s="108" t="s">
-        <v>506</v>
-      </c>
-      <c r="J73" s="101"/>
+      <c r="H73" s="105" t="s">
+        <v>515</v>
+      </c>
+      <c r="I73" s="115" t="s">
+        <v>504</v>
+      </c>
+      <c r="J73" s="116"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5555,16 +5576,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="134"/>
-      <c r="E74" s="115" t="s">
-        <v>571</v>
-      </c>
-      <c r="F74" s="116"/>
+      <c r="A74" s="118"/>
+      <c r="E74" s="145" t="s">
+        <v>568</v>
+      </c>
+      <c r="F74" s="146"/>
       <c r="G74" s="69"/>
-      <c r="I74" s="108" t="s">
+      <c r="I74" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="J74" s="101"/>
+      <c r="J74" s="116"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5582,19 +5603,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="134"/>
+      <c r="A75" s="118"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="113" t="s">
+      <c r="C75" s="115"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="F75" s="114"/>
+      <c r="F75" s="134"/>
       <c r="G75" s="69"/>
-      <c r="I75" s="106" t="s">
-        <v>451</v>
-      </c>
-      <c r="J75" s="107"/>
+      <c r="I75" s="119" t="s">
+        <v>450</v>
+      </c>
+      <c r="J75" s="120"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5612,17 +5633,17 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="134"/>
+      <c r="A76" s="118"/>
       <c r="B76" s="6"/>
       <c r="C76" s="70"/>
       <c r="D76" s="71"/>
-      <c r="E76" s="108" t="s">
-        <v>431</v>
-      </c>
-      <c r="F76" s="101"/>
+      <c r="E76" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="F76" s="116"/>
       <c r="G76" s="69"/>
       <c r="J76" s="91" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5667,7 +5688,7 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="98" t="s">
+      <c r="A78" s="130" t="s">
         <v>55</v>
       </c>
       <c r="B78" s="12"/>
@@ -5675,19 +5696,19 @@
         <v>341</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="102" t="s">
-        <v>423</v>
+      <c r="G78" s="156" t="s">
+        <v>422</v>
       </c>
       <c r="H78" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="69" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -5708,9 +5729,9 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="99"/>
+      <c r="A79" s="131"/>
       <c r="C79" s="84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D79" s="69" t="s">
         <v>58</v>
@@ -5721,7 +5742,7 @@
       <c r="F79" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="G79" s="103"/>
+      <c r="G79" s="122"/>
       <c r="H79" s="4" t="s">
         <v>374</v>
       </c>
@@ -5747,7 +5768,7 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="99"/>
+      <c r="A80" s="131"/>
       <c r="C80" s="2" t="s">
         <v>62</v>
       </c>
@@ -5760,7 +5781,7 @@
       <c r="F80" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="103"/>
+      <c r="G80" s="122"/>
       <c r="H80" s="4" t="s">
         <v>375</v>
       </c>
@@ -5787,17 +5808,17 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="99"/>
-      <c r="C81" s="141" t="s">
+      <c r="A81" s="131"/>
+      <c r="C81" s="98" t="s">
         <v>288</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="G81" s="103"/>
+      <c r="G81" s="122"/>
       <c r="H81" s="4" t="s">
         <v>376</v>
       </c>
@@ -5805,7 +5826,7 @@
         <v>49</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5824,25 +5845,25 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="99"/>
+      <c r="A82" s="131"/>
       <c r="C82" s="5" t="s">
         <v>292</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="145" t="s">
+      <c r="E82" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="F82" s="141" t="s">
-        <v>578</v>
-      </c>
-      <c r="G82" s="103"/>
+      <c r="F82" s="98" t="s">
+        <v>575</v>
+      </c>
+      <c r="G82" s="122"/>
       <c r="H82" s="4" t="s">
         <v>377</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5860,8 +5881,8 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="99"/>
-      <c r="D83" s="141" t="s">
+      <c r="A83" s="131"/>
+      <c r="D83" s="98" t="s">
         <v>287</v>
       </c>
       <c r="E83" s="23" t="s">
@@ -5870,11 +5891,11 @@
       <c r="F83" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G83" s="103"/>
+      <c r="G83" s="122"/>
       <c r="H83" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="I83" s="141" t="s">
+        <v>562</v>
+      </c>
+      <c r="I83" s="98" t="s">
         <v>285</v>
       </c>
       <c r="J83" s="69" t="s">
@@ -5897,20 +5918,20 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="99"/>
+      <c r="A84" s="131"/>
       <c r="C84" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G84" s="103"/>
+      <c r="G84" s="122"/>
       <c r="H84" s="73" t="s">
         <v>397</v>
       </c>
@@ -5937,7 +5958,7 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="99"/>
+      <c r="A85" s="131"/>
       <c r="C85" s="4" t="s">
         <v>393</v>
       </c>
@@ -5945,12 +5966,12 @@
         <v>358</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G85" s="103"/>
+      <c r="G85" s="122"/>
       <c r="H85" s="4" t="s">
         <v>398</v>
       </c>
@@ -5958,7 +5979,7 @@
         <v>411</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5977,17 +5998,17 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="99"/>
+      <c r="A86" s="131"/>
       <c r="C86" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="E86" s="149" t="s">
-        <v>572</v>
+        <v>546</v>
+      </c>
+      <c r="E86" s="106" t="s">
+        <v>569</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="G86" s="103"/>
+        <v>537</v>
+      </c>
+      <c r="G86" s="122"/>
       <c r="H86" s="2" t="s">
         <v>378</v>
       </c>
@@ -6016,19 +6037,19 @@
       <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="99"/>
+      <c r="A87" s="131"/>
       <c r="E87" s="73" t="s">
         <v>394</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G87" s="103"/>
+      <c r="G87" s="122"/>
       <c r="H87" s="2" t="s">
         <v>379</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>301</v>
@@ -6051,15 +6072,15 @@
       <c r="AA87" s="31"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="99"/>
+      <c r="A88" s="131"/>
       <c r="C88" s="2"/>
       <c r="E88" s="89" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G88" s="103"/>
+      <c r="G88" s="122"/>
       <c r="H88" s="1" t="s">
         <v>380</v>
       </c>
@@ -6081,10 +6102,10 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="99"/>
+      <c r="A89" s="131"/>
       <c r="B89" s="29"/>
       <c r="G89" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>381</v>
@@ -6113,19 +6134,19 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="99"/>
-      <c r="C90" s="106" t="s">
-        <v>502</v>
-      </c>
-      <c r="D90" s="107"/>
+      <c r="A90" s="131"/>
+      <c r="C90" s="119" t="s">
+        <v>500</v>
+      </c>
+      <c r="D90" s="120"/>
       <c r="G90" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>382</v>
       </c>
       <c r="I90" s="89" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6146,11 +6167,11 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="99"/>
-      <c r="C91" s="106" t="s">
+      <c r="A91" s="131"/>
+      <c r="C91" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="D91" s="152"/>
+      <c r="D91" s="155"/>
       <c r="H91" s="1" t="s">
         <v>383</v>
       </c>
@@ -6176,11 +6197,11 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="99"/>
+      <c r="A92" s="131"/>
       <c r="E92" s="61"/>
       <c r="G92" s="32"/>
       <c r="H92" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J92" s="69"/>
       <c r="K92" s="16"/>
@@ -6202,13 +6223,13 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="99"/>
+      <c r="A93" s="131"/>
       <c r="C93" s="85" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="78" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J93" s="69"/>
       <c r="K93" s="9"/>
@@ -6228,22 +6249,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="99"/>
+      <c r="A94" s="131"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="108" t="s">
+      <c r="C94" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="D94" s="101"/>
-      <c r="E94" s="108" t="s">
+      <c r="D94" s="116"/>
+      <c r="E94" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="F94" s="101"/>
+      <c r="F94" s="116"/>
       <c r="G94" s="32"/>
       <c r="H94" s="69"/>
-      <c r="I94" s="108" t="s">
+      <c r="I94" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="J94" s="101"/>
+      <c r="J94" s="116"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -6261,22 +6282,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="99"/>
+      <c r="A95" s="131"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="108" t="s">
-        <v>461</v>
-      </c>
-      <c r="D95" s="101"/>
-      <c r="E95" s="108" t="s">
+      <c r="C95" s="115" t="s">
+        <v>460</v>
+      </c>
+      <c r="D95" s="116"/>
+      <c r="E95" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="F95" s="101"/>
+      <c r="F95" s="116"/>
       <c r="G95" s="32"/>
       <c r="H95" s="69"/>
-      <c r="I95" s="108" t="s">
+      <c r="I95" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="J95" s="101"/>
+      <c r="J95" s="116"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -6294,21 +6315,21 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="99"/>
+      <c r="A96" s="131"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="108" t="s">
+      <c r="C96" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="D96" s="101"/>
-      <c r="E96" s="126" t="s">
-        <v>553</v>
-      </c>
-      <c r="F96" s="103"/>
+      <c r="D96" s="116"/>
+      <c r="E96" s="125" t="s">
+        <v>550</v>
+      </c>
+      <c r="F96" s="122"/>
       <c r="G96" s="32"/>
-      <c r="H96" s="108" t="s">
-        <v>563</v>
-      </c>
-      <c r="I96" s="101"/>
+      <c r="H96" s="115" t="s">
+        <v>560</v>
+      </c>
+      <c r="I96" s="116"/>
       <c r="J96" s="61"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6327,22 +6348,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="99"/>
+      <c r="A97" s="131"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="108" t="s">
-        <v>504</v>
-      </c>
-      <c r="D97" s="101"/>
-      <c r="E97" s="126" t="s">
-        <v>552</v>
-      </c>
-      <c r="F97" s="103"/>
+      <c r="C97" s="115" t="s">
+        <v>502</v>
+      </c>
+      <c r="D97" s="116"/>
+      <c r="E97" s="125" t="s">
+        <v>549</v>
+      </c>
+      <c r="F97" s="122"/>
       <c r="G97" s="32"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="106" t="s">
-        <v>535</v>
-      </c>
-      <c r="J97" s="107"/>
+      <c r="I97" s="119" t="s">
+        <v>533</v>
+      </c>
+      <c r="J97" s="120"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6360,20 +6381,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="99"/>
+      <c r="A98" s="131"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="108" t="s">
+      <c r="C98" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="D98" s="101"/>
-      <c r="E98" s="126" t="s">
+      <c r="D98" s="116"/>
+      <c r="E98" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="103"/>
+      <c r="F98" s="122"/>
       <c r="G98" s="32"/>
       <c r="H98" s="75"/>
-      <c r="I98" s="122"/>
-      <c r="J98" s="123"/>
+      <c r="I98" s="143"/>
+      <c r="J98" s="144"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6391,16 +6412,16 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="99"/>
+      <c r="A99" s="131"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="113" t="s">
+      <c r="C99" s="133" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="114"/>
-      <c r="E99" s="113" t="s">
+      <c r="D99" s="134"/>
+      <c r="E99" s="133" t="s">
         <v>407</v>
       </c>
-      <c r="F99" s="114"/>
+      <c r="F99" s="134"/>
       <c r="G99" s="32"/>
       <c r="H99" s="75"/>
       <c r="J99" s="75"/>
@@ -6421,14 +6442,14 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="99"/>
+      <c r="A100" s="131"/>
       <c r="B100" s="6"/>
       <c r="C100" s="70"/>
       <c r="D100" s="71"/>
-      <c r="E100" s="108" t="s">
-        <v>485</v>
-      </c>
-      <c r="F100" s="101"/>
+      <c r="E100" s="115" t="s">
+        <v>484</v>
+      </c>
+      <c r="F100" s="116"/>
       <c r="G100" s="32"/>
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
@@ -6450,14 +6471,14 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="99"/>
+      <c r="A101" s="131"/>
       <c r="B101" s="6"/>
       <c r="C101" s="70"/>
       <c r="D101" s="71"/>
-      <c r="E101" s="117" t="s">
+      <c r="E101" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="117"/>
+      <c r="F101" s="148"/>
       <c r="G101" s="32"/>
       <c r="H101" s="75"/>
       <c r="J101" s="75"/>
@@ -6478,12 +6499,12 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="100"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="6"/>
       <c r="C102" s="70"/>
       <c r="D102" s="71"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="101"/>
+      <c r="E102" s="115"/>
+      <c r="F102" s="116"/>
       <c r="G102" s="32"/>
       <c r="H102" s="75"/>
       <c r="J102" s="75"/>
@@ -6557,7 +6578,7 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="131" t="s">
+      <c r="A105" s="127" t="s">
         <v>65</v>
       </c>
       <c r="B105" s="12"/>
@@ -6571,10 +6592,10 @@
         <v>351</v>
       </c>
       <c r="F105" s="88" t="s">
-        <v>524</v>
-      </c>
-      <c r="G105" s="155" t="s">
-        <v>537</v>
+        <v>522</v>
+      </c>
+      <c r="G105" s="109" t="s">
+        <v>534</v>
       </c>
       <c r="H105" s="34" t="s">
         <v>66</v>
@@ -6602,7 +6623,7 @@
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="103"/>
+      <c r="A106" s="122"/>
       <c r="C106" s="15" t="s">
         <v>345</v>
       </c>
@@ -6615,12 +6636,12 @@
       <c r="F106" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="156" t="s">
-        <v>576</v>
+      <c r="G106" s="110" t="s">
+        <v>573</v>
       </c>
       <c r="H106" s="34"/>
       <c r="I106" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J106" s="69" t="s">
         <v>68</v>
@@ -6642,7 +6663,7 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="103"/>
+      <c r="A107" s="122"/>
       <c r="C107" s="69" t="s">
         <v>346</v>
       </c>
@@ -6656,10 +6677,10 @@
         <v>50</v>
       </c>
       <c r="G107" s="97" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>35</v>
@@ -6684,7 +6705,7 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="103"/>
+      <c r="A108" s="122"/>
       <c r="C108" s="2" t="s">
         <v>347</v>
       </c>
@@ -6697,14 +6718,14 @@
       <c r="F108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="104" t="s">
-        <v>424</v>
+      <c r="G108" s="140" t="s">
+        <v>423</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>409</v>
       </c>
       <c r="I108" s="92" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J108" s="69" t="s">
         <v>38</v>
@@ -6726,14 +6747,14 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="103"/>
-      <c r="D109" s="141" t="s">
+      <c r="A109" s="122"/>
+      <c r="D109" s="98" t="s">
         <v>303</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="G109" s="105"/>
+        <v>446</v>
+      </c>
+      <c r="G109" s="141"/>
       <c r="H109" s="2" t="s">
         <v>410</v>
       </c>
@@ -6760,8 +6781,8 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="103"/>
-      <c r="D110" s="141" t="s">
+      <c r="A110" s="122"/>
+      <c r="D110" s="98" t="s">
         <v>349</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -6770,7 +6791,7 @@
       <c r="F110" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="105"/>
+      <c r="G110" s="141"/>
       <c r="I110" s="69"/>
       <c r="J110" s="69"/>
       <c r="K110" s="16"/>
@@ -6792,14 +6813,14 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="103"/>
-      <c r="D111" s="141" t="s">
-        <v>446</v>
+      <c r="A111" s="122"/>
+      <c r="D111" s="98" t="s">
+        <v>445</v>
       </c>
       <c r="F111" s="69" t="s">
-        <v>539</v>
-      </c>
-      <c r="G111" s="105"/>
+        <v>536</v>
+      </c>
+      <c r="G111" s="141"/>
       <c r="H111" s="36"/>
       <c r="I111" s="4" t="s">
         <v>233</v>
@@ -6824,11 +6845,11 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="103"/>
+      <c r="A112" s="122"/>
       <c r="D112" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="G112" s="105"/>
+      <c r="G112" s="141"/>
       <c r="H112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6850,12 +6871,12 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="103"/>
+      <c r="A113" s="122"/>
       <c r="C113" s="69"/>
       <c r="E113" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="G113" s="105"/>
+      <c r="G113" s="141"/>
       <c r="H113" s="34"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6877,11 +6898,11 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="103"/>
+      <c r="A114" s="122"/>
       <c r="E114" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="G114" s="105"/>
+        <v>547</v>
+      </c>
+      <c r="G114" s="141"/>
       <c r="H114" s="36"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6902,15 +6923,15 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="103"/>
+      <c r="A115" s="122"/>
       <c r="D115" s="69"/>
       <c r="E115" s="4" t="s">
         <v>400</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G115" s="105"/>
+        <v>438</v>
+      </c>
+      <c r="G115" s="141"/>
       <c r="H115" s="36"/>
       <c r="J115" s="69"/>
       <c r="K115" s="16"/>
@@ -6932,11 +6953,11 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="103"/>
+      <c r="A116" s="122"/>
       <c r="E116" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="G116" s="105"/>
+        <v>548</v>
+      </c>
+      <c r="G116" s="141"/>
       <c r="H116" s="69" t="s">
         <v>32</v>
       </c>
@@ -6959,22 +6980,22 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="103"/>
+      <c r="A117" s="122"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="108"/>
-      <c r="D117" s="101"/>
-      <c r="E117" s="108" t="s">
+      <c r="C117" s="115"/>
+      <c r="D117" s="116"/>
+      <c r="E117" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="F117" s="101"/>
-      <c r="G117" s="105"/>
+      <c r="F117" s="116"/>
+      <c r="G117" s="141"/>
       <c r="H117" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I117" s="108" t="s">
+      <c r="I117" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="J117" s="101"/>
+      <c r="J117" s="116"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -6994,15 +7015,15 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="103"/>
+      <c r="A118" s="122"/>
       <c r="C118" s="85" t="s">
-        <v>521</v>
-      </c>
-      <c r="G118" s="105"/>
-      <c r="H118" s="115" t="s">
-        <v>459</v>
-      </c>
-      <c r="I118" s="116"/>
+        <v>519</v>
+      </c>
+      <c r="G118" s="141"/>
+      <c r="H118" s="145" t="s">
+        <v>458</v>
+      </c>
+      <c r="I118" s="146"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -7022,21 +7043,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="103"/>
+      <c r="A119" s="122"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="108" t="s">
-        <v>458</v>
-      </c>
-      <c r="D119" s="101"/>
-      <c r="E119" s="108" t="s">
+      <c r="C119" s="115" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" s="116"/>
+      <c r="E119" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="F119" s="101"/>
-      <c r="G119" s="105"/>
-      <c r="I119" s="108" t="s">
+      <c r="F119" s="116"/>
+      <c r="G119" s="141"/>
+      <c r="I119" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="J119" s="101"/>
+      <c r="J119" s="116"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -7056,22 +7077,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="103"/>
+      <c r="A120" s="122"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="108" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" s="101"/>
-      <c r="E120" s="113" t="s">
+      <c r="C120" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120" s="116"/>
+      <c r="E120" s="133" t="s">
         <v>414</v>
       </c>
-      <c r="F120" s="114"/>
+      <c r="F120" s="134"/>
       <c r="G120" s="35"/>
       <c r="H120" s="36"/>
-      <c r="I120" s="108" t="s">
+      <c r="I120" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="J120" s="101"/>
+      <c r="J120" s="116"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -7091,22 +7112,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="103"/>
+      <c r="A121" s="122"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="108" t="s">
-        <v>460</v>
-      </c>
-      <c r="D121" s="101"/>
-      <c r="E121" s="106" t="s">
-        <v>536</v>
-      </c>
-      <c r="F121" s="107"/>
+      <c r="C121" s="115" t="s">
+        <v>459</v>
+      </c>
+      <c r="D121" s="116"/>
+      <c r="E121" s="161" t="s">
+        <v>577</v>
+      </c>
+      <c r="F121" s="151"/>
       <c r="G121" s="35"/>
       <c r="H121" s="36"/>
-      <c r="I121" s="108" t="s">
+      <c r="I121" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="J121" s="101"/>
+      <c r="J121" s="116"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -7126,16 +7147,16 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="103"/>
+      <c r="A122" s="122"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="108" t="s">
+      <c r="C122" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="D122" s="101"/>
-      <c r="E122" s="108" t="s">
-        <v>432</v>
-      </c>
-      <c r="F122" s="101"/>
+      <c r="D122" s="116"/>
+      <c r="E122" s="115" t="s">
+        <v>431</v>
+      </c>
+      <c r="F122" s="116"/>
       <c r="G122" s="35"/>
       <c r="H122" s="36"/>
       <c r="K122" s="16"/>
@@ -7157,20 +7178,20 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="103"/>
+      <c r="A123" s="122"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="108" t="s">
+      <c r="C123" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="D123" s="101"/>
-      <c r="E123" s="117" t="s">
-        <v>466</v>
-      </c>
-      <c r="F123" s="103"/>
+      <c r="D123" s="116"/>
+      <c r="E123" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="F123" s="122"/>
       <c r="G123" s="35"/>
       <c r="H123" s="36"/>
-      <c r="I123" s="106"/>
-      <c r="J123" s="107"/>
+      <c r="I123" s="119"/>
+      <c r="J123" s="120"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7190,20 +7211,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="103"/>
+      <c r="A124" s="122"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="139" t="s">
-        <v>573</v>
-      </c>
-      <c r="D124" s="119"/>
+      <c r="C124" s="150" t="s">
+        <v>570</v>
+      </c>
+      <c r="D124" s="151"/>
       <c r="G124" s="35"/>
-      <c r="H124" s="144" t="s">
-        <v>427</v>
-      </c>
-      <c r="I124" s="139" t="s">
-        <v>574</v>
-      </c>
-      <c r="J124" s="116"/>
+      <c r="H124" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="I124" s="150" t="s">
+        <v>571</v>
+      </c>
+      <c r="J124" s="146"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7223,16 +7244,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="103"/>
+      <c r="A125" s="122"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="101"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="116"/>
       <c r="G125" s="35"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="140" t="s">
-        <v>486</v>
-      </c>
-      <c r="J125" s="123"/>
+      <c r="I125" s="154" t="s">
+        <v>485</v>
+      </c>
+      <c r="J125" s="144"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7252,10 +7273,10 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="103"/>
+      <c r="A126" s="122"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="108"/>
-      <c r="D126" s="101"/>
+      <c r="C126" s="115"/>
+      <c r="D126" s="116"/>
       <c r="G126" s="35"/>
       <c r="H126" s="36"/>
       <c r="K126" s="16"/>
@@ -7277,7 +7298,7 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="103"/>
+      <c r="A127" s="122"/>
       <c r="B127" s="6"/>
       <c r="C127" s="70"/>
       <c r="D127" s="71"/>
@@ -7355,7 +7376,7 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="98" t="s">
+      <c r="A130" s="130" t="s">
         <v>73</v>
       </c>
       <c r="B130" s="74"/>
@@ -7392,7 +7413,7 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="99"/>
+      <c r="A131" s="131"/>
       <c r="C131" s="23" t="s">
         <v>309</v>
       </c>
@@ -7403,8 +7424,8 @@
         <v>67</v>
       </c>
       <c r="H131" s="11"/>
-      <c r="I131" s="127"/>
-      <c r="J131" s="103"/>
+      <c r="I131" s="149"/>
+      <c r="J131" s="122"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7422,15 +7443,15 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="99"/>
+      <c r="A132" s="131"/>
       <c r="C132" s="23" t="s">
         <v>310</v>
       </c>
       <c r="D132" s="79" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F132" s="88" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="41"/>
@@ -7452,7 +7473,7 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="99"/>
+      <c r="A133" s="131"/>
       <c r="C133" s="23" t="s">
         <v>311</v>
       </c>
@@ -7482,9 +7503,9 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="99"/>
+      <c r="A134" s="131"/>
       <c r="C134" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>312</v>
@@ -7512,7 +7533,7 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="99"/>
+      <c r="A135" s="131"/>
       <c r="C135" s="23" t="s">
         <v>264</v>
       </c>
@@ -7541,15 +7562,15 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="99"/>
+      <c r="A136" s="131"/>
       <c r="C136" s="4" t="s">
         <v>408</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E136" s="141" t="s">
-        <v>478</v>
+      <c r="E136" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="43"/>
@@ -7571,14 +7592,14 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="99"/>
-      <c r="C137" s="124" t="s">
-        <v>543</v>
+      <c r="A137" s="131"/>
+      <c r="C137" s="121" t="s">
+        <v>540</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E137" s="142" t="s">
+      <c r="E137" s="99" t="s">
         <v>401</v>
       </c>
       <c r="G137" s="2"/>
@@ -7601,15 +7622,15 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="99"/>
-      <c r="C138" s="103"/>
+      <c r="A138" s="131"/>
+      <c r="C138" s="122"/>
       <c r="D138" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E138" s="108" t="s">
+      <c r="E138" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="F138" s="101"/>
+      <c r="F138" s="116"/>
       <c r="G138" s="2"/>
       <c r="H138" s="43"/>
       <c r="I138" s="43"/>
@@ -7631,14 +7652,14 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="99"/>
+      <c r="A139" s="131"/>
       <c r="C139" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F139" s="126" t="s">
-        <v>492</v>
-      </c>
-      <c r="G139" s="103"/>
+      <c r="F139" s="125" t="s">
+        <v>490</v>
+      </c>
+      <c r="G139" s="122"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
       <c r="J139" s="11"/>
@@ -7659,14 +7680,14 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="99"/>
+      <c r="A140" s="131"/>
       <c r="C140" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F140" s="118" t="s">
+      <c r="F140" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="G140" s="103"/>
+      <c r="G140" s="122"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
       <c r="J140" s="11"/>
@@ -7687,15 +7708,15 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="99"/>
-      <c r="C141" s="150" t="s">
+      <c r="A141" s="131"/>
+      <c r="C141" s="107" t="s">
         <v>404</v>
       </c>
       <c r="E141" s="61"/>
-      <c r="F141" s="118" t="s">
+      <c r="F141" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="G141" s="103"/>
+      <c r="G141" s="122"/>
       <c r="H141" s="43"/>
       <c r="I141" s="43"/>
       <c r="J141" s="11"/>
@@ -7716,9 +7737,9 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="99"/>
+      <c r="A142" s="131"/>
       <c r="E142" s="85" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="43"/>
@@ -7741,12 +7762,12 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="99"/>
+      <c r="A143" s="131"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="108" t="s">
+      <c r="D143" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="E143" s="101"/>
+      <c r="E143" s="116"/>
       <c r="H143" s="43"/>
       <c r="I143" s="43"/>
       <c r="J143" s="11"/>
@@ -7767,16 +7788,16 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="99"/>
+      <c r="A144" s="131"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="108" t="s">
+      <c r="D144" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="E144" s="101"/>
-      <c r="F144" s="113" t="s">
+      <c r="E144" s="116"/>
+      <c r="F144" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="G144" s="114"/>
+      <c r="G144" s="134"/>
       <c r="H144" s="43"/>
       <c r="I144" s="43"/>
       <c r="J144" s="11"/>
@@ -7797,16 +7818,16 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="99"/>
+      <c r="A145" s="131"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="120" t="s">
+      <c r="D145" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="E145" s="121"/>
-      <c r="F145" s="113" t="s">
-        <v>417</v>
-      </c>
-      <c r="G145" s="114"/>
+      <c r="E145" s="153"/>
+      <c r="F145" s="159" t="s">
+        <v>576</v>
+      </c>
+      <c r="G145" s="160"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
       <c r="J145" s="11"/>
@@ -7827,16 +7848,16 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="99"/>
+      <c r="A146" s="131"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="108" t="s">
+      <c r="D146" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E146" s="101"/>
-      <c r="F146" s="137" t="s">
-        <v>488</v>
-      </c>
-      <c r="G146" s="138"/>
+      <c r="E146" s="116"/>
+      <c r="F146" s="135" t="s">
+        <v>486</v>
+      </c>
+      <c r="G146" s="136"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
       <c r="J146" s="11"/>
@@ -7857,12 +7878,12 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="99"/>
+      <c r="A147" s="131"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="108" t="s">
+      <c r="D147" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="E147" s="101"/>
+      <c r="E147" s="116"/>
       <c r="H147" s="43"/>
       <c r="I147" s="43"/>
       <c r="J147" s="11"/>
@@ -7883,12 +7904,12 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="99"/>
+      <c r="A148" s="131"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="106" t="s">
-        <v>487</v>
-      </c>
-      <c r="E148" s="107"/>
+      <c r="D148" s="162" t="s">
+        <v>578</v>
+      </c>
+      <c r="E148" s="163"/>
       <c r="H148" s="43"/>
       <c r="I148" s="43"/>
       <c r="J148" s="11"/>
@@ -7909,12 +7930,12 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="99"/>
+      <c r="A149" s="131"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="126" t="s">
-        <v>555</v>
-      </c>
-      <c r="E149" s="103"/>
+      <c r="D149" s="125" t="s">
+        <v>552</v>
+      </c>
+      <c r="E149" s="122"/>
       <c r="F149" s="2"/>
       <c r="G149" s="35"/>
       <c r="H149" s="11"/>
@@ -7937,12 +7958,12 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="99"/>
+      <c r="A150" s="131"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="126" t="s">
-        <v>554</v>
-      </c>
-      <c r="E150" s="103"/>
+      <c r="D150" s="125" t="s">
+        <v>551</v>
+      </c>
+      <c r="E150" s="122"/>
       <c r="F150" s="2"/>
       <c r="G150" s="32"/>
       <c r="H150" s="11"/>
@@ -7965,12 +7986,12 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="99"/>
+      <c r="A151" s="131"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="126" t="s">
+      <c r="D151" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E151" s="103"/>
+      <c r="E151" s="122"/>
       <c r="F151" s="2"/>
       <c r="G151" s="32"/>
       <c r="H151" s="11"/>
@@ -7993,12 +8014,12 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="100"/>
+      <c r="A152" s="132"/>
       <c r="C152" s="2"/>
-      <c r="E152" s="108" t="s">
-        <v>513</v>
-      </c>
-      <c r="F152" s="101"/>
+      <c r="E152" s="115" t="s">
+        <v>511</v>
+      </c>
+      <c r="F152" s="116"/>
       <c r="G152" s="32"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -8185,10 +8206,10 @@
     <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
-      <c r="C158" s="151" t="s">
+      <c r="C158" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D158" s="151" t="s">
+      <c r="D158" s="108" t="s">
         <v>89</v>
       </c>
       <c r="E158" s="53" t="s">
@@ -8492,7 +8513,7 @@
         <v>148</v>
       </c>
       <c r="H166" s="59" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I166" s="59" t="s">
         <v>149</v>
@@ -8832,10 +8853,10 @@
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="58" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H175" s="58" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I175" s="58" t="s">
         <v>173</v>
@@ -8865,10 +8886,10 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="58" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H176" s="58" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I176" s="58" t="s">
         <v>174</v>
@@ -9307,7 +9328,7 @@
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
       <c r="E192" s="58"/>
-      <c r="F192" s="125"/>
+      <c r="F192" s="147"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9331,7 +9352,7 @@
       <c r="C193" s="58"/>
       <c r="D193" s="58"/>
       <c r="E193" s="58"/>
-      <c r="F193" s="103"/>
+      <c r="F193" s="122"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -9382,7 +9403,7 @@
       <c r="C195" s="58"/>
       <c r="D195" s="58"/>
       <c r="E195" s="58"/>
-      <c r="F195" s="125"/>
+      <c r="F195" s="147"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9409,7 +9430,7 @@
       <c r="C196" s="58"/>
       <c r="D196" s="58"/>
       <c r="E196" s="58"/>
-      <c r="F196" s="103"/>
+      <c r="F196" s="122"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -12983,6 +13004,113 @@
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="A130:A152"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="G78:G88"/>
+    <mergeCell ref="G37:G55"/>
+    <mergeCell ref="G57:G68"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G108:G119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G5:G28"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A30:A52"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I49:J49"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E152:F152"/>
     <mergeCell ref="A54:A76"/>
@@ -13007,113 +13135,6 @@
     <mergeCell ref="C123:D123"/>
     <mergeCell ref="E119:F119"/>
     <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G5:G28"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A30:A52"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G108:G119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A130:A152"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="G78:G88"/>
-    <mergeCell ref="G37:G55"/>
-    <mergeCell ref="G57:G68"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="E76:F76"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\TT_27 jan\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13067FA-8708-4617-90FC-E59BC59324A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FDEA5A-07E4-4219-BF81-1D59F9A2AAF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IV" sheetId="1" r:id="rId1"/>
@@ -1156,9 +1156,6 @@
     <t>LA5,A6(15B11EC611))-G4/RRP</t>
   </si>
   <si>
-    <t>LB14,B16 (CS221)-G7/TKT</t>
-  </si>
-  <si>
     <t>LC1-C3(BT411)-G8/NDH, RD</t>
   </si>
   <si>
@@ -1552,9 +1549,6 @@
     <t>PB9,B10(CS224)-CL19,20/ATI,PRK,AMT</t>
   </si>
   <si>
-    <t>PB14,B16(CS222)-CL10,11/PU,DL,SOS</t>
-  </si>
-  <si>
     <t>LG1,G2 (CS222)-G8/AKM</t>
   </si>
   <si>
@@ -1562,9 +1556,6 @@
   </si>
   <si>
     <t>PB3,B4(CS224)-CL09,10/DEP,ALK,SLK</t>
-  </si>
-  <si>
-    <t>PG1,G2(CS221)-CL10,11/VRN,SHV,DL,RJM</t>
   </si>
   <si>
     <t>PB(25B16CS213)-CL17,18/HN,VIK</t>
@@ -2057,9 +2048,6 @@
     <t>PB1,B2(CS224)-CL02,03/SLK,ATI,SHG</t>
   </si>
   <si>
-    <t>PB5,B6(CS222)-CL05,06/SYN,NIY</t>
-  </si>
-  <si>
     <t>PB14(CS224)-CL14/AKM,ATI</t>
   </si>
   <si>
@@ -2067,9 +2055,6 @@
   </si>
   <si>
     <t>PB1,B2,B4(CS221)-CL10,11,12/AST,TRN,TAJ,RJM,KJ</t>
-  </si>
-  <si>
-    <t>PB3,B14(CS221)-CL02,03/TRN,KJ,MKT</t>
   </si>
   <si>
     <t>PMinor(24B15CS245)-CL01/NET</t>
@@ -2110,6 +2095,21 @@
   </si>
   <si>
     <t>PB8(CS221)-CL02/VRN,KJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PB5,B6(CS222)-CL05,06/SYN,NIY,PU</t>
+  </si>
+  <si>
+    <t>PB14(CS222)-CL10,11/DL,SOS</t>
+  </si>
+  <si>
+    <t>PG1,G2(CS221)-CL10,11/VRN,SHV,DL</t>
+  </si>
+  <si>
+    <t>PB3,B14(CS221)-CL02,03/TRN,KJ,,RJM,MKT</t>
   </si>
 </sst>
 </file>
@@ -2443,7 +2443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2765,10 +2765,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2811,6 +2811,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2862,18 +2868,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -2882,21 +2903,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3120,10 +3126,10 @@
   <dimension ref="A1:AA1060"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D148" sqref="D148:E148"/>
+      <selection pane="bottomRight" activeCell="I124" sqref="I124:J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3144,17 +3150,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
       <c r="J1" s="134"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -3229,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>15</v>
@@ -3256,22 +3262,22 @@
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="122"/>
       <c r="C4" s="77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F4" s="121" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K4" s="71"/>
       <c r="L4" s="9"/>
@@ -3292,7 +3298,7 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="122"/>
       <c r="C5" s="93" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>318</v>
@@ -3301,8 +3307,8 @@
         <v>247</v>
       </c>
       <c r="F5" s="122"/>
-      <c r="G5" s="140" t="s">
-        <v>423</v>
+      <c r="G5" s="142" t="s">
+        <v>422</v>
       </c>
       <c r="H5" s="94" t="s">
         <v>323</v>
@@ -3311,7 +3317,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3332,10 +3338,10 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="122"/>
       <c r="C6" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>321</v>
@@ -3343,7 +3349,7 @@
       <c r="F6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="141"/>
+      <c r="G6" s="143"/>
       <c r="H6" s="2" t="s">
         <v>262</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -3380,7 +3386,7 @@
       <c r="F7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="143"/>
       <c r="H7" s="2" t="s">
         <v>263</v>
       </c>
@@ -3410,15 +3416,15 @@
         <v>229</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E8" s="98" t="s">
         <v>253</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>509</v>
-      </c>
-      <c r="G8" s="141"/>
+        <v>506</v>
+      </c>
+      <c r="G8" s="143"/>
       <c r="H8" s="2" t="s">
         <v>264</v>
       </c>
@@ -3452,7 +3458,7 @@
       <c r="F9" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="141"/>
+      <c r="G9" s="143"/>
       <c r="H9" s="2" t="s">
         <v>265</v>
       </c>
@@ -3484,7 +3490,7 @@
       <c r="F10" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G10" s="141"/>
+      <c r="G10" s="143"/>
       <c r="H10" s="2" t="s">
         <v>325</v>
       </c>
@@ -3515,9 +3521,9 @@
         <v>256</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G11" s="141"/>
+        <v>411</v>
+      </c>
+      <c r="G11" s="143"/>
       <c r="H11" s="69"/>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
@@ -3544,14 +3550,14 @@
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G12" s="141"/>
+        <v>414</v>
+      </c>
+      <c r="G12" s="143"/>
       <c r="H12" s="4" t="s">
         <v>236</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="9"/>
@@ -3575,20 +3581,20 @@
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="122"/>
       <c r="C13" s="67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E13" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="86" t="s">
-        <v>487</v>
-      </c>
-      <c r="G13" s="141"/>
+        <v>484</v>
+      </c>
+      <c r="G13" s="143"/>
       <c r="H13" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="9"/>
@@ -3612,20 +3618,20 @@
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="122"/>
       <c r="C14" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="141"/>
+      <c r="G14" s="143"/>
       <c r="H14" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I14" s="125" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J14" s="122"/>
       <c r="K14" s="9"/>
@@ -3657,12 +3663,12 @@
       <c r="F15" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="G15" s="141"/>
+      <c r="G15" s="143"/>
       <c r="H15" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I15" s="125" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J15" s="122"/>
       <c r="K15" s="9"/>
@@ -3687,12 +3693,12 @@
       <c r="A16" s="122"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F16" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="G16" s="141"/>
+      <c r="G16" s="143"/>
       <c r="I16" s="125" t="s">
         <v>27</v>
       </c>
@@ -3719,12 +3725,12 @@
       <c r="A17" s="122"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>574</v>
-      </c>
-      <c r="G17" s="141"/>
+        <v>569</v>
+      </c>
+      <c r="G17" s="143"/>
       <c r="H17" s="72"/>
       <c r="I17" s="115" t="s">
         <v>343</v>
@@ -3751,7 +3757,7 @@
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="141"/>
+      <c r="G18" s="143"/>
       <c r="I18" s="115" t="s">
         <v>187</v>
       </c>
@@ -3778,10 +3784,10 @@
       <c r="A19" s="122"/>
       <c r="C19" s="4"/>
       <c r="E19" s="100" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F19" s="69"/>
-      <c r="G19" s="141"/>
+      <c r="G19" s="143"/>
       <c r="I19" s="115" t="s">
         <v>213</v>
       </c>
@@ -3813,7 +3819,7 @@
       <c r="F20" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="141"/>
+      <c r="G20" s="143"/>
       <c r="I20" s="115" t="s">
         <v>206</v>
       </c>
@@ -3843,9 +3849,9 @@
         <v>235</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>555</v>
-      </c>
-      <c r="G21" s="141"/>
+        <v>552</v>
+      </c>
+      <c r="G21" s="143"/>
       <c r="H21" s="115" t="s">
         <v>200</v>
       </c>
@@ -3875,7 +3881,7 @@
         <v>239</v>
       </c>
       <c r="F22" s="69"/>
-      <c r="G22" s="141"/>
+      <c r="G22" s="143"/>
       <c r="H22" s="72"/>
       <c r="I22" s="115" t="s">
         <v>217</v>
@@ -3906,7 +3912,7 @@
         <v>245</v>
       </c>
       <c r="F23" s="69"/>
-      <c r="G23" s="141"/>
+      <c r="G23" s="143"/>
       <c r="H23" s="72"/>
       <c r="I23" s="115" t="s">
         <v>226</v>
@@ -3933,7 +3939,7 @@
       <c r="A24" s="122"/>
       <c r="C24" s="4"/>
       <c r="F24" s="69"/>
-      <c r="G24" s="141"/>
+      <c r="G24" s="143"/>
       <c r="H24" s="72"/>
       <c r="I24" s="133"/>
       <c r="J24" s="134"/>
@@ -3958,10 +3964,10 @@
       <c r="A25" s="122"/>
       <c r="C25" s="4"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="141"/>
+      <c r="G25" s="143"/>
       <c r="H25" s="72"/>
       <c r="I25" s="115" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J25" s="116"/>
       <c r="K25" s="9"/>
@@ -3985,10 +3991,10 @@
       <c r="A26" s="122"/>
       <c r="C26" s="4"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="141"/>
+      <c r="G26" s="143"/>
       <c r="H26" s="72"/>
       <c r="I26" s="115" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J26" s="116"/>
       <c r="K26" s="9"/>
@@ -4010,9 +4016,9 @@
       <c r="A27" s="122"/>
       <c r="C27" s="4"/>
       <c r="F27" s="69"/>
-      <c r="G27" s="141"/>
+      <c r="G27" s="143"/>
       <c r="H27" s="115" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I27" s="116"/>
       <c r="K27" s="9"/>
@@ -4034,7 +4040,7 @@
       <c r="A28" s="122"/>
       <c r="C28" s="4"/>
       <c r="F28" s="69"/>
-      <c r="G28" s="142"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="72"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -4118,7 +4124,7 @@
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="131"/>
       <c r="C31" s="69" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>32</v>
@@ -4130,7 +4136,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I31" s="69" t="s">
         <v>33</v>
@@ -4166,7 +4172,7 @@
       </c>
       <c r="F32" s="122"/>
       <c r="G32" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>279</v>
@@ -4205,13 +4211,13 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>334</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4231,22 +4237,22 @@
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="131"/>
       <c r="C34" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D34" s="98" t="s">
         <v>329</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F34" s="69" t="s">
         <v>332</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I34" s="98" t="s">
         <v>22</v>
@@ -4283,10 +4289,10 @@
         <v>273</v>
       </c>
       <c r="F35" s="121" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I35" s="98" t="s">
         <v>283</v>
@@ -4318,13 +4324,13 @@
       </c>
       <c r="F36" s="122"/>
       <c r="G36" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>280</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4355,14 +4361,14 @@
       <c r="F37" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G37" s="140" t="s">
-        <v>423</v>
+      <c r="G37" s="142" t="s">
+        <v>422</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>281</v>
       </c>
       <c r="I37" s="101" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4387,12 +4393,12 @@
         <v>39</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="G38" s="141"/>
+        <v>412</v>
+      </c>
+      <c r="G38" s="143"/>
       <c r="H38" s="1" t="s">
         <v>282</v>
       </c>
@@ -4418,17 +4424,17 @@
       <c r="A39" s="131"/>
       <c r="D39" s="69"/>
       <c r="E39" s="24" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G39" s="141"/>
+        <v>415</v>
+      </c>
+      <c r="G39" s="143"/>
       <c r="H39" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J39" s="72" t="s">
         <v>230</v>
@@ -4454,12 +4460,12 @@
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="131"/>
       <c r="E40" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F40" s="86" t="s">
-        <v>487</v>
-      </c>
-      <c r="G40" s="141"/>
+        <v>484</v>
+      </c>
+      <c r="G40" s="143"/>
       <c r="J40" s="72" t="s">
         <v>232</v>
       </c>
@@ -4487,13 +4493,13 @@
       <c r="F41" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="G41" s="141"/>
+      <c r="G41" s="143"/>
       <c r="H41" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4516,12 +4522,12 @@
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="131"/>
       <c r="D42" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F42" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="G42" s="141"/>
+      <c r="G42" s="143"/>
       <c r="H42" s="1" t="s">
         <v>333</v>
       </c>
@@ -4554,7 +4560,7 @@
       <c r="F43" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="G43" s="141"/>
+      <c r="G43" s="143"/>
       <c r="J43" s="69" t="s">
         <v>278</v>
       </c>
@@ -4578,15 +4584,15 @@
       <c r="A44" s="131"/>
       <c r="B44" s="6"/>
       <c r="C44" s="113" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D44" s="114"/>
       <c r="E44" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G44" s="141"/>
+      <c r="G44" s="143"/>
       <c r="H44" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I44" s="115" t="s">
         <v>205</v>
@@ -4616,11 +4622,11 @@
       </c>
       <c r="D45" s="116"/>
       <c r="F45" s="79" t="s">
-        <v>512</v>
-      </c>
-      <c r="G45" s="141"/>
+        <v>509</v>
+      </c>
+      <c r="G45" s="143"/>
       <c r="H45" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I45" s="115" t="s">
         <v>210</v>
@@ -4646,13 +4652,13 @@
       <c r="A46" s="131"/>
       <c r="B46" s="6"/>
       <c r="C46" s="123" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D46" s="124"/>
       <c r="E46" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="141"/>
+      <c r="G46" s="143"/>
       <c r="I46" s="115" t="s">
         <v>190</v>
       </c>
@@ -4681,11 +4687,11 @@
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="99" t="s">
-        <v>387</v>
-      </c>
-      <c r="G47" s="141"/>
+        <v>386</v>
+      </c>
+      <c r="G47" s="143"/>
       <c r="I47" s="115" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J47" s="116"/>
       <c r="K47" s="9"/>
@@ -4707,18 +4713,18 @@
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="131"/>
       <c r="C48" s="115" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="99" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F48" s="69"/>
-      <c r="G48" s="141"/>
-      <c r="I48" s="145" t="s">
-        <v>566</v>
-      </c>
-      <c r="J48" s="146"/>
+      <c r="G48" s="143"/>
+      <c r="I48" s="147" t="s">
+        <v>563</v>
+      </c>
+      <c r="J48" s="148"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4738,19 +4744,19 @@
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="131"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="119" t="s">
-        <v>514</v>
-      </c>
-      <c r="D49" s="120"/>
+      <c r="C49" s="157" t="s">
+        <v>511</v>
+      </c>
+      <c r="D49" s="158"/>
       <c r="E49" s="115" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F49" s="116"/>
-      <c r="G49" s="141"/>
-      <c r="I49" s="145" t="s">
-        <v>567</v>
-      </c>
-      <c r="J49" s="146"/>
+      <c r="G49" s="143"/>
+      <c r="I49" s="147" t="s">
+        <v>575</v>
+      </c>
+      <c r="J49" s="148"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4770,15 +4776,15 @@
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="131"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="115" t="s">
-        <v>481</v>
-      </c>
-      <c r="D50" s="116"/>
+      <c r="C50" s="161" t="s">
+        <v>576</v>
+      </c>
+      <c r="D50" s="162"/>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
-      <c r="G50" s="141"/>
+      <c r="G50" s="143"/>
       <c r="I50" s="115" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J50" s="116"/>
       <c r="K50" s="9"/>
@@ -4801,12 +4807,12 @@
       <c r="A51" s="131"/>
       <c r="B51" s="6"/>
       <c r="C51" s="112" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D51" s="111"/>
       <c r="E51" s="69"/>
       <c r="F51" s="69"/>
-      <c r="G51" s="141"/>
+      <c r="G51" s="143"/>
       <c r="I51" s="70"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4832,10 +4838,10 @@
       <c r="D52" s="116"/>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
-      <c r="G52" s="141"/>
+      <c r="G52" s="143"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="144"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="146"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4859,7 +4865,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="141"/>
+      <c r="G53" s="143"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -4884,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="G54" s="141"/>
+      <c r="G54" s="143"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4903,7 +4909,7 @@
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="118"/>
-      <c r="G55" s="141"/>
+      <c r="G55" s="143"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4957,8 +4963,8 @@
       <c r="F57" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="140" t="s">
-        <v>423</v>
+      <c r="G57" s="142" t="s">
+        <v>422</v>
       </c>
       <c r="H57" s="28" t="s">
         <v>10</v>
@@ -4985,7 +4991,7 @@
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="118"/>
       <c r="C58" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D58" s="69" t="s">
         <v>49</v>
@@ -4993,9 +4999,9 @@
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="141"/>
+      <c r="G58" s="143"/>
       <c r="H58" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I58" s="69" t="s">
         <v>51</v>
@@ -5022,26 +5028,26 @@
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="118"/>
       <c r="C59" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D59" s="98" t="s">
         <v>284</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F59" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="G59" s="141"/>
+      <c r="G59" s="143"/>
       <c r="H59" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K59" s="80"/>
       <c r="L59" s="80"/>
@@ -5064,7 +5070,7 @@
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="118"/>
       <c r="C60" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D60" s="69" t="s">
         <v>32</v>
@@ -5073,15 +5079,15 @@
       <c r="F60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="141"/>
+      <c r="G60" s="143"/>
       <c r="H60" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I60" s="69" t="s">
         <v>42</v>
       </c>
       <c r="J60" s="98" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K60" s="80"/>
       <c r="L60" s="80"/>
@@ -5104,7 +5110,7 @@
     <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="118"/>
       <c r="C61" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D61" s="98" t="s">
         <v>285</v>
@@ -5115,9 +5121,9 @@
       <c r="F61" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G61" s="141"/>
+      <c r="G61" s="143"/>
       <c r="H61" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I61" s="98" t="s">
         <v>290</v>
@@ -5146,26 +5152,26 @@
     <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="118"/>
       <c r="C62" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D62" s="98" t="s">
         <v>286</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F62" s="88" t="s">
-        <v>522</v>
-      </c>
-      <c r="G62" s="141"/>
+        <v>519</v>
+      </c>
+      <c r="G62" s="143"/>
       <c r="H62" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K62" s="80"/>
       <c r="L62" s="80"/>
@@ -5197,12 +5203,12 @@
       <c r="F63" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="141"/>
+      <c r="G63" s="143"/>
       <c r="H63" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K63" s="80"/>
       <c r="L63" s="80"/>
@@ -5225,17 +5231,17 @@
     <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="118"/>
       <c r="C64" s="102" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D64" s="69" t="s">
         <v>337</v>
       </c>
-      <c r="G64" s="141"/>
+      <c r="G64" s="143"/>
       <c r="H64" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J64" s="23" t="s">
         <v>291</v>
@@ -5267,11 +5273,11 @@
         <v>25</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="G65" s="141"/>
+        <v>540</v>
+      </c>
+      <c r="G65" s="143"/>
       <c r="H65" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I65" s="23"/>
       <c r="K65" s="80"/>
@@ -5296,21 +5302,21 @@
       <c r="A66" s="118"/>
       <c r="B66" s="82"/>
       <c r="C66" s="103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D66" s="98" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="G66" s="141"/>
+        <v>539</v>
+      </c>
+      <c r="G66" s="143"/>
       <c r="H66" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K66" s="80"/>
       <c r="L66" s="80"/>
@@ -5333,23 +5339,23 @@
     <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="118"/>
       <c r="C67" s="102" t="s">
+        <v>538</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F67" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="D67" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="G67" s="141"/>
+      <c r="G67" s="143"/>
       <c r="H67" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I67" s="69" t="s">
         <v>45</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K67" s="80"/>
       <c r="L67" s="80"/>
@@ -5372,23 +5378,23 @@
     <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="118"/>
       <c r="C68" s="90" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F68" s="104" t="s">
-        <v>405</v>
-      </c>
-      <c r="G68" s="141"/>
+        <v>404</v>
+      </c>
+      <c r="G68" s="143"/>
       <c r="H68" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J68" s="104" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K68" s="80"/>
       <c r="L68" s="80"/>
@@ -5417,7 +5423,7 @@
       <c r="D69" s="129"/>
       <c r="G69" s="69"/>
       <c r="H69" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -5442,11 +5448,11 @@
         <v>191</v>
       </c>
       <c r="D70" s="116"/>
-      <c r="G70" s="157" t="s">
-        <v>494</v>
+      <c r="G70" s="164" t="s">
+        <v>491</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I70" s="115" t="s">
         <v>192</v>
@@ -5476,12 +5482,12 @@
       </c>
       <c r="D71" s="116"/>
       <c r="E71" s="115" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F71" s="116"/>
-      <c r="G71" s="158"/>
+      <c r="G71" s="165"/>
       <c r="H71" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I71" s="115" t="s">
         <v>207</v>
@@ -5507,7 +5513,7 @@
       <c r="A72" s="118"/>
       <c r="B72" s="83"/>
       <c r="C72" s="123" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D72" s="124"/>
       <c r="E72" s="115" t="s">
@@ -5515,10 +5521,10 @@
       </c>
       <c r="F72" s="116"/>
       <c r="G72" s="95" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I72" s="115" t="s">
         <v>214</v>
@@ -5553,10 +5559,10 @@
       <c r="F73" s="116"/>
       <c r="G73" s="69"/>
       <c r="H73" s="105" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I73" s="115" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J73" s="116"/>
       <c r="K73" s="9"/>
@@ -5577,10 +5583,10 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="118"/>
-      <c r="E74" s="145" t="s">
-        <v>568</v>
-      </c>
-      <c r="F74" s="146"/>
+      <c r="E74" s="147" t="s">
+        <v>564</v>
+      </c>
+      <c r="F74" s="148"/>
       <c r="G74" s="69"/>
       <c r="I74" s="115" t="s">
         <v>218</v>
@@ -5612,10 +5618,10 @@
       </c>
       <c r="F75" s="134"/>
       <c r="G75" s="69"/>
-      <c r="I75" s="119" t="s">
-        <v>450</v>
-      </c>
-      <c r="J75" s="120"/>
+      <c r="I75" s="157" t="s">
+        <v>449</v>
+      </c>
+      <c r="J75" s="158"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5638,12 +5644,12 @@
       <c r="C76" s="70"/>
       <c r="D76" s="71"/>
       <c r="E76" s="115" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F76" s="116"/>
       <c r="G76" s="69"/>
       <c r="J76" s="91" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5696,19 +5702,19 @@
         <v>341</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="156" t="s">
-        <v>422</v>
+      <c r="G78" s="163" t="s">
+        <v>421</v>
       </c>
       <c r="H78" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="69" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -5731,7 +5737,7 @@
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="131"/>
       <c r="C79" s="84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D79" s="69" t="s">
         <v>58</v>
@@ -5744,7 +5750,7 @@
       </c>
       <c r="G79" s="122"/>
       <c r="H79" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I79" s="69" t="s">
         <v>33</v>
@@ -5783,7 +5789,7 @@
       </c>
       <c r="G80" s="122"/>
       <c r="H80" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>59</v>
@@ -5813,20 +5819,20 @@
         <v>288</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>293</v>
       </c>
       <c r="G81" s="122"/>
       <c r="H81" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I81" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5856,14 +5862,14 @@
         <v>253</v>
       </c>
       <c r="F82" s="98" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G82" s="122"/>
       <c r="H82" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5893,7 +5899,7 @@
       </c>
       <c r="G83" s="122"/>
       <c r="H83" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I83" s="98" t="s">
         <v>285</v>
@@ -5920,20 +5926,20 @@
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="131"/>
       <c r="C84" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G84" s="122"/>
       <c r="H84" s="73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>298</v>
@@ -5960,26 +5966,26 @@
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="131"/>
       <c r="C85" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>297</v>
       </c>
       <c r="G85" s="122"/>
       <c r="H85" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -6000,17 +6006,17 @@
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="131"/>
       <c r="C86" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E86" s="106" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G86" s="122"/>
       <c r="H86" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>291</v>
@@ -6039,17 +6045,17 @@
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="131"/>
       <c r="E87" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="G87" s="122"/>
       <c r="H87" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>301</v>
@@ -6075,14 +6081,14 @@
       <c r="A88" s="131"/>
       <c r="C88" s="2"/>
       <c r="E88" s="89" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>242</v>
       </c>
       <c r="G88" s="122"/>
       <c r="H88" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -6105,10 +6111,10 @@
       <c r="A89" s="131"/>
       <c r="B89" s="29"/>
       <c r="G89" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I89" s="73" t="s">
         <v>231</v>
@@ -6135,18 +6141,18 @@
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="131"/>
-      <c r="C90" s="119" t="s">
-        <v>500</v>
-      </c>
-      <c r="D90" s="120"/>
+      <c r="C90" s="157" t="s">
+        <v>497</v>
+      </c>
+      <c r="D90" s="158"/>
       <c r="G90" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I90" s="89" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6168,15 +6174,15 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="131"/>
-      <c r="C91" s="119" t="s">
+      <c r="C91" s="157" t="s">
         <v>251</v>
       </c>
-      <c r="D91" s="155"/>
+      <c r="D91" s="160"/>
       <c r="H91" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I91" s="73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -6201,7 +6207,7 @@
       <c r="E92" s="61"/>
       <c r="G92" s="32"/>
       <c r="H92" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J92" s="69"/>
       <c r="K92" s="16"/>
@@ -6225,11 +6231,11 @@
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="131"/>
       <c r="C93" s="85" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="78" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J93" s="69"/>
       <c r="K93" s="9"/>
@@ -6285,7 +6291,7 @@
       <c r="A95" s="131"/>
       <c r="B95" s="6"/>
       <c r="C95" s="115" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D95" s="116"/>
       <c r="E95" s="115" t="s">
@@ -6322,12 +6328,12 @@
       </c>
       <c r="D96" s="116"/>
       <c r="E96" s="125" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F96" s="122"/>
       <c r="G96" s="32"/>
       <c r="H96" s="115" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I96" s="116"/>
       <c r="J96" s="61"/>
@@ -6351,19 +6357,19 @@
       <c r="A97" s="131"/>
       <c r="B97" s="6"/>
       <c r="C97" s="115" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D97" s="116"/>
       <c r="E97" s="125" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F97" s="122"/>
       <c r="G97" s="32"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="119" t="s">
-        <v>533</v>
-      </c>
-      <c r="J97" s="120"/>
+      <c r="I97" s="157" t="s">
+        <v>530</v>
+      </c>
+      <c r="J97" s="158"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6393,8 +6399,8 @@
       <c r="F98" s="122"/>
       <c r="G98" s="32"/>
       <c r="H98" s="75"/>
-      <c r="I98" s="143"/>
-      <c r="J98" s="144"/>
+      <c r="I98" s="145"/>
+      <c r="J98" s="146"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6419,7 +6425,7 @@
       </c>
       <c r="D99" s="134"/>
       <c r="E99" s="133" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F99" s="134"/>
       <c r="G99" s="32"/>
@@ -6447,7 +6453,7 @@
       <c r="C100" s="70"/>
       <c r="D100" s="71"/>
       <c r="E100" s="115" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F100" s="116"/>
       <c r="G100" s="32"/>
@@ -6475,10 +6481,10 @@
       <c r="B101" s="6"/>
       <c r="C101" s="70"/>
       <c r="D101" s="71"/>
-      <c r="E101" s="148" t="s">
+      <c r="E101" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="148"/>
+      <c r="F101" s="150"/>
       <c r="G101" s="32"/>
       <c r="H101" s="75"/>
       <c r="J101" s="75"/>
@@ -6589,13 +6595,13 @@
         <v>17</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F105" s="88" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G105" s="109" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H105" s="34" t="s">
         <v>66</v>
@@ -6637,11 +6643,11 @@
         <v>44</v>
       </c>
       <c r="G106" s="110" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H106" s="34"/>
       <c r="I106" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J106" s="69" t="s">
         <v>68</v>
@@ -6677,10 +6683,10 @@
         <v>50</v>
       </c>
       <c r="G107" s="97" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>35</v>
@@ -6718,14 +6724,14 @@
       <c r="F108" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="140" t="s">
-        <v>423</v>
+      <c r="G108" s="142" t="s">
+        <v>422</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I108" s="92" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J108" s="69" t="s">
         <v>38</v>
@@ -6752,11 +6758,11 @@
         <v>303</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G109" s="141"/>
+        <v>445</v>
+      </c>
+      <c r="G109" s="143"/>
       <c r="H109" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>304</v>
@@ -6783,7 +6789,7 @@
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="122"/>
       <c r="D110" s="98" t="s">
-        <v>349</v>
+        <v>574</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>307</v>
@@ -6791,7 +6797,7 @@
       <c r="F110" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="141"/>
+      <c r="G110" s="143"/>
       <c r="I110" s="69"/>
       <c r="J110" s="69"/>
       <c r="K110" s="16"/>
@@ -6815,12 +6821,12 @@
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="122"/>
       <c r="D111" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F111" s="69" t="s">
-        <v>536</v>
-      </c>
-      <c r="G111" s="141"/>
+        <v>533</v>
+      </c>
+      <c r="G111" s="143"/>
       <c r="H111" s="36"/>
       <c r="I111" s="4" t="s">
         <v>233</v>
@@ -6847,9 +6853,9 @@
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="122"/>
       <c r="D112" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="G112" s="141"/>
+        <v>349</v>
+      </c>
+      <c r="G112" s="143"/>
       <c r="H112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6874,9 +6880,9 @@
       <c r="A113" s="122"/>
       <c r="C113" s="69"/>
       <c r="E113" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="G113" s="141"/>
+        <v>398</v>
+      </c>
+      <c r="G113" s="143"/>
       <c r="H113" s="34"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6900,9 +6906,9 @@
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="122"/>
       <c r="E114" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="G114" s="141"/>
+        <v>544</v>
+      </c>
+      <c r="G114" s="143"/>
       <c r="H114" s="36"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6926,12 +6932,12 @@
       <c r="A115" s="122"/>
       <c r="D115" s="69"/>
       <c r="E115" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G115" s="141"/>
+        <v>437</v>
+      </c>
+      <c r="G115" s="143"/>
       <c r="H115" s="36"/>
       <c r="J115" s="69"/>
       <c r="K115" s="16"/>
@@ -6955,9 +6961,9 @@
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="122"/>
       <c r="E116" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="G116" s="141"/>
+        <v>545</v>
+      </c>
+      <c r="G116" s="143"/>
       <c r="H116" s="69" t="s">
         <v>32</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>208</v>
       </c>
       <c r="F117" s="116"/>
-      <c r="G117" s="141"/>
+      <c r="G117" s="143"/>
       <c r="H117" s="15" t="s">
         <v>71</v>
       </c>
@@ -7017,13 +7023,13 @@
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="122"/>
       <c r="C118" s="85" t="s">
-        <v>519</v>
-      </c>
-      <c r="G118" s="141"/>
-      <c r="H118" s="145" t="s">
-        <v>458</v>
-      </c>
-      <c r="I118" s="146"/>
+        <v>516</v>
+      </c>
+      <c r="G118" s="143"/>
+      <c r="H118" s="147" t="s">
+        <v>457</v>
+      </c>
+      <c r="I118" s="148"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -7046,14 +7052,14 @@
       <c r="A119" s="122"/>
       <c r="B119" s="6"/>
       <c r="C119" s="115" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D119" s="116"/>
       <c r="E119" s="115" t="s">
         <v>222</v>
       </c>
       <c r="F119" s="116"/>
-      <c r="G119" s="141"/>
+      <c r="G119" s="143"/>
       <c r="I119" s="115" t="s">
         <v>195</v>
       </c>
@@ -7080,11 +7086,11 @@
       <c r="A120" s="122"/>
       <c r="B120" s="6"/>
       <c r="C120" s="115" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D120" s="116"/>
       <c r="E120" s="133" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F120" s="134"/>
       <c r="G120" s="35"/>
@@ -7115,13 +7121,13 @@
       <c r="A121" s="122"/>
       <c r="B121" s="6"/>
       <c r="C121" s="115" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D121" s="116"/>
-      <c r="E121" s="161" t="s">
-        <v>577</v>
-      </c>
-      <c r="F121" s="151"/>
+      <c r="E121" s="154" t="s">
+        <v>572</v>
+      </c>
+      <c r="F121" s="153"/>
       <c r="G121" s="35"/>
       <c r="H121" s="36"/>
       <c r="I121" s="115" t="s">
@@ -7154,7 +7160,7 @@
       </c>
       <c r="D122" s="116"/>
       <c r="E122" s="115" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F122" s="116"/>
       <c r="G122" s="35"/>
@@ -7184,14 +7190,14 @@
         <v>221</v>
       </c>
       <c r="D123" s="116"/>
-      <c r="E123" s="148" t="s">
-        <v>465</v>
+      <c r="E123" s="150" t="s">
+        <v>464</v>
       </c>
       <c r="F123" s="122"/>
       <c r="G123" s="35"/>
       <c r="H123" s="36"/>
-      <c r="I123" s="119"/>
-      <c r="J123" s="120"/>
+      <c r="I123" s="157"/>
+      <c r="J123" s="158"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7213,18 +7219,18 @@
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="122"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="150" t="s">
-        <v>570</v>
-      </c>
-      <c r="D124" s="151"/>
+      <c r="C124" s="152" t="s">
+        <v>566</v>
+      </c>
+      <c r="D124" s="153"/>
       <c r="G124" s="35"/>
       <c r="H124" s="101" t="s">
-        <v>426</v>
-      </c>
-      <c r="I124" s="150" t="s">
-        <v>571</v>
-      </c>
-      <c r="J124" s="146"/>
+        <v>425</v>
+      </c>
+      <c r="I124" s="152" t="s">
+        <v>578</v>
+      </c>
+      <c r="J124" s="148"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7250,10 +7256,10 @@
       <c r="D125" s="116"/>
       <c r="G125" s="35"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="154" t="s">
-        <v>485</v>
-      </c>
-      <c r="J125" s="144"/>
+      <c r="I125" s="159" t="s">
+        <v>577</v>
+      </c>
+      <c r="J125" s="146"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7424,7 +7430,7 @@
         <v>67</v>
       </c>
       <c r="H131" s="11"/>
-      <c r="I131" s="149"/>
+      <c r="I131" s="151"/>
       <c r="J131" s="122"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -7448,10 +7454,10 @@
         <v>310</v>
       </c>
       <c r="D132" s="79" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F132" s="88" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="41"/>
@@ -7505,7 +7511,7 @@
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="131"/>
       <c r="C134" s="15" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>312</v>
@@ -7564,13 +7570,13 @@
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="131"/>
       <c r="C136" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>313</v>
       </c>
       <c r="E136" s="98" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="43"/>
@@ -7594,13 +7600,13 @@
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="131"/>
       <c r="C137" s="121" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>314</v>
       </c>
       <c r="E137" s="99" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G137" s="2"/>
       <c r="I137" s="43"/>
@@ -7657,7 +7663,7 @@
         <v>243</v>
       </c>
       <c r="F139" s="125" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G139" s="122"/>
       <c r="H139" s="43"/>
@@ -7710,7 +7716,7 @@
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="131"/>
       <c r="C141" s="107" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E141" s="61"/>
       <c r="F141" s="126" t="s">
@@ -7739,7 +7745,7 @@
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="131"/>
       <c r="E142" s="85" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="43"/>
@@ -7820,14 +7826,14 @@
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="131"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="152" t="s">
+      <c r="D145" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="E145" s="153"/>
-      <c r="F145" s="159" t="s">
-        <v>576</v>
-      </c>
-      <c r="G145" s="160"/>
+      <c r="E145" s="156"/>
+      <c r="F145" s="135" t="s">
+        <v>571</v>
+      </c>
+      <c r="G145" s="136"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
       <c r="J145" s="11"/>
@@ -7854,10 +7860,10 @@
         <v>198</v>
       </c>
       <c r="E146" s="116"/>
-      <c r="F146" s="135" t="s">
-        <v>486</v>
-      </c>
-      <c r="G146" s="136"/>
+      <c r="F146" s="137" t="s">
+        <v>483</v>
+      </c>
+      <c r="G146" s="138"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
       <c r="J146" s="11"/>
@@ -7906,10 +7912,10 @@
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="131"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="162" t="s">
-        <v>578</v>
-      </c>
-      <c r="E148" s="163"/>
+      <c r="D148" s="119" t="s">
+        <v>573</v>
+      </c>
+      <c r="E148" s="120"/>
       <c r="H148" s="43"/>
       <c r="I148" s="43"/>
       <c r="J148" s="11"/>
@@ -7933,7 +7939,7 @@
       <c r="A149" s="131"/>
       <c r="C149" s="2"/>
       <c r="D149" s="125" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E149" s="122"/>
       <c r="F149" s="2"/>
@@ -7961,7 +7967,7 @@
       <c r="A150" s="131"/>
       <c r="C150" s="2"/>
       <c r="D150" s="125" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E150" s="122"/>
       <c r="F150" s="2"/>
@@ -8017,7 +8023,7 @@
       <c r="A152" s="132"/>
       <c r="C152" s="2"/>
       <c r="E152" s="115" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F152" s="116"/>
       <c r="G152" s="32"/>
@@ -8513,7 +8519,7 @@
         <v>148</v>
       </c>
       <c r="H166" s="59" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I166" s="59" t="s">
         <v>149</v>
@@ -8853,10 +8859,10 @@
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="58" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H175" s="58" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I175" s="58" t="s">
         <v>173</v>
@@ -8886,10 +8892,10 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="58" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H176" s="58" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I176" s="58" t="s">
         <v>174</v>
@@ -9328,7 +9334,7 @@
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
       <c r="E192" s="58"/>
-      <c r="F192" s="147"/>
+      <c r="F192" s="149"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9403,7 +9409,7 @@
       <c r="C195" s="58"/>
       <c r="D195" s="58"/>
       <c r="E195" s="58"/>
-      <c r="F195" s="147"/>
+      <c r="F195" s="149"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/4/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FDEA5A-07E4-4219-BF81-1D59F9A2AAF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0F39CC-3404-4A8C-9595-557140297423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="578">
   <si>
     <t>B.Tech IV SEMESTER-EVEN SEM 2026</t>
   </si>
@@ -307,18 +307,12 @@
     <t>FRI</t>
   </si>
   <si>
-    <t>Institunal Activity</t>
-  </si>
-  <si>
     <t>LA7,A8,A10(15B11EC411))-FF6/SLM</t>
   </si>
   <si>
     <t>LA7,A8,A10(15B11EC611))-FF6/PKY</t>
   </si>
   <si>
-    <t>LA1,A2(15B11EC413)-FF7/VK</t>
-  </si>
-  <si>
     <t>LA5,A6(15B11EC611))-FF7/RRP</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>LA5,A6(15B11EC611))-FF5/RRP</t>
   </si>
   <si>
-    <t>Pminor()</t>
-  </si>
-  <si>
     <t>LA7,A8,A10(15B11EC413)-FF6/MJ</t>
   </si>
   <si>
@@ -1262,9 +1253,6 @@
   </si>
   <si>
     <t>LB1,B2 (CS223)-G3/ATI</t>
-  </si>
-  <si>
-    <t>TB2 (CS221) –TS13 /KJ</t>
   </si>
   <si>
     <t>TB5 (CS221) –TS17 /DL</t>
@@ -1941,9 +1929,6 @@
     <t>TC2(BT411)-TS13/NDH,RD,JYGU</t>
   </si>
   <si>
-    <t>TC3(BT312)-TS17/MOB, GMA,RASA</t>
-  </si>
-  <si>
     <t>TC3(BT411)-TS13/NDH,RD, JYGU</t>
   </si>
   <si>
@@ -1951,9 +1936,6 @@
   </si>
   <si>
     <t>TC1(BT411)-TS16/NDH,RD,JYGU</t>
-  </si>
-  <si>
-    <t>TC2(BT312)-TS20/MOB, GMA,RASA</t>
   </si>
   <si>
     <t>PC2(BT471)-BIOINFO/CKJ, RD,APC,JYGU</t>
@@ -2097,9 +2079,6 @@
     <t>PB8(CS221)-CL02/VRN,KJ</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>PB5,B6(CS222)-CL05,06/SYN,NIY,PU</t>
   </si>
   <si>
@@ -2110,6 +2089,43 @@
   </si>
   <si>
     <t>PB3,B14(CS221)-CL02,03/TRN,KJ,,RJM,MKT</t>
+  </si>
+  <si>
+    <t>TB2 (CS221) –TS12 /KJ</t>
+  </si>
+  <si>
+    <t>P(25B17BT213)-CL24/NDH</t>
+  </si>
+  <si>
+    <r>
+      <t>TC3(BT312)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TS11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/MOB, GMA,RASA</t>
+    </r>
+  </si>
+  <si>
+    <t>TC2(BT312)-TS11/MOB, GMA,RASA</t>
+  </si>
+  <si>
+    <t>LA1,A2(15B11EC413)-G5/VK</t>
+  </si>
+  <si>
+    <t>Institutional Activity</t>
   </si>
 </sst>
 </file>
@@ -2741,12 +2757,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2894,6 +2904,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
@@ -3125,11 +3141,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F112" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="66" zoomScaleSheetLayoutView="66" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I124" sqref="I124:J124"/>
+      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3150,18 +3166,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="134"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="132"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -3180,7 +3196,7 @@
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -3223,7 +3239,7 @@
       <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="125" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12"/>
@@ -3235,7 +3251,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="I3" s="69" t="s">
         <v>15</v>
@@ -3260,24 +3276,24 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
+      <c r="A4" s="120"/>
       <c r="C4" s="77" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" s="121" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" s="119" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K4" s="71"/>
       <c r="L4" s="9"/>
@@ -3296,28 +3312,28 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
+      <c r="A5" s="120"/>
       <c r="C5" s="93" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="142" t="s">
-        <v>422</v>
+        <v>244</v>
+      </c>
+      <c r="F5" s="120"/>
+      <c r="G5" s="140" t="s">
+        <v>418</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I5" s="69" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3336,25 +3352,25 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
+      <c r="A6" s="120"/>
       <c r="C6" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="143"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3373,12 +3389,12 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
+      <c r="A7" s="120"/>
       <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -3386,9 +3402,9 @@
       <c r="F7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="143"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I7" s="69" t="s">
         <v>21</v>
@@ -3411,22 +3427,22 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
+      <c r="A8" s="120"/>
       <c r="C8" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>506</v>
-      </c>
-      <c r="G8" s="143"/>
+        <v>502</v>
+      </c>
+      <c r="G8" s="141"/>
       <c r="H8" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -3445,22 +3461,22 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+      <c r="A9" s="120"/>
       <c r="C9" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="G9" s="143"/>
+        <v>328</v>
+      </c>
+      <c r="G9" s="141"/>
       <c r="H9" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="9"/>
@@ -3480,19 +3496,19 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
+      <c r="A10" s="120"/>
       <c r="D10" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="141"/>
+      <c r="H10" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="G10" s="143"/>
-      <c r="H10" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="16"/>
@@ -3513,18 +3529,20 @@
       <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
+      <c r="A11" s="120"/>
       <c r="C11" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G11" s="143"/>
-      <c r="H11" s="69"/>
+        <v>407</v>
+      </c>
+      <c r="G11" s="141"/>
+      <c r="H11" s="99" t="s">
+        <v>572</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -3544,20 +3562,17 @@
       <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
+      <c r="A12" s="120"/>
       <c r="C12" s="77"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="G12" s="143"/>
+        <v>410</v>
+      </c>
+      <c r="G12" s="141"/>
       <c r="H12" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I12" s="99" t="s">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="9"/>
@@ -3579,22 +3594,22 @@
       <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
+      <c r="A13" s="120"/>
       <c r="C13" s="67" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E13" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="86" t="s">
-        <v>484</v>
-      </c>
-      <c r="G13" s="143"/>
+        <v>480</v>
+      </c>
+      <c r="G13" s="141"/>
       <c r="H13" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="9"/>
@@ -3616,24 +3631,24 @@
       <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
+      <c r="A14" s="120"/>
       <c r="C14" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="143"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="I14" s="125" t="s">
-        <v>550</v>
-      </c>
-      <c r="J14" s="122"/>
+        <v>428</v>
+      </c>
+      <c r="I14" s="123" t="s">
+        <v>544</v>
+      </c>
+      <c r="J14" s="120"/>
       <c r="K14" s="9"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -3653,24 +3668,24 @@
       <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="120"/>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="G15" s="143"/>
+        <v>256</v>
+      </c>
+      <c r="G15" s="141"/>
       <c r="H15" s="85" t="s">
-        <v>517</v>
-      </c>
-      <c r="I15" s="125" t="s">
-        <v>551</v>
-      </c>
-      <c r="J15" s="122"/>
+        <v>513</v>
+      </c>
+      <c r="I15" s="123" t="s">
+        <v>545</v>
+      </c>
+      <c r="J15" s="120"/>
       <c r="K15" s="9"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -3690,19 +3705,19 @@
       <c r="AA15" s="17"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
+      <c r="A16" s="120"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" s="143"/>
-      <c r="I16" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="141"/>
+      <c r="I16" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="122"/>
+      <c r="J16" s="120"/>
       <c r="K16" s="9"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3722,20 +3737,20 @@
       <c r="AA16" s="17"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="120"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>569</v>
-      </c>
-      <c r="G17" s="143"/>
+        <v>563</v>
+      </c>
+      <c r="G17" s="141"/>
       <c r="H17" s="72"/>
-      <c r="I17" s="115" t="s">
-        <v>343</v>
-      </c>
-      <c r="J17" s="116"/>
+      <c r="I17" s="113" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" s="114"/>
       <c r="K17" s="9"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3755,13 +3770,13 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="120"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="143"/>
-      <c r="I18" s="115" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" s="116"/>
+      <c r="G18" s="141"/>
+      <c r="I18" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="114"/>
       <c r="K18" s="9"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3781,17 +3796,17 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
+      <c r="A19" s="120"/>
       <c r="C19" s="4"/>
       <c r="E19" s="100" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F19" s="69"/>
-      <c r="G19" s="143"/>
-      <c r="I19" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="J19" s="116"/>
+      <c r="G19" s="141"/>
+      <c r="I19" s="113" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" s="114"/>
       <c r="K19" s="9"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3811,19 +3826,19 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
+      <c r="A20" s="120"/>
       <c r="C20" s="4"/>
       <c r="D20" s="73" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="143"/>
-      <c r="I20" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="J20" s="116"/>
+        <v>254</v>
+      </c>
+      <c r="G20" s="141"/>
+      <c r="I20" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="114"/>
       <c r="K20" s="9"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -3843,19 +3858,19 @@
       <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
+      <c r="A21" s="120"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>552</v>
-      </c>
-      <c r="G21" s="143"/>
-      <c r="H21" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="I21" s="116"/>
+        <v>546</v>
+      </c>
+      <c r="G21" s="141"/>
+      <c r="H21" s="113" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="114"/>
       <c r="K21" s="9"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -3875,18 +3890,18 @@
       <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
+      <c r="A22" s="120"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F22" s="69"/>
-      <c r="G22" s="143"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="72"/>
-      <c r="I22" s="115" t="s">
-        <v>217</v>
-      </c>
-      <c r="J22" s="116"/>
+      <c r="I22" s="113" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="114"/>
       <c r="K22" s="9"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3906,18 +3921,18 @@
       <c r="AA22" s="17"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
+      <c r="A23" s="120"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F23" s="69"/>
-      <c r="G23" s="143"/>
+      <c r="G23" s="141"/>
       <c r="H23" s="72"/>
-      <c r="I23" s="115" t="s">
-        <v>226</v>
-      </c>
-      <c r="J23" s="116"/>
+      <c r="I23" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="114"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -3936,13 +3951,13 @@
       <c r="AA23" s="17"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
+      <c r="A24" s="120"/>
       <c r="C24" s="4"/>
       <c r="F24" s="69"/>
-      <c r="G24" s="143"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="72"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="134"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="132"/>
       <c r="K24" s="9"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -3961,15 +3976,15 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
+      <c r="A25" s="120"/>
       <c r="C25" s="4"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="143"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="72"/>
-      <c r="I25" s="115" t="s">
-        <v>510</v>
-      </c>
-      <c r="J25" s="116"/>
+      <c r="I25" s="113" t="s">
+        <v>506</v>
+      </c>
+      <c r="J25" s="114"/>
       <c r="K25" s="9"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3988,15 +4003,15 @@
       <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
+      <c r="A26" s="120"/>
       <c r="C26" s="4"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="143"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="72"/>
-      <c r="I26" s="115" t="s">
-        <v>560</v>
-      </c>
-      <c r="J26" s="116"/>
+      <c r="I26" s="113" t="s">
+        <v>554</v>
+      </c>
+      <c r="J26" s="114"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -4013,14 +4028,14 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
+      <c r="A27" s="120"/>
       <c r="C27" s="4"/>
       <c r="F27" s="69"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="115" t="s">
-        <v>561</v>
-      </c>
-      <c r="I27" s="116"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="113" t="s">
+        <v>555</v>
+      </c>
+      <c r="I27" s="114"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -4037,10 +4052,10 @@
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
+      <c r="A28" s="120"/>
       <c r="C28" s="4"/>
       <c r="F28" s="69"/>
-      <c r="G28" s="144"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="72"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -4084,7 +4099,7 @@
       <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="128" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="12"/>
@@ -4095,13 +4110,13 @@
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J30" s="69" t="s">
         <v>30</v>
@@ -4122,21 +4137,21 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="131"/>
+      <c r="A31" s="129"/>
       <c r="C31" s="69" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="119" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I31" s="69" t="s">
         <v>33</v>
@@ -4160,22 +4175,22 @@
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="131"/>
+      <c r="A32" s="129"/>
       <c r="C32" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="D32" s="69" t="s">
-        <v>327</v>
-      </c>
       <c r="E32" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="F32" s="122"/>
+        <v>268</v>
+      </c>
+      <c r="F32" s="120"/>
       <c r="G32" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>36</v>
@@ -4199,25 +4214,25 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="131"/>
+      <c r="A33" s="129"/>
       <c r="C33" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F33" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4235,24 +4250,24 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="131"/>
+      <c r="A34" s="129"/>
       <c r="C34" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D34" s="98" t="s">
+        <v>326</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F34" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F34" s="69" t="s">
-        <v>332</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I34" s="98" t="s">
         <v>22</v>
@@ -4278,24 +4293,24 @@
       <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="131"/>
+      <c r="A35" s="129"/>
       <c r="C35" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D35" s="98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35" s="121" t="s">
-        <v>506</v>
+        <v>270</v>
+      </c>
+      <c r="F35" s="119" t="s">
+        <v>502</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I35" s="98" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
@@ -4315,22 +4330,22 @@
       <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="131"/>
+      <c r="A36" s="129"/>
       <c r="D36" s="69" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F36" s="122"/>
+        <v>271</v>
+      </c>
+      <c r="F36" s="120"/>
       <c r="G36" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
@@ -4350,25 +4365,25 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="131"/>
+      <c r="A37" s="129"/>
       <c r="C37" s="24"/>
       <c r="D37" s="69" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G37" s="142" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="140" t="s">
+        <v>418</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I37" s="101" t="s">
         <v>422</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I37" s="101" t="s">
-        <v>426</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
@@ -4388,19 +4403,19 @@
       <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="131"/>
+      <c r="A38" s="129"/>
       <c r="D38" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G38" s="143"/>
+        <v>408</v>
+      </c>
+      <c r="G38" s="141"/>
       <c r="H38" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I38" s="89"/>
       <c r="K38" s="16"/>
@@ -4421,23 +4436,23 @@
       <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="131"/>
+      <c r="A39" s="129"/>
       <c r="D39" s="69"/>
       <c r="E39" s="24" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G39" s="143"/>
+        <v>411</v>
+      </c>
+      <c r="G39" s="141"/>
       <c r="H39" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J39" s="72" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
@@ -4458,16 +4473,16 @@
       <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="131"/>
+      <c r="A40" s="129"/>
       <c r="E40" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F40" s="86" t="s">
         <v>480</v>
       </c>
-      <c r="F40" s="86" t="s">
-        <v>484</v>
-      </c>
-      <c r="G40" s="143"/>
+      <c r="G40" s="141"/>
       <c r="J40" s="72" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
@@ -4488,18 +4503,18 @@
       <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="131"/>
+      <c r="A41" s="129"/>
       <c r="E41" s="69"/>
       <c r="F41" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="G41" s="143"/>
+        <v>255</v>
+      </c>
+      <c r="G41" s="141"/>
       <c r="H41" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="72" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
@@ -4520,16 +4535,16 @@
       <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="131"/>
+      <c r="A42" s="129"/>
       <c r="D42" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="G42" s="143"/>
+        <v>273</v>
+      </c>
+      <c r="G42" s="141"/>
       <c r="H42" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="7"/>
@@ -4552,17 +4567,17 @@
       <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="131"/>
+      <c r="A43" s="129"/>
       <c r="D43" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="G43" s="143"/>
+        <v>274</v>
+      </c>
+      <c r="G43" s="141"/>
       <c r="J43" s="69" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -4581,23 +4596,23 @@
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="131"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="113" t="s">
-        <v>524</v>
-      </c>
-      <c r="D44" s="114"/>
+      <c r="C44" s="111" t="s">
+        <v>520</v>
+      </c>
+      <c r="D44" s="112"/>
       <c r="E44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G44" s="143"/>
+        <v>234</v>
+      </c>
+      <c r="G44" s="141"/>
       <c r="H44" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I44" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="J44" s="116"/>
+        <v>351</v>
+      </c>
+      <c r="I44" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="J44" s="114"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -4615,23 +4630,23 @@
       <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="131"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="115" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="116"/>
+      <c r="C45" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="114"/>
       <c r="F45" s="79" t="s">
-        <v>509</v>
-      </c>
-      <c r="G45" s="143"/>
+        <v>505</v>
+      </c>
+      <c r="G45" s="141"/>
       <c r="H45" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I45" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="J45" s="116"/>
+        <v>352</v>
+      </c>
+      <c r="I45" s="113" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" s="114"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -4649,20 +4664,20 @@
       <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="131"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="123" t="s">
-        <v>522</v>
-      </c>
-      <c r="D46" s="124"/>
+      <c r="C46" s="121" t="s">
+        <v>518</v>
+      </c>
+      <c r="D46" s="122"/>
       <c r="E46" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" s="143"/>
-      <c r="I46" s="115" t="s">
-        <v>190</v>
-      </c>
-      <c r="J46" s="116"/>
+        <v>243</v>
+      </c>
+      <c r="G46" s="141"/>
+      <c r="I46" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" s="114"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -4680,20 +4695,20 @@
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="131"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="D47" s="116"/>
+      <c r="C47" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="114"/>
       <c r="E47" s="99" t="s">
-        <v>386</v>
-      </c>
-      <c r="G47" s="143"/>
-      <c r="I47" s="115" t="s">
-        <v>500</v>
-      </c>
-      <c r="J47" s="116"/>
+        <v>382</v>
+      </c>
+      <c r="G47" s="141"/>
+      <c r="I47" s="113" t="s">
+        <v>496</v>
+      </c>
+      <c r="J47" s="114"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4711,20 +4726,20 @@
       <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="131"/>
-      <c r="C48" s="115" t="s">
-        <v>479</v>
-      </c>
-      <c r="D48" s="116"/>
+      <c r="A48" s="129"/>
+      <c r="C48" s="113" t="s">
+        <v>475</v>
+      </c>
+      <c r="D48" s="114"/>
       <c r="E48" s="99" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F48" s="69"/>
-      <c r="G48" s="143"/>
-      <c r="I48" s="147" t="s">
-        <v>563</v>
-      </c>
-      <c r="J48" s="148"/>
+      <c r="G48" s="141"/>
+      <c r="I48" s="145" t="s">
+        <v>557</v>
+      </c>
+      <c r="J48" s="146"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4742,21 +4757,21 @@
       <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="157" t="s">
-        <v>511</v>
-      </c>
-      <c r="D49" s="158"/>
-      <c r="E49" s="115" t="s">
-        <v>454</v>
-      </c>
-      <c r="F49" s="116"/>
-      <c r="G49" s="143"/>
-      <c r="I49" s="147" t="s">
-        <v>575</v>
-      </c>
-      <c r="J49" s="148"/>
+      <c r="C49" s="155" t="s">
+        <v>507</v>
+      </c>
+      <c r="D49" s="156"/>
+      <c r="E49" s="113" t="s">
+        <v>450</v>
+      </c>
+      <c r="F49" s="114"/>
+      <c r="G49" s="141"/>
+      <c r="I49" s="145" t="s">
+        <v>568</v>
+      </c>
+      <c r="J49" s="146"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4774,19 +4789,19 @@
       <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="131"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="161" t="s">
-        <v>576</v>
-      </c>
-      <c r="D50" s="162"/>
+      <c r="C50" s="159" t="s">
+        <v>569</v>
+      </c>
+      <c r="D50" s="160"/>
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
-      <c r="G50" s="143"/>
-      <c r="I50" s="115" t="s">
-        <v>481</v>
-      </c>
-      <c r="J50" s="116"/>
+      <c r="G50" s="141"/>
+      <c r="I50" s="113" t="s">
+        <v>477</v>
+      </c>
+      <c r="J50" s="114"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4804,15 +4819,15 @@
       <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="131"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="112" t="s">
-        <v>498</v>
-      </c>
-      <c r="D51" s="111"/>
+      <c r="C51" s="161" t="s">
+        <v>494</v>
+      </c>
+      <c r="D51" s="162"/>
       <c r="E51" s="69"/>
       <c r="F51" s="69"/>
-      <c r="G51" s="143"/>
+      <c r="G51" s="141"/>
       <c r="I51" s="70"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4831,17 +4846,17 @@
       <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
-      <c r="C52" s="115" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="116"/>
+      <c r="A52" s="130"/>
+      <c r="C52" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="114"/>
       <c r="E52" s="69"/>
       <c r="F52" s="69"/>
-      <c r="G52" s="143"/>
+      <c r="G52" s="141"/>
       <c r="H52" s="25"/>
-      <c r="I52" s="145"/>
-      <c r="J52" s="146"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="144"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -4865,7 +4880,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="143"/>
+      <c r="G53" s="141"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
@@ -4886,11 +4901,11 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="117" t="s">
+      <c r="A54" s="115" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="27"/>
-      <c r="G54" s="143"/>
+      <c r="G54" s="141"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -4908,8 +4923,8 @@
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="118"/>
-      <c r="G55" s="143"/>
+      <c r="A55" s="116"/>
+      <c r="G55" s="141"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4927,7 +4942,7 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="56" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
+      <c r="A56" s="116"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -4953,18 +4968,18 @@
       <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:27" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="118"/>
+      <c r="A57" s="116"/>
       <c r="D57" s="69" t="s">
         <v>46</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F57" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="142" t="s">
-        <v>422</v>
+      <c r="G57" s="140" t="s">
+        <v>418</v>
       </c>
       <c r="H57" s="28" t="s">
         <v>10</v>
@@ -4989,9 +5004,9 @@
       <c r="Y57" s="13"/>
     </row>
     <row r="58" spans="1:27" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="118"/>
+      <c r="A58" s="116"/>
       <c r="C58" s="102" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D58" s="69" t="s">
         <v>49</v>
@@ -4999,9 +5014,9 @@
       <c r="E58" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="143"/>
+      <c r="G58" s="141"/>
       <c r="H58" s="23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I58" s="69" t="s">
         <v>51</v>
@@ -5026,28 +5041,28 @@
       <c r="Y58" s="13"/>
     </row>
     <row r="59" spans="1:27" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="118"/>
+      <c r="A59" s="116"/>
       <c r="C59" s="24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D59" s="98" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="G59" s="143"/>
+        <v>336</v>
+      </c>
+      <c r="G59" s="141"/>
       <c r="H59" s="23" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K59" s="80"/>
       <c r="L59" s="80"/>
@@ -5068,9 +5083,9 @@
       <c r="AA59" s="81"/>
     </row>
     <row r="60" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="118"/>
+      <c r="A60" s="116"/>
       <c r="C60" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D60" s="69" t="s">
         <v>32</v>
@@ -5079,15 +5094,15 @@
       <c r="F60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="143"/>
+      <c r="G60" s="141"/>
       <c r="H60" s="23" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I60" s="69" t="s">
         <v>42</v>
       </c>
       <c r="J60" s="98" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K60" s="80"/>
       <c r="L60" s="80"/>
@@ -5108,25 +5123,25 @@
       <c r="AA60" s="81"/>
     </row>
     <row r="61" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="118"/>
+      <c r="A61" s="116"/>
       <c r="C61" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D61" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="E61" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="102" t="s">
-        <v>288</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G61" s="143"/>
+        <v>286</v>
+      </c>
+      <c r="G61" s="141"/>
       <c r="H61" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I61" s="98" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J61" s="24" t="s">
         <v>53</v>
@@ -5150,28 +5165,28 @@
       <c r="AA61" s="81"/>
     </row>
     <row r="62" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="118"/>
+      <c r="A62" s="116"/>
       <c r="C62" s="23" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D62" s="98" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F62" s="88" t="s">
-        <v>519</v>
-      </c>
-      <c r="G62" s="143"/>
+        <v>515</v>
+      </c>
+      <c r="G62" s="141"/>
       <c r="H62" s="23" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K62" s="80"/>
       <c r="L62" s="80"/>
@@ -5192,23 +5207,23 @@
       <c r="AA62" s="81"/>
     </row>
     <row r="63" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="118"/>
+      <c r="A63" s="116"/>
       <c r="C63" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D63" s="69" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="143"/>
+      <c r="G63" s="141"/>
       <c r="H63" s="23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K63" s="80"/>
       <c r="L63" s="80"/>
@@ -5229,22 +5244,22 @@
       <c r="AA63" s="81"/>
     </row>
     <row r="64" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="118"/>
+      <c r="A64" s="116"/>
       <c r="C64" s="102" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="G64" s="143"/>
+        <v>334</v>
+      </c>
+      <c r="G64" s="141"/>
       <c r="H64" s="23" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K64" s="80"/>
       <c r="L64" s="80"/>
@@ -5265,7 +5280,7 @@
       <c r="AA64" s="81"/>
     </row>
     <row r="65" spans="1:27" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="118"/>
+      <c r="A65" s="116"/>
       <c r="D65" s="23" t="s">
         <v>39</v>
       </c>
@@ -5273,11 +5288,11 @@
         <v>25</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="G65" s="143"/>
+        <v>536</v>
+      </c>
+      <c r="G65" s="141"/>
       <c r="H65" s="23" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I65" s="23"/>
       <c r="K65" s="80"/>
@@ -5299,24 +5314,24 @@
       <c r="AA65" s="81"/>
     </row>
     <row r="66" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="118"/>
+      <c r="A66" s="116"/>
       <c r="B66" s="82"/>
       <c r="C66" s="103" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D66" s="98" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="G66" s="143"/>
+        <v>535</v>
+      </c>
+      <c r="G66" s="141"/>
       <c r="H66" s="23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K66" s="80"/>
       <c r="L66" s="80"/>
@@ -5337,25 +5352,25 @@
       <c r="AA66" s="81"/>
     </row>
     <row r="67" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="118"/>
+      <c r="A67" s="116"/>
       <c r="C67" s="102" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="G67" s="143"/>
+        <v>574</v>
+      </c>
+      <c r="G67" s="141"/>
       <c r="H67" s="23" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I67" s="69" t="s">
         <v>45</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K67" s="80"/>
       <c r="L67" s="80"/>
@@ -5376,25 +5391,25 @@
       <c r="AA67" s="81"/>
     </row>
     <row r="68" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="118"/>
+      <c r="A68" s="116"/>
       <c r="C68" s="90" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F68" s="104" t="s">
-        <v>404</v>
-      </c>
-      <c r="G68" s="143"/>
+        <v>400</v>
+      </c>
+      <c r="G68" s="141"/>
       <c r="H68" s="23" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="J68" s="104" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K68" s="80"/>
       <c r="L68" s="80"/>
@@ -5415,15 +5430,15 @@
       <c r="AA68" s="81"/>
     </row>
     <row r="69" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="118"/>
+      <c r="A69" s="116"/>
       <c r="B69" s="83"/>
-      <c r="C69" s="128" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="129"/>
+      <c r="C69" s="126" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="127"/>
       <c r="G69" s="69"/>
       <c r="H69" s="23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -5442,22 +5457,22 @@
       <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="118"/>
+      <c r="A70" s="116"/>
       <c r="B70" s="83"/>
-      <c r="C70" s="115" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="116"/>
+      <c r="C70" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="114"/>
       <c r="G70" s="164" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="I70" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="J70" s="116"/>
+        <v>365</v>
+      </c>
+      <c r="I70" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="J70" s="114"/>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
@@ -5475,24 +5490,24 @@
       <c r="Y70" s="13"/>
     </row>
     <row r="71" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="118"/>
+      <c r="A71" s="116"/>
       <c r="B71" s="83"/>
-      <c r="C71" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="116"/>
-      <c r="E71" s="115" t="s">
-        <v>461</v>
-      </c>
-      <c r="F71" s="116"/>
+      <c r="C71" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="114"/>
+      <c r="E71" s="113" t="s">
+        <v>457</v>
+      </c>
+      <c r="F71" s="114"/>
       <c r="G71" s="165"/>
       <c r="H71" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="I71" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="J71" s="116"/>
+        <v>420</v>
+      </c>
+      <c r="I71" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="J71" s="114"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
@@ -5510,26 +5525,26 @@
       <c r="Y71" s="13"/>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="118"/>
+      <c r="A72" s="116"/>
       <c r="B72" s="83"/>
-      <c r="C72" s="123" t="s">
-        <v>525</v>
-      </c>
-      <c r="D72" s="124"/>
-      <c r="E72" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="F72" s="116"/>
+      <c r="C72" s="121" t="s">
+        <v>521</v>
+      </c>
+      <c r="D72" s="122"/>
+      <c r="E72" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" s="114"/>
       <c r="G72" s="95" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I72" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="J72" s="116"/>
+        <v>380</v>
+      </c>
+      <c r="I72" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="J72" s="114"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
@@ -5547,24 +5562,24 @@
       <c r="Y72" s="13"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="118"/>
+      <c r="A73" s="116"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" s="116"/>
-      <c r="E73" s="115" t="s">
-        <v>252</v>
-      </c>
-      <c r="F73" s="116"/>
+      <c r="C73" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="114"/>
+      <c r="E73" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="F73" s="114"/>
       <c r="G73" s="69"/>
       <c r="H73" s="105" t="s">
-        <v>512</v>
-      </c>
-      <c r="I73" s="115" t="s">
-        <v>501</v>
-      </c>
-      <c r="J73" s="116"/>
+        <v>508</v>
+      </c>
+      <c r="I73" s="113" t="s">
+        <v>497</v>
+      </c>
+      <c r="J73" s="114"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5582,16 +5597,16 @@
       <c r="Y73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="118"/>
-      <c r="E74" s="147" t="s">
-        <v>564</v>
-      </c>
-      <c r="F74" s="148"/>
+      <c r="A74" s="116"/>
+      <c r="E74" s="145" t="s">
+        <v>558</v>
+      </c>
+      <c r="F74" s="146"/>
       <c r="G74" s="69"/>
-      <c r="I74" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="J74" s="116"/>
+      <c r="I74" s="113" t="s">
+        <v>215</v>
+      </c>
+      <c r="J74" s="114"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5609,19 +5624,19 @@
       <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="118"/>
+      <c r="A75" s="116"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="116"/>
-      <c r="E75" s="133" t="s">
-        <v>249</v>
-      </c>
-      <c r="F75" s="134"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="F75" s="132"/>
       <c r="G75" s="69"/>
-      <c r="I75" s="157" t="s">
-        <v>449</v>
-      </c>
-      <c r="J75" s="158"/>
+      <c r="I75" s="155" t="s">
+        <v>445</v>
+      </c>
+      <c r="J75" s="156"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5639,17 +5654,17 @@
       <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="118"/>
+      <c r="A76" s="116"/>
       <c r="B76" s="6"/>
       <c r="C76" s="70"/>
       <c r="D76" s="71"/>
-      <c r="E76" s="115" t="s">
-        <v>429</v>
-      </c>
-      <c r="F76" s="116"/>
+      <c r="E76" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="F76" s="114"/>
       <c r="G76" s="69"/>
       <c r="J76" s="91" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5694,27 +5709,27 @@
       <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="130" t="s">
+      <c r="A78" s="128" t="s">
         <v>55</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>57</v>
       </c>
       <c r="G78" s="163" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H78" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="69" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -5735,9 +5750,9 @@
       <c r="AA78" s="9"/>
     </row>
     <row r="79" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="131"/>
+      <c r="A79" s="129"/>
       <c r="C79" s="84" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D79" s="69" t="s">
         <v>58</v>
@@ -5746,11 +5761,11 @@
         <v>19</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="G79" s="122"/>
+        <v>339</v>
+      </c>
+      <c r="G79" s="120"/>
       <c r="H79" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I79" s="69" t="s">
         <v>33</v>
@@ -5774,7 +5789,7 @@
       <c r="AA79" s="9"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="131"/>
+      <c r="A80" s="129"/>
       <c r="C80" s="2" t="s">
         <v>62</v>
       </c>
@@ -5787,9 +5802,9 @@
       <c r="F80" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G80" s="122"/>
+      <c r="G80" s="120"/>
       <c r="H80" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>59</v>
@@ -5814,25 +5829,25 @@
       <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="131"/>
+      <c r="A81" s="129"/>
       <c r="C81" s="98" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="G81" s="122"/>
+        <v>290</v>
+      </c>
+      <c r="G81" s="120"/>
       <c r="H81" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I81" s="69" t="s">
         <v>49</v>
       </c>
       <c r="J81" s="69" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5851,25 +5866,25 @@
       <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="131"/>
+      <c r="A82" s="129"/>
       <c r="C82" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D82" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E82" s="102" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F82" s="98" t="s">
-        <v>570</v>
-      </c>
-      <c r="G82" s="122"/>
+        <v>564</v>
+      </c>
+      <c r="G82" s="120"/>
       <c r="H82" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -5887,22 +5902,22 @@
       <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="131"/>
+      <c r="A83" s="129"/>
       <c r="D83" s="98" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G83" s="122"/>
+        <v>292</v>
+      </c>
+      <c r="G83" s="120"/>
       <c r="H83" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="I83" s="98" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J83" s="69" t="s">
         <v>20</v>
@@ -5924,28 +5939,28 @@
       <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="131"/>
+      <c r="A84" s="129"/>
       <c r="C84" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G84" s="120"/>
+      <c r="H84" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J84" s="69" t="s">
         <v>296</v>
-      </c>
-      <c r="G84" s="122"/>
-      <c r="H84" s="73" t="s">
-        <v>396</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J84" s="69" t="s">
-        <v>299</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -5964,28 +5979,28 @@
       <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="131"/>
+      <c r="A85" s="129"/>
       <c r="C85" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G85" s="122"/>
+        <v>294</v>
+      </c>
+      <c r="G85" s="120"/>
       <c r="H85" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -6004,25 +6019,25 @@
       <c r="Y85" s="9"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="131"/>
+      <c r="A86" s="129"/>
       <c r="C86" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E86" s="106" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="G86" s="122"/>
+        <v>530</v>
+      </c>
+      <c r="G86" s="120"/>
       <c r="H86" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K86" s="31"/>
       <c r="L86" s="31"/>
@@ -6043,22 +6058,22 @@
       <c r="AA86" s="31"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="131"/>
+      <c r="A87" s="129"/>
       <c r="E87" s="73" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G87" s="122"/>
+        <v>390</v>
+      </c>
+      <c r="G87" s="120"/>
       <c r="H87" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L87" s="31"/>
       <c r="M87" s="31"/>
@@ -6078,17 +6093,17 @@
       <c r="AA87" s="31"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="131"/>
+      <c r="A88" s="129"/>
       <c r="C88" s="2"/>
       <c r="E88" s="89" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G88" s="122"/>
+        <v>239</v>
+      </c>
+      <c r="G88" s="120"/>
       <c r="H88" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
@@ -6108,19 +6123,19 @@
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="131"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="29"/>
       <c r="G89" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I89" s="73" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J89" s="69" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
@@ -6140,19 +6155,19 @@
       <c r="AA89" s="17"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="131"/>
-      <c r="C90" s="157" t="s">
-        <v>497</v>
-      </c>
-      <c r="D90" s="158"/>
+      <c r="A90" s="129"/>
+      <c r="C90" s="155" t="s">
+        <v>493</v>
+      </c>
+      <c r="D90" s="156"/>
       <c r="G90" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I90" s="89" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -6173,16 +6188,16 @@
       <c r="AA90" s="17"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="131"/>
-      <c r="C91" s="157" t="s">
-        <v>251</v>
-      </c>
-      <c r="D91" s="160"/>
+      <c r="A91" s="129"/>
+      <c r="C91" s="155" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="158"/>
       <c r="H91" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I91" s="73" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -6203,11 +6218,11 @@
       <c r="AA91" s="17"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="131"/>
+      <c r="A92" s="129"/>
       <c r="E92" s="61"/>
       <c r="G92" s="32"/>
       <c r="H92" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J92" s="69"/>
       <c r="K92" s="16"/>
@@ -6229,13 +6244,13 @@
       <c r="AA92" s="17"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="131"/>
+      <c r="A93" s="129"/>
       <c r="C93" s="85" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="78" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J93" s="69"/>
       <c r="K93" s="9"/>
@@ -6255,22 +6270,22 @@
       <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="131"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="D94" s="116"/>
-      <c r="E94" s="115" t="s">
-        <v>216</v>
-      </c>
-      <c r="F94" s="116"/>
+      <c r="C94" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="114"/>
+      <c r="E94" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" s="114"/>
       <c r="G94" s="32"/>
       <c r="H94" s="69"/>
-      <c r="I94" s="115" t="s">
-        <v>193</v>
-      </c>
-      <c r="J94" s="116"/>
+      <c r="I94" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="J94" s="114"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -6288,22 +6303,22 @@
       <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="131"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="115" t="s">
-        <v>459</v>
-      </c>
-      <c r="D95" s="116"/>
-      <c r="E95" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="F95" s="116"/>
+      <c r="C95" s="113" t="s">
+        <v>455</v>
+      </c>
+      <c r="D95" s="114"/>
+      <c r="E95" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" s="114"/>
       <c r="G95" s="32"/>
       <c r="H95" s="69"/>
-      <c r="I95" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="J95" s="116"/>
+      <c r="I95" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J95" s="114"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -6321,21 +6336,21 @@
       <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="131"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="116"/>
-      <c r="E96" s="125" t="s">
-        <v>547</v>
-      </c>
-      <c r="F96" s="122"/>
+      <c r="C96" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D96" s="114"/>
+      <c r="E96" s="123" t="s">
+        <v>541</v>
+      </c>
+      <c r="F96" s="120"/>
       <c r="G96" s="32"/>
-      <c r="H96" s="115" t="s">
-        <v>557</v>
-      </c>
-      <c r="I96" s="116"/>
+      <c r="H96" s="113" t="s">
+        <v>551</v>
+      </c>
+      <c r="I96" s="114"/>
       <c r="J96" s="61"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6354,22 +6369,22 @@
       <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="131"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="115" t="s">
-        <v>499</v>
-      </c>
-      <c r="D97" s="116"/>
-      <c r="E97" s="125" t="s">
-        <v>546</v>
-      </c>
-      <c r="F97" s="122"/>
+      <c r="C97" s="113" t="s">
+        <v>495</v>
+      </c>
+      <c r="D97" s="114"/>
+      <c r="E97" s="123" t="s">
+        <v>540</v>
+      </c>
+      <c r="F97" s="120"/>
       <c r="G97" s="32"/>
       <c r="H97" s="69"/>
-      <c r="I97" s="157" t="s">
-        <v>530</v>
-      </c>
-      <c r="J97" s="158"/>
+      <c r="I97" s="155" t="s">
+        <v>526</v>
+      </c>
+      <c r="J97" s="156"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6387,20 +6402,20 @@
       <c r="Y97" s="9"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="131"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="115" t="s">
-        <v>223</v>
-      </c>
-      <c r="D98" s="116"/>
-      <c r="E98" s="125" t="s">
+      <c r="C98" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="114"/>
+      <c r="E98" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="F98" s="122"/>
+      <c r="F98" s="120"/>
       <c r="G98" s="32"/>
       <c r="H98" s="75"/>
-      <c r="I98" s="145"/>
-      <c r="J98" s="146"/>
+      <c r="I98" s="143"/>
+      <c r="J98" s="144"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -6418,16 +6433,16 @@
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="131"/>
+      <c r="A99" s="129"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="133" t="s">
-        <v>250</v>
-      </c>
-      <c r="D99" s="134"/>
-      <c r="E99" s="133" t="s">
-        <v>406</v>
-      </c>
-      <c r="F99" s="134"/>
+      <c r="C99" s="131" t="s">
+        <v>247</v>
+      </c>
+      <c r="D99" s="132"/>
+      <c r="E99" s="131" t="s">
+        <v>402</v>
+      </c>
+      <c r="F99" s="132"/>
       <c r="G99" s="32"/>
       <c r="H99" s="75"/>
       <c r="J99" s="75"/>
@@ -6448,14 +6463,14 @@
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="131"/>
+      <c r="A100" s="129"/>
       <c r="B100" s="6"/>
       <c r="C100" s="70"/>
       <c r="D100" s="71"/>
-      <c r="E100" s="115" t="s">
-        <v>482</v>
-      </c>
-      <c r="F100" s="116"/>
+      <c r="E100" s="113" t="s">
+        <v>478</v>
+      </c>
+      <c r="F100" s="114"/>
       <c r="G100" s="32"/>
       <c r="H100" s="75"/>
       <c r="I100" s="75"/>
@@ -6477,14 +6492,14 @@
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="131"/>
+      <c r="A101" s="129"/>
       <c r="B101" s="6"/>
       <c r="C101" s="70"/>
       <c r="D101" s="71"/>
-      <c r="E101" s="150" t="s">
-        <v>81</v>
-      </c>
-      <c r="F101" s="150"/>
+      <c r="E101" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="148"/>
       <c r="G101" s="32"/>
       <c r="H101" s="75"/>
       <c r="J101" s="75"/>
@@ -6505,12 +6520,12 @@
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="132"/>
+      <c r="A102" s="130"/>
       <c r="B102" s="6"/>
       <c r="C102" s="70"/>
       <c r="D102" s="71"/>
-      <c r="E102" s="115"/>
-      <c r="F102" s="116"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="114"/>
       <c r="G102" s="32"/>
       <c r="H102" s="75"/>
       <c r="J102" s="75"/>
@@ -6584,27 +6599,27 @@
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="127" t="s">
+      <c r="A105" s="125" t="s">
         <v>65</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="69" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D105" s="69" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F105" s="88" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G105" s="109" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H105" s="34" t="s">
-        <v>66</v>
+        <v>577</v>
       </c>
       <c r="I105" s="69" t="s">
         <v>29</v>
@@ -6629,28 +6644,30 @@
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="122"/>
+      <c r="A106" s="120"/>
       <c r="C106" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D106" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>44</v>
       </c>
       <c r="G106" s="110" t="s">
-        <v>568</v>
-      </c>
-      <c r="H106" s="34"/>
+        <v>562</v>
+      </c>
+      <c r="H106" s="69" t="s">
+        <v>576</v>
+      </c>
       <c r="I106" s="23" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J106" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -6669,30 +6686,27 @@
       <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="122"/>
+      <c r="A107" s="120"/>
       <c r="C107" s="69" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D107" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F107" s="69" t="s">
         <v>50</v>
       </c>
       <c r="G107" s="97" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="J107" s="69" t="s">
-        <v>69</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -6711,27 +6725,27 @@
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="122"/>
+      <c r="A108" s="120"/>
       <c r="C108" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G108" s="142" t="s">
-        <v>422</v>
+        <v>70</v>
+      </c>
+      <c r="G108" s="140" t="s">
+        <v>418</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I108" s="92" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J108" s="69" t="s">
         <v>38</v>
@@ -6753,22 +6767,22 @@
       <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="122"/>
+      <c r="A109" s="120"/>
       <c r="D109" s="98" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G109" s="143"/>
+        <v>441</v>
+      </c>
+      <c r="G109" s="141"/>
       <c r="H109" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -6787,18 +6801,23 @@
       <c r="Y109" s="9"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="122"/>
+      <c r="A110" s="120"/>
       <c r="D110" s="98" t="s">
-        <v>574</v>
+        <v>440</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="143"/>
-      <c r="I110" s="69"/>
+      <c r="G110" s="141"/>
+      <c r="H110" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="J110" s="69"/>
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
@@ -6819,17 +6838,16 @@
       <c r="AA110" s="17"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="122"/>
-      <c r="D111" s="98" t="s">
-        <v>444</v>
+      <c r="A111" s="120"/>
+      <c r="D111" s="23" t="s">
+        <v>346</v>
       </c>
       <c r="F111" s="69" t="s">
-        <v>533</v>
-      </c>
-      <c r="G111" s="143"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="4" t="s">
-        <v>233</v>
+        <v>529</v>
+      </c>
+      <c r="G111" s="141"/>
+      <c r="H111" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="16"/>
@@ -6851,11 +6869,9 @@
       <c r="AA111" s="17"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="122"/>
-      <c r="D112" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="G112" s="143"/>
+      <c r="A112" s="120"/>
+      <c r="D112" s="23"/>
+      <c r="G112" s="141"/>
       <c r="H112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="16"/>
@@ -6877,12 +6893,12 @@
       <c r="AA112" s="17"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="122"/>
+      <c r="A113" s="120"/>
       <c r="C113" s="69"/>
       <c r="E113" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G113" s="143"/>
+        <v>394</v>
+      </c>
+      <c r="G113" s="141"/>
       <c r="H113" s="34"/>
       <c r="J113" s="2"/>
       <c r="K113" s="16"/>
@@ -6904,11 +6920,11 @@
       <c r="AA113" s="17"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="122"/>
+      <c r="A114" s="120"/>
       <c r="E114" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="G114" s="143"/>
+        <v>539</v>
+      </c>
+      <c r="G114" s="141"/>
       <c r="H114" s="36"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
@@ -6929,15 +6945,15 @@
       <c r="AA114" s="17"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="122"/>
+      <c r="A115" s="120"/>
       <c r="D115" s="69"/>
       <c r="E115" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G115" s="143"/>
+        <v>433</v>
+      </c>
+      <c r="G115" s="141"/>
       <c r="H115" s="36"/>
       <c r="J115" s="69"/>
       <c r="K115" s="16"/>
@@ -6959,14 +6975,15 @@
       <c r="AA115" s="17"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="122"/>
+      <c r="A116" s="120"/>
       <c r="E116" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G116" s="143"/>
-      <c r="H116" s="69" t="s">
-        <v>32</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="G116" s="141"/>
+      <c r="H116" s="131" t="s">
+        <v>573</v>
+      </c>
+      <c r="I116" s="132"/>
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
@@ -6986,22 +7003,19 @@
       <c r="AA116" s="17"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="122"/>
+      <c r="A117" s="120"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="115"/>
-      <c r="D117" s="116"/>
-      <c r="E117" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="F117" s="116"/>
-      <c r="G117" s="143"/>
-      <c r="H117" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I117" s="115" t="s">
-        <v>194</v>
-      </c>
-      <c r="J117" s="116"/>
+      <c r="C117" s="113"/>
+      <c r="D117" s="114"/>
+      <c r="E117" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" s="114"/>
+      <c r="G117" s="141"/>
+      <c r="I117" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="J117" s="114"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
@@ -7021,15 +7035,15 @@
       <c r="AA117" s="17"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="122"/>
+      <c r="A118" s="120"/>
       <c r="C118" s="85" t="s">
-        <v>516</v>
-      </c>
-      <c r="G118" s="143"/>
-      <c r="H118" s="147" t="s">
-        <v>457</v>
-      </c>
-      <c r="I118" s="148"/>
+        <v>512</v>
+      </c>
+      <c r="G118" s="141"/>
+      <c r="H118" s="145" t="s">
+        <v>453</v>
+      </c>
+      <c r="I118" s="146"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
@@ -7049,21 +7063,21 @@
       <c r="AA118" s="17"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="122"/>
+      <c r="A119" s="120"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="115" t="s">
-        <v>456</v>
-      </c>
-      <c r="D119" s="116"/>
-      <c r="E119" s="115" t="s">
-        <v>222</v>
-      </c>
-      <c r="F119" s="116"/>
-      <c r="G119" s="143"/>
-      <c r="I119" s="115" t="s">
-        <v>195</v>
-      </c>
-      <c r="J119" s="116"/>
+      <c r="C119" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="114"/>
+      <c r="E119" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="F119" s="114"/>
+      <c r="G119" s="141"/>
+      <c r="I119" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="J119" s="114"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
@@ -7083,22 +7097,22 @@
       <c r="AA119" s="17"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="122"/>
+      <c r="A120" s="120"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="115" t="s">
-        <v>462</v>
-      </c>
-      <c r="D120" s="116"/>
-      <c r="E120" s="133" t="s">
-        <v>413</v>
-      </c>
-      <c r="F120" s="134"/>
+      <c r="C120" s="113" t="s">
+        <v>458</v>
+      </c>
+      <c r="D120" s="114"/>
+      <c r="E120" s="131" t="s">
+        <v>409</v>
+      </c>
+      <c r="F120" s="132"/>
       <c r="G120" s="35"/>
       <c r="H120" s="36"/>
-      <c r="I120" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="J120" s="116"/>
+      <c r="I120" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="J120" s="114"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
@@ -7118,22 +7132,22 @@
       <c r="AA120" s="17"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="122"/>
+      <c r="A121" s="120"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="115" t="s">
-        <v>458</v>
-      </c>
-      <c r="D121" s="116"/>
-      <c r="E121" s="154" t="s">
-        <v>572</v>
-      </c>
-      <c r="F121" s="153"/>
+      <c r="C121" s="113" t="s">
+        <v>454</v>
+      </c>
+      <c r="D121" s="114"/>
+      <c r="E121" s="152" t="s">
+        <v>566</v>
+      </c>
+      <c r="F121" s="151"/>
       <c r="G121" s="35"/>
       <c r="H121" s="36"/>
-      <c r="I121" s="115" t="s">
-        <v>219</v>
-      </c>
-      <c r="J121" s="116"/>
+      <c r="I121" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="J121" s="114"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
@@ -7153,16 +7167,16 @@
       <c r="AA121" s="17"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="122"/>
+      <c r="A122" s="120"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="D122" s="116"/>
-      <c r="E122" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="F122" s="116"/>
+      <c r="C122" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" s="114"/>
+      <c r="E122" s="113" t="s">
+        <v>426</v>
+      </c>
+      <c r="F122" s="114"/>
       <c r="G122" s="35"/>
       <c r="H122" s="36"/>
       <c r="K122" s="16"/>
@@ -7184,20 +7198,20 @@
       <c r="AA122" s="17"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="122"/>
+      <c r="A123" s="120"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="115" t="s">
-        <v>221</v>
-      </c>
-      <c r="D123" s="116"/>
-      <c r="E123" s="150" t="s">
-        <v>464</v>
-      </c>
-      <c r="F123" s="122"/>
+      <c r="C123" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="D123" s="114"/>
+      <c r="E123" s="148" t="s">
+        <v>460</v>
+      </c>
+      <c r="F123" s="120"/>
       <c r="G123" s="35"/>
       <c r="H123" s="36"/>
-      <c r="I123" s="157"/>
-      <c r="J123" s="158"/>
+      <c r="I123" s="155"/>
+      <c r="J123" s="156"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
@@ -7217,20 +7231,20 @@
       <c r="AA123" s="17"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="122"/>
+      <c r="A124" s="120"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="152" t="s">
-        <v>566</v>
-      </c>
-      <c r="D124" s="153"/>
+      <c r="C124" s="150" t="s">
+        <v>560</v>
+      </c>
+      <c r="D124" s="151"/>
       <c r="G124" s="35"/>
       <c r="H124" s="101" t="s">
-        <v>425</v>
-      </c>
-      <c r="I124" s="152" t="s">
-        <v>578</v>
-      </c>
-      <c r="J124" s="148"/>
+        <v>421</v>
+      </c>
+      <c r="I124" s="150" t="s">
+        <v>571</v>
+      </c>
+      <c r="J124" s="146"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
@@ -7250,16 +7264,16 @@
       <c r="AA124" s="17"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="122"/>
+      <c r="A125" s="120"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="115"/>
-      <c r="D125" s="116"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="114"/>
       <c r="G125" s="35"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="159" t="s">
-        <v>577</v>
-      </c>
-      <c r="J125" s="146"/>
+      <c r="I125" s="157" t="s">
+        <v>570</v>
+      </c>
+      <c r="J125" s="144"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
@@ -7279,10 +7293,10 @@
       <c r="AA125" s="17"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="122"/>
+      <c r="A126" s="120"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="115"/>
-      <c r="D126" s="116"/>
+      <c r="C126" s="113"/>
+      <c r="D126" s="114"/>
       <c r="G126" s="35"/>
       <c r="H126" s="36"/>
       <c r="K126" s="16"/>
@@ -7304,7 +7318,7 @@
       <c r="AA126" s="17"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="122"/>
+      <c r="A127" s="120"/>
       <c r="B127" s="6"/>
       <c r="C127" s="70"/>
       <c r="D127" s="71"/>
@@ -7382,22 +7396,20 @@
       <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="130" t="s">
-        <v>73</v>
+      <c r="A130" s="128" t="s">
+        <v>71</v>
       </c>
       <c r="B130" s="74"/>
       <c r="C130" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F130" s="40" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F130" s="40"/>
       <c r="G130" s="35"/>
       <c r="H130" s="75"/>
       <c r="I130" s="41"/>
@@ -7419,19 +7431,19 @@
       <c r="Y130" s="9"/>
     </row>
     <row r="131" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="131"/>
+      <c r="A131" s="129"/>
       <c r="C131" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E131" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H131" s="11"/>
-      <c r="I131" s="151"/>
-      <c r="J131" s="122"/>
+      <c r="I131" s="149"/>
+      <c r="J131" s="120"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
@@ -7449,15 +7461,15 @@
       <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="131"/>
+      <c r="A132" s="129"/>
       <c r="C132" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D132" s="79" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F132" s="88" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H132" s="11"/>
       <c r="I132" s="41"/>
@@ -7479,15 +7491,15 @@
       <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="131"/>
+      <c r="A133" s="129"/>
       <c r="C133" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D133" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -7509,12 +7521,12 @@
       <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="131"/>
+      <c r="A134" s="129"/>
       <c r="C134" s="15" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>64</v>
@@ -7539,15 +7551,15 @@
       <c r="Y134" s="9"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="131"/>
+      <c r="A135" s="129"/>
       <c r="C135" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I135" s="42"/>
       <c r="J135" s="75"/>
@@ -7568,15 +7580,15 @@
       <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="131"/>
+      <c r="A136" s="129"/>
       <c r="C136" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E136" s="98" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G136" s="2"/>
       <c r="I136" s="43"/>
@@ -7598,15 +7610,15 @@
       <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="131"/>
-      <c r="C137" s="121" t="s">
-        <v>537</v>
+      <c r="A137" s="129"/>
+      <c r="C137" s="119" t="s">
+        <v>533</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E137" s="99" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G137" s="2"/>
       <c r="I137" s="43"/>
@@ -7628,15 +7640,15 @@
       <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="131"/>
-      <c r="C138" s="122"/>
+      <c r="A138" s="129"/>
+      <c r="C138" s="120"/>
       <c r="D138" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E138" s="115" t="s">
-        <v>201</v>
-      </c>
-      <c r="F138" s="116"/>
+        <v>323</v>
+      </c>
+      <c r="E138" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="F138" s="114"/>
       <c r="G138" s="2"/>
       <c r="H138" s="43"/>
       <c r="I138" s="43"/>
@@ -7658,14 +7670,14 @@
       <c r="Y138" s="9"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="131"/>
+      <c r="A139" s="129"/>
       <c r="C139" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F139" s="125" t="s">
-        <v>487</v>
-      </c>
-      <c r="G139" s="122"/>
+        <v>240</v>
+      </c>
+      <c r="F139" s="123" t="s">
+        <v>483</v>
+      </c>
+      <c r="G139" s="120"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
       <c r="J139" s="11"/>
@@ -7686,14 +7698,14 @@
       <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="131"/>
+      <c r="A140" s="129"/>
       <c r="C140" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F140" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="G140" s="122"/>
+        <v>241</v>
+      </c>
+      <c r="F140" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="G140" s="120"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
       <c r="J140" s="11"/>
@@ -7714,15 +7726,15 @@
       <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="131"/>
+      <c r="A141" s="129"/>
       <c r="C141" s="107" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E141" s="61"/>
-      <c r="F141" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="G141" s="122"/>
+      <c r="F141" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="G141" s="120"/>
       <c r="H141" s="43"/>
       <c r="I141" s="43"/>
       <c r="J141" s="11"/>
@@ -7743,9 +7755,9 @@
       <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="131"/>
+      <c r="A142" s="129"/>
       <c r="E142" s="85" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G142" s="35"/>
       <c r="H142" s="43"/>
@@ -7768,12 +7780,12 @@
       <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="131"/>
+      <c r="A143" s="129"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="115" t="s">
-        <v>209</v>
-      </c>
-      <c r="E143" s="116"/>
+      <c r="D143" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="E143" s="114"/>
       <c r="H143" s="43"/>
       <c r="I143" s="43"/>
       <c r="J143" s="11"/>
@@ -7794,16 +7806,16 @@
       <c r="Y143" s="9"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="131"/>
+      <c r="A144" s="129"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="115" t="s">
-        <v>196</v>
-      </c>
-      <c r="E144" s="116"/>
-      <c r="F144" s="133" t="s">
-        <v>248</v>
-      </c>
-      <c r="G144" s="134"/>
+      <c r="D144" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="E144" s="114"/>
+      <c r="F144" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="G144" s="132"/>
       <c r="H144" s="43"/>
       <c r="I144" s="43"/>
       <c r="J144" s="11"/>
@@ -7824,16 +7836,16 @@
       <c r="Y144" s="9"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="131"/>
+      <c r="A145" s="129"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="155" t="s">
-        <v>197</v>
-      </c>
-      <c r="E145" s="156"/>
-      <c r="F145" s="135" t="s">
-        <v>571</v>
-      </c>
-      <c r="G145" s="136"/>
+      <c r="D145" s="153" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" s="154"/>
+      <c r="F145" s="133" t="s">
+        <v>565</v>
+      </c>
+      <c r="G145" s="134"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
       <c r="J145" s="11"/>
@@ -7854,16 +7866,16 @@
       <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="131"/>
+      <c r="A146" s="129"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="E146" s="116"/>
-      <c r="F146" s="137" t="s">
-        <v>483</v>
-      </c>
-      <c r="G146" s="138"/>
+      <c r="D146" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="E146" s="114"/>
+      <c r="F146" s="135" t="s">
+        <v>479</v>
+      </c>
+      <c r="G146" s="136"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
       <c r="J146" s="11"/>
@@ -7884,12 +7896,12 @@
       <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="131"/>
+      <c r="A147" s="129"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="E147" s="116"/>
+      <c r="D147" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="E147" s="114"/>
       <c r="H147" s="43"/>
       <c r="I147" s="43"/>
       <c r="J147" s="11"/>
@@ -7910,12 +7922,12 @@
       <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="131"/>
+      <c r="A148" s="129"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="119" t="s">
-        <v>573</v>
-      </c>
-      <c r="E148" s="120"/>
+      <c r="D148" s="117" t="s">
+        <v>567</v>
+      </c>
+      <c r="E148" s="118"/>
       <c r="H148" s="43"/>
       <c r="I148" s="43"/>
       <c r="J148" s="11"/>
@@ -7936,12 +7948,12 @@
       <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="131"/>
+      <c r="A149" s="129"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="125" t="s">
-        <v>549</v>
-      </c>
-      <c r="E149" s="122"/>
+      <c r="D149" s="123" t="s">
+        <v>543</v>
+      </c>
+      <c r="E149" s="120"/>
       <c r="F149" s="2"/>
       <c r="G149" s="35"/>
       <c r="H149" s="11"/>
@@ -7964,12 +7976,12 @@
       <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="131"/>
+      <c r="A150" s="129"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="125" t="s">
-        <v>548</v>
-      </c>
-      <c r="E150" s="122"/>
+      <c r="D150" s="123" t="s">
+        <v>542</v>
+      </c>
+      <c r="E150" s="120"/>
       <c r="F150" s="2"/>
       <c r="G150" s="32"/>
       <c r="H150" s="11"/>
@@ -7992,12 +8004,12 @@
       <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="131"/>
+      <c r="A151" s="129"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="E151" s="122"/>
+      <c r="D151" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="E151" s="120"/>
       <c r="F151" s="2"/>
       <c r="G151" s="32"/>
       <c r="H151" s="11"/>
@@ -8020,12 +8032,12 @@
       <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="132"/>
+      <c r="A152" s="130"/>
       <c r="C152" s="2"/>
-      <c r="E152" s="115" t="s">
-        <v>508</v>
-      </c>
-      <c r="F152" s="116"/>
+      <c r="E152" s="113" t="s">
+        <v>504</v>
+      </c>
+      <c r="F152" s="114"/>
       <c r="G152" s="32"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -8077,23 +8089,23 @@
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D154" s="75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E154" s="75" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F154" s="75"/>
       <c r="G154" s="75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H154" s="75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I154" s="75" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J154" s="44"/>
       <c r="K154" s="9"/>
@@ -8144,17 +8156,17 @@
       <c r="C156" s="47"/>
       <c r="D156" s="48"/>
       <c r="E156" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -8177,20 +8189,20 @@
       <c r="B157" s="9"/>
       <c r="C157" s="49"/>
       <c r="D157" s="50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E157" s="51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J157" s="48"/>
       <c r="K157" s="9"/>
@@ -8213,23 +8225,23 @@
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="108" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D158" s="108" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E158" s="53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -8251,23 +8263,23 @@
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D159" s="52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E159" s="53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -8289,23 +8301,23 @@
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D160" s="52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E160" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I160" s="87" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -8327,23 +8339,23 @@
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D161" s="68" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E161" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F161" s="13"/>
       <c r="G161" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -8365,23 +8377,23 @@
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E162" s="55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -8403,13 +8415,13 @@
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E163" s="55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
@@ -8435,13 +8447,13 @@
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E164" s="55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
@@ -8468,23 +8480,23 @@
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D165" s="56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E165" s="57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F165" s="13"/>
       <c r="G165" s="58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H165" s="59" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I165" s="59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -8506,23 +8518,23 @@
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D166" s="56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E166" s="57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F166" s="13"/>
       <c r="G166" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H166" s="59" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I166" s="59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J166" s="69"/>
       <c r="K166" s="9"/>
@@ -8549,13 +8561,13 @@
       <c r="E167" s="53"/>
       <c r="F167" s="13"/>
       <c r="G167" s="60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H167" s="59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I167" s="59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
@@ -8577,23 +8589,23 @@
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H168" s="59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I168" s="59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -8615,23 +8627,23 @@
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F169" s="13"/>
       <c r="G169" s="58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H169" s="59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I169" s="59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J169" s="13"/>
       <c r="K169" s="9"/>
@@ -8654,23 +8666,23 @@
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F170" s="13"/>
       <c r="G170" s="58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H170" s="59" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I170" s="59" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J170" s="13"/>
       <c r="K170" s="9"/>
@@ -8693,23 +8705,23 @@
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E171" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F171" s="13"/>
       <c r="G171" s="58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H171" s="59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I171" s="59" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J171" s="13"/>
       <c r="K171" s="9"/>
@@ -8732,23 +8744,23 @@
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F172" s="13"/>
       <c r="G172" s="58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H172" s="58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I172" s="58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J172" s="13"/>
       <c r="K172" s="9"/>
@@ -8771,23 +8783,23 @@
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E173" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H173" s="58" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I173" s="58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J173" s="13"/>
       <c r="K173" s="9"/>
@@ -8810,23 +8822,23 @@
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E174" s="87" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F174" s="13"/>
       <c r="G174" s="58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H174" s="58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I174" s="58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J174" s="13"/>
       <c r="K174" s="9"/>
@@ -8849,23 +8861,23 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F175" s="13"/>
       <c r="G175" s="58" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H175" s="58" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I175" s="58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J175" s="13"/>
       <c r="K175" s="9"/>
@@ -8892,13 +8904,13 @@
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="58" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H176" s="58" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I176" s="58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J176" s="13"/>
       <c r="K176" s="9"/>
@@ -8979,13 +8991,13 @@
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J179" s="13"/>
       <c r="K179" s="9"/>
@@ -9012,13 +9024,13 @@
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J180" s="13"/>
       <c r="K180" s="9"/>
@@ -9046,10 +9058,10 @@
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
       <c r="H181" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="9"/>
@@ -9077,10 +9089,10 @@
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
       <c r="H182" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J182" s="13"/>
       <c r="K182" s="9"/>
@@ -9108,10 +9120,10 @@
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
       <c r="H183" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J183" s="13"/>
       <c r="K183" s="9"/>
@@ -9334,7 +9346,7 @@
       <c r="C192" s="58"/>
       <c r="D192" s="58"/>
       <c r="E192" s="58"/>
-      <c r="F192" s="149"/>
+      <c r="F192" s="147"/>
       <c r="J192" s="13"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
@@ -9358,7 +9370,7 @@
       <c r="C193" s="58"/>
       <c r="D193" s="58"/>
       <c r="E193" s="58"/>
-      <c r="F193" s="122"/>
+      <c r="F193" s="120"/>
       <c r="J193" s="13"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -9409,7 +9421,7 @@
       <c r="C195" s="58"/>
       <c r="D195" s="58"/>
       <c r="E195" s="58"/>
-      <c r="F195" s="149"/>
+      <c r="F195" s="147"/>
       <c r="G195" s="9"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
@@ -9436,7 +9448,7 @@
       <c r="C196" s="58"/>
       <c r="D196" s="58"/>
       <c r="E196" s="58"/>
-      <c r="F196" s="122"/>
+      <c r="F196" s="120"/>
       <c r="G196" s="9"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
@@ -13009,7 +13021,8 @@
     <row r="1059" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="133">
+    <mergeCell ref="H116:I116"/>
     <mergeCell ref="A130:A152"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="G78:G88"/>
@@ -13045,6 +13058,7 @@
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="I124:J124"/>
     <mergeCell ref="H96:I96"/>
     <mergeCell ref="I48:J48"/>
